--- a/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>BCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4504700</v>
+        <v>4127600</v>
       </c>
       <c r="E8" s="3">
-        <v>4464000</v>
+        <v>4589800</v>
       </c>
       <c r="F8" s="3">
-        <v>4316500</v>
+        <v>4348500</v>
       </c>
       <c r="G8" s="3">
-        <v>4678600</v>
+        <v>4309300</v>
       </c>
       <c r="H8" s="3">
-        <v>4424100</v>
+        <v>4166800</v>
       </c>
       <c r="I8" s="3">
+        <v>4516400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4270800</v>
+      </c>
+      <c r="K8" s="3">
         <v>8563700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4208100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4492100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4239800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4233100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4099300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4380400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4153800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1341500</v>
+        <v>1205600</v>
       </c>
       <c r="E9" s="3">
-        <v>1289500</v>
+        <v>1555100</v>
       </c>
       <c r="F9" s="3">
-        <v>1313600</v>
+        <v>1295000</v>
       </c>
       <c r="G9" s="3">
-        <v>1614700</v>
+        <v>1244800</v>
       </c>
       <c r="H9" s="3">
-        <v>1343700</v>
+        <v>1268100</v>
       </c>
       <c r="I9" s="3">
+        <v>1558800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1297100</v>
+      </c>
+      <c r="K9" s="3">
         <v>2582100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1287300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1511500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1248800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1248800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1249900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1514900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1236900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3163200</v>
+        <v>2922000</v>
       </c>
       <c r="E10" s="3">
-        <v>3174500</v>
+        <v>3034700</v>
       </c>
       <c r="F10" s="3">
-        <v>3002900</v>
+        <v>3053600</v>
       </c>
       <c r="G10" s="3">
-        <v>3063900</v>
+        <v>3064500</v>
       </c>
       <c r="H10" s="3">
-        <v>3080400</v>
+        <v>2898800</v>
       </c>
       <c r="I10" s="3">
+        <v>2957600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2973600</v>
+      </c>
+      <c r="K10" s="3">
         <v>5981700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2920800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2980600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2991000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2984300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2849400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2865500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2917000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>18100</v>
+        <v>23300</v>
       </c>
       <c r="E14" s="3">
-        <v>43700</v>
+        <v>90100</v>
       </c>
       <c r="F14" s="3">
-        <v>21100</v>
+        <v>17400</v>
       </c>
       <c r="G14" s="3">
-        <v>190500</v>
+        <v>42100</v>
       </c>
       <c r="H14" s="3">
-        <v>41400</v>
+        <v>20300</v>
       </c>
       <c r="I14" s="3">
+        <v>183900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K14" s="3">
         <v>34600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>96000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>29000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>29800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>64500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>15400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>821300</v>
+        <v>800800</v>
       </c>
       <c r="E15" s="3">
-        <v>836300</v>
+        <v>794300</v>
       </c>
       <c r="F15" s="3">
-        <v>830300</v>
+        <v>792800</v>
       </c>
       <c r="G15" s="3">
-        <v>764100</v>
+        <v>807400</v>
       </c>
       <c r="H15" s="3">
-        <v>752000</v>
+        <v>801500</v>
       </c>
       <c r="I15" s="3">
+        <v>737600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>726000</v>
+      </c>
+      <c r="K15" s="3">
         <v>1505600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>746800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>737500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>719700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>727100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>698300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>679100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3391300</v>
+        <v>3182900</v>
       </c>
       <c r="E17" s="3">
-        <v>3390600</v>
+        <v>3651600</v>
       </c>
       <c r="F17" s="3">
-        <v>3354400</v>
+        <v>3273700</v>
       </c>
       <c r="G17" s="3">
-        <v>3830900</v>
+        <v>3273000</v>
       </c>
       <c r="H17" s="3">
-        <v>3369500</v>
+        <v>3238100</v>
       </c>
       <c r="I17" s="3">
+        <v>3698100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3252700</v>
+      </c>
+      <c r="K17" s="3">
         <v>6577900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3261100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3592300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3198600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3217200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3198100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3445500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3121300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1113400</v>
+        <v>944700</v>
       </c>
       <c r="E18" s="3">
-        <v>1073500</v>
+        <v>938200</v>
       </c>
       <c r="F18" s="3">
-        <v>962100</v>
+        <v>1074800</v>
       </c>
       <c r="G18" s="3">
-        <v>847600</v>
+        <v>1036300</v>
       </c>
       <c r="H18" s="3">
-        <v>1054700</v>
+        <v>928700</v>
       </c>
       <c r="I18" s="3">
+        <v>818300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1018100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1985900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>947000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>899700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1041100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1015800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>901100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>934900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1032500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>34600</v>
+        <v>-31200</v>
       </c>
       <c r="E20" s="3">
-        <v>-39100</v>
+        <v>-28300</v>
       </c>
       <c r="F20" s="3">
-        <v>67000</v>
+        <v>33400</v>
       </c>
       <c r="G20" s="3">
-        <v>14300</v>
+        <v>-37800</v>
       </c>
       <c r="H20" s="3">
-        <v>-41400</v>
+        <v>64700</v>
       </c>
       <c r="I20" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-121200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-55700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-43200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-11200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-31500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1969300</v>
+        <v>1714300</v>
       </c>
       <c r="E21" s="3">
-        <v>1870700</v>
+        <v>1704100</v>
       </c>
       <c r="F21" s="3">
-        <v>1859400</v>
+        <v>1901000</v>
       </c>
       <c r="G21" s="3">
-        <v>1626000</v>
+        <v>1805800</v>
       </c>
       <c r="H21" s="3">
-        <v>1765300</v>
+        <v>1794900</v>
       </c>
       <c r="I21" s="3">
+        <v>1569700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1704100</v>
+      </c>
+      <c r="K21" s="3">
         <v>3370200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1638100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1638800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1717600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1733300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1597200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1582600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1673200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>212300</v>
+        <v>202700</v>
       </c>
       <c r="E22" s="3">
-        <v>211500</v>
+        <v>207800</v>
       </c>
       <c r="F22" s="3">
-        <v>213000</v>
+        <v>204900</v>
       </c>
       <c r="G22" s="3">
-        <v>195000</v>
+        <v>204200</v>
       </c>
       <c r="H22" s="3">
-        <v>192000</v>
+        <v>205700</v>
       </c>
       <c r="I22" s="3">
+        <v>188200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>185300</v>
+      </c>
+      <c r="K22" s="3">
         <v>365900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>180700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>179400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>180100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>177100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>179800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>172900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>935700</v>
+        <v>710700</v>
       </c>
       <c r="E23" s="3">
-        <v>822800</v>
+        <v>702000</v>
       </c>
       <c r="F23" s="3">
-        <v>816000</v>
+        <v>903300</v>
       </c>
       <c r="G23" s="3">
-        <v>667000</v>
+        <v>794300</v>
       </c>
       <c r="H23" s="3">
-        <v>821300</v>
+        <v>787700</v>
       </c>
       <c r="I23" s="3">
+        <v>643800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>792800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1498800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>710600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>721900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>817900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>827600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>720600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>730600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>832800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>241600</v>
+        <v>178000</v>
       </c>
       <c r="E24" s="3">
-        <v>207800</v>
+        <v>176600</v>
       </c>
       <c r="F24" s="3">
-        <v>220600</v>
+        <v>233300</v>
       </c>
       <c r="G24" s="3">
-        <v>183700</v>
+        <v>200600</v>
       </c>
       <c r="H24" s="3">
-        <v>168600</v>
+        <v>212900</v>
       </c>
       <c r="I24" s="3">
+        <v>177300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>162800</v>
+      </c>
+      <c r="K24" s="3">
         <v>396700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>176900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>202400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>185300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>221800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>192100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>193600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>694100</v>
+        <v>532700</v>
       </c>
       <c r="E26" s="3">
-        <v>615000</v>
+        <v>525400</v>
       </c>
       <c r="F26" s="3">
-        <v>595500</v>
+        <v>670000</v>
       </c>
       <c r="G26" s="3">
-        <v>483300</v>
+        <v>593700</v>
       </c>
       <c r="H26" s="3">
-        <v>652700</v>
+        <v>574800</v>
       </c>
       <c r="I26" s="3">
+        <v>466500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>630000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1102100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>533700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>519500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>632600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>605800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>528500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>537000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>614600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>652700</v>
+        <v>494100</v>
       </c>
       <c r="E27" s="3">
-        <v>572900</v>
+        <v>488300</v>
       </c>
       <c r="F27" s="3">
-        <v>557100</v>
+        <v>630000</v>
       </c>
       <c r="G27" s="3">
-        <v>456200</v>
+        <v>553000</v>
       </c>
       <c r="H27" s="3">
-        <v>612800</v>
+        <v>537800</v>
       </c>
       <c r="I27" s="3">
+        <v>440400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>591500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1027600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>497600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>488200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>597600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>569300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>493200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>504700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-34600</v>
+        <v>31200</v>
       </c>
       <c r="E32" s="3">
-        <v>39100</v>
+        <v>28300</v>
       </c>
       <c r="F32" s="3">
-        <v>-67000</v>
+        <v>-33400</v>
       </c>
       <c r="G32" s="3">
-        <v>-14300</v>
+        <v>37800</v>
       </c>
       <c r="H32" s="3">
-        <v>41400</v>
+        <v>-64700</v>
       </c>
       <c r="I32" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K32" s="3">
         <v>121200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>55700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>43200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>11200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>31500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>652700</v>
+        <v>494100</v>
       </c>
       <c r="E33" s="3">
-        <v>572900</v>
+        <v>488300</v>
       </c>
       <c r="F33" s="3">
-        <v>557100</v>
+        <v>630000</v>
       </c>
       <c r="G33" s="3">
-        <v>456200</v>
+        <v>553000</v>
       </c>
       <c r="H33" s="3">
-        <v>612800</v>
+        <v>537800</v>
       </c>
       <c r="I33" s="3">
+        <v>440400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>591500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1027600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>497600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>488200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>597600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>569300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>493200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>504700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>652700</v>
+        <v>494100</v>
       </c>
       <c r="E35" s="3">
-        <v>572900</v>
+        <v>488300</v>
       </c>
       <c r="F35" s="3">
-        <v>557100</v>
+        <v>630000</v>
       </c>
       <c r="G35" s="3">
-        <v>456200</v>
+        <v>553000</v>
       </c>
       <c r="H35" s="3">
-        <v>612800</v>
+        <v>537800</v>
       </c>
       <c r="I35" s="3">
+        <v>440400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>591500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1027600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>497600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>488200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>597600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>569300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>493200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>504700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>727200</v>
+        <v>1946800</v>
       </c>
       <c r="E41" s="3">
-        <v>823600</v>
+        <v>105400</v>
       </c>
       <c r="F41" s="3">
-        <v>502900</v>
+        <v>702000</v>
       </c>
       <c r="G41" s="3">
-        <v>319900</v>
+        <v>795000</v>
       </c>
       <c r="H41" s="3">
-        <v>621800</v>
+        <v>485400</v>
       </c>
       <c r="I41" s="3">
+        <v>308800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>600200</v>
+      </c>
+      <c r="K41" s="3">
         <v>293600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>902600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>465100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1472800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>414500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>391800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>655300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1070100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,316 +2234,364 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2947200</v>
+        <v>753600</v>
       </c>
       <c r="E43" s="3">
-        <v>2998400</v>
+        <v>807400</v>
       </c>
       <c r="F43" s="3">
-        <v>2947200</v>
+        <v>762300</v>
       </c>
       <c r="G43" s="3">
-        <v>3005900</v>
+        <v>730300</v>
       </c>
       <c r="H43" s="3">
-        <v>2901300</v>
+        <v>710700</v>
       </c>
       <c r="I43" s="3">
+        <v>717200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>658400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2851600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2841000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2947800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2131400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2117300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2164900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2288600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2473700</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>363600</v>
+        <v>353900</v>
       </c>
       <c r="E44" s="3">
-        <v>366600</v>
+        <v>310300</v>
       </c>
       <c r="F44" s="3">
-        <v>355300</v>
+        <v>351000</v>
       </c>
       <c r="G44" s="3">
+        <v>353900</v>
+      </c>
+      <c r="H44" s="3">
+        <v>343000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>313900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>356800</v>
+      </c>
+      <c r="K44" s="3">
+        <v>328200</v>
+      </c>
+      <c r="L44" s="3">
+        <v>333500</v>
+      </c>
+      <c r="M44" s="3">
+        <v>282800</v>
+      </c>
+      <c r="N44" s="3">
         <v>325200</v>
       </c>
-      <c r="H44" s="3">
-        <v>369600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>328200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>333500</v>
-      </c>
-      <c r="K44" s="3">
-        <v>282800</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>325200</v>
       </c>
-      <c r="M44" s="3">
-        <v>325200</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>328800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>309600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>670700</v>
+        <v>810300</v>
       </c>
       <c r="E45" s="3">
-        <v>696300</v>
+        <v>580600</v>
       </c>
       <c r="F45" s="3">
-        <v>737000</v>
+        <v>647500</v>
       </c>
       <c r="G45" s="3">
+        <v>672200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>711400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>685300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>603900</v>
+      </c>
+      <c r="K45" s="3">
         <v>709900</v>
       </c>
-      <c r="H45" s="3">
-        <v>625600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>709900</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>639900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>512800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>486000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>499400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>749800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>476300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4708700</v>
+        <v>6037300</v>
       </c>
       <c r="E46" s="3">
-        <v>4884900</v>
+        <v>4011300</v>
       </c>
       <c r="F46" s="3">
-        <v>4542300</v>
+        <v>4545400</v>
       </c>
       <c r="G46" s="3">
-        <v>4360900</v>
+        <v>4715500</v>
       </c>
       <c r="H46" s="3">
-        <v>4518200</v>
+        <v>4384800</v>
       </c>
       <c r="I46" s="3">
+        <v>4209700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4361600</v>
+      </c>
+      <c r="K46" s="3">
         <v>4183300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4717000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4208500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4415400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3356400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3635300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3729800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4348200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>904100</v>
+        <v>858900</v>
       </c>
       <c r="E47" s="3">
-        <v>915400</v>
+        <v>894600</v>
       </c>
       <c r="F47" s="3">
-        <v>963600</v>
+        <v>872800</v>
       </c>
       <c r="G47" s="3">
-        <v>981600</v>
+        <v>883700</v>
       </c>
       <c r="H47" s="3">
-        <v>910900</v>
+        <v>930200</v>
       </c>
       <c r="I47" s="3">
+        <v>947600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>879300</v>
+      </c>
+      <c r="K47" s="3">
         <v>916100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>935700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>926500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>616200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>657100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>675300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>654500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>793600</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20610600</v>
+        <v>19934600</v>
       </c>
       <c r="E48" s="3">
-        <v>20637700</v>
+        <v>20082800</v>
       </c>
       <c r="F48" s="3">
-        <v>20533100</v>
+        <v>19896000</v>
       </c>
       <c r="G48" s="3">
-        <v>18702300</v>
+        <v>19922200</v>
       </c>
       <c r="H48" s="3">
-        <v>18613500</v>
+        <v>19821200</v>
       </c>
       <c r="I48" s="3">
+        <v>18053900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>17968100</v>
+      </c>
+      <c r="K48" s="3">
         <v>18362100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>18194200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>17882600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>17678000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>17552900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>18015000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>17166900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>16807300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18166300</v>
+        <v>17571400</v>
       </c>
       <c r="E49" s="3">
-        <v>17996200</v>
+        <v>17454400</v>
       </c>
       <c r="F49" s="3">
-        <v>18011300</v>
+        <v>17536500</v>
       </c>
       <c r="G49" s="3">
-        <v>17963800</v>
+        <v>17372300</v>
       </c>
       <c r="H49" s="3">
-        <v>18077500</v>
+        <v>17386800</v>
       </c>
       <c r="I49" s="3">
+        <v>17341000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>17450700</v>
+      </c>
+      <c r="K49" s="3">
         <v>18048100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>18031600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>17627400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>17799300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>17711500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>18239300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>16099000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>15574300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1248900</v>
+        <v>3206900</v>
       </c>
       <c r="E52" s="3">
-        <v>893600</v>
+        <v>1264400</v>
       </c>
       <c r="F52" s="3">
-        <v>996700</v>
+        <v>1205600</v>
       </c>
       <c r="G52" s="3">
-        <v>975600</v>
+        <v>862600</v>
       </c>
       <c r="H52" s="3">
-        <v>1281200</v>
+        <v>962100</v>
       </c>
       <c r="I52" s="3">
+        <v>941800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1236800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1067500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>765600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>883400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>843200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>605800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>803600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>844300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>695200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>45638600</v>
+        <v>47609100</v>
       </c>
       <c r="E54" s="3">
-        <v>45327700</v>
+        <v>43707500</v>
       </c>
       <c r="F54" s="3">
-        <v>45047000</v>
+        <v>44056300</v>
       </c>
       <c r="G54" s="3">
-        <v>42984300</v>
+        <v>43756200</v>
       </c>
       <c r="H54" s="3">
-        <v>43401400</v>
+        <v>43485100</v>
       </c>
       <c r="I54" s="3">
+        <v>41494000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>41896600</v>
+      </c>
+      <c r="K54" s="3">
         <v>42577000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>42644000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>41528400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>41352000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>39883700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>41368400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>38494500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>38218700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2747700</v>
+        <v>2423500</v>
       </c>
       <c r="E57" s="3">
-        <v>2800400</v>
+        <v>2873300</v>
       </c>
       <c r="F57" s="3">
-        <v>2717600</v>
+        <v>2652400</v>
       </c>
       <c r="G57" s="3">
-        <v>2966700</v>
+        <v>2703300</v>
       </c>
       <c r="H57" s="3">
-        <v>2844000</v>
+        <v>2623400</v>
       </c>
       <c r="I57" s="3">
+        <v>2863900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2745400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2712300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2660400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2883800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3326600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3177800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3106700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3323400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3092100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3559200</v>
+        <v>3058600</v>
       </c>
       <c r="E58" s="3">
-        <v>4272800</v>
+        <v>2820300</v>
       </c>
       <c r="F58" s="3">
-        <v>4129100</v>
+        <v>3435800</v>
       </c>
       <c r="G58" s="3">
-        <v>3496700</v>
+        <v>4124700</v>
       </c>
       <c r="H58" s="3">
-        <v>3671400</v>
+        <v>3985900</v>
       </c>
       <c r="I58" s="3">
+        <v>3375500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3544100</v>
+      </c>
+      <c r="K58" s="3">
         <v>4315000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4155400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3853500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4527000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4420600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4844500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3754300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3834200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1504800</v>
+        <v>1358900</v>
       </c>
       <c r="E59" s="3">
-        <v>1464900</v>
+        <v>1411200</v>
       </c>
       <c r="F59" s="3">
-        <v>1422000</v>
+        <v>1452700</v>
       </c>
       <c r="G59" s="3">
-        <v>1387400</v>
+        <v>1414100</v>
       </c>
       <c r="H59" s="3">
-        <v>1348200</v>
+        <v>1372700</v>
       </c>
       <c r="I59" s="3">
+        <v>1339300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1301500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1289500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1228600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1249500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>804500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>743500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>672200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>687600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>689900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7811700</v>
+        <v>6841100</v>
       </c>
       <c r="E60" s="3">
-        <v>8538100</v>
+        <v>7104800</v>
       </c>
       <c r="F60" s="3">
-        <v>8268600</v>
+        <v>7540900</v>
       </c>
       <c r="G60" s="3">
-        <v>7850800</v>
+        <v>8242100</v>
       </c>
       <c r="H60" s="3">
-        <v>7863600</v>
+        <v>7982000</v>
       </c>
       <c r="I60" s="3">
+        <v>7578700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>7591000</v>
+      </c>
+      <c r="K60" s="3">
         <v>8316800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8044300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7986900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8658100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>8341800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8623400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7765300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7616200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16896400</v>
+        <v>18540000</v>
       </c>
       <c r="E61" s="3">
-        <v>16523000</v>
+        <v>16288800</v>
       </c>
       <c r="F61" s="3">
-        <v>16573400</v>
+        <v>16310600</v>
       </c>
       <c r="G61" s="3">
-        <v>14875100</v>
+        <v>15950100</v>
       </c>
       <c r="H61" s="3">
-        <v>14742600</v>
+        <v>15998800</v>
       </c>
       <c r="I61" s="3">
+        <v>14359400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>14231500</v>
+      </c>
+      <c r="K61" s="3">
         <v>13826500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>14564200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>13555800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>13735100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>12973800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>13641500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>12731100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>12679600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4924000</v>
+        <v>5206000</v>
       </c>
       <c r="E62" s="3">
-        <v>4863800</v>
+        <v>4756900</v>
       </c>
       <c r="F62" s="3">
-        <v>4744100</v>
+        <v>4753300</v>
       </c>
       <c r="G62" s="3">
-        <v>4683900</v>
+        <v>4695100</v>
       </c>
       <c r="H62" s="3">
-        <v>4878800</v>
+        <v>4579600</v>
       </c>
       <c r="I62" s="3">
+        <v>4521500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4709700</v>
+      </c>
+      <c r="K62" s="3">
         <v>4832900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4756900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>4636400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>4340200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>4371500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4358900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>4282100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>5051900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29885000</v>
+        <v>30834200</v>
       </c>
       <c r="E66" s="3">
-        <v>30172600</v>
+        <v>28393200</v>
       </c>
       <c r="F66" s="3">
-        <v>29818800</v>
+        <v>28848900</v>
       </c>
       <c r="G66" s="3">
-        <v>27655200</v>
+        <v>29126500</v>
       </c>
       <c r="H66" s="3">
-        <v>27729000</v>
+        <v>28784900</v>
       </c>
       <c r="I66" s="3">
+        <v>26696400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>26767600</v>
+      </c>
+      <c r="K66" s="3">
         <v>27216400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>27597300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>26419500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>26975400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>25928300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>26866500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>25019700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>25588200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,52 +3494,64 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>2909700</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2909700</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2909700</v>
+      </c>
+      <c r="G70" s="3">
+        <v>2909700</v>
+      </c>
+      <c r="H70" s="3">
+        <v>2909700</v>
+      </c>
+      <c r="I70" s="3">
+        <v>2909700</v>
+      </c>
+      <c r="J70" s="3">
+        <v>2909700</v>
+      </c>
+      <c r="K70" s="3">
         <v>3014200</v>
       </c>
-      <c r="E70" s="3">
+      <c r="L70" s="3">
         <v>3014200</v>
-      </c>
-      <c r="F70" s="3">
-        <v>3014200</v>
-      </c>
-      <c r="G70" s="3">
-        <v>3014200</v>
-      </c>
-      <c r="H70" s="3">
-        <v>3014200</v>
-      </c>
-      <c r="I70" s="3">
-        <v>3014200</v>
-      </c>
-      <c r="J70" s="3">
-        <v>3014200</v>
-      </c>
-      <c r="K70" s="3">
-        <v>2979800</v>
-      </c>
-      <c r="L70" s="3">
-        <v>2979800</v>
       </c>
       <c r="M70" s="3">
         <v>2979800</v>
       </c>
       <c r="N70" s="3">
-        <v>3076000</v>
+        <v>2979800</v>
       </c>
       <c r="O70" s="3">
-        <v>3076000</v>
+        <v>2979800</v>
       </c>
       <c r="P70" s="3">
         <v>3076000</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>3076000</v>
+      </c>
+      <c r="R70" s="3">
+        <v>3076000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3564500</v>
+        <v>-2172800</v>
       </c>
       <c r="E72" s="3">
-        <v>-3910700</v>
+        <v>-3366000</v>
       </c>
       <c r="F72" s="3">
+        <v>-3440900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-3775200</v>
       </c>
-      <c r="G72" s="3">
-        <v>-3716500</v>
-      </c>
       <c r="H72" s="3">
-        <v>-3295700</v>
+        <v>-3644400</v>
       </c>
       <c r="I72" s="3">
+        <v>-3587700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-3181400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3621700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3908500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3674900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4370700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4812100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4858300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4640100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5443700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12739500</v>
+        <v>13865200</v>
       </c>
       <c r="E76" s="3">
-        <v>12141000</v>
+        <v>12404600</v>
       </c>
       <c r="F76" s="3">
-        <v>12214000</v>
+        <v>12297800</v>
       </c>
       <c r="G76" s="3">
-        <v>12314900</v>
+        <v>11720100</v>
       </c>
       <c r="H76" s="3">
-        <v>12658200</v>
+        <v>11790500</v>
       </c>
       <c r="I76" s="3">
+        <v>11887900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>12219300</v>
+      </c>
+      <c r="K76" s="3">
         <v>12346500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>12032600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>12129100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11396800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>10975600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11425900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>10398800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>9554500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>652700</v>
+        <v>494100</v>
       </c>
       <c r="E81" s="3">
-        <v>572900</v>
+        <v>488300</v>
       </c>
       <c r="F81" s="3">
-        <v>557100</v>
+        <v>630000</v>
       </c>
       <c r="G81" s="3">
-        <v>456200</v>
+        <v>553000</v>
       </c>
       <c r="H81" s="3">
-        <v>612800</v>
+        <v>537800</v>
       </c>
       <c r="I81" s="3">
+        <v>440400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>591500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1027600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>497600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>488200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>597600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>569300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>493200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>504700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>821300</v>
+        <v>800800</v>
       </c>
       <c r="E83" s="3">
-        <v>836300</v>
+        <v>794300</v>
       </c>
       <c r="F83" s="3">
-        <v>830300</v>
+        <v>792800</v>
       </c>
       <c r="G83" s="3">
-        <v>764100</v>
+        <v>807400</v>
       </c>
       <c r="H83" s="3">
-        <v>752000</v>
+        <v>801500</v>
       </c>
       <c r="I83" s="3">
+        <v>737600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>726000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1505600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>746800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>736800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>724100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>729300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>696800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>679100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1699800</v>
+        <v>1054400</v>
       </c>
       <c r="E89" s="3">
-        <v>1575600</v>
+        <v>1519500</v>
       </c>
       <c r="F89" s="3">
-        <v>1141200</v>
+        <v>1640900</v>
       </c>
       <c r="G89" s="3">
-        <v>1346000</v>
+        <v>1521000</v>
       </c>
       <c r="H89" s="3">
-        <v>1537900</v>
+        <v>1101700</v>
       </c>
       <c r="I89" s="3">
+        <v>1299300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1484600</v>
+      </c>
+      <c r="K89" s="3">
         <v>2674700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1126200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1233900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1661800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1603000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1008700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1167700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1492700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-762600</v>
+        <v>-569000</v>
       </c>
       <c r="E91" s="3">
-        <v>-731700</v>
+        <v>-837900</v>
       </c>
       <c r="F91" s="3">
-        <v>-639900</v>
+        <v>-736100</v>
       </c>
       <c r="G91" s="3">
-        <v>-733200</v>
+        <v>-706300</v>
       </c>
       <c r="H91" s="3">
-        <v>-760300</v>
+        <v>-617700</v>
       </c>
       <c r="I91" s="3">
+        <v>-707800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-734000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1495800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-700800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-818600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-774000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-775500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-654500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-762900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-749800</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-760300</v>
+        <v>-574100</v>
       </c>
       <c r="E94" s="3">
-        <v>-745300</v>
+        <v>-844400</v>
       </c>
       <c r="F94" s="3">
-        <v>-657900</v>
+        <v>-734000</v>
       </c>
       <c r="G94" s="3">
-        <v>-709900</v>
+        <v>-719400</v>
       </c>
       <c r="H94" s="3">
-        <v>-895100</v>
+        <v>-635100</v>
       </c>
       <c r="I94" s="3">
+        <v>-685300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-864000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1696800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-871000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-848400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-801500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-538800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1917500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-838100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1139300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-536700</v>
+        <v>-520300</v>
       </c>
       <c r="E96" s="3">
-        <v>-536000</v>
+        <v>-520300</v>
       </c>
       <c r="F96" s="3">
-        <v>-510400</v>
+        <v>-518100</v>
       </c>
       <c r="G96" s="3">
-        <v>-509600</v>
+        <v>-517400</v>
       </c>
       <c r="H96" s="3">
-        <v>-510400</v>
+        <v>-492700</v>
       </c>
       <c r="I96" s="3">
+        <v>-492000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-492700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-996700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-486300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-480800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-480800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-465900</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-456300</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-455600</v>
       </c>
       <c r="P96" s="3">
         <v>-456300</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-455600</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-456300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1035800</v>
+        <v>1361100</v>
       </c>
       <c r="E100" s="3">
-        <v>-509600</v>
+        <v>-1271700</v>
       </c>
       <c r="F100" s="3">
-        <v>-300400</v>
+        <v>-999900</v>
       </c>
       <c r="G100" s="3">
-        <v>-938000</v>
+        <v>-492000</v>
       </c>
       <c r="H100" s="3">
-        <v>-314700</v>
+        <v>-289900</v>
       </c>
       <c r="I100" s="3">
+        <v>-905500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-303800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1154800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>176900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1393200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>198000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1029200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>645300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-744400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>244300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-96400</v>
+        <v>1841400</v>
       </c>
       <c r="E102" s="3">
-        <v>320700</v>
+        <v>-596600</v>
       </c>
       <c r="F102" s="3">
-        <v>182900</v>
+        <v>-93000</v>
       </c>
       <c r="G102" s="3">
-        <v>-301900</v>
+        <v>309600</v>
       </c>
       <c r="H102" s="3">
-        <v>328200</v>
+        <v>176600</v>
       </c>
       <c r="I102" s="3">
+        <v>-291400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>316800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-176900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>432100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1007700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1058300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>35000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-263500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-414800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>597700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>BCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4127600</v>
+        <v>4074900</v>
       </c>
       <c r="E8" s="3">
-        <v>4589800</v>
+        <v>4292500</v>
       </c>
       <c r="F8" s="3">
-        <v>4348500</v>
+        <v>4807000</v>
       </c>
       <c r="G8" s="3">
-        <v>4309300</v>
+        <v>4554400</v>
       </c>
       <c r="H8" s="3">
-        <v>4166800</v>
+        <v>4482100</v>
       </c>
       <c r="I8" s="3">
-        <v>4516400</v>
+        <v>4329800</v>
       </c>
       <c r="J8" s="3">
+        <v>4730200</v>
+      </c>
+      <c r="K8" s="3">
         <v>4270800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8563700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4208100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4492100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4239800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4233100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4099300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4380400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4153800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1205600</v>
+        <v>1119600</v>
       </c>
       <c r="E9" s="3">
-        <v>1555100</v>
+        <v>1258800</v>
       </c>
       <c r="F9" s="3">
-        <v>1295000</v>
+        <v>1628700</v>
       </c>
       <c r="G9" s="3">
-        <v>1244800</v>
+        <v>1356300</v>
       </c>
       <c r="H9" s="3">
-        <v>1268100</v>
+        <v>1298400</v>
       </c>
       <c r="I9" s="3">
-        <v>1558800</v>
+        <v>1322800</v>
       </c>
       <c r="J9" s="3">
+        <v>1632500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1297100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2582100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1287300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1511500</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1248800</v>
       </c>
       <c r="O9" s="3">
         <v>1248800</v>
       </c>
       <c r="P9" s="3">
+        <v>1248800</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1249900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1514900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1236900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2922000</v>
+        <v>2955300</v>
       </c>
       <c r="E10" s="3">
-        <v>3034700</v>
+        <v>3033700</v>
       </c>
       <c r="F10" s="3">
-        <v>3053600</v>
+        <v>3178300</v>
       </c>
       <c r="G10" s="3">
-        <v>3064500</v>
+        <v>3198100</v>
       </c>
       <c r="H10" s="3">
-        <v>2898800</v>
+        <v>3183600</v>
       </c>
       <c r="I10" s="3">
-        <v>2957600</v>
+        <v>3007100</v>
       </c>
       <c r="J10" s="3">
+        <v>3097600</v>
+      </c>
+      <c r="K10" s="3">
         <v>2973600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5981700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2920800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2980600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2991000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2984300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2849400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2865500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2917000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>23300</v>
+        <v>358500</v>
       </c>
       <c r="E14" s="3">
-        <v>90100</v>
+        <v>24400</v>
       </c>
       <c r="F14" s="3">
-        <v>17400</v>
+        <v>94400</v>
       </c>
       <c r="G14" s="3">
-        <v>42100</v>
+        <v>18300</v>
       </c>
       <c r="H14" s="3">
-        <v>20300</v>
+        <v>44100</v>
       </c>
       <c r="I14" s="3">
-        <v>183900</v>
+        <v>21300</v>
       </c>
       <c r="J14" s="3">
+        <v>192600</v>
+      </c>
+      <c r="K14" s="3">
         <v>40000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>34600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>96000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>29000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>29800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>64500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>15400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>800800</v>
+        <v>839500</v>
       </c>
       <c r="E15" s="3">
-        <v>794300</v>
+        <v>828100</v>
       </c>
       <c r="F15" s="3">
-        <v>792800</v>
+        <v>831900</v>
       </c>
       <c r="G15" s="3">
-        <v>807400</v>
+        <v>830300</v>
       </c>
       <c r="H15" s="3">
-        <v>801500</v>
+        <v>836400</v>
       </c>
       <c r="I15" s="3">
-        <v>737600</v>
+        <v>829600</v>
       </c>
       <c r="J15" s="3">
+        <v>772500</v>
+      </c>
+      <c r="K15" s="3">
         <v>726000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1505600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>746800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>737500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>719700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>727100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>698300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>679100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3182900</v>
+        <v>3498700</v>
       </c>
       <c r="E17" s="3">
-        <v>3651600</v>
+        <v>3310700</v>
       </c>
       <c r="F17" s="3">
-        <v>3273700</v>
+        <v>3824500</v>
       </c>
       <c r="G17" s="3">
-        <v>3273000</v>
+        <v>3428700</v>
       </c>
       <c r="H17" s="3">
-        <v>3238100</v>
+        <v>3405100</v>
       </c>
       <c r="I17" s="3">
-        <v>3698100</v>
+        <v>3367800</v>
       </c>
       <c r="J17" s="3">
+        <v>3873200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3252700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6577900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3261100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3592300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3198600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3217200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3198100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3445500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3121300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>944700</v>
+        <v>576100</v>
       </c>
       <c r="E18" s="3">
-        <v>938200</v>
+        <v>981800</v>
       </c>
       <c r="F18" s="3">
-        <v>1074800</v>
+        <v>982600</v>
       </c>
       <c r="G18" s="3">
-        <v>1036300</v>
+        <v>1125700</v>
       </c>
       <c r="H18" s="3">
-        <v>928700</v>
+        <v>1076900</v>
       </c>
       <c r="I18" s="3">
-        <v>818300</v>
+        <v>962000</v>
       </c>
       <c r="J18" s="3">
+        <v>857000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1018100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1985900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>947000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>899700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1041100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1015800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>901100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>934900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1032500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-31200</v>
+        <v>-69300</v>
       </c>
       <c r="E20" s="3">
-        <v>-28300</v>
+        <v>-32000</v>
       </c>
       <c r="F20" s="3">
-        <v>33400</v>
+        <v>-29700</v>
       </c>
       <c r="G20" s="3">
-        <v>-37800</v>
+        <v>35000</v>
       </c>
       <c r="H20" s="3">
-        <v>64700</v>
+        <v>-38800</v>
       </c>
       <c r="I20" s="3">
-        <v>13800</v>
+        <v>67700</v>
       </c>
       <c r="J20" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-40000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-121200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-55700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-43200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-31500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1714300</v>
+        <v>1335700</v>
       </c>
       <c r="E21" s="3">
+        <v>1788600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1784800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1991000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1883700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1869200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1644000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1704100</v>
       </c>
-      <c r="F21" s="3">
-        <v>1901000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1805800</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1794900</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1569700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1704100</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3370200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1638100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1638800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1717600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1733300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1597200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1582600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1673200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>202700</v>
+        <v>213100</v>
       </c>
       <c r="E22" s="3">
-        <v>207800</v>
+        <v>210800</v>
       </c>
       <c r="F22" s="3">
-        <v>204900</v>
+        <v>217700</v>
       </c>
       <c r="G22" s="3">
-        <v>204200</v>
+        <v>214600</v>
       </c>
       <c r="H22" s="3">
-        <v>205700</v>
+        <v>212300</v>
       </c>
       <c r="I22" s="3">
-        <v>188200</v>
+        <v>213900</v>
       </c>
       <c r="J22" s="3">
+        <v>197100</v>
+      </c>
+      <c r="K22" s="3">
         <v>185300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>365900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>180700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>179400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>180100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>177100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>179800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>172900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>710700</v>
+        <v>293800</v>
       </c>
       <c r="E23" s="3">
-        <v>702000</v>
+        <v>739000</v>
       </c>
       <c r="F23" s="3">
-        <v>903300</v>
+        <v>735200</v>
       </c>
       <c r="G23" s="3">
-        <v>794300</v>
+        <v>946000</v>
       </c>
       <c r="H23" s="3">
-        <v>787700</v>
+        <v>825800</v>
       </c>
       <c r="I23" s="3">
-        <v>643800</v>
+        <v>815900</v>
       </c>
       <c r="J23" s="3">
+        <v>674300</v>
+      </c>
+      <c r="K23" s="3">
         <v>792800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1498800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>710600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>721900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>817900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>827600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>720600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>730600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>832800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>178000</v>
+        <v>73100</v>
       </c>
       <c r="E24" s="3">
-        <v>176600</v>
+        <v>184900</v>
       </c>
       <c r="F24" s="3">
-        <v>233300</v>
+        <v>184900</v>
       </c>
       <c r="G24" s="3">
-        <v>200600</v>
+        <v>244300</v>
       </c>
       <c r="H24" s="3">
-        <v>212900</v>
+        <v>209300</v>
       </c>
       <c r="I24" s="3">
-        <v>177300</v>
+        <v>220700</v>
       </c>
       <c r="J24" s="3">
+        <v>185700</v>
+      </c>
+      <c r="K24" s="3">
         <v>162800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>396700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>176900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>202400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>185300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>221800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>192100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>193600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>532700</v>
+        <v>220700</v>
       </c>
       <c r="E26" s="3">
-        <v>525400</v>
+        <v>554100</v>
       </c>
       <c r="F26" s="3">
-        <v>670000</v>
+        <v>550300</v>
       </c>
       <c r="G26" s="3">
-        <v>593700</v>
+        <v>701700</v>
       </c>
       <c r="H26" s="3">
-        <v>574800</v>
+        <v>616500</v>
       </c>
       <c r="I26" s="3">
-        <v>466500</v>
+        <v>595200</v>
       </c>
       <c r="J26" s="3">
+        <v>488600</v>
+      </c>
+      <c r="K26" s="3">
         <v>630000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1102100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>533700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>519500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>632600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>605800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>528500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>537000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>614600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>494100</v>
+        <v>177300</v>
       </c>
       <c r="E27" s="3">
-        <v>488300</v>
+        <v>513700</v>
       </c>
       <c r="F27" s="3">
-        <v>630000</v>
+        <v>511500</v>
       </c>
       <c r="G27" s="3">
-        <v>553000</v>
+        <v>659900</v>
       </c>
       <c r="H27" s="3">
-        <v>537800</v>
+        <v>573900</v>
       </c>
       <c r="I27" s="3">
-        <v>440400</v>
+        <v>556400</v>
       </c>
       <c r="J27" s="3">
+        <v>461200</v>
+      </c>
+      <c r="K27" s="3">
         <v>591500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1027600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>497600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>488200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>597600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>569300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>493200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>504700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,31 +1753,34 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>3800</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>6800</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>31200</v>
+        <v>69300</v>
       </c>
       <c r="E32" s="3">
-        <v>28300</v>
+        <v>32000</v>
       </c>
       <c r="F32" s="3">
-        <v>-33400</v>
+        <v>29700</v>
       </c>
       <c r="G32" s="3">
-        <v>37800</v>
+        <v>-35000</v>
       </c>
       <c r="H32" s="3">
-        <v>-64700</v>
+        <v>38800</v>
       </c>
       <c r="I32" s="3">
-        <v>-13800</v>
+        <v>-67700</v>
       </c>
       <c r="J32" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K32" s="3">
         <v>40000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>121200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>55700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>43200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>31500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>494100</v>
+        <v>180400</v>
       </c>
       <c r="E33" s="3">
-        <v>488300</v>
+        <v>517500</v>
       </c>
       <c r="F33" s="3">
-        <v>630000</v>
+        <v>511500</v>
       </c>
       <c r="G33" s="3">
-        <v>553000</v>
+        <v>659900</v>
       </c>
       <c r="H33" s="3">
-        <v>537800</v>
+        <v>579200</v>
       </c>
       <c r="I33" s="3">
-        <v>440400</v>
+        <v>563200</v>
       </c>
       <c r="J33" s="3">
+        <v>461200</v>
+      </c>
+      <c r="K33" s="3">
         <v>591500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1027600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>497600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>488200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>597600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>569300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>493200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>504700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>494100</v>
+        <v>180400</v>
       </c>
       <c r="E35" s="3">
-        <v>488300</v>
+        <v>517500</v>
       </c>
       <c r="F35" s="3">
-        <v>630000</v>
+        <v>511500</v>
       </c>
       <c r="G35" s="3">
-        <v>553000</v>
+        <v>659900</v>
       </c>
       <c r="H35" s="3">
-        <v>537800</v>
+        <v>579200</v>
       </c>
       <c r="I35" s="3">
-        <v>440400</v>
+        <v>563200</v>
       </c>
       <c r="J35" s="3">
+        <v>461200</v>
+      </c>
+      <c r="K35" s="3">
         <v>591500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1027600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>497600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>488200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>597600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>569300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>493200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>504700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1946800</v>
+        <v>1177400</v>
       </c>
       <c r="E41" s="3">
-        <v>105400</v>
+        <v>2039000</v>
       </c>
       <c r="F41" s="3">
-        <v>702000</v>
+        <v>110400</v>
       </c>
       <c r="G41" s="3">
-        <v>795000</v>
+        <v>735200</v>
       </c>
       <c r="H41" s="3">
-        <v>485400</v>
+        <v>832600</v>
       </c>
       <c r="I41" s="3">
-        <v>308800</v>
+        <v>508400</v>
       </c>
       <c r="J41" s="3">
+        <v>323500</v>
+      </c>
+      <c r="K41" s="3">
         <v>600200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>293600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>902600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>465100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1472800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>414500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>391800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>655300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1070100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,358 +2330,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>753600</v>
+        <v>2841100</v>
       </c>
       <c r="E43" s="3">
-        <v>807400</v>
+        <v>789300</v>
       </c>
       <c r="F43" s="3">
-        <v>762300</v>
+        <v>845600</v>
       </c>
       <c r="G43" s="3">
-        <v>730300</v>
+        <v>798400</v>
       </c>
       <c r="H43" s="3">
-        <v>710700</v>
+        <v>764900</v>
       </c>
       <c r="I43" s="3">
-        <v>717200</v>
+        <v>744300</v>
       </c>
       <c r="J43" s="3">
+        <v>751200</v>
+      </c>
+      <c r="K43" s="3">
         <v>658400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2851600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2841000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2947800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2131400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2117300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2164900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2288600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2473700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>353900</v>
+        <v>338700</v>
       </c>
       <c r="E44" s="3">
-        <v>310300</v>
+        <v>370700</v>
       </c>
       <c r="F44" s="3">
-        <v>351000</v>
+        <v>325000</v>
       </c>
       <c r="G44" s="3">
-        <v>353900</v>
+        <v>367600</v>
       </c>
       <c r="H44" s="3">
-        <v>343000</v>
+        <v>370700</v>
       </c>
       <c r="I44" s="3">
-        <v>313900</v>
+        <v>359200</v>
       </c>
       <c r="J44" s="3">
+        <v>328800</v>
+      </c>
+      <c r="K44" s="3">
         <v>356800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>328200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>333500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>282800</v>
-      </c>
-      <c r="N44" s="3">
-        <v>325200</v>
       </c>
       <c r="O44" s="3">
         <v>325200</v>
       </c>
       <c r="P44" s="3">
+        <v>325200</v>
+      </c>
+      <c r="Q44" s="3">
         <v>328800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>309600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>810300</v>
+        <v>1322000</v>
       </c>
       <c r="E45" s="3">
-        <v>580600</v>
+        <v>848600</v>
       </c>
       <c r="F45" s="3">
-        <v>647500</v>
+        <v>608100</v>
       </c>
       <c r="G45" s="3">
-        <v>672200</v>
+        <v>678100</v>
       </c>
       <c r="H45" s="3">
-        <v>711400</v>
+        <v>704000</v>
       </c>
       <c r="I45" s="3">
-        <v>685300</v>
+        <v>745100</v>
       </c>
       <c r="J45" s="3">
+        <v>717700</v>
+      </c>
+      <c r="K45" s="3">
         <v>603900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>709900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>639900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>512800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>486000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>499400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>749800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>476300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6037300</v>
+        <v>5679300</v>
       </c>
       <c r="E46" s="3">
-        <v>4011300</v>
+        <v>6323100</v>
       </c>
       <c r="F46" s="3">
-        <v>4545400</v>
+        <v>4201200</v>
       </c>
       <c r="G46" s="3">
-        <v>4715500</v>
+        <v>4760600</v>
       </c>
       <c r="H46" s="3">
-        <v>4384800</v>
+        <v>4938700</v>
       </c>
       <c r="I46" s="3">
-        <v>4209700</v>
+        <v>4592400</v>
       </c>
       <c r="J46" s="3">
+        <v>4409000</v>
+      </c>
+      <c r="K46" s="3">
         <v>4361600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4183300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4717000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4208500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4415400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3356400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3635300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3729800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4348200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>858900</v>
+        <v>1179700</v>
       </c>
       <c r="E47" s="3">
-        <v>894600</v>
+        <v>899600</v>
       </c>
       <c r="F47" s="3">
-        <v>872800</v>
+        <v>936900</v>
       </c>
       <c r="G47" s="3">
-        <v>883700</v>
+        <v>914100</v>
       </c>
       <c r="H47" s="3">
-        <v>930200</v>
+        <v>925500</v>
       </c>
       <c r="I47" s="3">
-        <v>947600</v>
+        <v>974200</v>
       </c>
       <c r="J47" s="3">
+        <v>992500</v>
+      </c>
+      <c r="K47" s="3">
         <v>879300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>916100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>935700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>926500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>616200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>657100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>675300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>654500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>793600</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19934600</v>
+        <v>20427700</v>
       </c>
       <c r="E48" s="3">
-        <v>20082800</v>
+        <v>20878200</v>
       </c>
       <c r="F48" s="3">
-        <v>19896000</v>
+        <v>21033500</v>
       </c>
       <c r="G48" s="3">
-        <v>19922200</v>
+        <v>20837900</v>
       </c>
       <c r="H48" s="3">
-        <v>19821200</v>
+        <v>20865300</v>
       </c>
       <c r="I48" s="3">
-        <v>18053900</v>
+        <v>20759500</v>
       </c>
       <c r="J48" s="3">
+        <v>18908500</v>
+      </c>
+      <c r="K48" s="3">
         <v>17968100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18362100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18194200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17882600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17678000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17552900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18015000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17166900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16807300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17571400</v>
+        <v>17846000</v>
       </c>
       <c r="E49" s="3">
-        <v>17454400</v>
+        <v>18403200</v>
       </c>
       <c r="F49" s="3">
-        <v>17536500</v>
+        <v>18280600</v>
       </c>
       <c r="G49" s="3">
-        <v>17372300</v>
+        <v>18366600</v>
       </c>
       <c r="H49" s="3">
-        <v>17386800</v>
+        <v>18194600</v>
       </c>
       <c r="I49" s="3">
-        <v>17341000</v>
+        <v>18209800</v>
       </c>
       <c r="J49" s="3">
+        <v>18161900</v>
+      </c>
+      <c r="K49" s="3">
         <v>17450700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18048100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18031600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17627400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17799300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17711500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>18239300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>16099000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15574300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3206900</v>
+        <v>1439200</v>
       </c>
       <c r="E52" s="3">
-        <v>1264400</v>
+        <v>3358700</v>
       </c>
       <c r="F52" s="3">
-        <v>1205600</v>
+        <v>1324300</v>
       </c>
       <c r="G52" s="3">
-        <v>862600</v>
+        <v>1262600</v>
       </c>
       <c r="H52" s="3">
-        <v>962100</v>
+        <v>903400</v>
       </c>
       <c r="I52" s="3">
-        <v>941800</v>
+        <v>1007700</v>
       </c>
       <c r="J52" s="3">
+        <v>986400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1236800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1067500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>765600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>883400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>843200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>605800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>803600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>844300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>695200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>47609100</v>
+        <v>46571900</v>
       </c>
       <c r="E54" s="3">
-        <v>43707500</v>
+        <v>49862800</v>
       </c>
       <c r="F54" s="3">
-        <v>44056300</v>
+        <v>45776500</v>
       </c>
       <c r="G54" s="3">
-        <v>43756200</v>
+        <v>46141800</v>
       </c>
       <c r="H54" s="3">
-        <v>43485100</v>
+        <v>45827500</v>
       </c>
       <c r="I54" s="3">
-        <v>41494000</v>
+        <v>45543600</v>
       </c>
       <c r="J54" s="3">
+        <v>43458200</v>
+      </c>
+      <c r="K54" s="3">
         <v>41896600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42577000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42644000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>41528400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>41352000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>39883700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41368400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>38494500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>38218700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2423500</v>
+        <v>2542800</v>
       </c>
       <c r="E57" s="3">
-        <v>2873300</v>
+        <v>2538200</v>
       </c>
       <c r="F57" s="3">
-        <v>2652400</v>
+        <v>3009300</v>
       </c>
       <c r="G57" s="3">
-        <v>2703300</v>
+        <v>2778000</v>
       </c>
       <c r="H57" s="3">
-        <v>2623400</v>
+        <v>2831300</v>
       </c>
       <c r="I57" s="3">
-        <v>2863900</v>
+        <v>2747500</v>
       </c>
       <c r="J57" s="3">
+        <v>2999500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2745400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2712300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2660400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2883800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3326600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3177800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3106700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3323400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3092100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3058600</v>
+        <v>1966700</v>
       </c>
       <c r="E58" s="3">
-        <v>2820300</v>
+        <v>3203400</v>
       </c>
       <c r="F58" s="3">
-        <v>3435800</v>
+        <v>2953800</v>
       </c>
       <c r="G58" s="3">
-        <v>4124700</v>
+        <v>3598400</v>
       </c>
       <c r="H58" s="3">
-        <v>3985900</v>
+        <v>4319900</v>
       </c>
       <c r="I58" s="3">
-        <v>3375500</v>
+        <v>4174600</v>
       </c>
       <c r="J58" s="3">
+        <v>3535300</v>
+      </c>
+      <c r="K58" s="3">
         <v>3544100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4315000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4155400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3853500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4527000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4420600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4844500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3754300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3834200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1358900</v>
+        <v>1682000</v>
       </c>
       <c r="E59" s="3">
-        <v>1411200</v>
+        <v>1423200</v>
       </c>
       <c r="F59" s="3">
-        <v>1452700</v>
+        <v>1478000</v>
       </c>
       <c r="G59" s="3">
-        <v>1414100</v>
+        <v>1521400</v>
       </c>
       <c r="H59" s="3">
-        <v>1372700</v>
+        <v>1481100</v>
       </c>
       <c r="I59" s="3">
-        <v>1339300</v>
+        <v>1437700</v>
       </c>
       <c r="J59" s="3">
+        <v>1402700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1301500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1289500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1228600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1249500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>804500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>743500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>672200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>687600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>689900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6841100</v>
+        <v>6191500</v>
       </c>
       <c r="E60" s="3">
-        <v>7104800</v>
+        <v>7164900</v>
       </c>
       <c r="F60" s="3">
-        <v>7540900</v>
+        <v>7441200</v>
       </c>
       <c r="G60" s="3">
-        <v>8242100</v>
+        <v>7897800</v>
       </c>
       <c r="H60" s="3">
-        <v>7982000</v>
+        <v>8632300</v>
       </c>
       <c r="I60" s="3">
-        <v>7578700</v>
+        <v>8359800</v>
       </c>
       <c r="J60" s="3">
+        <v>7937400</v>
+      </c>
+      <c r="K60" s="3">
         <v>7591000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8316800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8044300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7986900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8658100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8341800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8623400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7765300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7616200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18540000</v>
+        <v>19045500</v>
       </c>
       <c r="E61" s="3">
-        <v>16288800</v>
+        <v>19417700</v>
       </c>
       <c r="F61" s="3">
-        <v>16310600</v>
+        <v>17059800</v>
       </c>
       <c r="G61" s="3">
-        <v>15950100</v>
+        <v>17082700</v>
       </c>
       <c r="H61" s="3">
-        <v>15998800</v>
+        <v>16705200</v>
       </c>
       <c r="I61" s="3">
-        <v>14359400</v>
+        <v>16756200</v>
       </c>
       <c r="J61" s="3">
+        <v>15039100</v>
+      </c>
+      <c r="K61" s="3">
         <v>14231500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13826500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14564200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13555800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13735100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12973800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13641500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>12731100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12679600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5206000</v>
+        <v>5247700</v>
       </c>
       <c r="E62" s="3">
+        <v>5452400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4982100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>4978300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4917400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4796400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4735500</v>
+      </c>
+      <c r="K62" s="3">
+        <v>4709700</v>
+      </c>
+      <c r="L62" s="3">
+        <v>4832900</v>
+      </c>
+      <c r="M62" s="3">
         <v>4756900</v>
       </c>
-      <c r="F62" s="3">
-        <v>4753300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>4695100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>4579600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>4521500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>4709700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>4832900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>4756900</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4636400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4340200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4371500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4358900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4282100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5051900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30834200</v>
+        <v>30749600</v>
       </c>
       <c r="E66" s="3">
-        <v>28393200</v>
+        <v>32293800</v>
       </c>
       <c r="F66" s="3">
-        <v>28848900</v>
+        <v>29737300</v>
       </c>
       <c r="G66" s="3">
-        <v>29126500</v>
+        <v>30214500</v>
       </c>
       <c r="H66" s="3">
-        <v>28784900</v>
+        <v>30505200</v>
       </c>
       <c r="I66" s="3">
-        <v>26696400</v>
+        <v>30147500</v>
       </c>
       <c r="J66" s="3">
+        <v>27960200</v>
+      </c>
+      <c r="K66" s="3">
         <v>26767600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27216400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27597300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26419500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26975400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>25928300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26866500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>25019700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>25588200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,40 +3665,43 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>3047400</v>
+      </c>
+      <c r="E70" s="3">
+        <v>3047400</v>
+      </c>
+      <c r="F70" s="3">
+        <v>3047400</v>
+      </c>
+      <c r="G70" s="3">
+        <v>3047400</v>
+      </c>
+      <c r="H70" s="3">
+        <v>3047400</v>
+      </c>
+      <c r="I70" s="3">
+        <v>3047400</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3047400</v>
+      </c>
+      <c r="K70" s="3">
         <v>2909700</v>
-      </c>
-      <c r="E70" s="3">
-        <v>2909700</v>
-      </c>
-      <c r="F70" s="3">
-        <v>2909700</v>
-      </c>
-      <c r="G70" s="3">
-        <v>2909700</v>
-      </c>
-      <c r="H70" s="3">
-        <v>2909700</v>
-      </c>
-      <c r="I70" s="3">
-        <v>2909700</v>
-      </c>
-      <c r="J70" s="3">
-        <v>2909700</v>
-      </c>
-      <c r="K70" s="3">
-        <v>3014200</v>
       </c>
       <c r="L70" s="3">
         <v>3014200</v>
       </c>
       <c r="M70" s="3">
-        <v>2979800</v>
+        <v>3014200</v>
       </c>
       <c r="N70" s="3">
         <v>2979800</v>
@@ -3542,7 +3710,7 @@
         <v>2979800</v>
       </c>
       <c r="P70" s="3">
-        <v>3076000</v>
+        <v>2979800</v>
       </c>
       <c r="Q70" s="3">
         <v>3076000</v>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>3076000</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>3076000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2172800</v>
+        <v>-3913500</v>
       </c>
       <c r="E72" s="3">
-        <v>-3366000</v>
+        <v>-2275700</v>
       </c>
       <c r="F72" s="3">
-        <v>-3440900</v>
+        <v>-3525400</v>
       </c>
       <c r="G72" s="3">
-        <v>-3775200</v>
+        <v>-3603800</v>
       </c>
       <c r="H72" s="3">
-        <v>-3644400</v>
+        <v>-3953900</v>
       </c>
       <c r="I72" s="3">
-        <v>-3587700</v>
+        <v>-3816900</v>
       </c>
       <c r="J72" s="3">
+        <v>-3757500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3181400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3621700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3908500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3674900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4370700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4812100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4858300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4640100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5443700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13865200</v>
+        <v>12774900</v>
       </c>
       <c r="E76" s="3">
-        <v>12404600</v>
+        <v>14521600</v>
       </c>
       <c r="F76" s="3">
-        <v>12297800</v>
+        <v>12991800</v>
       </c>
       <c r="G76" s="3">
-        <v>11720100</v>
+        <v>12879900</v>
       </c>
       <c r="H76" s="3">
-        <v>11790500</v>
+        <v>12274900</v>
       </c>
       <c r="I76" s="3">
-        <v>11887900</v>
+        <v>12348700</v>
       </c>
       <c r="J76" s="3">
+        <v>12450700</v>
+      </c>
+      <c r="K76" s="3">
         <v>12219300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12346500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12032600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12129100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11396800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10975600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11425900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10398800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9554500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>494100</v>
+        <v>180400</v>
       </c>
       <c r="E81" s="3">
-        <v>488300</v>
+        <v>517500</v>
       </c>
       <c r="F81" s="3">
-        <v>630000</v>
+        <v>511500</v>
       </c>
       <c r="G81" s="3">
-        <v>553000</v>
+        <v>659900</v>
       </c>
       <c r="H81" s="3">
-        <v>537800</v>
+        <v>579200</v>
       </c>
       <c r="I81" s="3">
-        <v>440400</v>
+        <v>563200</v>
       </c>
       <c r="J81" s="3">
+        <v>461200</v>
+      </c>
+      <c r="K81" s="3">
         <v>591500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1027600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>497600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>488200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>597600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>569300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>493200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>504700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>800800</v>
+        <v>828800</v>
       </c>
       <c r="E83" s="3">
-        <v>794300</v>
+        <v>838700</v>
       </c>
       <c r="F83" s="3">
-        <v>792800</v>
+        <v>831900</v>
       </c>
       <c r="G83" s="3">
-        <v>807400</v>
+        <v>830300</v>
       </c>
       <c r="H83" s="3">
-        <v>801500</v>
+        <v>845600</v>
       </c>
       <c r="I83" s="3">
-        <v>737600</v>
+        <v>839500</v>
       </c>
       <c r="J83" s="3">
+        <v>772500</v>
+      </c>
+      <c r="K83" s="3">
         <v>726000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1505600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>746800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>736800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>724100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>729300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>696800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>679100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1054400</v>
+        <v>1949900</v>
       </c>
       <c r="E89" s="3">
-        <v>1519500</v>
+        <v>1104300</v>
       </c>
       <c r="F89" s="3">
-        <v>1640900</v>
+        <v>1591400</v>
       </c>
       <c r="G89" s="3">
-        <v>1521000</v>
+        <v>1718500</v>
       </c>
       <c r="H89" s="3">
-        <v>1101700</v>
+        <v>1593000</v>
       </c>
       <c r="I89" s="3">
-        <v>1299300</v>
+        <v>1153800</v>
       </c>
       <c r="J89" s="3">
+        <v>1360800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1484600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2674700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1126200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1233900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1661800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1603000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1008700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1167700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1492700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-569000</v>
+        <v>-680400</v>
       </c>
       <c r="E91" s="3">
-        <v>-837900</v>
+        <v>-595900</v>
       </c>
       <c r="F91" s="3">
-        <v>-736100</v>
+        <v>-877500</v>
       </c>
       <c r="G91" s="3">
-        <v>-706300</v>
+        <v>-771000</v>
       </c>
       <c r="H91" s="3">
-        <v>-617700</v>
+        <v>-739800</v>
       </c>
       <c r="I91" s="3">
-        <v>-707800</v>
+        <v>-646900</v>
       </c>
       <c r="J91" s="3">
+        <v>-741300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-734000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1495800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-818600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-774000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-775500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-654500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-762900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-749800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-574100</v>
+        <v>-718500</v>
       </c>
       <c r="E94" s="3">
-        <v>-844400</v>
+        <v>-601300</v>
       </c>
       <c r="F94" s="3">
-        <v>-734000</v>
+        <v>-884400</v>
       </c>
       <c r="G94" s="3">
-        <v>-719400</v>
+        <v>-768700</v>
       </c>
       <c r="H94" s="3">
-        <v>-635100</v>
+        <v>-753500</v>
       </c>
       <c r="I94" s="3">
-        <v>-685300</v>
+        <v>-665200</v>
       </c>
       <c r="J94" s="3">
+        <v>-717700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-864000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1696800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-871000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-848400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-801500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-538800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1917500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-838100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1139300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-520300</v>
+        <v>-573100</v>
       </c>
       <c r="E96" s="3">
-        <v>-520300</v>
+        <v>-544900</v>
       </c>
       <c r="F96" s="3">
-        <v>-518100</v>
+        <v>-544900</v>
       </c>
       <c r="G96" s="3">
-        <v>-517400</v>
+        <v>-542700</v>
       </c>
       <c r="H96" s="3">
+        <v>-541900</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-516000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-515300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-492700</v>
       </c>
-      <c r="I96" s="3">
-        <v>-492000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-492700</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-996700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-486300</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-480800</v>
       </c>
       <c r="N96" s="3">
         <v>-480800</v>
       </c>
       <c r="O96" s="3">
+        <v>-480800</v>
+      </c>
+      <c r="P96" s="3">
         <v>-465900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-456300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-455600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-456300</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1361100</v>
+        <v>-2093000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1271700</v>
+        <v>1425500</v>
       </c>
       <c r="F100" s="3">
-        <v>-999900</v>
+        <v>-1331900</v>
       </c>
       <c r="G100" s="3">
-        <v>-492000</v>
+        <v>-1047300</v>
       </c>
       <c r="H100" s="3">
-        <v>-289900</v>
+        <v>-515300</v>
       </c>
       <c r="I100" s="3">
-        <v>-905500</v>
+        <v>-303700</v>
       </c>
       <c r="J100" s="3">
+        <v>-948300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-303800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1154800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>176900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1393200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>198000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1029200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>645300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-744400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>244300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1841400</v>
+        <v>-861600</v>
       </c>
       <c r="E102" s="3">
-        <v>-596600</v>
+        <v>1928600</v>
       </c>
       <c r="F102" s="3">
-        <v>-93000</v>
+        <v>-624900</v>
       </c>
       <c r="G102" s="3">
-        <v>309600</v>
+        <v>-97400</v>
       </c>
       <c r="H102" s="3">
-        <v>176600</v>
+        <v>324200</v>
       </c>
       <c r="I102" s="3">
-        <v>-291400</v>
+        <v>184900</v>
       </c>
       <c r="J102" s="3">
+        <v>-305200</v>
+      </c>
+      <c r="K102" s="3">
         <v>316800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-176900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>432100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1007700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1058300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>35000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-263500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-414800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>597700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4074900</v>
+        <v>4454900</v>
       </c>
       <c r="E8" s="3">
-        <v>4292500</v>
+        <v>4121600</v>
       </c>
       <c r="F8" s="3">
-        <v>4807000</v>
+        <v>4341800</v>
       </c>
       <c r="G8" s="3">
-        <v>4554400</v>
+        <v>4862200</v>
       </c>
       <c r="H8" s="3">
-        <v>4482100</v>
+        <v>4572700</v>
       </c>
       <c r="I8" s="3">
-        <v>4329800</v>
+        <v>4533500</v>
       </c>
       <c r="J8" s="3">
+        <v>4379500</v>
+      </c>
+      <c r="K8" s="3">
         <v>4730200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4270800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8563700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4208100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4492100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4239800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4233100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4099300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4380400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4153800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1119600</v>
+        <v>1375700</v>
       </c>
       <c r="E9" s="3">
-        <v>1258800</v>
+        <v>1132400</v>
       </c>
       <c r="F9" s="3">
-        <v>1628700</v>
+        <v>1273300</v>
       </c>
       <c r="G9" s="3">
-        <v>1356300</v>
+        <v>1647400</v>
       </c>
       <c r="H9" s="3">
-        <v>1298400</v>
+        <v>1368000</v>
       </c>
       <c r="I9" s="3">
-        <v>1322800</v>
+        <v>1313300</v>
       </c>
       <c r="J9" s="3">
+        <v>1337900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1632500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1297100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2582100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1287300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1511500</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1248800</v>
       </c>
       <c r="P9" s="3">
         <v>1248800</v>
       </c>
       <c r="Q9" s="3">
+        <v>1248800</v>
+      </c>
+      <c r="R9" s="3">
         <v>1249900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1514900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1236900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2955300</v>
+        <v>3079300</v>
       </c>
       <c r="E10" s="3">
-        <v>3033700</v>
+        <v>2989200</v>
       </c>
       <c r="F10" s="3">
-        <v>3178300</v>
+        <v>3068500</v>
       </c>
       <c r="G10" s="3">
-        <v>3198100</v>
+        <v>3214800</v>
       </c>
       <c r="H10" s="3">
-        <v>3183600</v>
+        <v>3204800</v>
       </c>
       <c r="I10" s="3">
-        <v>3007100</v>
+        <v>3220200</v>
       </c>
       <c r="J10" s="3">
+        <v>3041600</v>
+      </c>
+      <c r="K10" s="3">
         <v>3097600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2973600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5981700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2920800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2980600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2991000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2984300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2849400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2865500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2917000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>358500</v>
+        <v>39300</v>
       </c>
       <c r="E14" s="3">
-        <v>24400</v>
+        <v>362600</v>
       </c>
       <c r="F14" s="3">
-        <v>94400</v>
+        <v>30000</v>
       </c>
       <c r="G14" s="3">
-        <v>18300</v>
+        <v>95500</v>
       </c>
       <c r="H14" s="3">
-        <v>44100</v>
+        <v>18500</v>
       </c>
       <c r="I14" s="3">
-        <v>21300</v>
+        <v>44600</v>
       </c>
       <c r="J14" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K14" s="3">
         <v>192600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>40000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>34600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>96000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>29000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>29800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>64500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>15400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>839500</v>
+        <v>853000</v>
       </c>
       <c r="E15" s="3">
-        <v>828100</v>
+        <v>849100</v>
       </c>
       <c r="F15" s="3">
-        <v>831900</v>
+        <v>837600</v>
       </c>
       <c r="G15" s="3">
-        <v>830300</v>
+        <v>841400</v>
       </c>
       <c r="H15" s="3">
-        <v>836400</v>
+        <v>829100</v>
       </c>
       <c r="I15" s="3">
-        <v>829600</v>
+        <v>846000</v>
       </c>
       <c r="J15" s="3">
+        <v>839100</v>
+      </c>
+      <c r="K15" s="3">
         <v>772500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>726000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1505600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>746800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>737500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>719700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>727100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>698300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>679100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3498700</v>
+        <v>3458000</v>
       </c>
       <c r="E17" s="3">
-        <v>3310700</v>
+        <v>3538900</v>
       </c>
       <c r="F17" s="3">
-        <v>3824500</v>
+        <v>3348700</v>
       </c>
       <c r="G17" s="3">
-        <v>3428700</v>
+        <v>3868300</v>
       </c>
       <c r="H17" s="3">
-        <v>3405100</v>
+        <v>3443400</v>
       </c>
       <c r="I17" s="3">
-        <v>3367800</v>
+        <v>3444200</v>
       </c>
       <c r="J17" s="3">
+        <v>3406500</v>
+      </c>
+      <c r="K17" s="3">
         <v>3873200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3252700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6577900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3261100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3592300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3198600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3217200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3198100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3445500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3121300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>576100</v>
+        <v>996900</v>
       </c>
       <c r="E18" s="3">
-        <v>981800</v>
+        <v>582800</v>
       </c>
       <c r="F18" s="3">
-        <v>982600</v>
+        <v>993100</v>
       </c>
       <c r="G18" s="3">
-        <v>1125700</v>
+        <v>993800</v>
       </c>
       <c r="H18" s="3">
-        <v>1076900</v>
+        <v>1129300</v>
       </c>
       <c r="I18" s="3">
-        <v>962000</v>
+        <v>1089300</v>
       </c>
       <c r="J18" s="3">
+        <v>973100</v>
+      </c>
+      <c r="K18" s="3">
         <v>857000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1018100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1985900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>947000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>899700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1041100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1015800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>901100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>934900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1032500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-69300</v>
+        <v>-15400</v>
       </c>
       <c r="E20" s="3">
-        <v>-32000</v>
+        <v>-70100</v>
       </c>
       <c r="F20" s="3">
-        <v>-29700</v>
+        <v>-32300</v>
       </c>
       <c r="G20" s="3">
-        <v>35000</v>
+        <v>-30000</v>
       </c>
       <c r="H20" s="3">
-        <v>-38800</v>
+        <v>35400</v>
       </c>
       <c r="I20" s="3">
-        <v>67700</v>
+        <v>-39300</v>
       </c>
       <c r="J20" s="3">
+        <v>68500</v>
+      </c>
+      <c r="K20" s="3">
         <v>14500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-40000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-121200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-55700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-43200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-31500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1335700</v>
+        <v>1834500</v>
       </c>
       <c r="E21" s="3">
-        <v>1788600</v>
+        <v>1351000</v>
       </c>
       <c r="F21" s="3">
-        <v>1784800</v>
+        <v>1809100</v>
       </c>
       <c r="G21" s="3">
-        <v>1991000</v>
+        <v>1805200</v>
       </c>
       <c r="H21" s="3">
-        <v>1883700</v>
+        <v>2004600</v>
       </c>
       <c r="I21" s="3">
-        <v>1869200</v>
+        <v>1905300</v>
       </c>
       <c r="J21" s="3">
+        <v>1890700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1644000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1704100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3370200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1638100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1638800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1717600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1733300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1597200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1582600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1673200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>213100</v>
+        <v>214800</v>
       </c>
       <c r="E22" s="3">
-        <v>210800</v>
+        <v>215500</v>
       </c>
       <c r="F22" s="3">
-        <v>217700</v>
+        <v>213200</v>
       </c>
       <c r="G22" s="3">
-        <v>214600</v>
+        <v>220200</v>
       </c>
       <c r="H22" s="3">
-        <v>212300</v>
+        <v>215500</v>
       </c>
       <c r="I22" s="3">
-        <v>213900</v>
+        <v>214800</v>
       </c>
       <c r="J22" s="3">
+        <v>216300</v>
+      </c>
+      <c r="K22" s="3">
         <v>197100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>185300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>365900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>180700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>179400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>180100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>177100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>179800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>172900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>293800</v>
+        <v>766700</v>
       </c>
       <c r="E23" s="3">
-        <v>739000</v>
+        <v>297200</v>
       </c>
       <c r="F23" s="3">
-        <v>735200</v>
+        <v>747500</v>
       </c>
       <c r="G23" s="3">
-        <v>946000</v>
+        <v>743600</v>
       </c>
       <c r="H23" s="3">
-        <v>825800</v>
+        <v>949200</v>
       </c>
       <c r="I23" s="3">
-        <v>815900</v>
+        <v>835300</v>
       </c>
       <c r="J23" s="3">
+        <v>825200</v>
+      </c>
+      <c r="K23" s="3">
         <v>674300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>792800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1498800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>710600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>721900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>817900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>827600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>720600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>730600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>832800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>73100</v>
+        <v>201700</v>
       </c>
       <c r="E24" s="3">
-        <v>184900</v>
+        <v>73900</v>
       </c>
       <c r="F24" s="3">
-        <v>184900</v>
+        <v>187100</v>
       </c>
       <c r="G24" s="3">
-        <v>244300</v>
+        <v>187100</v>
       </c>
       <c r="H24" s="3">
-        <v>209300</v>
+        <v>245600</v>
       </c>
       <c r="I24" s="3">
-        <v>220700</v>
+        <v>211700</v>
       </c>
       <c r="J24" s="3">
+        <v>223200</v>
+      </c>
+      <c r="K24" s="3">
         <v>185700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>162800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>396700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>176900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>202400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>185300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>221800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>192100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>193600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>220700</v>
+        <v>565000</v>
       </c>
       <c r="E26" s="3">
-        <v>554100</v>
+        <v>223200</v>
       </c>
       <c r="F26" s="3">
-        <v>550300</v>
+        <v>560400</v>
       </c>
       <c r="G26" s="3">
-        <v>701700</v>
+        <v>556600</v>
       </c>
       <c r="H26" s="3">
-        <v>616500</v>
+        <v>703600</v>
       </c>
       <c r="I26" s="3">
-        <v>595200</v>
+        <v>623600</v>
       </c>
       <c r="J26" s="3">
+        <v>602000</v>
+      </c>
+      <c r="K26" s="3">
         <v>488600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>630000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1102100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>533700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>519500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>632600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>605800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>528500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>537000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>614600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>177300</v>
+        <v>528100</v>
       </c>
       <c r="E27" s="3">
-        <v>513700</v>
+        <v>179400</v>
       </c>
       <c r="F27" s="3">
-        <v>511500</v>
+        <v>519600</v>
       </c>
       <c r="G27" s="3">
-        <v>659900</v>
+        <v>517300</v>
       </c>
       <c r="H27" s="3">
-        <v>573900</v>
+        <v>661300</v>
       </c>
       <c r="I27" s="3">
-        <v>556400</v>
+        <v>580400</v>
       </c>
       <c r="J27" s="3">
+        <v>562700</v>
+      </c>
+      <c r="K27" s="3">
         <v>461200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>591500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1027600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>497600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>488200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>597600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>569300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>493200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>504700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,35 +1814,38 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="E29" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F29" s="3">
         <v>3800</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>5300</v>
+        <v>6200</v>
       </c>
       <c r="I29" s="3">
-        <v>6800</v>
-      </c>
-      <c r="J29" s="3" t="s">
+        <v>5400</v>
+      </c>
+      <c r="J29" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>69300</v>
+        <v>15400</v>
       </c>
       <c r="E32" s="3">
-        <v>32000</v>
+        <v>70100</v>
       </c>
       <c r="F32" s="3">
-        <v>29700</v>
+        <v>32300</v>
       </c>
       <c r="G32" s="3">
-        <v>-35000</v>
+        <v>30000</v>
       </c>
       <c r="H32" s="3">
-        <v>38800</v>
+        <v>-35400</v>
       </c>
       <c r="I32" s="3">
-        <v>-67700</v>
+        <v>39300</v>
       </c>
       <c r="J32" s="3">
+        <v>-68500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-14500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>40000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>121200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>55700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>43200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>11200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>31500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>180400</v>
+        <v>532700</v>
       </c>
       <c r="E33" s="3">
-        <v>517500</v>
+        <v>182400</v>
       </c>
       <c r="F33" s="3">
-        <v>511500</v>
+        <v>523500</v>
       </c>
       <c r="G33" s="3">
-        <v>659900</v>
+        <v>517300</v>
       </c>
       <c r="H33" s="3">
-        <v>579200</v>
+        <v>667400</v>
       </c>
       <c r="I33" s="3">
-        <v>563200</v>
+        <v>585800</v>
       </c>
       <c r="J33" s="3">
+        <v>569700</v>
+      </c>
+      <c r="K33" s="3">
         <v>461200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>591500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1027600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>497600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>488200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>597600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>569300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>493200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>504700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>180400</v>
+        <v>532700</v>
       </c>
       <c r="E35" s="3">
-        <v>517500</v>
+        <v>182400</v>
       </c>
       <c r="F35" s="3">
-        <v>511500</v>
+        <v>523500</v>
       </c>
       <c r="G35" s="3">
-        <v>659900</v>
+        <v>517300</v>
       </c>
       <c r="H35" s="3">
-        <v>579200</v>
+        <v>667400</v>
       </c>
       <c r="I35" s="3">
-        <v>563200</v>
+        <v>585800</v>
       </c>
       <c r="J35" s="3">
+        <v>569700</v>
+      </c>
+      <c r="K35" s="3">
         <v>461200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>591500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1027600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>497600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>488200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>597600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>569300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>493200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>504700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1177400</v>
+        <v>1292500</v>
       </c>
       <c r="E41" s="3">
-        <v>2039000</v>
+        <v>1190900</v>
       </c>
       <c r="F41" s="3">
-        <v>110400</v>
+        <v>2062300</v>
       </c>
       <c r="G41" s="3">
-        <v>735200</v>
+        <v>111600</v>
       </c>
       <c r="H41" s="3">
-        <v>832600</v>
+        <v>743600</v>
       </c>
       <c r="I41" s="3">
-        <v>508400</v>
+        <v>842200</v>
       </c>
       <c r="J41" s="3">
+        <v>514200</v>
+      </c>
+      <c r="K41" s="3">
         <v>323500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>293600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>902600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>465100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1472800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>414500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>391800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>655300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1070100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,379 +2423,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2841100</v>
+        <v>2882200</v>
       </c>
       <c r="E43" s="3">
-        <v>789300</v>
+        <v>2873700</v>
       </c>
       <c r="F43" s="3">
-        <v>845600</v>
+        <v>798300</v>
       </c>
       <c r="G43" s="3">
-        <v>798400</v>
+        <v>855300</v>
       </c>
       <c r="H43" s="3">
-        <v>764900</v>
+        <v>807500</v>
       </c>
       <c r="I43" s="3">
-        <v>744300</v>
+        <v>773700</v>
       </c>
       <c r="J43" s="3">
+        <v>752900</v>
+      </c>
+      <c r="K43" s="3">
         <v>751200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>658400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2851600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2841000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2947800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2131400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2117300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2164900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2288600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2473700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>338700</v>
+        <v>327200</v>
       </c>
       <c r="E44" s="3">
-        <v>370700</v>
+        <v>342600</v>
       </c>
       <c r="F44" s="3">
-        <v>325000</v>
+        <v>374900</v>
       </c>
       <c r="G44" s="3">
-        <v>367600</v>
+        <v>328700</v>
       </c>
       <c r="H44" s="3">
-        <v>370700</v>
+        <v>371800</v>
       </c>
       <c r="I44" s="3">
-        <v>359200</v>
+        <v>374900</v>
       </c>
       <c r="J44" s="3">
+        <v>363400</v>
+      </c>
+      <c r="K44" s="3">
         <v>328800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>356800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>328200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>333500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>282800</v>
-      </c>
-      <c r="O44" s="3">
-        <v>325200</v>
       </c>
       <c r="P44" s="3">
         <v>325200</v>
       </c>
       <c r="Q44" s="3">
+        <v>325200</v>
+      </c>
+      <c r="R44" s="3">
         <v>328800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>309600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1322000</v>
+        <v>1297100</v>
       </c>
       <c r="E45" s="3">
-        <v>848600</v>
+        <v>1337200</v>
       </c>
       <c r="F45" s="3">
-        <v>608100</v>
+        <v>858300</v>
       </c>
       <c r="G45" s="3">
-        <v>678100</v>
+        <v>615100</v>
       </c>
       <c r="H45" s="3">
-        <v>704000</v>
+        <v>685900</v>
       </c>
       <c r="I45" s="3">
-        <v>745100</v>
+        <v>712100</v>
       </c>
       <c r="J45" s="3">
+        <v>753700</v>
+      </c>
+      <c r="K45" s="3">
         <v>717700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>603900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>709900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>639900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>512800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>486000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>499400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>749800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>476300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5679300</v>
+        <v>5799100</v>
       </c>
       <c r="E46" s="3">
-        <v>6323100</v>
+        <v>5744400</v>
       </c>
       <c r="F46" s="3">
-        <v>4201200</v>
+        <v>6395700</v>
       </c>
       <c r="G46" s="3">
-        <v>4760600</v>
+        <v>4249400</v>
       </c>
       <c r="H46" s="3">
-        <v>4938700</v>
+        <v>4815200</v>
       </c>
       <c r="I46" s="3">
-        <v>4592400</v>
+        <v>4995400</v>
       </c>
       <c r="J46" s="3">
+        <v>4645100</v>
+      </c>
+      <c r="K46" s="3">
         <v>4409000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4361600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4183300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4717000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4208500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4415400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3356400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3635300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3729800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4348200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1179700</v>
+        <v>1301800</v>
       </c>
       <c r="E47" s="3">
-        <v>899600</v>
+        <v>1193200</v>
       </c>
       <c r="F47" s="3">
-        <v>936900</v>
+        <v>909900</v>
       </c>
       <c r="G47" s="3">
-        <v>914100</v>
+        <v>947600</v>
       </c>
       <c r="H47" s="3">
-        <v>925500</v>
+        <v>924600</v>
       </c>
       <c r="I47" s="3">
-        <v>974200</v>
+        <v>936100</v>
       </c>
       <c r="J47" s="3">
+        <v>985400</v>
+      </c>
+      <c r="K47" s="3">
         <v>992500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>879300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>916100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>935700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>926500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>616200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>657100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>675300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>654500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>793600</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20427700</v>
+        <v>20829000</v>
       </c>
       <c r="E48" s="3">
-        <v>20878200</v>
+        <v>20662000</v>
       </c>
       <c r="F48" s="3">
-        <v>21033500</v>
+        <v>21117700</v>
       </c>
       <c r="G48" s="3">
-        <v>20837900</v>
+        <v>21274700</v>
       </c>
       <c r="H48" s="3">
-        <v>20865300</v>
+        <v>21076900</v>
       </c>
       <c r="I48" s="3">
-        <v>20759500</v>
+        <v>21104600</v>
       </c>
       <c r="J48" s="3">
+        <v>20997600</v>
+      </c>
+      <c r="K48" s="3">
         <v>18908500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17968100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18362100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18194200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17882600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17678000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17552900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18015000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17166900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16807300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17846000</v>
+        <v>18077700</v>
       </c>
       <c r="E49" s="3">
-        <v>18403200</v>
+        <v>18050700</v>
       </c>
       <c r="F49" s="3">
-        <v>18280600</v>
+        <v>18614200</v>
       </c>
       <c r="G49" s="3">
-        <v>18366600</v>
+        <v>18490300</v>
       </c>
       <c r="H49" s="3">
-        <v>18194600</v>
+        <v>18577300</v>
       </c>
       <c r="I49" s="3">
-        <v>18209800</v>
+        <v>18403300</v>
       </c>
       <c r="J49" s="3">
+        <v>18418700</v>
+      </c>
+      <c r="K49" s="3">
         <v>18161900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17450700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18048100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18031600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17627400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17799300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17711500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>18239300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>16099000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>15574300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1439200</v>
+        <v>1430300</v>
       </c>
       <c r="E52" s="3">
-        <v>3358700</v>
+        <v>1455700</v>
       </c>
       <c r="F52" s="3">
-        <v>1324300</v>
+        <v>3397200</v>
       </c>
       <c r="G52" s="3">
-        <v>1262600</v>
+        <v>1339500</v>
       </c>
       <c r="H52" s="3">
-        <v>903400</v>
+        <v>1277100</v>
       </c>
       <c r="I52" s="3">
-        <v>1007700</v>
+        <v>913800</v>
       </c>
       <c r="J52" s="3">
+        <v>1019200</v>
+      </c>
+      <c r="K52" s="3">
         <v>986400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1236800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1067500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>765600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>883400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>843200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>605800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>803600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>844300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>695200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>46571900</v>
+        <v>47437800</v>
       </c>
       <c r="E54" s="3">
-        <v>49862800</v>
+        <v>47106100</v>
       </c>
       <c r="F54" s="3">
-        <v>45776500</v>
+        <v>50434800</v>
       </c>
       <c r="G54" s="3">
-        <v>46141800</v>
+        <v>46301600</v>
       </c>
       <c r="H54" s="3">
-        <v>45827500</v>
+        <v>46671100</v>
       </c>
       <c r="I54" s="3">
-        <v>45543600</v>
+        <v>46353200</v>
       </c>
       <c r="J54" s="3">
+        <v>46066000</v>
+      </c>
+      <c r="K54" s="3">
         <v>43458200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41896600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42577000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42644000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>41528400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>41352000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>39883700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41368400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>38494500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>38218700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2542800</v>
+        <v>2745200</v>
       </c>
       <c r="E57" s="3">
-        <v>2538200</v>
+        <v>2572000</v>
       </c>
       <c r="F57" s="3">
-        <v>3009300</v>
+        <v>2567300</v>
       </c>
       <c r="G57" s="3">
-        <v>2778000</v>
+        <v>3043900</v>
       </c>
       <c r="H57" s="3">
-        <v>2831300</v>
+        <v>2809800</v>
       </c>
       <c r="I57" s="3">
-        <v>2747500</v>
+        <v>2863700</v>
       </c>
       <c r="J57" s="3">
+        <v>2779100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2999500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2745400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2712300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2660400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2883800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3326600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3177800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3106700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3323400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3092100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1966700</v>
+        <v>2235600</v>
       </c>
       <c r="E58" s="3">
-        <v>3203400</v>
+        <v>1989200</v>
       </c>
       <c r="F58" s="3">
-        <v>2953800</v>
+        <v>3240200</v>
       </c>
       <c r="G58" s="3">
-        <v>3598400</v>
+        <v>2987700</v>
       </c>
       <c r="H58" s="3">
-        <v>4319900</v>
+        <v>3639700</v>
       </c>
       <c r="I58" s="3">
-        <v>4174600</v>
+        <v>4369500</v>
       </c>
       <c r="J58" s="3">
+        <v>4222500</v>
+      </c>
+      <c r="K58" s="3">
         <v>3535300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3544100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4315000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4155400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3853500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4527000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4420600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4844500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3754300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3834200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1682000</v>
+        <v>1622000</v>
       </c>
       <c r="E59" s="3">
-        <v>1423200</v>
+        <v>1701300</v>
       </c>
       <c r="F59" s="3">
-        <v>1478000</v>
+        <v>1439600</v>
       </c>
       <c r="G59" s="3">
-        <v>1521400</v>
+        <v>1495000</v>
       </c>
       <c r="H59" s="3">
-        <v>1481100</v>
+        <v>1538900</v>
       </c>
       <c r="I59" s="3">
-        <v>1437700</v>
+        <v>1498100</v>
       </c>
       <c r="J59" s="3">
+        <v>1454200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1402700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1301500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1289500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1228600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1249500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>804500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>743500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>672200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>687600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>689900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6191500</v>
+        <v>6602700</v>
       </c>
       <c r="E60" s="3">
-        <v>7164900</v>
+        <v>6262500</v>
       </c>
       <c r="F60" s="3">
-        <v>7441200</v>
+        <v>7247100</v>
       </c>
       <c r="G60" s="3">
-        <v>7897800</v>
+        <v>7526500</v>
       </c>
       <c r="H60" s="3">
-        <v>8632300</v>
+        <v>7988400</v>
       </c>
       <c r="I60" s="3">
-        <v>8359800</v>
+        <v>8731300</v>
       </c>
       <c r="J60" s="3">
+        <v>8455700</v>
+      </c>
+      <c r="K60" s="3">
         <v>7937400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7591000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8316800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8044300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7986900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8658100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8341800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8623400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7765300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7616200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19045500</v>
+        <v>19179300</v>
       </c>
       <c r="E61" s="3">
-        <v>19417700</v>
+        <v>19264000</v>
       </c>
       <c r="F61" s="3">
-        <v>17059800</v>
+        <v>19640400</v>
       </c>
       <c r="G61" s="3">
-        <v>17082700</v>
+        <v>17255500</v>
       </c>
       <c r="H61" s="3">
-        <v>16705200</v>
+        <v>17278600</v>
       </c>
       <c r="I61" s="3">
-        <v>16756200</v>
+        <v>16896800</v>
       </c>
       <c r="J61" s="3">
+        <v>16948400</v>
+      </c>
+      <c r="K61" s="3">
         <v>15039100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14231500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13826500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14564200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13555800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13735100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>12973800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13641500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12731100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>12679600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5247700</v>
+        <v>5428000</v>
       </c>
       <c r="E62" s="3">
-        <v>5452400</v>
+        <v>5307900</v>
       </c>
       <c r="F62" s="3">
-        <v>4982100</v>
+        <v>5515000</v>
       </c>
       <c r="G62" s="3">
-        <v>4978300</v>
+        <v>5039200</v>
       </c>
       <c r="H62" s="3">
-        <v>4917400</v>
+        <v>5035400</v>
       </c>
       <c r="I62" s="3">
-        <v>4796400</v>
+        <v>4973800</v>
       </c>
       <c r="J62" s="3">
+        <v>4851400</v>
+      </c>
+      <c r="K62" s="3">
         <v>4735500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4709700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4832900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4756900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4636400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4340200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4371500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4358900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4282100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5051900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30749600</v>
+        <v>31480200</v>
       </c>
       <c r="E66" s="3">
-        <v>32293800</v>
+        <v>31102300</v>
       </c>
       <c r="F66" s="3">
-        <v>29737300</v>
+        <v>32664200</v>
       </c>
       <c r="G66" s="3">
-        <v>30214500</v>
+        <v>30078400</v>
       </c>
       <c r="H66" s="3">
-        <v>30505200</v>
+        <v>30561100</v>
       </c>
       <c r="I66" s="3">
-        <v>30147500</v>
+        <v>30855200</v>
       </c>
       <c r="J66" s="3">
+        <v>30493300</v>
+      </c>
+      <c r="K66" s="3">
         <v>27960200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26767600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27216400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>27597300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26419500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26975400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>25928300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26866500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>25019700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>25588200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,43 +3833,46 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>3082400</v>
+      </c>
+      <c r="E70" s="3">
+        <v>3082400</v>
+      </c>
+      <c r="F70" s="3">
+        <v>3082400</v>
+      </c>
+      <c r="G70" s="3">
+        <v>3082400</v>
+      </c>
+      <c r="H70" s="3">
+        <v>3082400</v>
+      </c>
+      <c r="I70" s="3">
+        <v>3082400</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3082400</v>
+      </c>
+      <c r="K70" s="3">
         <v>3047400</v>
       </c>
-      <c r="E70" s="3">
-        <v>3047400</v>
-      </c>
-      <c r="F70" s="3">
-        <v>3047400</v>
-      </c>
-      <c r="G70" s="3">
-        <v>3047400</v>
-      </c>
-      <c r="H70" s="3">
-        <v>3047400</v>
-      </c>
-      <c r="I70" s="3">
-        <v>3047400</v>
-      </c>
-      <c r="J70" s="3">
-        <v>3047400</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2909700</v>
-      </c>
-      <c r="L70" s="3">
-        <v>3014200</v>
       </c>
       <c r="M70" s="3">
         <v>3014200</v>
       </c>
       <c r="N70" s="3">
-        <v>2979800</v>
+        <v>3014200</v>
       </c>
       <c r="O70" s="3">
         <v>2979800</v>
@@ -3713,7 +3881,7 @@
         <v>2979800</v>
       </c>
       <c r="Q70" s="3">
-        <v>3076000</v>
+        <v>2979800</v>
       </c>
       <c r="R70" s="3">
         <v>3076000</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>3076000</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>3076000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3913500</v>
+        <v>-3916100</v>
       </c>
       <c r="E72" s="3">
-        <v>-2275700</v>
+        <v>-3958400</v>
       </c>
       <c r="F72" s="3">
-        <v>-3525400</v>
+        <v>-2301800</v>
       </c>
       <c r="G72" s="3">
-        <v>-3603800</v>
+        <v>-3565800</v>
       </c>
       <c r="H72" s="3">
-        <v>-3953900</v>
+        <v>-3645100</v>
       </c>
       <c r="I72" s="3">
-        <v>-3816900</v>
+        <v>-3999200</v>
       </c>
       <c r="J72" s="3">
+        <v>-3860600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3757500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3181400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3621700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3908500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3674900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4370700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4812100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4858300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4640100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5443700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12774900</v>
+        <v>12875200</v>
       </c>
       <c r="E76" s="3">
-        <v>14521600</v>
+        <v>12921400</v>
       </c>
       <c r="F76" s="3">
-        <v>12991800</v>
+        <v>14688200</v>
       </c>
       <c r="G76" s="3">
-        <v>12879900</v>
+        <v>13140800</v>
       </c>
       <c r="H76" s="3">
-        <v>12274900</v>
+        <v>13027700</v>
       </c>
       <c r="I76" s="3">
-        <v>12348700</v>
+        <v>12415700</v>
       </c>
       <c r="J76" s="3">
+        <v>12490300</v>
+      </c>
+      <c r="K76" s="3">
         <v>12450700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12219300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12346500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12032600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12129100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11396800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10975600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11425900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10398800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9554500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>180400</v>
+        <v>532700</v>
       </c>
       <c r="E81" s="3">
-        <v>517500</v>
+        <v>182400</v>
       </c>
       <c r="F81" s="3">
-        <v>511500</v>
+        <v>523500</v>
       </c>
       <c r="G81" s="3">
-        <v>659900</v>
+        <v>517300</v>
       </c>
       <c r="H81" s="3">
-        <v>579200</v>
+        <v>667400</v>
       </c>
       <c r="I81" s="3">
-        <v>563200</v>
+        <v>585800</v>
       </c>
       <c r="J81" s="3">
+        <v>569700</v>
+      </c>
+      <c r="K81" s="3">
         <v>461200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>591500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1027600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>497600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>488200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>597600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>569300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>493200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>504700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>828800</v>
+        <v>853000</v>
       </c>
       <c r="E83" s="3">
-        <v>838700</v>
+        <v>838300</v>
       </c>
       <c r="F83" s="3">
-        <v>831900</v>
+        <v>848300</v>
       </c>
       <c r="G83" s="3">
-        <v>830300</v>
+        <v>841400</v>
       </c>
       <c r="H83" s="3">
-        <v>845600</v>
+        <v>839900</v>
       </c>
       <c r="I83" s="3">
-        <v>839500</v>
+        <v>855300</v>
       </c>
       <c r="J83" s="3">
+        <v>849100</v>
+      </c>
+      <c r="K83" s="3">
         <v>772500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>726000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1505600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>746800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>736800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>724100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>729300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>696800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>679100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1949900</v>
+        <v>1624300</v>
       </c>
       <c r="E89" s="3">
-        <v>1104300</v>
+        <v>1972300</v>
       </c>
       <c r="F89" s="3">
-        <v>1591400</v>
+        <v>1117000</v>
       </c>
       <c r="G89" s="3">
-        <v>1718500</v>
+        <v>1609700</v>
       </c>
       <c r="H89" s="3">
-        <v>1593000</v>
+        <v>1738300</v>
       </c>
       <c r="I89" s="3">
-        <v>1153800</v>
+        <v>1611200</v>
       </c>
       <c r="J89" s="3">
+        <v>1167000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1360800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1484600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2674700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1126200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1233900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1661800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1603000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1008700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1167700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1492700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-680400</v>
+        <v>-793700</v>
       </c>
       <c r="E91" s="3">
-        <v>-595900</v>
+        <v>-688200</v>
       </c>
       <c r="F91" s="3">
-        <v>-877500</v>
+        <v>-602800</v>
       </c>
       <c r="G91" s="3">
-        <v>-771000</v>
+        <v>-887600</v>
       </c>
       <c r="H91" s="3">
-        <v>-739800</v>
+        <v>-779800</v>
       </c>
       <c r="I91" s="3">
-        <v>-646900</v>
+        <v>-748300</v>
       </c>
       <c r="J91" s="3">
+        <v>-654300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-741300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-734000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1495800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-818600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-774000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-775500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-654500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-762900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-749800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-718500</v>
+        <v>-901500</v>
       </c>
       <c r="E94" s="3">
-        <v>-601300</v>
+        <v>-726700</v>
       </c>
       <c r="F94" s="3">
-        <v>-884400</v>
+        <v>-608200</v>
       </c>
       <c r="G94" s="3">
-        <v>-768700</v>
+        <v>-894500</v>
       </c>
       <c r="H94" s="3">
-        <v>-753500</v>
+        <v>-777500</v>
       </c>
       <c r="I94" s="3">
-        <v>-665200</v>
+        <v>-762100</v>
       </c>
       <c r="J94" s="3">
+        <v>-672800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-717700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-864000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1696800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-871000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-848400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-801500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-538800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1917500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-838100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1139300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-573100</v>
+        <v>-579700</v>
       </c>
       <c r="E96" s="3">
-        <v>-544900</v>
+        <v>-579700</v>
       </c>
       <c r="F96" s="3">
-        <v>-544900</v>
+        <v>-551200</v>
       </c>
       <c r="G96" s="3">
-        <v>-542700</v>
+        <v>-551200</v>
       </c>
       <c r="H96" s="3">
-        <v>-541900</v>
+        <v>-548900</v>
       </c>
       <c r="I96" s="3">
-        <v>-516000</v>
+        <v>-548100</v>
       </c>
       <c r="J96" s="3">
+        <v>-521900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-515300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-492700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-996700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-486300</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-480800</v>
       </c>
       <c r="O96" s="3">
         <v>-480800</v>
       </c>
       <c r="P96" s="3">
+        <v>-480800</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-465900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-456300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-455600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-456300</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2093000</v>
+        <v>-621200</v>
       </c>
       <c r="E100" s="3">
-        <v>1425500</v>
+        <v>-2117000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1331900</v>
+        <v>1441900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1047300</v>
+        <v>-1347200</v>
       </c>
       <c r="H100" s="3">
-        <v>-515300</v>
+        <v>-1059300</v>
       </c>
       <c r="I100" s="3">
-        <v>-303700</v>
+        <v>-521200</v>
       </c>
       <c r="J100" s="3">
+        <v>-307200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-948300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-303800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1154800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>176900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1393200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>198000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1029200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>645300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-744400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>244300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-861600</v>
+        <v>101600</v>
       </c>
       <c r="E102" s="3">
-        <v>1928600</v>
+        <v>-871400</v>
       </c>
       <c r="F102" s="3">
-        <v>-624900</v>
+        <v>1950700</v>
       </c>
       <c r="G102" s="3">
-        <v>-97400</v>
+        <v>-632000</v>
       </c>
       <c r="H102" s="3">
-        <v>324200</v>
+        <v>-98500</v>
       </c>
       <c r="I102" s="3">
-        <v>184900</v>
+        <v>327900</v>
       </c>
       <c r="J102" s="3">
+        <v>187100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-305200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>316800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-176900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>432100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1007700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1058300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>35000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-263500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-414800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>597700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4454900</v>
+        <v>4839000</v>
       </c>
       <c r="E8" s="3">
-        <v>4121600</v>
+        <v>4589200</v>
       </c>
       <c r="F8" s="3">
-        <v>4341800</v>
+        <v>4245800</v>
       </c>
       <c r="G8" s="3">
-        <v>4862200</v>
+        <v>4472600</v>
       </c>
       <c r="H8" s="3">
-        <v>4572700</v>
+        <v>4976200</v>
       </c>
       <c r="I8" s="3">
-        <v>4533500</v>
+        <v>4710500</v>
       </c>
       <c r="J8" s="3">
+        <v>4670100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4379500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4730200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4270800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8563700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4208100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4492100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4239800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4233100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4099300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4380400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4153800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1375700</v>
+        <v>1629700</v>
       </c>
       <c r="E9" s="3">
-        <v>1132400</v>
+        <v>1417100</v>
       </c>
       <c r="F9" s="3">
-        <v>1273300</v>
+        <v>1166500</v>
       </c>
       <c r="G9" s="3">
-        <v>1647400</v>
+        <v>1311700</v>
       </c>
       <c r="H9" s="3">
-        <v>1368000</v>
+        <v>1693100</v>
       </c>
       <c r="I9" s="3">
-        <v>1313300</v>
+        <v>1409200</v>
       </c>
       <c r="J9" s="3">
+        <v>1352900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1337900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1632500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1297100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2582100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1287300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1511500</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1248800</v>
       </c>
       <c r="Q9" s="3">
         <v>1248800</v>
       </c>
       <c r="R9" s="3">
+        <v>1248800</v>
+      </c>
+      <c r="S9" s="3">
         <v>1249900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1514900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1236900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3209400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3172100</v>
+      </c>
+      <c r="F10" s="3">
         <v>3079300</v>
       </c>
-      <c r="E10" s="3">
-        <v>2989200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3068500</v>
-      </c>
       <c r="G10" s="3">
-        <v>3214800</v>
+        <v>3161000</v>
       </c>
       <c r="H10" s="3">
-        <v>3204800</v>
+        <v>3283100</v>
       </c>
       <c r="I10" s="3">
-        <v>3220200</v>
+        <v>3301300</v>
       </c>
       <c r="J10" s="3">
+        <v>3317200</v>
+      </c>
+      <c r="K10" s="3">
         <v>3041600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3097600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2973600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5981700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2920800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2980600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2991000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2984300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2849400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2865500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2917000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>39300</v>
+        <v>50800</v>
       </c>
       <c r="E14" s="3">
-        <v>362600</v>
+        <v>40400</v>
       </c>
       <c r="F14" s="3">
-        <v>30000</v>
+        <v>373500</v>
       </c>
       <c r="G14" s="3">
-        <v>95500</v>
+        <v>30900</v>
       </c>
       <c r="H14" s="3">
-        <v>18500</v>
+        <v>98300</v>
       </c>
       <c r="I14" s="3">
-        <v>44600</v>
+        <v>19000</v>
       </c>
       <c r="J14" s="3">
+        <v>46000</v>
+      </c>
+      <c r="K14" s="3">
         <v>21600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>192600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>40000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>34600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>96000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>29000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>29800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>64500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>15400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>853000</v>
+        <v>876300</v>
       </c>
       <c r="E15" s="3">
-        <v>849100</v>
+        <v>878700</v>
       </c>
       <c r="F15" s="3">
-        <v>837600</v>
+        <v>874700</v>
       </c>
       <c r="G15" s="3">
-        <v>841400</v>
+        <v>862800</v>
       </c>
       <c r="H15" s="3">
-        <v>829100</v>
+        <v>854900</v>
       </c>
       <c r="I15" s="3">
-        <v>846000</v>
+        <v>854100</v>
       </c>
       <c r="J15" s="3">
+        <v>871500</v>
+      </c>
+      <c r="K15" s="3">
         <v>839100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>772500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>726000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1505600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>746800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>737500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>719700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>727100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>698300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>679100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3458000</v>
+        <v>3869100</v>
       </c>
       <c r="E17" s="3">
-        <v>3538900</v>
+        <v>3562200</v>
       </c>
       <c r="F17" s="3">
-        <v>3348700</v>
+        <v>3645500</v>
       </c>
       <c r="G17" s="3">
-        <v>3868300</v>
+        <v>3449600</v>
       </c>
       <c r="H17" s="3">
-        <v>3443400</v>
+        <v>3959500</v>
       </c>
       <c r="I17" s="3">
-        <v>3444200</v>
+        <v>3547200</v>
       </c>
       <c r="J17" s="3">
+        <v>3548000</v>
+      </c>
+      <c r="K17" s="3">
         <v>3406500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3873200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3252700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6577900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3261100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3592300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3198600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3217200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3198100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3445500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3121300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>996900</v>
+        <v>969900</v>
       </c>
       <c r="E18" s="3">
-        <v>582800</v>
+        <v>1027000</v>
       </c>
       <c r="F18" s="3">
-        <v>993100</v>
+        <v>600300</v>
       </c>
       <c r="G18" s="3">
-        <v>993800</v>
+        <v>1023000</v>
       </c>
       <c r="H18" s="3">
-        <v>1129300</v>
+        <v>1016700</v>
       </c>
       <c r="I18" s="3">
-        <v>1089300</v>
+        <v>1163400</v>
       </c>
       <c r="J18" s="3">
+        <v>1122100</v>
+      </c>
+      <c r="K18" s="3">
         <v>973100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>857000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1018100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1985900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>947000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>899700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1041100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1015800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>901100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>934900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1032500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-15400</v>
+        <v>-29300</v>
       </c>
       <c r="E20" s="3">
-        <v>-70100</v>
+        <v>-15900</v>
       </c>
       <c r="F20" s="3">
-        <v>-32300</v>
+        <v>-72200</v>
       </c>
       <c r="G20" s="3">
-        <v>-30000</v>
+        <v>-33300</v>
       </c>
       <c r="H20" s="3">
-        <v>35400</v>
+        <v>-27000</v>
       </c>
       <c r="I20" s="3">
-        <v>-39300</v>
+        <v>36500</v>
       </c>
       <c r="J20" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="K20" s="3">
         <v>68500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-40000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-121200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-55700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-43200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-11200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-31500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1834500</v>
+        <v>1816800</v>
       </c>
       <c r="E21" s="3">
-        <v>1351000</v>
+        <v>1889800</v>
       </c>
       <c r="F21" s="3">
-        <v>1809100</v>
+        <v>1391800</v>
       </c>
       <c r="G21" s="3">
-        <v>1805200</v>
+        <v>1863600</v>
       </c>
       <c r="H21" s="3">
-        <v>2004600</v>
+        <v>1856500</v>
       </c>
       <c r="I21" s="3">
-        <v>1905300</v>
+        <v>2065000</v>
       </c>
       <c r="J21" s="3">
+        <v>1962700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1890700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1644000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1704100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3370200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1638100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1638800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1717600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1733300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1597200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1582600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1673200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>214800</v>
+        <v>217300</v>
       </c>
       <c r="E22" s="3">
-        <v>215500</v>
+        <v>221300</v>
       </c>
       <c r="F22" s="3">
-        <v>213200</v>
+        <v>222000</v>
       </c>
       <c r="G22" s="3">
-        <v>220200</v>
+        <v>219700</v>
       </c>
       <c r="H22" s="3">
-        <v>215500</v>
+        <v>226000</v>
       </c>
       <c r="I22" s="3">
-        <v>214800</v>
+        <v>222000</v>
       </c>
       <c r="J22" s="3">
+        <v>221300</v>
+      </c>
+      <c r="K22" s="3">
         <v>216300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>197100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>185300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>365900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>180700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>179400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>180100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>177100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>179800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>172900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>766700</v>
+        <v>723200</v>
       </c>
       <c r="E23" s="3">
-        <v>297200</v>
+        <v>789800</v>
       </c>
       <c r="F23" s="3">
-        <v>747500</v>
+        <v>306100</v>
       </c>
       <c r="G23" s="3">
-        <v>743600</v>
+        <v>770000</v>
       </c>
       <c r="H23" s="3">
-        <v>949200</v>
+        <v>763700</v>
       </c>
       <c r="I23" s="3">
-        <v>835300</v>
+        <v>977800</v>
       </c>
       <c r="J23" s="3">
+        <v>860400</v>
+      </c>
+      <c r="K23" s="3">
         <v>825200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>674300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>792800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1498800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>710600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>721900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>817900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>827600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>720600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>730600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>832800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>201700</v>
+        <v>151500</v>
       </c>
       <c r="E24" s="3">
-        <v>73900</v>
+        <v>207800</v>
       </c>
       <c r="F24" s="3">
-        <v>187100</v>
+        <v>76100</v>
       </c>
       <c r="G24" s="3">
-        <v>187100</v>
+        <v>192700</v>
       </c>
       <c r="H24" s="3">
-        <v>245600</v>
+        <v>194300</v>
       </c>
       <c r="I24" s="3">
-        <v>211700</v>
+        <v>253000</v>
       </c>
       <c r="J24" s="3">
+        <v>218100</v>
+      </c>
+      <c r="K24" s="3">
         <v>223200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>185700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>162800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>396700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>176900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>202400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>185300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>221800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>192100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>193600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>565000</v>
+        <v>571800</v>
       </c>
       <c r="E26" s="3">
-        <v>223200</v>
+        <v>582100</v>
       </c>
       <c r="F26" s="3">
-        <v>560400</v>
+        <v>230000</v>
       </c>
       <c r="G26" s="3">
-        <v>556600</v>
+        <v>577300</v>
       </c>
       <c r="H26" s="3">
-        <v>703600</v>
+        <v>569400</v>
       </c>
       <c r="I26" s="3">
-        <v>623600</v>
+        <v>724800</v>
       </c>
       <c r="J26" s="3">
+        <v>642300</v>
+      </c>
+      <c r="K26" s="3">
         <v>602000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>488600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>630000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1102100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>533700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>519500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>632600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>605800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>528500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>537000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>614600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>528100</v>
+        <v>537700</v>
       </c>
       <c r="E27" s="3">
-        <v>179400</v>
+        <v>544000</v>
       </c>
       <c r="F27" s="3">
-        <v>519600</v>
+        <v>184800</v>
       </c>
       <c r="G27" s="3">
-        <v>517300</v>
+        <v>535300</v>
       </c>
       <c r="H27" s="3">
-        <v>661300</v>
+        <v>528900</v>
       </c>
       <c r="I27" s="3">
-        <v>580400</v>
+        <v>681200</v>
       </c>
       <c r="J27" s="3">
+        <v>597900</v>
+      </c>
+      <c r="K27" s="3">
         <v>562700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>461200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>591500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1027600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>497600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>488200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>597600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>569300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>493200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>504700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,38 +1874,41 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>4600</v>
+        <v>167300</v>
       </c>
       <c r="E29" s="3">
-        <v>3100</v>
+        <v>4800</v>
       </c>
       <c r="F29" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G29" s="3" t="s">
+        <v>3200</v>
+      </c>
+      <c r="G29" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H29" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J29" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K29" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>6200</v>
-      </c>
-      <c r="I29" s="3">
-        <v>5400</v>
-      </c>
-      <c r="J29" s="3">
-        <v>6900</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15400</v>
+        <v>29300</v>
       </c>
       <c r="E32" s="3">
-        <v>70100</v>
+        <v>15900</v>
       </c>
       <c r="F32" s="3">
-        <v>32300</v>
+        <v>72200</v>
       </c>
       <c r="G32" s="3">
-        <v>30000</v>
+        <v>33300</v>
       </c>
       <c r="H32" s="3">
-        <v>-35400</v>
+        <v>27000</v>
       </c>
       <c r="I32" s="3">
-        <v>39300</v>
+        <v>-36500</v>
       </c>
       <c r="J32" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-68500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>40000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>121200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>55700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>43200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>11200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>31500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>532700</v>
+        <v>705000</v>
       </c>
       <c r="E33" s="3">
-        <v>182400</v>
+        <v>548800</v>
       </c>
       <c r="F33" s="3">
-        <v>523500</v>
+        <v>187900</v>
       </c>
       <c r="G33" s="3">
-        <v>517300</v>
+        <v>539300</v>
       </c>
       <c r="H33" s="3">
-        <v>667400</v>
+        <v>532900</v>
       </c>
       <c r="I33" s="3">
-        <v>585800</v>
+        <v>687500</v>
       </c>
       <c r="J33" s="3">
+        <v>603500</v>
+      </c>
+      <c r="K33" s="3">
         <v>569700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>461200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>591500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1027600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>497600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>488200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>597600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>569300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>493200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>504700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>532700</v>
+        <v>705000</v>
       </c>
       <c r="E35" s="3">
-        <v>182400</v>
+        <v>548800</v>
       </c>
       <c r="F35" s="3">
-        <v>523500</v>
+        <v>187900</v>
       </c>
       <c r="G35" s="3">
-        <v>517300</v>
+        <v>539300</v>
       </c>
       <c r="H35" s="3">
-        <v>667400</v>
+        <v>532900</v>
       </c>
       <c r="I35" s="3">
-        <v>585800</v>
+        <v>687500</v>
       </c>
       <c r="J35" s="3">
+        <v>603500</v>
+      </c>
+      <c r="K35" s="3">
         <v>569700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>461200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>591500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1027600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>497600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>488200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>597600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>569300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>493200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>504700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1292500</v>
+        <v>177600</v>
       </c>
       <c r="E41" s="3">
-        <v>1190900</v>
+        <v>1331500</v>
       </c>
       <c r="F41" s="3">
-        <v>2062300</v>
+        <v>1226800</v>
       </c>
       <c r="G41" s="3">
-        <v>111600</v>
+        <v>2124500</v>
       </c>
       <c r="H41" s="3">
-        <v>743600</v>
+        <v>115000</v>
       </c>
       <c r="I41" s="3">
-        <v>842200</v>
+        <v>766100</v>
       </c>
       <c r="J41" s="3">
+        <v>867600</v>
+      </c>
+      <c r="K41" s="3">
         <v>514200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>323500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>293600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>902600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>465100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1472800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>414500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>391800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>655300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1070100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,400 +2515,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2882200</v>
+        <v>3342600</v>
       </c>
       <c r="E43" s="3">
-        <v>2873700</v>
+        <v>2969100</v>
       </c>
       <c r="F43" s="3">
-        <v>798300</v>
+        <v>2960300</v>
       </c>
       <c r="G43" s="3">
-        <v>855300</v>
+        <v>822400</v>
       </c>
       <c r="H43" s="3">
-        <v>807500</v>
+        <v>881000</v>
       </c>
       <c r="I43" s="3">
-        <v>773700</v>
+        <v>831900</v>
       </c>
       <c r="J43" s="3">
+        <v>797000</v>
+      </c>
+      <c r="K43" s="3">
         <v>752900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>751200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>658400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2851600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2841000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2947800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2131400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2117300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2164900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2288600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2473700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>327200</v>
+        <v>348100</v>
       </c>
       <c r="E44" s="3">
-        <v>342600</v>
+        <v>337000</v>
       </c>
       <c r="F44" s="3">
-        <v>374900</v>
+        <v>352900</v>
       </c>
       <c r="G44" s="3">
-        <v>328700</v>
+        <v>386200</v>
       </c>
       <c r="H44" s="3">
-        <v>371800</v>
+        <v>338600</v>
       </c>
       <c r="I44" s="3">
-        <v>374900</v>
+        <v>383000</v>
       </c>
       <c r="J44" s="3">
+        <v>386200</v>
+      </c>
+      <c r="K44" s="3">
         <v>363400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>328800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>356800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>328200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>333500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>282800</v>
-      </c>
-      <c r="P44" s="3">
-        <v>325200</v>
       </c>
       <c r="Q44" s="3">
         <v>325200</v>
       </c>
       <c r="R44" s="3">
+        <v>325200</v>
+      </c>
+      <c r="S44" s="3">
         <v>328800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>309600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1297100</v>
+        <v>642300</v>
       </c>
       <c r="E45" s="3">
-        <v>1337200</v>
+        <v>1336200</v>
       </c>
       <c r="F45" s="3">
-        <v>858300</v>
+        <v>1377500</v>
       </c>
       <c r="G45" s="3">
-        <v>615100</v>
+        <v>884200</v>
       </c>
       <c r="H45" s="3">
-        <v>685900</v>
+        <v>633600</v>
       </c>
       <c r="I45" s="3">
-        <v>712100</v>
+        <v>706600</v>
       </c>
       <c r="J45" s="3">
+        <v>733500</v>
+      </c>
+      <c r="K45" s="3">
         <v>753700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>717700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>603900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>709900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>639900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>512800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>486000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>499400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>749800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>476300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5799100</v>
+        <v>4510700</v>
       </c>
       <c r="E46" s="3">
-        <v>5744400</v>
+        <v>5973800</v>
       </c>
       <c r="F46" s="3">
-        <v>6395700</v>
+        <v>5917500</v>
       </c>
       <c r="G46" s="3">
-        <v>4249400</v>
+        <v>6588400</v>
       </c>
       <c r="H46" s="3">
-        <v>4815200</v>
+        <v>4377500</v>
       </c>
       <c r="I46" s="3">
-        <v>4995400</v>
+        <v>4960300</v>
       </c>
       <c r="J46" s="3">
+        <v>5145900</v>
+      </c>
+      <c r="K46" s="3">
         <v>4645100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4409000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4361600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4183300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4717000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4208500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4415400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3356400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3635300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3729800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4348200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1301800</v>
+        <v>1452800</v>
       </c>
       <c r="E47" s="3">
-        <v>1193200</v>
+        <v>1341000</v>
       </c>
       <c r="F47" s="3">
-        <v>909900</v>
+        <v>1229200</v>
       </c>
       <c r="G47" s="3">
-        <v>947600</v>
+        <v>937300</v>
       </c>
       <c r="H47" s="3">
-        <v>924600</v>
+        <v>976200</v>
       </c>
       <c r="I47" s="3">
-        <v>936100</v>
+        <v>952400</v>
       </c>
       <c r="J47" s="3">
+        <v>964300</v>
+      </c>
+      <c r="K47" s="3">
         <v>985400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>992500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>879300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>916100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>935700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>926500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>616200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>657100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>675300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>654500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>793600</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20829000</v>
+        <v>21818400</v>
       </c>
       <c r="E48" s="3">
-        <v>20662000</v>
+        <v>21456700</v>
       </c>
       <c r="F48" s="3">
-        <v>21117700</v>
+        <v>21284700</v>
       </c>
       <c r="G48" s="3">
-        <v>21274700</v>
+        <v>21754100</v>
       </c>
       <c r="H48" s="3">
-        <v>21076900</v>
+        <v>21915900</v>
       </c>
       <c r="I48" s="3">
-        <v>21104600</v>
+        <v>21712100</v>
       </c>
       <c r="J48" s="3">
+        <v>21740600</v>
+      </c>
+      <c r="K48" s="3">
         <v>20997600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18908500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17968100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18362100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18194200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17882600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17678000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17552900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18015000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17166900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16807300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18077700</v>
+        <v>18799300</v>
       </c>
       <c r="E49" s="3">
-        <v>18050700</v>
+        <v>18622500</v>
       </c>
       <c r="F49" s="3">
-        <v>18614200</v>
+        <v>18594700</v>
       </c>
       <c r="G49" s="3">
-        <v>18490300</v>
+        <v>19175200</v>
       </c>
       <c r="H49" s="3">
-        <v>18577300</v>
+        <v>19047500</v>
       </c>
       <c r="I49" s="3">
-        <v>18403300</v>
+        <v>19137200</v>
       </c>
       <c r="J49" s="3">
+        <v>18957900</v>
+      </c>
+      <c r="K49" s="3">
         <v>18418700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18161900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17450700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18048100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18031600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17627400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17799300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17711500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>18239300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>16099000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>15574300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1430300</v>
+        <v>1527400</v>
       </c>
       <c r="E52" s="3">
-        <v>1455700</v>
+        <v>1473400</v>
       </c>
       <c r="F52" s="3">
-        <v>3397200</v>
+        <v>1499600</v>
       </c>
       <c r="G52" s="3">
-        <v>1339500</v>
+        <v>3499600</v>
       </c>
       <c r="H52" s="3">
-        <v>1277100</v>
+        <v>1379900</v>
       </c>
       <c r="I52" s="3">
-        <v>913800</v>
+        <v>1315600</v>
       </c>
       <c r="J52" s="3">
+        <v>941300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1019200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>986400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1236800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1067500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>765600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>883400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>843200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>605800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>803600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>844300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>695200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>47437800</v>
+        <v>48108600</v>
       </c>
       <c r="E54" s="3">
-        <v>47106100</v>
+        <v>48867500</v>
       </c>
       <c r="F54" s="3">
-        <v>50434800</v>
+        <v>48525700</v>
       </c>
       <c r="G54" s="3">
-        <v>46301600</v>
+        <v>51954700</v>
       </c>
       <c r="H54" s="3">
-        <v>46671100</v>
+        <v>47697000</v>
       </c>
       <c r="I54" s="3">
-        <v>46353200</v>
+        <v>48077600</v>
       </c>
       <c r="J54" s="3">
+        <v>47750100</v>
+      </c>
+      <c r="K54" s="3">
         <v>46066000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43458200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41896600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42577000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42644000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>41528400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41352000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>39883700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41368400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>38494500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>38218700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2745200</v>
+        <v>3120500</v>
       </c>
       <c r="E57" s="3">
-        <v>2572000</v>
+        <v>2827900</v>
       </c>
       <c r="F57" s="3">
-        <v>2567300</v>
+        <v>2649500</v>
       </c>
       <c r="G57" s="3">
-        <v>3043900</v>
+        <v>2644700</v>
       </c>
       <c r="H57" s="3">
-        <v>2809800</v>
+        <v>3135600</v>
       </c>
       <c r="I57" s="3">
-        <v>2863700</v>
+        <v>2894500</v>
       </c>
       <c r="J57" s="3">
+        <v>2950000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2779100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2999500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2745400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2712300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2660400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2883800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3326600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3177800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3106700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3323400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3092100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2235600</v>
+        <v>1916700</v>
       </c>
       <c r="E58" s="3">
-        <v>1989200</v>
+        <v>2302900</v>
       </c>
       <c r="F58" s="3">
-        <v>3240200</v>
+        <v>2049200</v>
       </c>
       <c r="G58" s="3">
-        <v>2987700</v>
+        <v>3337800</v>
       </c>
       <c r="H58" s="3">
-        <v>3639700</v>
+        <v>3077700</v>
       </c>
       <c r="I58" s="3">
-        <v>4369500</v>
+        <v>3749400</v>
       </c>
       <c r="J58" s="3">
+        <v>4501200</v>
+      </c>
+      <c r="K58" s="3">
         <v>4222500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3535300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3544100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4315000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4155400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3853500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4527000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4420600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4844500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3754300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3834200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1622000</v>
+        <v>1521800</v>
       </c>
       <c r="E59" s="3">
-        <v>1701300</v>
+        <v>1670900</v>
       </c>
       <c r="F59" s="3">
-        <v>1439600</v>
+        <v>1752600</v>
       </c>
       <c r="G59" s="3">
-        <v>1495000</v>
+        <v>1482900</v>
       </c>
       <c r="H59" s="3">
-        <v>1538900</v>
+        <v>1540000</v>
       </c>
       <c r="I59" s="3">
-        <v>1498100</v>
+        <v>1585200</v>
       </c>
       <c r="J59" s="3">
+        <v>1543200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1454200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1402700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1301500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1289500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1228600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1249500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>804500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>743500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>672200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>687600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>689900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6602700</v>
+        <v>6559100</v>
       </c>
       <c r="E60" s="3">
-        <v>6262500</v>
+        <v>6801700</v>
       </c>
       <c r="F60" s="3">
-        <v>7247100</v>
+        <v>6451200</v>
       </c>
       <c r="G60" s="3">
-        <v>7526500</v>
+        <v>7465500</v>
       </c>
       <c r="H60" s="3">
-        <v>7988400</v>
+        <v>7753400</v>
       </c>
       <c r="I60" s="3">
-        <v>8731300</v>
+        <v>8229200</v>
       </c>
       <c r="J60" s="3">
+        <v>8994400</v>
+      </c>
+      <c r="K60" s="3">
         <v>8455700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7937400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7591000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8316800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8044300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7986900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8658100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8341800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8623400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7765300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7616200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19179300</v>
+        <v>18957900</v>
       </c>
       <c r="E61" s="3">
-        <v>19264000</v>
+        <v>19757300</v>
       </c>
       <c r="F61" s="3">
-        <v>19640400</v>
+        <v>19844500</v>
       </c>
       <c r="G61" s="3">
-        <v>17255500</v>
+        <v>20232300</v>
       </c>
       <c r="H61" s="3">
-        <v>17278600</v>
+        <v>17775500</v>
       </c>
       <c r="I61" s="3">
-        <v>16896800</v>
+        <v>17799300</v>
       </c>
       <c r="J61" s="3">
+        <v>17406000</v>
+      </c>
+      <c r="K61" s="3">
         <v>16948400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15039100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14231500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13826500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14564200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13555800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13735100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>12973800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>13641500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>12731100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>12679600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5428000</v>
+        <v>5677200</v>
       </c>
       <c r="E62" s="3">
-        <v>5307900</v>
+        <v>5591600</v>
       </c>
       <c r="F62" s="3">
-        <v>5515000</v>
+        <v>5467900</v>
       </c>
       <c r="G62" s="3">
-        <v>5039200</v>
+        <v>5681200</v>
       </c>
       <c r="H62" s="3">
-        <v>5035400</v>
+        <v>5191100</v>
       </c>
       <c r="I62" s="3">
-        <v>4973800</v>
+        <v>5187100</v>
       </c>
       <c r="J62" s="3">
+        <v>5123700</v>
+      </c>
+      <c r="K62" s="3">
         <v>4851400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4735500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4709700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4832900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4756900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4636400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4340200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4371500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4358900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4282100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5051900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31480200</v>
+        <v>31463900</v>
       </c>
       <c r="E66" s="3">
-        <v>31102300</v>
+        <v>32429000</v>
       </c>
       <c r="F66" s="3">
-        <v>32664200</v>
+        <v>32039600</v>
       </c>
       <c r="G66" s="3">
-        <v>30078400</v>
+        <v>33648600</v>
       </c>
       <c r="H66" s="3">
-        <v>30561100</v>
+        <v>30984900</v>
       </c>
       <c r="I66" s="3">
-        <v>30855200</v>
+        <v>31482100</v>
       </c>
       <c r="J66" s="3">
+        <v>31785000</v>
+      </c>
+      <c r="K66" s="3">
         <v>30493300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27960200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26767600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>27216400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>27597300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26419500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26975400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>25928300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>26866500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>25019700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>25588200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,46 +4000,49 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>3174500</v>
+      </c>
+      <c r="E70" s="3">
+        <v>3175300</v>
+      </c>
+      <c r="F70" s="3">
+        <v>3175300</v>
+      </c>
+      <c r="G70" s="3">
+        <v>3175300</v>
+      </c>
+      <c r="H70" s="3">
+        <v>3175300</v>
+      </c>
+      <c r="I70" s="3">
+        <v>3175300</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3175300</v>
+      </c>
+      <c r="K70" s="3">
         <v>3082400</v>
       </c>
-      <c r="E70" s="3">
-        <v>3082400</v>
-      </c>
-      <c r="F70" s="3">
-        <v>3082400</v>
-      </c>
-      <c r="G70" s="3">
-        <v>3082400</v>
-      </c>
-      <c r="H70" s="3">
-        <v>3082400</v>
-      </c>
-      <c r="I70" s="3">
-        <v>3082400</v>
-      </c>
-      <c r="J70" s="3">
-        <v>3082400</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3047400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>2909700</v>
-      </c>
-      <c r="M70" s="3">
-        <v>3014200</v>
       </c>
       <c r="N70" s="3">
         <v>3014200</v>
       </c>
       <c r="O70" s="3">
-        <v>2979800</v>
+        <v>3014200</v>
       </c>
       <c r="P70" s="3">
         <v>2979800</v>
@@ -3884,7 +4051,7 @@
         <v>2979800</v>
       </c>
       <c r="R70" s="3">
-        <v>3076000</v>
+        <v>2979800</v>
       </c>
       <c r="S70" s="3">
         <v>3076000</v>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>3076000</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>3076000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3916100</v>
+        <v>-3712100</v>
       </c>
       <c r="E72" s="3">
-        <v>-3958400</v>
+        <v>-4034100</v>
       </c>
       <c r="F72" s="3">
-        <v>-2301800</v>
+        <v>-4077700</v>
       </c>
       <c r="G72" s="3">
-        <v>-3565800</v>
+        <v>-2371100</v>
       </c>
       <c r="H72" s="3">
-        <v>-3645100</v>
+        <v>-3673300</v>
       </c>
       <c r="I72" s="3">
-        <v>-3999200</v>
+        <v>-3754900</v>
       </c>
       <c r="J72" s="3">
+        <v>-4119700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3860600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3757500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3181400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3621700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3908500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3674900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4370700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4812100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4858300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4640100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5443700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12875200</v>
+        <v>13470200</v>
       </c>
       <c r="E76" s="3">
-        <v>12921400</v>
+        <v>13263300</v>
       </c>
       <c r="F76" s="3">
-        <v>14688200</v>
+        <v>13310800</v>
       </c>
       <c r="G76" s="3">
-        <v>13140800</v>
+        <v>15130800</v>
       </c>
       <c r="H76" s="3">
-        <v>13027700</v>
+        <v>13536900</v>
       </c>
       <c r="I76" s="3">
-        <v>12415700</v>
+        <v>13420300</v>
       </c>
       <c r="J76" s="3">
+        <v>12789800</v>
+      </c>
+      <c r="K76" s="3">
         <v>12490300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12450700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12219300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12346500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12032600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12129100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11396800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10975600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11425900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10398800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9554500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>532700</v>
+        <v>705000</v>
       </c>
       <c r="E81" s="3">
-        <v>182400</v>
+        <v>548800</v>
       </c>
       <c r="F81" s="3">
-        <v>523500</v>
+        <v>187900</v>
       </c>
       <c r="G81" s="3">
-        <v>517300</v>
+        <v>539300</v>
       </c>
       <c r="H81" s="3">
-        <v>667400</v>
+        <v>532900</v>
       </c>
       <c r="I81" s="3">
-        <v>585800</v>
+        <v>687500</v>
       </c>
       <c r="J81" s="3">
+        <v>603500</v>
+      </c>
+      <c r="K81" s="3">
         <v>569700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>461200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>591500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1027600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>497600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>488200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>597600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>569300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>493200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>504700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>853000</v>
+        <v>876300</v>
       </c>
       <c r="E83" s="3">
-        <v>838300</v>
+        <v>878700</v>
       </c>
       <c r="F83" s="3">
-        <v>848300</v>
+        <v>863600</v>
       </c>
       <c r="G83" s="3">
-        <v>841400</v>
+        <v>873900</v>
       </c>
       <c r="H83" s="3">
-        <v>839900</v>
+        <v>866800</v>
       </c>
       <c r="I83" s="3">
-        <v>855300</v>
+        <v>865200</v>
       </c>
       <c r="J83" s="3">
+        <v>881000</v>
+      </c>
+      <c r="K83" s="3">
         <v>849100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>772500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>726000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1505600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>746800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>736800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>724100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>729300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>696800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>679100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1624300</v>
+        <v>1296600</v>
       </c>
       <c r="E89" s="3">
-        <v>1972300</v>
+        <v>1673300</v>
       </c>
       <c r="F89" s="3">
-        <v>1117000</v>
+        <v>2031700</v>
       </c>
       <c r="G89" s="3">
-        <v>1609700</v>
+        <v>1150700</v>
       </c>
       <c r="H89" s="3">
-        <v>1738300</v>
+        <v>1658200</v>
       </c>
       <c r="I89" s="3">
-        <v>1611200</v>
+        <v>1790600</v>
       </c>
       <c r="J89" s="3">
+        <v>1659800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1167000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1360800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1484600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2674700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1126200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1233900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1661800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1603000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1008700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1167700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1492700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-793700</v>
+        <v>-1184800</v>
       </c>
       <c r="E91" s="3">
-        <v>-688200</v>
+        <v>-817600</v>
       </c>
       <c r="F91" s="3">
-        <v>-602800</v>
+        <v>-709000</v>
       </c>
       <c r="G91" s="3">
-        <v>-887600</v>
+        <v>-620900</v>
       </c>
       <c r="H91" s="3">
-        <v>-779800</v>
+        <v>-914400</v>
       </c>
       <c r="I91" s="3">
-        <v>-748300</v>
+        <v>-803300</v>
       </c>
       <c r="J91" s="3">
+        <v>-770800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-654300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-741300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-734000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1495800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-818600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-774000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-775500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-654500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-762900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-749800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-901500</v>
+        <v>-503600</v>
       </c>
       <c r="E94" s="3">
-        <v>-726700</v>
+        <v>-928600</v>
       </c>
       <c r="F94" s="3">
-        <v>-608200</v>
+        <v>-748600</v>
       </c>
       <c r="G94" s="3">
-        <v>-894500</v>
+        <v>-626500</v>
       </c>
       <c r="H94" s="3">
-        <v>-777500</v>
+        <v>-921500</v>
       </c>
       <c r="I94" s="3">
-        <v>-762100</v>
+        <v>-801000</v>
       </c>
       <c r="J94" s="3">
+        <v>-785100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-672800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-717700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-864000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1696800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-871000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-848400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-801500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-538800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1917500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-838100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1139300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-579700</v>
+        <v>-597100</v>
       </c>
       <c r="E96" s="3">
-        <v>-579700</v>
+        <v>-597100</v>
       </c>
       <c r="F96" s="3">
-        <v>-551200</v>
+        <v>-597100</v>
       </c>
       <c r="G96" s="3">
-        <v>-551200</v>
+        <v>-567800</v>
       </c>
       <c r="H96" s="3">
-        <v>-548900</v>
+        <v>-567800</v>
       </c>
       <c r="I96" s="3">
-        <v>-548100</v>
+        <v>-565400</v>
       </c>
       <c r="J96" s="3">
+        <v>-564600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-521900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-515300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-492700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-996700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-486300</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-480800</v>
       </c>
       <c r="P96" s="3">
         <v>-480800</v>
       </c>
       <c r="Q96" s="3">
+        <v>-480800</v>
+      </c>
+      <c r="R96" s="3">
         <v>-465900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-456300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-455600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-456300</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-621200</v>
+        <v>-1943700</v>
       </c>
       <c r="E100" s="3">
-        <v>-2117000</v>
+        <v>-640000</v>
       </c>
       <c r="F100" s="3">
-        <v>1441900</v>
+        <v>-2180800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1347200</v>
+        <v>1485300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1059300</v>
+        <v>-1387800</v>
       </c>
       <c r="I100" s="3">
-        <v>-521200</v>
+        <v>-1091200</v>
       </c>
       <c r="J100" s="3">
+        <v>-536900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-307200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-948300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-303800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1154800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>176900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1393200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>198000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1029200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>645300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-744400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>244300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>101600</v>
+        <v>-1150700</v>
       </c>
       <c r="E102" s="3">
-        <v>-871400</v>
+        <v>104700</v>
       </c>
       <c r="F102" s="3">
-        <v>1950700</v>
+        <v>-897700</v>
       </c>
       <c r="G102" s="3">
-        <v>-632000</v>
+        <v>2009500</v>
       </c>
       <c r="H102" s="3">
-        <v>-98500</v>
+        <v>-651100</v>
       </c>
       <c r="I102" s="3">
-        <v>327900</v>
+        <v>-101500</v>
       </c>
       <c r="J102" s="3">
+        <v>337800</v>
+      </c>
+      <c r="K102" s="3">
         <v>187100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-305200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>316800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-176900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>432100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1007700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1058300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>35000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-263500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-414800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>597700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>BCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4839000</v>
+        <v>4730600</v>
       </c>
       <c r="E8" s="3">
-        <v>4589200</v>
+        <v>5058900</v>
       </c>
       <c r="F8" s="3">
-        <v>4245800</v>
+        <v>4797700</v>
       </c>
       <c r="G8" s="3">
-        <v>4472600</v>
+        <v>4438700</v>
       </c>
       <c r="H8" s="3">
-        <v>4976200</v>
+        <v>4675800</v>
       </c>
       <c r="I8" s="3">
-        <v>4710500</v>
+        <v>5202300</v>
       </c>
       <c r="J8" s="3">
+        <v>4924600</v>
+      </c>
+      <c r="K8" s="3">
         <v>4670100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4379500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4730200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4270800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8563700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4208100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4492100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4239800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4233100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4099300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4380400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4153800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1629700</v>
+        <v>1444200</v>
       </c>
       <c r="E9" s="3">
-        <v>1417100</v>
+        <v>1703700</v>
       </c>
       <c r="F9" s="3">
-        <v>1166500</v>
+        <v>1481500</v>
       </c>
       <c r="G9" s="3">
-        <v>1311700</v>
+        <v>1219500</v>
       </c>
       <c r="H9" s="3">
-        <v>1693100</v>
+        <v>1371200</v>
       </c>
       <c r="I9" s="3">
-        <v>1409200</v>
+        <v>1770000</v>
       </c>
       <c r="J9" s="3">
+        <v>1473200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1352900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1337900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1632500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1297100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2582100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1287300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1511500</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1248800</v>
       </c>
       <c r="R9" s="3">
         <v>1248800</v>
       </c>
       <c r="S9" s="3">
+        <v>1248800</v>
+      </c>
+      <c r="T9" s="3">
         <v>1249900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1514900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1236900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3209400</v>
+        <v>3286400</v>
       </c>
       <c r="E10" s="3">
-        <v>3172100</v>
+        <v>3355200</v>
       </c>
       <c r="F10" s="3">
-        <v>3079300</v>
+        <v>3316200</v>
       </c>
       <c r="G10" s="3">
-        <v>3161000</v>
+        <v>3219200</v>
       </c>
       <c r="H10" s="3">
-        <v>3283100</v>
+        <v>3304600</v>
       </c>
       <c r="I10" s="3">
-        <v>3301300</v>
+        <v>3432300</v>
       </c>
       <c r="J10" s="3">
+        <v>3451300</v>
+      </c>
+      <c r="K10" s="3">
         <v>3317200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3041600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3097600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2973600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5981700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2920800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2980600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2991000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2984300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2849400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2865500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2917000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>50800</v>
+        <v>120200</v>
       </c>
       <c r="E14" s="3">
-        <v>40400</v>
+        <v>53100</v>
       </c>
       <c r="F14" s="3">
-        <v>373500</v>
+        <v>42300</v>
       </c>
       <c r="G14" s="3">
-        <v>30900</v>
+        <v>390500</v>
       </c>
       <c r="H14" s="3">
-        <v>98300</v>
+        <v>32300</v>
       </c>
       <c r="I14" s="3">
-        <v>19000</v>
+        <v>102800</v>
       </c>
       <c r="J14" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K14" s="3">
         <v>46000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>21600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>192600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>40000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>34600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>96000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>29000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>29800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>64500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>15400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>876300</v>
+        <v>939300</v>
       </c>
       <c r="E15" s="3">
-        <v>878700</v>
+        <v>916100</v>
       </c>
       <c r="F15" s="3">
-        <v>874700</v>
+        <v>918600</v>
       </c>
       <c r="G15" s="3">
-        <v>862800</v>
+        <v>914400</v>
       </c>
       <c r="H15" s="3">
-        <v>854900</v>
+        <v>902000</v>
       </c>
       <c r="I15" s="3">
-        <v>854100</v>
+        <v>893700</v>
       </c>
       <c r="J15" s="3">
+        <v>892900</v>
+      </c>
+      <c r="K15" s="3">
         <v>871500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>839100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>772500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>726000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1505600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>746800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>737500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>719700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>727100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>698300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>679100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3869100</v>
+        <v>3776300</v>
       </c>
       <c r="E17" s="3">
-        <v>3562200</v>
+        <v>4044900</v>
       </c>
       <c r="F17" s="3">
-        <v>3645500</v>
+        <v>3724100</v>
       </c>
       <c r="G17" s="3">
-        <v>3449600</v>
+        <v>3811100</v>
       </c>
       <c r="H17" s="3">
-        <v>3959500</v>
+        <v>3606400</v>
       </c>
       <c r="I17" s="3">
-        <v>3547200</v>
+        <v>4139400</v>
       </c>
       <c r="J17" s="3">
+        <v>3708300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3548000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3406500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3873200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3252700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6577900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3261100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3592300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3198600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3217200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3198100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3445500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3121300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>969900</v>
+        <v>954200</v>
       </c>
       <c r="E18" s="3">
-        <v>1027000</v>
+        <v>1013900</v>
       </c>
       <c r="F18" s="3">
-        <v>600300</v>
+        <v>1073600</v>
       </c>
       <c r="G18" s="3">
-        <v>1023000</v>
+        <v>627600</v>
       </c>
       <c r="H18" s="3">
-        <v>1016700</v>
+        <v>1069500</v>
       </c>
       <c r="I18" s="3">
-        <v>1163400</v>
+        <v>1062800</v>
       </c>
       <c r="J18" s="3">
+        <v>1216200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1122100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>973100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>857000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1018100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1985900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>947000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>899700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1041100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1015800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>901100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>934900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1032500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-29300</v>
+        <v>46400</v>
       </c>
       <c r="E20" s="3">
-        <v>-15900</v>
+        <v>-30700</v>
       </c>
       <c r="F20" s="3">
-        <v>-72200</v>
+        <v>-16600</v>
       </c>
       <c r="G20" s="3">
-        <v>-33300</v>
+        <v>-75400</v>
       </c>
       <c r="H20" s="3">
-        <v>-27000</v>
+        <v>-34800</v>
       </c>
       <c r="I20" s="3">
-        <v>36500</v>
+        <v>-28200</v>
       </c>
       <c r="J20" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-40400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>68500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-40000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-121200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-55700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-43200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-11200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-31500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1816800</v>
+        <v>1940000</v>
       </c>
       <c r="E21" s="3">
-        <v>1889800</v>
+        <v>1899400</v>
       </c>
       <c r="F21" s="3">
-        <v>1391800</v>
+        <v>1975600</v>
       </c>
       <c r="G21" s="3">
-        <v>1863600</v>
+        <v>1455000</v>
       </c>
       <c r="H21" s="3">
-        <v>1856500</v>
+        <v>1948300</v>
       </c>
       <c r="I21" s="3">
-        <v>2065000</v>
+        <v>1940800</v>
       </c>
       <c r="J21" s="3">
+        <v>2158800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1962700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1890700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1644000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1704100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3370200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1638100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1638800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1717600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1733300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1597200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1582600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1673200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>217300</v>
+        <v>221400</v>
       </c>
       <c r="E22" s="3">
+        <v>227200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>231300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>232100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>229600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>236300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>232100</v>
+      </c>
+      <c r="K22" s="3">
         <v>221300</v>
       </c>
-      <c r="F22" s="3">
-        <v>222000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>219700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>226000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>222000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>221300</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>216300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>197100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>185300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>365900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>180700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>179400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>180100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>177100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>179800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>172900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>723200</v>
+        <v>779300</v>
       </c>
       <c r="E23" s="3">
-        <v>789800</v>
+        <v>756100</v>
       </c>
       <c r="F23" s="3">
-        <v>306100</v>
+        <v>825700</v>
       </c>
       <c r="G23" s="3">
-        <v>770000</v>
+        <v>320000</v>
       </c>
       <c r="H23" s="3">
-        <v>763700</v>
+        <v>805000</v>
       </c>
       <c r="I23" s="3">
-        <v>977800</v>
+        <v>798400</v>
       </c>
       <c r="J23" s="3">
+        <v>1022200</v>
+      </c>
+      <c r="K23" s="3">
         <v>860400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>825200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>674300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>792800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1498800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>710600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>721900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>817900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>827600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>720600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>730600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>832800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>151500</v>
+        <v>209700</v>
       </c>
       <c r="E24" s="3">
-        <v>207800</v>
+        <v>158300</v>
       </c>
       <c r="F24" s="3">
-        <v>76100</v>
+        <v>217200</v>
       </c>
       <c r="G24" s="3">
-        <v>192700</v>
+        <v>79600</v>
       </c>
       <c r="H24" s="3">
-        <v>194300</v>
+        <v>201500</v>
       </c>
       <c r="I24" s="3">
-        <v>253000</v>
+        <v>203100</v>
       </c>
       <c r="J24" s="3">
+        <v>264500</v>
+      </c>
+      <c r="K24" s="3">
         <v>218100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>223200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>185700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>162800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>396700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>176900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>202400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>185300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>221800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>192100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>193600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>571800</v>
+        <v>569600</v>
       </c>
       <c r="E26" s="3">
-        <v>582100</v>
+        <v>597700</v>
       </c>
       <c r="F26" s="3">
-        <v>230000</v>
+        <v>608500</v>
       </c>
       <c r="G26" s="3">
-        <v>577300</v>
+        <v>240400</v>
       </c>
       <c r="H26" s="3">
-        <v>569400</v>
+        <v>603500</v>
       </c>
       <c r="I26" s="3">
-        <v>724800</v>
+        <v>595300</v>
       </c>
       <c r="J26" s="3">
+        <v>757800</v>
+      </c>
+      <c r="K26" s="3">
         <v>642300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>602000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>488600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>630000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1102100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>533700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>519500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>632600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>605800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>528500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>537000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>614600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>537700</v>
+        <v>532300</v>
       </c>
       <c r="E27" s="3">
-        <v>544000</v>
+        <v>562100</v>
       </c>
       <c r="F27" s="3">
-        <v>184800</v>
+        <v>568700</v>
       </c>
       <c r="G27" s="3">
-        <v>535300</v>
+        <v>193200</v>
       </c>
       <c r="H27" s="3">
-        <v>528900</v>
+        <v>559600</v>
       </c>
       <c r="I27" s="3">
-        <v>681200</v>
+        <v>553000</v>
       </c>
       <c r="J27" s="3">
+        <v>712200</v>
+      </c>
+      <c r="K27" s="3">
         <v>597900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>562700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>461200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>591500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1027600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>497600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>488200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>597600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>569300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>493200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>504700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,41 +1935,44 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>167300</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>4800</v>
+        <v>174900</v>
       </c>
       <c r="F29" s="3">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="G29" s="3">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="H29" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I29" s="3">
-        <v>6300</v>
+        <v>4100</v>
       </c>
       <c r="J29" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K29" s="3">
         <v>5600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>6900</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>29300</v>
+        <v>-46400</v>
       </c>
       <c r="E32" s="3">
-        <v>15900</v>
+        <v>30700</v>
       </c>
       <c r="F32" s="3">
-        <v>72200</v>
+        <v>16600</v>
       </c>
       <c r="G32" s="3">
-        <v>33300</v>
+        <v>75400</v>
       </c>
       <c r="H32" s="3">
-        <v>27000</v>
+        <v>34800</v>
       </c>
       <c r="I32" s="3">
-        <v>-36500</v>
+        <v>28200</v>
       </c>
       <c r="J32" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="K32" s="3">
         <v>40400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-68500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>40000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>121200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>55700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>43200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>11200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>31500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>705000</v>
+        <v>532300</v>
       </c>
       <c r="E33" s="3">
-        <v>548800</v>
+        <v>737000</v>
       </c>
       <c r="F33" s="3">
-        <v>187900</v>
+        <v>573700</v>
       </c>
       <c r="G33" s="3">
-        <v>539300</v>
+        <v>196500</v>
       </c>
       <c r="H33" s="3">
-        <v>532900</v>
+        <v>563800</v>
       </c>
       <c r="I33" s="3">
-        <v>687500</v>
+        <v>557100</v>
       </c>
       <c r="J33" s="3">
+        <v>718800</v>
+      </c>
+      <c r="K33" s="3">
         <v>603500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>569700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>461200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>591500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1027600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>497600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>488200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>597600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>569300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>493200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>504700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>705000</v>
+        <v>532300</v>
       </c>
       <c r="E35" s="3">
-        <v>548800</v>
+        <v>737000</v>
       </c>
       <c r="F35" s="3">
-        <v>187900</v>
+        <v>573700</v>
       </c>
       <c r="G35" s="3">
-        <v>539300</v>
+        <v>196500</v>
       </c>
       <c r="H35" s="3">
-        <v>532900</v>
+        <v>563800</v>
       </c>
       <c r="I35" s="3">
-        <v>687500</v>
+        <v>557100</v>
       </c>
       <c r="J35" s="3">
+        <v>718800</v>
+      </c>
+      <c r="K35" s="3">
         <v>603500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>569700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>461200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>591500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1027600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>497600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>488200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>597600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>569300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>493200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>504700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>177600</v>
+        <v>2161300</v>
       </c>
       <c r="E41" s="3">
-        <v>1331500</v>
+        <v>185700</v>
       </c>
       <c r="F41" s="3">
-        <v>1226800</v>
+        <v>1392000</v>
       </c>
       <c r="G41" s="3">
-        <v>2124500</v>
+        <v>1282500</v>
       </c>
       <c r="H41" s="3">
-        <v>115000</v>
+        <v>2221000</v>
       </c>
       <c r="I41" s="3">
-        <v>766100</v>
+        <v>120200</v>
       </c>
       <c r="J41" s="3">
+        <v>800900</v>
+      </c>
+      <c r="K41" s="3">
         <v>867600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>514200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>323500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>293600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>902600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>465100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1472800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>414500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>391800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>655300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1070100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,421 +2608,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3342600</v>
+        <v>3158700</v>
       </c>
       <c r="E43" s="3">
-        <v>2969100</v>
+        <v>3494400</v>
       </c>
       <c r="F43" s="3">
-        <v>2960300</v>
+        <v>3104000</v>
       </c>
       <c r="G43" s="3">
-        <v>822400</v>
+        <v>3094800</v>
       </c>
       <c r="H43" s="3">
-        <v>881000</v>
+        <v>3338600</v>
       </c>
       <c r="I43" s="3">
-        <v>831900</v>
+        <v>3439700</v>
       </c>
       <c r="J43" s="3">
+        <v>3245700</v>
+      </c>
+      <c r="K43" s="3">
         <v>797000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>752900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>751200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>658400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2851600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2841000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2947800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2131400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2117300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2164900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2288600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2473700</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>348100</v>
+        <v>380500</v>
       </c>
       <c r="E44" s="3">
-        <v>337000</v>
+        <v>364000</v>
       </c>
       <c r="F44" s="3">
-        <v>352900</v>
+        <v>352300</v>
       </c>
       <c r="G44" s="3">
+        <v>368900</v>
+      </c>
+      <c r="H44" s="3">
+        <v>403700</v>
+      </c>
+      <c r="I44" s="3">
+        <v>354000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>400400</v>
+      </c>
+      <c r="K44" s="3">
         <v>386200</v>
       </c>
-      <c r="H44" s="3">
-        <v>338600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>383000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>386200</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>363400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>328800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>356800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>328200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>333500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>282800</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>325200</v>
       </c>
       <c r="R44" s="3">
         <v>325200</v>
       </c>
       <c r="S44" s="3">
+        <v>325200</v>
+      </c>
+      <c r="T44" s="3">
         <v>328800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>309600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>642300</v>
+        <v>839800</v>
       </c>
       <c r="E45" s="3">
-        <v>1336200</v>
+        <v>671500</v>
       </c>
       <c r="F45" s="3">
-        <v>1377500</v>
+        <v>1396900</v>
       </c>
       <c r="G45" s="3">
-        <v>884200</v>
+        <v>1440100</v>
       </c>
       <c r="H45" s="3">
-        <v>633600</v>
+        <v>924400</v>
       </c>
       <c r="I45" s="3">
-        <v>706600</v>
+        <v>662400</v>
       </c>
       <c r="J45" s="3">
+        <v>738700</v>
+      </c>
+      <c r="K45" s="3">
         <v>733500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>753700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>717700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>603900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>709900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>639900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>512800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>486000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>499400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>749800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>476300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4510700</v>
+        <v>6540400</v>
       </c>
       <c r="E46" s="3">
-        <v>5973800</v>
+        <v>4715600</v>
       </c>
       <c r="F46" s="3">
-        <v>5917500</v>
+        <v>6245200</v>
       </c>
       <c r="G46" s="3">
-        <v>6588400</v>
+        <v>6186400</v>
       </c>
       <c r="H46" s="3">
-        <v>4377500</v>
+        <v>6887700</v>
       </c>
       <c r="I46" s="3">
-        <v>4960300</v>
+        <v>4576400</v>
       </c>
       <c r="J46" s="3">
+        <v>5185700</v>
+      </c>
+      <c r="K46" s="3">
         <v>5145900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4645100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4409000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4361600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4183300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4717000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4208500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4415400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3356400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3635300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3729800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4348200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1452800</v>
+        <v>813300</v>
       </c>
       <c r="E47" s="3">
-        <v>1341000</v>
+        <v>1518800</v>
       </c>
       <c r="F47" s="3">
-        <v>1229200</v>
+        <v>1401900</v>
       </c>
       <c r="G47" s="3">
-        <v>937300</v>
+        <v>1285000</v>
       </c>
       <c r="H47" s="3">
-        <v>976200</v>
+        <v>979900</v>
       </c>
       <c r="I47" s="3">
-        <v>952400</v>
+        <v>1020600</v>
       </c>
       <c r="J47" s="3">
+        <v>995700</v>
+      </c>
+      <c r="K47" s="3">
         <v>964300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>985400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>992500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>879300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>916100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>935700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>926500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>616200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>657100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>675300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>654500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>793600</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21818400</v>
+        <v>22691100</v>
       </c>
       <c r="E48" s="3">
-        <v>21456700</v>
+        <v>22809700</v>
       </c>
       <c r="F48" s="3">
-        <v>21284700</v>
+        <v>22431600</v>
       </c>
       <c r="G48" s="3">
-        <v>21754100</v>
+        <v>22251700</v>
       </c>
       <c r="H48" s="3">
-        <v>21915900</v>
+        <v>22742500</v>
       </c>
       <c r="I48" s="3">
-        <v>21712100</v>
+        <v>22911600</v>
       </c>
       <c r="J48" s="3">
+        <v>22698600</v>
+      </c>
+      <c r="K48" s="3">
         <v>21740600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20997600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18908500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17968100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18362100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18194200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17882600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17678000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17552900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18015000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17166900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16807300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18799300</v>
+        <v>19758700</v>
       </c>
       <c r="E49" s="3">
-        <v>18622500</v>
+        <v>19653500</v>
       </c>
       <c r="F49" s="3">
-        <v>18594700</v>
+        <v>19468600</v>
       </c>
       <c r="G49" s="3">
-        <v>19175200</v>
+        <v>19439600</v>
       </c>
       <c r="H49" s="3">
-        <v>19047500</v>
+        <v>20046400</v>
       </c>
       <c r="I49" s="3">
-        <v>19137200</v>
+        <v>19913000</v>
       </c>
       <c r="J49" s="3">
+        <v>20006600</v>
+      </c>
+      <c r="K49" s="3">
         <v>18957900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18418700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18161900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17450700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18048100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18031600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17627400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17799300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>17711500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>18239300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>16099000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>15574300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1527400</v>
+        <v>3462100</v>
       </c>
       <c r="E52" s="3">
-        <v>1473400</v>
+        <v>1596800</v>
       </c>
       <c r="F52" s="3">
-        <v>1499600</v>
+        <v>1540400</v>
       </c>
       <c r="G52" s="3">
-        <v>3499600</v>
+        <v>1567700</v>
       </c>
       <c r="H52" s="3">
-        <v>1379900</v>
+        <v>3658600</v>
       </c>
       <c r="I52" s="3">
-        <v>1315600</v>
+        <v>1442500</v>
       </c>
       <c r="J52" s="3">
+        <v>1375400</v>
+      </c>
+      <c r="K52" s="3">
         <v>941300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1019200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>986400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1236800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1067500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>765600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>883400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>843200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>605800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>803600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>844300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>695200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>48108600</v>
+        <v>53265600</v>
       </c>
       <c r="E54" s="3">
-        <v>48867500</v>
+        <v>50294300</v>
       </c>
       <c r="F54" s="3">
-        <v>48525700</v>
+        <v>51087700</v>
       </c>
       <c r="G54" s="3">
-        <v>51954700</v>
+        <v>50730400</v>
       </c>
       <c r="H54" s="3">
-        <v>47697000</v>
+        <v>54315200</v>
       </c>
       <c r="I54" s="3">
-        <v>48077600</v>
+        <v>49864000</v>
       </c>
       <c r="J54" s="3">
+        <v>50262000</v>
+      </c>
+      <c r="K54" s="3">
         <v>47750100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46066000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43458200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>41896600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42577000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>42644000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41528400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41352000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>39883700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>41368400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>38494500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>38218700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3120500</v>
+        <v>3086600</v>
       </c>
       <c r="E57" s="3">
-        <v>2827900</v>
+        <v>3262300</v>
       </c>
       <c r="F57" s="3">
-        <v>2649500</v>
+        <v>2956400</v>
       </c>
       <c r="G57" s="3">
-        <v>2644700</v>
+        <v>2769900</v>
       </c>
       <c r="H57" s="3">
-        <v>3135600</v>
+        <v>2764900</v>
       </c>
       <c r="I57" s="3">
-        <v>2894500</v>
+        <v>3278100</v>
       </c>
       <c r="J57" s="3">
+        <v>3026000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2950000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2779100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2999500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2745400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2712300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2660400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2883800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3326600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3177800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3106700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3323400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3092100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1916700</v>
+        <v>3138800</v>
       </c>
       <c r="E58" s="3">
-        <v>2302900</v>
+        <v>2003800</v>
       </c>
       <c r="F58" s="3">
-        <v>2049200</v>
+        <v>2407600</v>
       </c>
       <c r="G58" s="3">
-        <v>3337800</v>
+        <v>2142300</v>
       </c>
       <c r="H58" s="3">
-        <v>3077700</v>
+        <v>3489500</v>
       </c>
       <c r="I58" s="3">
-        <v>3749400</v>
+        <v>3217500</v>
       </c>
       <c r="J58" s="3">
+        <v>3919700</v>
+      </c>
+      <c r="K58" s="3">
         <v>4501200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4222500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3535300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3544100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4315000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4155400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3853500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4527000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4420600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4844500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3754300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3834200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1521800</v>
+        <v>1673000</v>
       </c>
       <c r="E59" s="3">
-        <v>1670900</v>
+        <v>1590900</v>
       </c>
       <c r="F59" s="3">
-        <v>1752600</v>
+        <v>1746800</v>
       </c>
       <c r="G59" s="3">
-        <v>1482900</v>
+        <v>1832200</v>
       </c>
       <c r="H59" s="3">
-        <v>1540000</v>
+        <v>1550300</v>
       </c>
       <c r="I59" s="3">
-        <v>1585200</v>
+        <v>1610000</v>
       </c>
       <c r="J59" s="3">
+        <v>1657300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1543200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1454200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1402700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1301500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1289500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1228600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1249500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>804500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>743500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>672200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>687600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>689900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6559100</v>
+        <v>7898400</v>
       </c>
       <c r="E60" s="3">
-        <v>6801700</v>
+        <v>6857100</v>
       </c>
       <c r="F60" s="3">
-        <v>6451200</v>
+        <v>7110800</v>
       </c>
       <c r="G60" s="3">
-        <v>7465500</v>
+        <v>6744300</v>
       </c>
       <c r="H60" s="3">
-        <v>7753400</v>
+        <v>7804700</v>
       </c>
       <c r="I60" s="3">
-        <v>8229200</v>
+        <v>8105600</v>
       </c>
       <c r="J60" s="3">
+        <v>8603100</v>
+      </c>
+      <c r="K60" s="3">
         <v>8994400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8455700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7937400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7591000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8316800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8044300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7986900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8658100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8341800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8623400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7765300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7616200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18957900</v>
+        <v>20697200</v>
       </c>
       <c r="E61" s="3">
-        <v>19757300</v>
+        <v>19819300</v>
       </c>
       <c r="F61" s="3">
-        <v>19844500</v>
+        <v>20655000</v>
       </c>
       <c r="G61" s="3">
-        <v>20232300</v>
+        <v>20746100</v>
       </c>
       <c r="H61" s="3">
-        <v>17775500</v>
+        <v>21151600</v>
       </c>
       <c r="I61" s="3">
-        <v>17799300</v>
+        <v>18583200</v>
       </c>
       <c r="J61" s="3">
+        <v>18608000</v>
+      </c>
+      <c r="K61" s="3">
         <v>17406000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16948400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15039100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14231500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13826500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14564200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13555800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13735100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12973800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>13641500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>12731100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>12679600</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5677200</v>
+        <v>6127500</v>
       </c>
       <c r="E62" s="3">
-        <v>5591600</v>
+        <v>5935200</v>
       </c>
       <c r="F62" s="3">
-        <v>5467900</v>
+        <v>5845600</v>
       </c>
       <c r="G62" s="3">
-        <v>5681200</v>
+        <v>5716300</v>
       </c>
       <c r="H62" s="3">
-        <v>5191100</v>
+        <v>5939300</v>
       </c>
       <c r="I62" s="3">
-        <v>5187100</v>
+        <v>5427000</v>
       </c>
       <c r="J62" s="3">
+        <v>5422800</v>
+      </c>
+      <c r="K62" s="3">
         <v>5123700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4851400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4735500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4709700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4832900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4756900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4636400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4340200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4371500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4358900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4282100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5051900</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31463900</v>
+        <v>35004100</v>
       </c>
       <c r="E66" s="3">
-        <v>32429000</v>
+        <v>32893400</v>
       </c>
       <c r="F66" s="3">
-        <v>32039600</v>
+        <v>33902300</v>
       </c>
       <c r="G66" s="3">
-        <v>33648600</v>
+        <v>33495300</v>
       </c>
       <c r="H66" s="3">
-        <v>30984900</v>
+        <v>35177400</v>
       </c>
       <c r="I66" s="3">
-        <v>31482100</v>
+        <v>32392600</v>
       </c>
       <c r="J66" s="3">
+        <v>32912500</v>
+      </c>
+      <c r="K66" s="3">
         <v>31785000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30493300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27960200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26767600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>27216400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>27597300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26419500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26975400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>25928300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26866500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>25019700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>25588200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,49 +4168,52 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3174500</v>
+        <v>3318700</v>
       </c>
       <c r="E70" s="3">
+        <v>3318700</v>
+      </c>
+      <c r="F70" s="3">
+        <v>3319500</v>
+      </c>
+      <c r="G70" s="3">
+        <v>3319500</v>
+      </c>
+      <c r="H70" s="3">
+        <v>3319500</v>
+      </c>
+      <c r="I70" s="3">
+        <v>3319500</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3319500</v>
+      </c>
+      <c r="K70" s="3">
         <v>3175300</v>
       </c>
-      <c r="F70" s="3">
-        <v>3175300</v>
-      </c>
-      <c r="G70" s="3">
-        <v>3175300</v>
-      </c>
-      <c r="H70" s="3">
-        <v>3175300</v>
-      </c>
-      <c r="I70" s="3">
-        <v>3175300</v>
-      </c>
-      <c r="J70" s="3">
-        <v>3175300</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3082400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3047400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>2909700</v>
-      </c>
-      <c r="N70" s="3">
-        <v>3014200</v>
       </c>
       <c r="O70" s="3">
         <v>3014200</v>
       </c>
       <c r="P70" s="3">
-        <v>2979800</v>
+        <v>3014200</v>
       </c>
       <c r="Q70" s="3">
         <v>2979800</v>
@@ -4054,7 +4222,7 @@
         <v>2979800</v>
       </c>
       <c r="S70" s="3">
-        <v>3076000</v>
+        <v>2979800</v>
       </c>
       <c r="T70" s="3">
         <v>3076000</v>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>3076000</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>3076000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3712100</v>
+        <v>-3061700</v>
       </c>
       <c r="E72" s="3">
-        <v>-4034100</v>
+        <v>-3880800</v>
       </c>
       <c r="F72" s="3">
-        <v>-4077700</v>
+        <v>-4217400</v>
       </c>
       <c r="G72" s="3">
-        <v>-2371100</v>
+        <v>-4263000</v>
       </c>
       <c r="H72" s="3">
-        <v>-3673300</v>
+        <v>-2478900</v>
       </c>
       <c r="I72" s="3">
-        <v>-3754900</v>
+        <v>-3840200</v>
       </c>
       <c r="J72" s="3">
+        <v>-3925600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4119700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3860600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3757500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3181400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3621700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3908500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3674900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4370700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4812100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4858300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4640100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5443700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13470200</v>
+        <v>14942800</v>
       </c>
       <c r="E76" s="3">
-        <v>13263300</v>
+        <v>14082200</v>
       </c>
       <c r="F76" s="3">
-        <v>13310800</v>
+        <v>13865900</v>
       </c>
       <c r="G76" s="3">
-        <v>15130800</v>
+        <v>13915600</v>
       </c>
       <c r="H76" s="3">
-        <v>13536900</v>
+        <v>15818300</v>
       </c>
       <c r="I76" s="3">
-        <v>13420300</v>
+        <v>14151900</v>
       </c>
       <c r="J76" s="3">
+        <v>14030000</v>
+      </c>
+      <c r="K76" s="3">
         <v>12789800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12490300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12450700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12219300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12346500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12032600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12129100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11396800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10975600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11425900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10398800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9554500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>705000</v>
+        <v>532300</v>
       </c>
       <c r="E81" s="3">
-        <v>548800</v>
+        <v>737000</v>
       </c>
       <c r="F81" s="3">
-        <v>187900</v>
+        <v>573700</v>
       </c>
       <c r="G81" s="3">
-        <v>539300</v>
+        <v>196500</v>
       </c>
       <c r="H81" s="3">
-        <v>532900</v>
+        <v>563800</v>
       </c>
       <c r="I81" s="3">
-        <v>687500</v>
+        <v>557100</v>
       </c>
       <c r="J81" s="3">
+        <v>718800</v>
+      </c>
+      <c r="K81" s="3">
         <v>603500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>569700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>461200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>591500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1027600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>497600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>488200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>597600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>569300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>493200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>504700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>876300</v>
+        <v>939300</v>
       </c>
       <c r="E83" s="3">
-        <v>878700</v>
+        <v>916100</v>
       </c>
       <c r="F83" s="3">
-        <v>863600</v>
+        <v>918600</v>
       </c>
       <c r="G83" s="3">
-        <v>873900</v>
+        <v>902800</v>
       </c>
       <c r="H83" s="3">
-        <v>866800</v>
+        <v>913600</v>
       </c>
       <c r="I83" s="3">
-        <v>865200</v>
+        <v>906200</v>
       </c>
       <c r="J83" s="3">
+        <v>904500</v>
+      </c>
+      <c r="K83" s="3">
         <v>881000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>849100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>772500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>726000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1505600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>746800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>736800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>724100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>729300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>696800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>679100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1296600</v>
+        <v>1651500</v>
       </c>
       <c r="E89" s="3">
-        <v>1673300</v>
+        <v>1355500</v>
       </c>
       <c r="F89" s="3">
-        <v>2031700</v>
+        <v>1749300</v>
       </c>
       <c r="G89" s="3">
-        <v>1150700</v>
+        <v>2124000</v>
       </c>
       <c r="H89" s="3">
-        <v>1658200</v>
+        <v>1203000</v>
       </c>
       <c r="I89" s="3">
-        <v>1790600</v>
+        <v>1733500</v>
       </c>
       <c r="J89" s="3">
+        <v>1872000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1659800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1167000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1360800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1484600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2674700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1126200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1233900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1661800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1603000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1008700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1167700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1492700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1184800</v>
+        <v>-839000</v>
       </c>
       <c r="E91" s="3">
-        <v>-817600</v>
+        <v>-1238600</v>
       </c>
       <c r="F91" s="3">
-        <v>-709000</v>
+        <v>-854800</v>
       </c>
       <c r="G91" s="3">
-        <v>-620900</v>
+        <v>-741200</v>
       </c>
       <c r="H91" s="3">
-        <v>-914400</v>
+        <v>-649100</v>
       </c>
       <c r="I91" s="3">
-        <v>-803300</v>
+        <v>-955900</v>
       </c>
       <c r="J91" s="3">
+        <v>-839800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-770800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-654300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-741300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-734000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1495800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-818600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-774000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-775500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-654500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-762900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-749800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-503600</v>
+        <v>-856400</v>
       </c>
       <c r="E94" s="3">
-        <v>-928600</v>
+        <v>-526400</v>
       </c>
       <c r="F94" s="3">
-        <v>-748600</v>
+        <v>-970800</v>
       </c>
       <c r="G94" s="3">
-        <v>-626500</v>
+        <v>-782600</v>
       </c>
       <c r="H94" s="3">
-        <v>-921500</v>
+        <v>-654900</v>
       </c>
       <c r="I94" s="3">
-        <v>-801000</v>
+        <v>-963400</v>
       </c>
       <c r="J94" s="3">
+        <v>-837300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-785100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-672800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-717700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-864000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1696800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-871000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-848400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-801500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-538800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1917500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-838100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1139300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-597100</v>
+        <v>-624300</v>
       </c>
       <c r="E96" s="3">
-        <v>-597100</v>
+        <v>-624300</v>
       </c>
       <c r="F96" s="3">
-        <v>-597100</v>
+        <v>-624300</v>
       </c>
       <c r="G96" s="3">
-        <v>-567800</v>
+        <v>-624300</v>
       </c>
       <c r="H96" s="3">
-        <v>-567800</v>
+        <v>-593600</v>
       </c>
       <c r="I96" s="3">
-        <v>-565400</v>
+        <v>-593600</v>
       </c>
       <c r="J96" s="3">
+        <v>-591100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-564600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-521900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-515300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-492700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-996700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-486300</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-480800</v>
       </c>
       <c r="Q96" s="3">
         <v>-480800</v>
       </c>
       <c r="R96" s="3">
+        <v>-480800</v>
+      </c>
+      <c r="S96" s="3">
         <v>-465900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-456300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-455600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-456300</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1943700</v>
+        <v>1180600</v>
       </c>
       <c r="E100" s="3">
-        <v>-640000</v>
+        <v>-2032000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2180800</v>
+        <v>-669000</v>
       </c>
       <c r="G100" s="3">
-        <v>1485300</v>
+        <v>-2279900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1387800</v>
+        <v>1552800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1091200</v>
+        <v>-1450800</v>
       </c>
       <c r="J100" s="3">
+        <v>-1140800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-536900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-307200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-948300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-303800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1154800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>176900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1393200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>198000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1029200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>645300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-744400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>244300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1150700</v>
+        <v>1975600</v>
       </c>
       <c r="E102" s="3">
-        <v>104700</v>
+        <v>-1203000</v>
       </c>
       <c r="F102" s="3">
-        <v>-897700</v>
+        <v>109400</v>
       </c>
       <c r="G102" s="3">
-        <v>2009500</v>
+        <v>-938500</v>
       </c>
       <c r="H102" s="3">
-        <v>-651100</v>
+        <v>2100800</v>
       </c>
       <c r="I102" s="3">
-        <v>-101500</v>
+        <v>-680700</v>
       </c>
       <c r="J102" s="3">
+        <v>-106100</v>
+      </c>
+      <c r="K102" s="3">
         <v>337800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>187100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-305200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>316800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-176900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>432100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1007700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1058300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>35000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-263500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-414800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>597700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>BCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4730600</v>
+        <v>4442600</v>
       </c>
       <c r="E8" s="3">
-        <v>5058900</v>
+        <v>4448800</v>
       </c>
       <c r="F8" s="3">
-        <v>4797700</v>
+        <v>4757500</v>
       </c>
       <c r="G8" s="3">
-        <v>4438700</v>
+        <v>4512000</v>
       </c>
       <c r="H8" s="3">
-        <v>4675800</v>
+        <v>4174400</v>
       </c>
       <c r="I8" s="3">
-        <v>5202300</v>
+        <v>4397300</v>
       </c>
       <c r="J8" s="3">
+        <v>4892400</v>
+      </c>
+      <c r="K8" s="3">
         <v>4924600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4670100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4379500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4730200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4270800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8563700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4208100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4492100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4239800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4233100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4099300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4380400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4153800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1444200</v>
+        <v>1297400</v>
       </c>
       <c r="E9" s="3">
-        <v>1703700</v>
+        <v>1358200</v>
       </c>
       <c r="F9" s="3">
-        <v>1481500</v>
+        <v>1602200</v>
       </c>
       <c r="G9" s="3">
-        <v>1219500</v>
+        <v>1393300</v>
       </c>
       <c r="H9" s="3">
-        <v>1371200</v>
+        <v>1146900</v>
       </c>
       <c r="I9" s="3">
-        <v>1770000</v>
+        <v>1289600</v>
       </c>
       <c r="J9" s="3">
+        <v>1664600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1473200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1352900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1337900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1632500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1297100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2582100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1287300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1511500</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1248800</v>
       </c>
       <c r="S9" s="3">
         <v>1248800</v>
       </c>
       <c r="T9" s="3">
+        <v>1248800</v>
+      </c>
+      <c r="U9" s="3">
         <v>1249900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1514900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1236900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3286400</v>
+        <v>3145200</v>
       </c>
       <c r="E10" s="3">
-        <v>3355200</v>
+        <v>3090600</v>
       </c>
       <c r="F10" s="3">
-        <v>3316200</v>
+        <v>3155300</v>
       </c>
       <c r="G10" s="3">
-        <v>3219200</v>
+        <v>3118700</v>
       </c>
       <c r="H10" s="3">
-        <v>3304600</v>
+        <v>3027500</v>
       </c>
       <c r="I10" s="3">
-        <v>3432300</v>
+        <v>3107800</v>
       </c>
       <c r="J10" s="3">
+        <v>3227800</v>
+      </c>
+      <c r="K10" s="3">
         <v>3451300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3317200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3041600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3097600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2973600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5981700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2920800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2980600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2991000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2984300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2849400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2865500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2917000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>120200</v>
+        <v>133300</v>
       </c>
       <c r="E14" s="3">
-        <v>53100</v>
+        <v>113100</v>
       </c>
       <c r="F14" s="3">
-        <v>42300</v>
+        <v>49900</v>
       </c>
       <c r="G14" s="3">
-        <v>390500</v>
+        <v>39800</v>
       </c>
       <c r="H14" s="3">
-        <v>32300</v>
+        <v>367200</v>
       </c>
       <c r="I14" s="3">
-        <v>102800</v>
+        <v>30400</v>
       </c>
       <c r="J14" s="3">
+        <v>96700</v>
+      </c>
+      <c r="K14" s="3">
         <v>19900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>46000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>21600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>192600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>40000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>34600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>96000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>29000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>29800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>64500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>15400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>939300</v>
+        <v>899000</v>
       </c>
       <c r="E15" s="3">
-        <v>916100</v>
+        <v>883400</v>
       </c>
       <c r="F15" s="3">
-        <v>918600</v>
+        <v>861500</v>
       </c>
       <c r="G15" s="3">
-        <v>914400</v>
+        <v>863900</v>
       </c>
       <c r="H15" s="3">
-        <v>902000</v>
+        <v>860000</v>
       </c>
       <c r="I15" s="3">
-        <v>893700</v>
+        <v>848300</v>
       </c>
       <c r="J15" s="3">
+        <v>840500</v>
+      </c>
+      <c r="K15" s="3">
         <v>892900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>871500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>839100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>772500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>726000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1505600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>746800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>737500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>719700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>727100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>698300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>679100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3776300</v>
+        <v>3544400</v>
       </c>
       <c r="E17" s="3">
-        <v>4044900</v>
+        <v>3551400</v>
       </c>
       <c r="F17" s="3">
-        <v>3724100</v>
+        <v>3804000</v>
       </c>
       <c r="G17" s="3">
-        <v>3811100</v>
+        <v>3502300</v>
       </c>
       <c r="H17" s="3">
-        <v>3606400</v>
+        <v>3584100</v>
       </c>
       <c r="I17" s="3">
-        <v>4139400</v>
+        <v>3391600</v>
       </c>
       <c r="J17" s="3">
+        <v>3892900</v>
+      </c>
+      <c r="K17" s="3">
         <v>3708300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3548000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3406500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3873200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3252700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6577900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3261100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3592300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3198600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3217200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3198100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3445500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3121300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>954200</v>
+        <v>898200</v>
       </c>
       <c r="E18" s="3">
-        <v>1013900</v>
+        <v>897400</v>
       </c>
       <c r="F18" s="3">
-        <v>1073600</v>
+        <v>953500</v>
       </c>
       <c r="G18" s="3">
-        <v>627600</v>
+        <v>1009700</v>
       </c>
       <c r="H18" s="3">
-        <v>1069500</v>
+        <v>590200</v>
       </c>
       <c r="I18" s="3">
-        <v>1062800</v>
+        <v>1005800</v>
       </c>
       <c r="J18" s="3">
+        <v>999500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1216200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1122100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>973100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>857000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1018100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1985900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>947000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>899700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1041100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1015800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>901100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>934900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1032500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>46400</v>
+        <v>67100</v>
       </c>
       <c r="E20" s="3">
-        <v>-30700</v>
+        <v>43700</v>
       </c>
       <c r="F20" s="3">
-        <v>-16600</v>
+        <v>-28800</v>
       </c>
       <c r="G20" s="3">
-        <v>-75400</v>
+        <v>-15600</v>
       </c>
       <c r="H20" s="3">
-        <v>-34800</v>
+        <v>-70900</v>
       </c>
       <c r="I20" s="3">
-        <v>-28200</v>
+        <v>-32700</v>
       </c>
       <c r="J20" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="K20" s="3">
         <v>38100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-40400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>68500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-40000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-121200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-55700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-43200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-11200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-31500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1940000</v>
+        <v>1864200</v>
       </c>
       <c r="E21" s="3">
-        <v>1899400</v>
+        <v>1824400</v>
       </c>
       <c r="F21" s="3">
-        <v>1975600</v>
+        <v>1786200</v>
       </c>
       <c r="G21" s="3">
-        <v>1455000</v>
+        <v>1858000</v>
       </c>
       <c r="H21" s="3">
-        <v>1948300</v>
+        <v>1368300</v>
       </c>
       <c r="I21" s="3">
-        <v>1940800</v>
+        <v>1832200</v>
       </c>
       <c r="J21" s="3">
+        <v>1825200</v>
+      </c>
+      <c r="K21" s="3">
         <v>2158800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1962700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1890700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1644000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1704100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3370200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1638100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1638800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1717600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1733300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1597200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1582600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1673200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>221400</v>
+        <v>209000</v>
       </c>
       <c r="E22" s="3">
-        <v>227200</v>
+        <v>208200</v>
       </c>
       <c r="F22" s="3">
-        <v>231300</v>
+        <v>213600</v>
       </c>
       <c r="G22" s="3">
+        <v>217500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>218300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>216000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>222200</v>
+      </c>
+      <c r="K22" s="3">
         <v>232100</v>
       </c>
-      <c r="H22" s="3">
-        <v>229600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>236300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>232100</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>221300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>216300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>197100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>185300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>365900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>180700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>179400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>180100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>177100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>179800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>172900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>779300</v>
+        <v>756300</v>
       </c>
       <c r="E23" s="3">
-        <v>756100</v>
+        <v>732900</v>
       </c>
       <c r="F23" s="3">
-        <v>825700</v>
+        <v>711100</v>
       </c>
       <c r="G23" s="3">
-        <v>320000</v>
+        <v>776600</v>
       </c>
       <c r="H23" s="3">
-        <v>805000</v>
+        <v>301000</v>
       </c>
       <c r="I23" s="3">
-        <v>798400</v>
+        <v>757100</v>
       </c>
       <c r="J23" s="3">
+        <v>750800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1022200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>860400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>825200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>674300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>792800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1498800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>710600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>721900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>817900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>827600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>720600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>730600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>832800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>209700</v>
+        <v>184000</v>
       </c>
       <c r="E24" s="3">
-        <v>158300</v>
+        <v>197300</v>
       </c>
       <c r="F24" s="3">
-        <v>217200</v>
+        <v>148900</v>
       </c>
       <c r="G24" s="3">
-        <v>79600</v>
+        <v>204300</v>
       </c>
       <c r="H24" s="3">
-        <v>201500</v>
+        <v>74800</v>
       </c>
       <c r="I24" s="3">
-        <v>203100</v>
+        <v>189500</v>
       </c>
       <c r="J24" s="3">
+        <v>191000</v>
+      </c>
+      <c r="K24" s="3">
         <v>264500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>218100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>223200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>185700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>162800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>396700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>176900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>202400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>185300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>221800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>192100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>193600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>569600</v>
+        <v>572300</v>
       </c>
       <c r="E26" s="3">
-        <v>597700</v>
+        <v>535600</v>
       </c>
       <c r="F26" s="3">
-        <v>608500</v>
+        <v>562100</v>
       </c>
       <c r="G26" s="3">
-        <v>240400</v>
+        <v>572300</v>
       </c>
       <c r="H26" s="3">
-        <v>603500</v>
+        <v>226100</v>
       </c>
       <c r="I26" s="3">
-        <v>595300</v>
+        <v>567600</v>
       </c>
       <c r="J26" s="3">
+        <v>559800</v>
+      </c>
+      <c r="K26" s="3">
         <v>757800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>642300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>602000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>488600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>630000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1102100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>533700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>519500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>632600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>605800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>528500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>537000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>614600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>532300</v>
+        <v>534100</v>
       </c>
       <c r="E27" s="3">
-        <v>562100</v>
+        <v>500500</v>
       </c>
       <c r="F27" s="3">
-        <v>568700</v>
+        <v>528600</v>
       </c>
       <c r="G27" s="3">
-        <v>193200</v>
+        <v>534900</v>
       </c>
       <c r="H27" s="3">
-        <v>559600</v>
+        <v>181700</v>
       </c>
       <c r="I27" s="3">
-        <v>553000</v>
+        <v>526300</v>
       </c>
       <c r="J27" s="3">
+        <v>520000</v>
+      </c>
+      <c r="K27" s="3">
         <v>712200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>597900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>562700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>461200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>591500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1027600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>497600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>488200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>597600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>569300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>493200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>504700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1947,35 +2008,35 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>174900</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>5000</v>
+        <v>164500</v>
       </c>
       <c r="G29" s="3">
-        <v>3300</v>
+        <v>4700</v>
       </c>
       <c r="H29" s="3">
-        <v>4100</v>
+        <v>3100</v>
       </c>
       <c r="I29" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="J29" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K29" s="3">
         <v>6600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>5600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>6900</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-46400</v>
+        <v>-67100</v>
       </c>
       <c r="E32" s="3">
-        <v>30700</v>
+        <v>-43700</v>
       </c>
       <c r="F32" s="3">
-        <v>16600</v>
+        <v>28800</v>
       </c>
       <c r="G32" s="3">
-        <v>75400</v>
+        <v>15600</v>
       </c>
       <c r="H32" s="3">
-        <v>34800</v>
+        <v>70900</v>
       </c>
       <c r="I32" s="3">
-        <v>28200</v>
+        <v>32700</v>
       </c>
       <c r="J32" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-38100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>40400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-68500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>40000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>121200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>55700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>43200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>11200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>31500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>532300</v>
+        <v>534100</v>
       </c>
       <c r="E33" s="3">
-        <v>737000</v>
+        <v>500500</v>
       </c>
       <c r="F33" s="3">
-        <v>573700</v>
+        <v>693100</v>
       </c>
       <c r="G33" s="3">
-        <v>196500</v>
+        <v>539500</v>
       </c>
       <c r="H33" s="3">
-        <v>563800</v>
+        <v>184800</v>
       </c>
       <c r="I33" s="3">
-        <v>557100</v>
+        <v>530200</v>
       </c>
       <c r="J33" s="3">
+        <v>523900</v>
+      </c>
+      <c r="K33" s="3">
         <v>718800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>603500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>569700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>461200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>591500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1027600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>497600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>488200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>597600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>569300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>493200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>504700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>532300</v>
+        <v>534100</v>
       </c>
       <c r="E35" s="3">
-        <v>737000</v>
+        <v>500500</v>
       </c>
       <c r="F35" s="3">
-        <v>573700</v>
+        <v>693100</v>
       </c>
       <c r="G35" s="3">
-        <v>196500</v>
+        <v>539500</v>
       </c>
       <c r="H35" s="3">
-        <v>563800</v>
+        <v>184800</v>
       </c>
       <c r="I35" s="3">
-        <v>557100</v>
+        <v>530200</v>
       </c>
       <c r="J35" s="3">
+        <v>523900</v>
+      </c>
+      <c r="K35" s="3">
         <v>718800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>603500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>569700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>461200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>591500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1027600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>497600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>488200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>597600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>569300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>493200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>504700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2161300</v>
+        <v>1366000</v>
       </c>
       <c r="E41" s="3">
-        <v>185700</v>
+        <v>2032600</v>
       </c>
       <c r="F41" s="3">
-        <v>1392000</v>
+        <v>174600</v>
       </c>
       <c r="G41" s="3">
-        <v>1282500</v>
+        <v>1309100</v>
       </c>
       <c r="H41" s="3">
-        <v>2221000</v>
+        <v>1206100</v>
       </c>
       <c r="I41" s="3">
-        <v>120200</v>
+        <v>2088700</v>
       </c>
       <c r="J41" s="3">
+        <v>113100</v>
+      </c>
+      <c r="K41" s="3">
         <v>800900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>867600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>514200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>323500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>293600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>902600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>465100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1472800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>414500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>391800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>655300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1070100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,442 +2701,466 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3158700</v>
+        <v>2893400</v>
       </c>
       <c r="E43" s="3">
-        <v>3494400</v>
+        <v>2970500</v>
       </c>
       <c r="F43" s="3">
-        <v>3104000</v>
+        <v>3286300</v>
       </c>
       <c r="G43" s="3">
-        <v>3094800</v>
+        <v>2919100</v>
       </c>
       <c r="H43" s="3">
-        <v>3338600</v>
+        <v>2910500</v>
       </c>
       <c r="I43" s="3">
-        <v>3439700</v>
+        <v>3139700</v>
       </c>
       <c r="J43" s="3">
+        <v>3234900</v>
+      </c>
+      <c r="K43" s="3">
         <v>3245700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>797000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>752900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>751200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>658400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2851600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2841000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2947800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2131400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2117300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2164900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2288600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2473700</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>380500</v>
+        <v>325900</v>
       </c>
       <c r="E44" s="3">
-        <v>364000</v>
+        <v>357900</v>
       </c>
       <c r="F44" s="3">
-        <v>352300</v>
+        <v>342300</v>
       </c>
       <c r="G44" s="3">
-        <v>368900</v>
+        <v>331400</v>
       </c>
       <c r="H44" s="3">
-        <v>403700</v>
+        <v>347000</v>
       </c>
       <c r="I44" s="3">
-        <v>354000</v>
+        <v>379700</v>
       </c>
       <c r="J44" s="3">
+        <v>332900</v>
+      </c>
+      <c r="K44" s="3">
         <v>400400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>386200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>363400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>328800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>356800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>328200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>333500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>282800</v>
-      </c>
-      <c r="R44" s="3">
-        <v>325200</v>
       </c>
       <c r="S44" s="3">
         <v>325200</v>
       </c>
       <c r="T44" s="3">
+        <v>325200</v>
+      </c>
+      <c r="U44" s="3">
         <v>328800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>309600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>839800</v>
+        <v>830300</v>
       </c>
       <c r="E45" s="3">
-        <v>671500</v>
+        <v>789800</v>
       </c>
       <c r="F45" s="3">
-        <v>1396900</v>
+        <v>631500</v>
       </c>
       <c r="G45" s="3">
-        <v>1440100</v>
+        <v>1313700</v>
       </c>
       <c r="H45" s="3">
-        <v>924400</v>
+        <v>1354300</v>
       </c>
       <c r="I45" s="3">
-        <v>662400</v>
+        <v>869300</v>
       </c>
       <c r="J45" s="3">
+        <v>623000</v>
+      </c>
+      <c r="K45" s="3">
         <v>738700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>733500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>753700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>717700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>603900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>709900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>639900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>512800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>486000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>499400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>749800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>476300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6540400</v>
+        <v>5415600</v>
       </c>
       <c r="E46" s="3">
-        <v>4715600</v>
+        <v>6150800</v>
       </c>
       <c r="F46" s="3">
-        <v>6245200</v>
+        <v>4434800</v>
       </c>
       <c r="G46" s="3">
-        <v>6186400</v>
+        <v>5873300</v>
       </c>
       <c r="H46" s="3">
-        <v>6887700</v>
+        <v>5817900</v>
       </c>
       <c r="I46" s="3">
-        <v>4576400</v>
+        <v>6477500</v>
       </c>
       <c r="J46" s="3">
+        <v>4303800</v>
+      </c>
+      <c r="K46" s="3">
         <v>5185700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5145900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4645100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4409000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4361600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4183300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4717000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4208500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4415400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3356400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3635300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3729800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4348200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>813300</v>
+        <v>744600</v>
       </c>
       <c r="E47" s="3">
-        <v>1518800</v>
+        <v>764900</v>
       </c>
       <c r="F47" s="3">
-        <v>1401900</v>
+        <v>1428400</v>
       </c>
       <c r="G47" s="3">
-        <v>1285000</v>
+        <v>1318400</v>
       </c>
       <c r="H47" s="3">
-        <v>979900</v>
+        <v>1208500</v>
       </c>
       <c r="I47" s="3">
-        <v>1020600</v>
+        <v>921600</v>
       </c>
       <c r="J47" s="3">
+        <v>959800</v>
+      </c>
+      <c r="K47" s="3">
         <v>995700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>964300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>985400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>992500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>879300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>916100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>935700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>926500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>616200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>657100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>675300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>654500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>793600</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22691100</v>
+        <v>21483000</v>
       </c>
       <c r="E48" s="3">
-        <v>22809700</v>
+        <v>21339600</v>
       </c>
       <c r="F48" s="3">
-        <v>22431600</v>
+        <v>21451100</v>
       </c>
       <c r="G48" s="3">
-        <v>22251700</v>
+        <v>21095500</v>
       </c>
       <c r="H48" s="3">
-        <v>22742500</v>
+        <v>20926300</v>
       </c>
       <c r="I48" s="3">
-        <v>22911600</v>
+        <v>21387900</v>
       </c>
       <c r="J48" s="3">
+        <v>21547000</v>
+      </c>
+      <c r="K48" s="3">
         <v>22698600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21740600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20997600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18908500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17968100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18362100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18194200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17882600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17678000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17552900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18015000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17166900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16807300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19758700</v>
+        <v>18588900</v>
       </c>
       <c r="E49" s="3">
-        <v>19653500</v>
+        <v>18581900</v>
       </c>
       <c r="F49" s="3">
-        <v>19468600</v>
+        <v>18482900</v>
       </c>
       <c r="G49" s="3">
-        <v>19439600</v>
+        <v>18309000</v>
       </c>
       <c r="H49" s="3">
-        <v>20046400</v>
+        <v>18281700</v>
       </c>
       <c r="I49" s="3">
-        <v>19913000</v>
+        <v>18852400</v>
       </c>
       <c r="J49" s="3">
+        <v>18726900</v>
+      </c>
+      <c r="K49" s="3">
         <v>20006600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18957900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18418700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18161900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17450700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18048100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>18031600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17627400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>17799300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>17711500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>18239300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>16099000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>15574300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3462100</v>
+        <v>3768900</v>
       </c>
       <c r="E52" s="3">
-        <v>1596800</v>
+        <v>3255900</v>
       </c>
       <c r="F52" s="3">
-        <v>1540400</v>
+        <v>1501600</v>
       </c>
       <c r="G52" s="3">
-        <v>1567700</v>
+        <v>1448600</v>
       </c>
       <c r="H52" s="3">
-        <v>3658600</v>
+        <v>1474400</v>
       </c>
       <c r="I52" s="3">
-        <v>1442500</v>
+        <v>3440700</v>
       </c>
       <c r="J52" s="3">
+        <v>1356600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1375400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>941300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1019200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>986400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1236800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1067500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>765600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>883400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>843200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>605800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>803600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>844300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>695200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>53265600</v>
+        <v>50001000</v>
       </c>
       <c r="E54" s="3">
-        <v>50294300</v>
+        <v>50093000</v>
       </c>
       <c r="F54" s="3">
-        <v>51087700</v>
+        <v>47298700</v>
       </c>
       <c r="G54" s="3">
-        <v>50730400</v>
+        <v>48044800</v>
       </c>
       <c r="H54" s="3">
-        <v>54315200</v>
+        <v>47708800</v>
       </c>
       <c r="I54" s="3">
-        <v>49864000</v>
+        <v>51080100</v>
       </c>
       <c r="J54" s="3">
+        <v>46894000</v>
+      </c>
+      <c r="K54" s="3">
         <v>50262000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>47750100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46066000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43458200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>41896600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>42577000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>42644000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41528400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41352000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>39883700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41368400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>38494500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>38218700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3086600</v>
+        <v>3043800</v>
       </c>
       <c r="E57" s="3">
-        <v>3262300</v>
+        <v>2902700</v>
       </c>
       <c r="F57" s="3">
-        <v>2956400</v>
+        <v>3068000</v>
       </c>
       <c r="G57" s="3">
-        <v>2769900</v>
+        <v>2780300</v>
       </c>
       <c r="H57" s="3">
-        <v>2764900</v>
+        <v>2604900</v>
       </c>
       <c r="I57" s="3">
-        <v>3278100</v>
+        <v>2600200</v>
       </c>
       <c r="J57" s="3">
+        <v>3082800</v>
+      </c>
+      <c r="K57" s="3">
         <v>3026000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2950000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2779100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2999500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2745400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2712300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2660400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2883800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3326600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3177800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3106700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3323400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3092100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3138800</v>
+        <v>1796400</v>
       </c>
       <c r="E58" s="3">
-        <v>2003800</v>
+        <v>2951800</v>
       </c>
       <c r="F58" s="3">
-        <v>2407600</v>
+        <v>1884500</v>
       </c>
       <c r="G58" s="3">
-        <v>2142300</v>
+        <v>2264200</v>
       </c>
       <c r="H58" s="3">
-        <v>3489500</v>
+        <v>2014700</v>
       </c>
       <c r="I58" s="3">
-        <v>3217500</v>
+        <v>3281600</v>
       </c>
       <c r="J58" s="3">
+        <v>3025900</v>
+      </c>
+      <c r="K58" s="3">
         <v>3919700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4501200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4222500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3535300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3544100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4315000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4155400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3853500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4527000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4420600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4844500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3754300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3834200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1673000</v>
+        <v>1672400</v>
       </c>
       <c r="E59" s="3">
-        <v>1590900</v>
+        <v>1573400</v>
       </c>
       <c r="F59" s="3">
-        <v>1746800</v>
+        <v>1496200</v>
       </c>
       <c r="G59" s="3">
-        <v>1832200</v>
+        <v>1642800</v>
       </c>
       <c r="H59" s="3">
-        <v>1550300</v>
+        <v>1723100</v>
       </c>
       <c r="I59" s="3">
-        <v>1610000</v>
+        <v>1458000</v>
       </c>
       <c r="J59" s="3">
+        <v>1514100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1657300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1543200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1454200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1402700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1301500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1289500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1228600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1249500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>804500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>743500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>672200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>687600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>689900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7898400</v>
+        <v>6512600</v>
       </c>
       <c r="E60" s="3">
-        <v>6857100</v>
+        <v>7427900</v>
       </c>
       <c r="F60" s="3">
-        <v>7110800</v>
+        <v>6448700</v>
       </c>
       <c r="G60" s="3">
-        <v>6744300</v>
+        <v>6687200</v>
       </c>
       <c r="H60" s="3">
-        <v>7804700</v>
+        <v>6342600</v>
       </c>
       <c r="I60" s="3">
-        <v>8105600</v>
+        <v>7339800</v>
       </c>
       <c r="J60" s="3">
+        <v>7622800</v>
+      </c>
+      <c r="K60" s="3">
         <v>8603100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8994400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8455700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7937400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7591000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8316800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8044300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7986900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8658100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8341800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8623400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7765300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7616200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20697200</v>
+        <v>19820800</v>
       </c>
       <c r="E61" s="3">
-        <v>19819300</v>
+        <v>19464500</v>
       </c>
       <c r="F61" s="3">
-        <v>20655000</v>
+        <v>18638800</v>
       </c>
       <c r="G61" s="3">
-        <v>20746100</v>
+        <v>19424700</v>
       </c>
       <c r="H61" s="3">
-        <v>21151600</v>
+        <v>19510500</v>
       </c>
       <c r="I61" s="3">
-        <v>18583200</v>
+        <v>19891700</v>
       </c>
       <c r="J61" s="3">
+        <v>17476300</v>
+      </c>
+      <c r="K61" s="3">
         <v>18608000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17406000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16948400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15039100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14231500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13826500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14564200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13555800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>13735100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>12973800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>13641500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>12731100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>12679600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6127500</v>
+        <v>5915400</v>
       </c>
       <c r="E62" s="3">
-        <v>5935200</v>
+        <v>5762500</v>
       </c>
       <c r="F62" s="3">
-        <v>5845600</v>
+        <v>5581700</v>
       </c>
       <c r="G62" s="3">
-        <v>5716300</v>
+        <v>5497500</v>
       </c>
       <c r="H62" s="3">
-        <v>5939300</v>
+        <v>5375800</v>
       </c>
       <c r="I62" s="3">
-        <v>5427000</v>
+        <v>5585600</v>
       </c>
       <c r="J62" s="3">
+        <v>5103700</v>
+      </c>
+      <c r="K62" s="3">
         <v>5422800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5123700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4851400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4735500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4709700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4832900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4756900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4636400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4340200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4371500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4358900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4282100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5051900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35004100</v>
+        <v>32513800</v>
       </c>
       <c r="E66" s="3">
-        <v>32893400</v>
+        <v>32919200</v>
       </c>
       <c r="F66" s="3">
-        <v>33902300</v>
+        <v>30934200</v>
       </c>
       <c r="G66" s="3">
-        <v>33495300</v>
+        <v>31883000</v>
       </c>
       <c r="H66" s="3">
-        <v>35177400</v>
+        <v>31500200</v>
       </c>
       <c r="I66" s="3">
-        <v>32392600</v>
+        <v>33082200</v>
       </c>
       <c r="J66" s="3">
+        <v>30463300</v>
+      </c>
+      <c r="K66" s="3">
         <v>32912500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31785000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30493300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>27960200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26767600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>27216400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>27597300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26419500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>26975400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>25928300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26866500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>25019700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>25588200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,52 +4336,55 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3318700</v>
+        <v>3121000</v>
       </c>
       <c r="E70" s="3">
-        <v>3318700</v>
+        <v>3121000</v>
       </c>
       <c r="F70" s="3">
+        <v>3121000</v>
+      </c>
+      <c r="G70" s="3">
+        <v>3121800</v>
+      </c>
+      <c r="H70" s="3">
+        <v>3121800</v>
+      </c>
+      <c r="I70" s="3">
+        <v>3121800</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3121800</v>
+      </c>
+      <c r="K70" s="3">
         <v>3319500</v>
       </c>
-      <c r="G70" s="3">
-        <v>3319500</v>
-      </c>
-      <c r="H70" s="3">
-        <v>3319500</v>
-      </c>
-      <c r="I70" s="3">
-        <v>3319500</v>
-      </c>
-      <c r="J70" s="3">
-        <v>3319500</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3175300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3082400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3047400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>2909700</v>
-      </c>
-      <c r="O70" s="3">
-        <v>3014200</v>
       </c>
       <c r="P70" s="3">
         <v>3014200</v>
       </c>
       <c r="Q70" s="3">
-        <v>2979800</v>
+        <v>3014200</v>
       </c>
       <c r="R70" s="3">
         <v>2979800</v>
@@ -4225,7 +4393,7 @@
         <v>2979800</v>
       </c>
       <c r="T70" s="3">
-        <v>3076000</v>
+        <v>2979800</v>
       </c>
       <c r="U70" s="3">
         <v>3076000</v>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>3076000</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>3076000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3061700</v>
+        <v>-2651700</v>
       </c>
       <c r="E72" s="3">
-        <v>-3880800</v>
+        <v>-2879300</v>
       </c>
       <c r="F72" s="3">
-        <v>-4217400</v>
+        <v>-3649600</v>
       </c>
       <c r="G72" s="3">
-        <v>-4263000</v>
+        <v>-3966200</v>
       </c>
       <c r="H72" s="3">
-        <v>-2478900</v>
+        <v>-4009100</v>
       </c>
       <c r="I72" s="3">
-        <v>-3840200</v>
+        <v>-2331200</v>
       </c>
       <c r="J72" s="3">
+        <v>-3611400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3925600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4119700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3860600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3757500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3181400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3621700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3908500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3674900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4370700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4812100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4858300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4640100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5443700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14942800</v>
+        <v>14366200</v>
       </c>
       <c r="E76" s="3">
-        <v>14082200</v>
+        <v>14052800</v>
       </c>
       <c r="F76" s="3">
-        <v>13865900</v>
+        <v>13243500</v>
       </c>
       <c r="G76" s="3">
-        <v>13915600</v>
+        <v>13040000</v>
       </c>
       <c r="H76" s="3">
-        <v>15818300</v>
+        <v>13086800</v>
       </c>
       <c r="I76" s="3">
-        <v>14151900</v>
+        <v>14876100</v>
       </c>
       <c r="J76" s="3">
+        <v>13309000</v>
+      </c>
+      <c r="K76" s="3">
         <v>14030000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12789800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12490300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12450700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12219300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12346500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12032600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12129100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11396800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10975600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11425900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10398800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9554500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>532300</v>
+        <v>534100</v>
       </c>
       <c r="E81" s="3">
-        <v>737000</v>
+        <v>500500</v>
       </c>
       <c r="F81" s="3">
-        <v>573700</v>
+        <v>693100</v>
       </c>
       <c r="G81" s="3">
-        <v>196500</v>
+        <v>539500</v>
       </c>
       <c r="H81" s="3">
-        <v>563800</v>
+        <v>184800</v>
       </c>
       <c r="I81" s="3">
-        <v>557100</v>
+        <v>530200</v>
       </c>
       <c r="J81" s="3">
+        <v>523900</v>
+      </c>
+      <c r="K81" s="3">
         <v>718800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>603500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>569700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>461200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>591500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1027600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>497600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>488200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>597600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>569300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>493200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>504700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>939300</v>
+        <v>899000</v>
       </c>
       <c r="E83" s="3">
-        <v>916100</v>
+        <v>883400</v>
       </c>
       <c r="F83" s="3">
-        <v>918600</v>
+        <v>861500</v>
       </c>
       <c r="G83" s="3">
-        <v>902800</v>
+        <v>863900</v>
       </c>
       <c r="H83" s="3">
-        <v>913600</v>
+        <v>849100</v>
       </c>
       <c r="I83" s="3">
-        <v>906200</v>
+        <v>859200</v>
       </c>
       <c r="J83" s="3">
+        <v>852200</v>
+      </c>
+      <c r="K83" s="3">
         <v>904500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>881000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>849100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>772500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>726000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1505600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>746800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>736800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>724100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>729300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>696800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>679100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1651500</v>
+        <v>1948400</v>
       </c>
       <c r="E89" s="3">
-        <v>1355500</v>
+        <v>1553100</v>
       </c>
       <c r="F89" s="3">
-        <v>1749300</v>
+        <v>1274800</v>
       </c>
       <c r="G89" s="3">
-        <v>2124000</v>
+        <v>1645100</v>
       </c>
       <c r="H89" s="3">
-        <v>1203000</v>
+        <v>1997500</v>
       </c>
       <c r="I89" s="3">
-        <v>1733500</v>
+        <v>1131300</v>
       </c>
       <c r="J89" s="3">
+        <v>1630300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1872000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1659800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1167000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1360800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1484600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2674700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1126200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1233900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1661800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1603000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1008700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1167700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1492700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-839000</v>
+        <v>-941100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1238600</v>
+        <v>-789000</v>
       </c>
       <c r="F91" s="3">
-        <v>-854800</v>
+        <v>-1164800</v>
       </c>
       <c r="G91" s="3">
-        <v>-741200</v>
+        <v>-803800</v>
       </c>
       <c r="H91" s="3">
-        <v>-649100</v>
+        <v>-697000</v>
       </c>
       <c r="I91" s="3">
-        <v>-955900</v>
+        <v>-610500</v>
       </c>
       <c r="J91" s="3">
+        <v>-899000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-839800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-770800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-654300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-741300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-734000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1495800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-818600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-774000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-775500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-654500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-762900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-749800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-856400</v>
+        <v>-962900</v>
       </c>
       <c r="E94" s="3">
-        <v>-526400</v>
+        <v>-805400</v>
       </c>
       <c r="F94" s="3">
-        <v>-970800</v>
+        <v>-495100</v>
       </c>
       <c r="G94" s="3">
-        <v>-782600</v>
+        <v>-913000</v>
       </c>
       <c r="H94" s="3">
-        <v>-654900</v>
+        <v>-736000</v>
       </c>
       <c r="I94" s="3">
-        <v>-963400</v>
+        <v>-615900</v>
       </c>
       <c r="J94" s="3">
+        <v>-906000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-837300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-785100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-672800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-717700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-864000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1696800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-871000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-848400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-801500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-538800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1917500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-838100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1139300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-624300</v>
+        <v>-616700</v>
       </c>
       <c r="E96" s="3">
-        <v>-624300</v>
+        <v>-587100</v>
       </c>
       <c r="F96" s="3">
-        <v>-624300</v>
+        <v>-587100</v>
       </c>
       <c r="G96" s="3">
-        <v>-624300</v>
+        <v>-587100</v>
       </c>
       <c r="H96" s="3">
-        <v>-593600</v>
+        <v>-587100</v>
       </c>
       <c r="I96" s="3">
-        <v>-593600</v>
+        <v>-558200</v>
       </c>
       <c r="J96" s="3">
+        <v>-558200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-591100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-564600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-521900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-515300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-492700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-996700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-486300</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-480800</v>
       </c>
       <c r="R96" s="3">
         <v>-480800</v>
       </c>
       <c r="S96" s="3">
+        <v>-480800</v>
+      </c>
+      <c r="T96" s="3">
         <v>-465900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-456300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-455600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-456300</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1180600</v>
+        <v>-1652100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2032000</v>
+        <v>1110300</v>
       </c>
       <c r="F100" s="3">
-        <v>-669000</v>
+        <v>-1911000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2279900</v>
+        <v>-629200</v>
       </c>
       <c r="H100" s="3">
-        <v>1552800</v>
+        <v>-2144100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1450800</v>
+        <v>1460300</v>
       </c>
       <c r="J100" s="3">
+        <v>-1364400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1140800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-536900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-307200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-948300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-303800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1154800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>176900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1393200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>198000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1029200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>645300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-744400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>244300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1975600</v>
+        <v>-666600</v>
       </c>
       <c r="E102" s="3">
-        <v>-1203000</v>
+        <v>1858000</v>
       </c>
       <c r="F102" s="3">
-        <v>109400</v>
+        <v>-1131300</v>
       </c>
       <c r="G102" s="3">
-        <v>-938500</v>
+        <v>102900</v>
       </c>
       <c r="H102" s="3">
-        <v>2100800</v>
+        <v>-882600</v>
       </c>
       <c r="I102" s="3">
-        <v>-680700</v>
+        <v>1975700</v>
       </c>
       <c r="J102" s="3">
+        <v>-640100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-106100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>337800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>187100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-305200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>316800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-176900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>432100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1007700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1058300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>35000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-263500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-414800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>597700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>BCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4442600</v>
+        <v>4581600</v>
       </c>
       <c r="E8" s="3">
-        <v>4448800</v>
+        <v>4473200</v>
       </c>
       <c r="F8" s="3">
-        <v>4757500</v>
+        <v>4479500</v>
       </c>
       <c r="G8" s="3">
-        <v>4512000</v>
+        <v>4790400</v>
       </c>
       <c r="H8" s="3">
-        <v>4174400</v>
+        <v>4543100</v>
       </c>
       <c r="I8" s="3">
-        <v>4397300</v>
+        <v>4203200</v>
       </c>
       <c r="J8" s="3">
+        <v>4427700</v>
+      </c>
+      <c r="K8" s="3">
         <v>4892400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4924600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4670100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4379500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4730200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4270800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8563700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4208100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4492100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4239800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4233100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4099300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4380400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4153800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1297400</v>
+        <v>1351900</v>
       </c>
       <c r="E9" s="3">
-        <v>1358200</v>
+        <v>1306300</v>
       </c>
       <c r="F9" s="3">
-        <v>1602200</v>
+        <v>1367600</v>
       </c>
       <c r="G9" s="3">
-        <v>1393300</v>
+        <v>1613300</v>
       </c>
       <c r="H9" s="3">
-        <v>1146900</v>
+        <v>1402900</v>
       </c>
       <c r="I9" s="3">
-        <v>1289600</v>
+        <v>1154800</v>
       </c>
       <c r="J9" s="3">
+        <v>1298500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1664600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1473200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1352900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1337900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1632500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1297100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2582100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1287300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1511500</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1248800</v>
       </c>
       <c r="T9" s="3">
         <v>1248800</v>
       </c>
       <c r="U9" s="3">
+        <v>1248800</v>
+      </c>
+      <c r="V9" s="3">
         <v>1249900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1514900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1236900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3145200</v>
+        <v>3229700</v>
       </c>
       <c r="E10" s="3">
-        <v>3090600</v>
+        <v>3166900</v>
       </c>
       <c r="F10" s="3">
-        <v>3155300</v>
+        <v>3111900</v>
       </c>
       <c r="G10" s="3">
-        <v>3118700</v>
+        <v>3177100</v>
       </c>
       <c r="H10" s="3">
-        <v>3027500</v>
+        <v>3140200</v>
       </c>
       <c r="I10" s="3">
-        <v>3107800</v>
+        <v>3048300</v>
       </c>
       <c r="J10" s="3">
+        <v>3129200</v>
+      </c>
+      <c r="K10" s="3">
         <v>3227800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3451300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3317200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3041600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3097600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2973600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5981700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2920800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2980600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2991000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2984300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2849400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2865500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2917000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,138 +1124,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>133300</v>
+        <v>19600</v>
       </c>
       <c r="E14" s="3">
-        <v>113100</v>
+        <v>134200</v>
       </c>
       <c r="F14" s="3">
-        <v>49900</v>
+        <v>113800</v>
       </c>
       <c r="G14" s="3">
-        <v>39800</v>
+        <v>50200</v>
       </c>
       <c r="H14" s="3">
-        <v>367200</v>
+        <v>40000</v>
       </c>
       <c r="I14" s="3">
-        <v>30400</v>
+        <v>369800</v>
       </c>
       <c r="J14" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K14" s="3">
         <v>96700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>19900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>46000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>21600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>192600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>40000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>34600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>96000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>29000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>29800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>64500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>15400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>899000</v>
+        <v>900500</v>
       </c>
       <c r="E15" s="3">
-        <v>883400</v>
+        <v>905200</v>
       </c>
       <c r="F15" s="3">
-        <v>861500</v>
+        <v>889500</v>
       </c>
       <c r="G15" s="3">
-        <v>863900</v>
+        <v>867500</v>
       </c>
       <c r="H15" s="3">
-        <v>860000</v>
+        <v>869800</v>
       </c>
       <c r="I15" s="3">
-        <v>848300</v>
+        <v>865900</v>
       </c>
       <c r="J15" s="3">
+        <v>854100</v>
+      </c>
+      <c r="K15" s="3">
         <v>840500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>892900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>871500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>839100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>772500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>726000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1505600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>746800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>737500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>719700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>727100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>698300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>679100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3544400</v>
+        <v>3513100</v>
       </c>
       <c r="E17" s="3">
-        <v>3551400</v>
+        <v>3568800</v>
       </c>
       <c r="F17" s="3">
-        <v>3804000</v>
+        <v>3575900</v>
       </c>
       <c r="G17" s="3">
-        <v>3502300</v>
+        <v>3830300</v>
       </c>
       <c r="H17" s="3">
-        <v>3584100</v>
+        <v>3526400</v>
       </c>
       <c r="I17" s="3">
-        <v>3391600</v>
+        <v>3608900</v>
       </c>
       <c r="J17" s="3">
+        <v>3415000</v>
+      </c>
+      <c r="K17" s="3">
         <v>3892900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3708300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3548000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3406500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3873200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3252700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6577900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3261100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3592300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3198600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3217200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3198100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3445500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3121300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>898200</v>
+        <v>1068500</v>
       </c>
       <c r="E18" s="3">
-        <v>897400</v>
+        <v>904400</v>
       </c>
       <c r="F18" s="3">
-        <v>953500</v>
+        <v>903600</v>
       </c>
       <c r="G18" s="3">
-        <v>1009700</v>
+        <v>960100</v>
       </c>
       <c r="H18" s="3">
-        <v>590200</v>
+        <v>1016600</v>
       </c>
       <c r="I18" s="3">
-        <v>1005800</v>
+        <v>594300</v>
       </c>
       <c r="J18" s="3">
+        <v>1012700</v>
+      </c>
+      <c r="K18" s="3">
         <v>999500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1216200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1122100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>973100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>857000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1018100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1985900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>947000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>899700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1041100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1015800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>901100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>934900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1032500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>67100</v>
+        <v>23600</v>
       </c>
       <c r="E20" s="3">
-        <v>43700</v>
+        <v>67500</v>
       </c>
       <c r="F20" s="3">
-        <v>-28800</v>
+        <v>44000</v>
       </c>
       <c r="G20" s="3">
-        <v>-15600</v>
+        <v>-29000</v>
       </c>
       <c r="H20" s="3">
-        <v>-70900</v>
+        <v>-15700</v>
       </c>
       <c r="I20" s="3">
-        <v>-32700</v>
+        <v>-71400</v>
       </c>
       <c r="J20" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-26500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>38100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-40400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>68500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-40000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-121200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-55700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-43200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-11200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-31500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1864200</v>
+        <v>1992500</v>
       </c>
       <c r="E21" s="3">
-        <v>1824400</v>
+        <v>1877100</v>
       </c>
       <c r="F21" s="3">
-        <v>1786200</v>
+        <v>1837000</v>
       </c>
       <c r="G21" s="3">
-        <v>1858000</v>
+        <v>1798500</v>
       </c>
       <c r="H21" s="3">
-        <v>1368300</v>
+        <v>1870800</v>
       </c>
       <c r="I21" s="3">
-        <v>1832200</v>
+        <v>1377800</v>
       </c>
       <c r="J21" s="3">
+        <v>1844900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1825200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2158800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1962700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1890700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1644000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1704100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3370200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1638100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1638800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1717600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1733300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1597200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1582600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1673200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>209000</v>
+        <v>213500</v>
       </c>
       <c r="E22" s="3">
-        <v>208200</v>
+        <v>210400</v>
       </c>
       <c r="F22" s="3">
-        <v>213600</v>
+        <v>209600</v>
       </c>
       <c r="G22" s="3">
+        <v>215100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>219000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>219800</v>
+      </c>
+      <c r="J22" s="3">
         <v>217500</v>
       </c>
-      <c r="H22" s="3">
-        <v>218300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>216000</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>222200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>232100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>221300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>216300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>197100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>185300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>365900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>180700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>179400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>180100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>177100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>179800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>172900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>756300</v>
+        <v>878500</v>
       </c>
       <c r="E23" s="3">
-        <v>732900</v>
+        <v>761500</v>
       </c>
       <c r="F23" s="3">
-        <v>711100</v>
+        <v>737900</v>
       </c>
       <c r="G23" s="3">
-        <v>776600</v>
+        <v>716000</v>
       </c>
       <c r="H23" s="3">
-        <v>301000</v>
+        <v>781900</v>
       </c>
       <c r="I23" s="3">
-        <v>757100</v>
+        <v>303000</v>
       </c>
       <c r="J23" s="3">
+        <v>762300</v>
+      </c>
+      <c r="K23" s="3">
         <v>750800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1022200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>860400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>825200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>674300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>792800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1498800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>710600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>721900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>817900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>827600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>720600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>730600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>832800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>184000</v>
+        <v>240200</v>
       </c>
       <c r="E24" s="3">
-        <v>197300</v>
+        <v>185300</v>
       </c>
       <c r="F24" s="3">
-        <v>148900</v>
+        <v>198600</v>
       </c>
       <c r="G24" s="3">
-        <v>204300</v>
+        <v>149900</v>
       </c>
       <c r="H24" s="3">
-        <v>74800</v>
+        <v>205700</v>
       </c>
       <c r="I24" s="3">
-        <v>189500</v>
+        <v>75400</v>
       </c>
       <c r="J24" s="3">
+        <v>190800</v>
+      </c>
+      <c r="K24" s="3">
         <v>191000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>264500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>218100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>223200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>185700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>162800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>396700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>176900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>202400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>185300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>221800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>192100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>193600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>572300</v>
+        <v>638200</v>
       </c>
       <c r="E26" s="3">
-        <v>535600</v>
+        <v>576200</v>
       </c>
       <c r="F26" s="3">
-        <v>562100</v>
+        <v>539300</v>
       </c>
       <c r="G26" s="3">
-        <v>572300</v>
+        <v>566000</v>
       </c>
       <c r="H26" s="3">
-        <v>226100</v>
+        <v>576200</v>
       </c>
       <c r="I26" s="3">
-        <v>567600</v>
+        <v>227700</v>
       </c>
       <c r="J26" s="3">
+        <v>571500</v>
+      </c>
+      <c r="K26" s="3">
         <v>559800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>757800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>642300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>602000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>488600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>630000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1102100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>533700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>519500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>632600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>605800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>528500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>537000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>614600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>534100</v>
+        <v>594300</v>
       </c>
       <c r="E27" s="3">
-        <v>500500</v>
+        <v>537800</v>
       </c>
       <c r="F27" s="3">
-        <v>528600</v>
+        <v>504000</v>
       </c>
       <c r="G27" s="3">
-        <v>534900</v>
+        <v>532300</v>
       </c>
       <c r="H27" s="3">
-        <v>181700</v>
+        <v>538500</v>
       </c>
       <c r="I27" s="3">
-        <v>526300</v>
+        <v>182900</v>
       </c>
       <c r="J27" s="3">
+        <v>529900</v>
+      </c>
+      <c r="K27" s="3">
         <v>520000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>712200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>597900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>562700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>461200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>591500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1027600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>497600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>488200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>597600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>569300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>493200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>504700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2011,35 +2072,35 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>164500</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>165600</v>
+      </c>
+      <c r="H29" s="3">
         <v>4700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>3100</v>
-      </c>
-      <c r="I29" s="3">
-        <v>3900</v>
       </c>
       <c r="J29" s="3">
         <v>3900</v>
       </c>
       <c r="K29" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L29" s="3">
         <v>6600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>5600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>6900</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-67100</v>
+        <v>-23600</v>
       </c>
       <c r="E32" s="3">
-        <v>-43700</v>
+        <v>-67500</v>
       </c>
       <c r="F32" s="3">
-        <v>28800</v>
+        <v>-44000</v>
       </c>
       <c r="G32" s="3">
-        <v>15600</v>
+        <v>29000</v>
       </c>
       <c r="H32" s="3">
-        <v>70900</v>
+        <v>15700</v>
       </c>
       <c r="I32" s="3">
-        <v>32700</v>
+        <v>71400</v>
       </c>
       <c r="J32" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K32" s="3">
         <v>26500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-38100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>40400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-68500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>40000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>121200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>55700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>43200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>11200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>31500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>534100</v>
+        <v>594300</v>
       </c>
       <c r="E33" s="3">
-        <v>500500</v>
+        <v>537800</v>
       </c>
       <c r="F33" s="3">
-        <v>693100</v>
+        <v>504000</v>
       </c>
       <c r="G33" s="3">
-        <v>539500</v>
+        <v>697900</v>
       </c>
       <c r="H33" s="3">
-        <v>184800</v>
+        <v>543300</v>
       </c>
       <c r="I33" s="3">
-        <v>530200</v>
+        <v>186100</v>
       </c>
       <c r="J33" s="3">
+        <v>533800</v>
+      </c>
+      <c r="K33" s="3">
         <v>523900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>718800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>603500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>569700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>461200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>591500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1027600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>497600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>488200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>597600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>569300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>493200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>504700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>534100</v>
+        <v>594300</v>
       </c>
       <c r="E35" s="3">
-        <v>500500</v>
+        <v>537800</v>
       </c>
       <c r="F35" s="3">
-        <v>693100</v>
+        <v>504000</v>
       </c>
       <c r="G35" s="3">
-        <v>539500</v>
+        <v>697900</v>
       </c>
       <c r="H35" s="3">
-        <v>184800</v>
+        <v>543300</v>
       </c>
       <c r="I35" s="3">
-        <v>530200</v>
+        <v>186100</v>
       </c>
       <c r="J35" s="3">
+        <v>533800</v>
+      </c>
+      <c r="K35" s="3">
         <v>523900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>718800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>603500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>569700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>461200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>591500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1027600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>497600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>488200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>597600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>569300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>493200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>504700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1366000</v>
+        <v>1701200</v>
       </c>
       <c r="E41" s="3">
-        <v>2032600</v>
+        <v>1375400</v>
       </c>
       <c r="F41" s="3">
-        <v>174600</v>
+        <v>2046600</v>
       </c>
       <c r="G41" s="3">
-        <v>1309100</v>
+        <v>175900</v>
       </c>
       <c r="H41" s="3">
-        <v>1206100</v>
+        <v>1318100</v>
       </c>
       <c r="I41" s="3">
-        <v>2088700</v>
+        <v>1214500</v>
       </c>
       <c r="J41" s="3">
+        <v>2103100</v>
+      </c>
+      <c r="K41" s="3">
         <v>113100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>867600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>514200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>323500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>293600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>902600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>465100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1472800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>414500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>391800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>655300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1070100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,463 +2794,487 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2893400</v>
+        <v>3068000</v>
       </c>
       <c r="E43" s="3">
-        <v>2970500</v>
+        <v>2913300</v>
       </c>
       <c r="F43" s="3">
-        <v>3286300</v>
+        <v>2991000</v>
       </c>
       <c r="G43" s="3">
-        <v>2919100</v>
+        <v>3309000</v>
       </c>
       <c r="H43" s="3">
-        <v>2910500</v>
+        <v>2939200</v>
       </c>
       <c r="I43" s="3">
-        <v>3139700</v>
+        <v>2930600</v>
       </c>
       <c r="J43" s="3">
+        <v>3161400</v>
+      </c>
+      <c r="K43" s="3">
         <v>3234900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3245700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>797000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>752900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>751200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>658400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2851600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2841000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2947800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2131400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2117300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2164900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2288600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2473700</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>325900</v>
+        <v>328200</v>
       </c>
       <c r="E44" s="3">
-        <v>357900</v>
+        <v>328200</v>
       </c>
       <c r="F44" s="3">
-        <v>342300</v>
+        <v>360300</v>
       </c>
       <c r="G44" s="3">
-        <v>331400</v>
+        <v>344600</v>
       </c>
       <c r="H44" s="3">
-        <v>347000</v>
+        <v>333600</v>
       </c>
       <c r="I44" s="3">
-        <v>379700</v>
+        <v>349300</v>
       </c>
       <c r="J44" s="3">
+        <v>382300</v>
+      </c>
+      <c r="K44" s="3">
         <v>332900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>400400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>386200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>363400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>328800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>356800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>328200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>333500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>282800</v>
-      </c>
-      <c r="S44" s="3">
-        <v>325200</v>
       </c>
       <c r="T44" s="3">
         <v>325200</v>
       </c>
       <c r="U44" s="3">
+        <v>325200</v>
+      </c>
+      <c r="V44" s="3">
         <v>328800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>309600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>830300</v>
+        <v>822700</v>
       </c>
       <c r="E45" s="3">
-        <v>789800</v>
+        <v>836100</v>
       </c>
       <c r="F45" s="3">
-        <v>631500</v>
+        <v>795300</v>
       </c>
       <c r="G45" s="3">
-        <v>1313700</v>
+        <v>635900</v>
       </c>
       <c r="H45" s="3">
-        <v>1354300</v>
+        <v>1322800</v>
       </c>
       <c r="I45" s="3">
-        <v>869300</v>
+        <v>1363600</v>
       </c>
       <c r="J45" s="3">
+        <v>875300</v>
+      </c>
+      <c r="K45" s="3">
         <v>623000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>738700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>733500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>753700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>717700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>603900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>709900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>639900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>512800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>486000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>499400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>749800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>476300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5415600</v>
+        <v>5920100</v>
       </c>
       <c r="E46" s="3">
-        <v>6150800</v>
+        <v>5453000</v>
       </c>
       <c r="F46" s="3">
-        <v>4434800</v>
+        <v>6193300</v>
       </c>
       <c r="G46" s="3">
-        <v>5873300</v>
+        <v>4465400</v>
       </c>
       <c r="H46" s="3">
-        <v>5817900</v>
+        <v>5913800</v>
       </c>
       <c r="I46" s="3">
-        <v>6477500</v>
+        <v>5858000</v>
       </c>
       <c r="J46" s="3">
+        <v>6522200</v>
+      </c>
+      <c r="K46" s="3">
         <v>4303800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5185700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5145900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4645100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4409000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4361600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4183300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4717000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4208500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4415400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3356400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3635300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3729800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4348200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>744600</v>
+        <v>731700</v>
       </c>
       <c r="E47" s="3">
-        <v>764900</v>
+        <v>749700</v>
       </c>
       <c r="F47" s="3">
-        <v>1428400</v>
+        <v>770100</v>
       </c>
       <c r="G47" s="3">
-        <v>1318400</v>
+        <v>1438200</v>
       </c>
       <c r="H47" s="3">
-        <v>1208500</v>
+        <v>1327500</v>
       </c>
       <c r="I47" s="3">
-        <v>921600</v>
+        <v>1216800</v>
       </c>
       <c r="J47" s="3">
+        <v>927900</v>
+      </c>
+      <c r="K47" s="3">
         <v>959800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>995700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>964300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>985400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>992500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>879300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>916100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>935700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>926500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>616200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>657100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>675300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>654500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>793600</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21483000</v>
+        <v>21844000</v>
       </c>
       <c r="E48" s="3">
-        <v>21339600</v>
+        <v>21631300</v>
       </c>
       <c r="F48" s="3">
-        <v>21451100</v>
+        <v>21486800</v>
       </c>
       <c r="G48" s="3">
-        <v>21095500</v>
+        <v>21599100</v>
       </c>
       <c r="H48" s="3">
-        <v>20926300</v>
+        <v>21241100</v>
       </c>
       <c r="I48" s="3">
-        <v>21387900</v>
+        <v>21070700</v>
       </c>
       <c r="J48" s="3">
+        <v>21535500</v>
+      </c>
+      <c r="K48" s="3">
         <v>21547000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22698600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21740600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20997600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18908500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17968100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18362100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18194200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17882600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17678000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17552900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18015000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17166900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16807300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18588900</v>
+        <v>18798000</v>
       </c>
       <c r="E49" s="3">
-        <v>18581900</v>
+        <v>18717200</v>
       </c>
       <c r="F49" s="3">
-        <v>18482900</v>
+        <v>18710100</v>
       </c>
       <c r="G49" s="3">
-        <v>18309000</v>
+        <v>18610400</v>
       </c>
       <c r="H49" s="3">
-        <v>18281700</v>
+        <v>18435300</v>
       </c>
       <c r="I49" s="3">
-        <v>18852400</v>
+        <v>18407900</v>
       </c>
       <c r="J49" s="3">
+        <v>18982500</v>
+      </c>
+      <c r="K49" s="3">
         <v>18726900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20006600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18957900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18418700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18161900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17450700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>18048100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>18031600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>17627400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>17799300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>17711500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>18239300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>16099000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>15574300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3768900</v>
+        <v>4783300</v>
       </c>
       <c r="E52" s="3">
-        <v>3255900</v>
+        <v>3794900</v>
       </c>
       <c r="F52" s="3">
-        <v>1501600</v>
+        <v>3278400</v>
       </c>
       <c r="G52" s="3">
-        <v>1448600</v>
+        <v>1512000</v>
       </c>
       <c r="H52" s="3">
-        <v>1474400</v>
+        <v>1458600</v>
       </c>
       <c r="I52" s="3">
-        <v>3440700</v>
+        <v>1484500</v>
       </c>
       <c r="J52" s="3">
+        <v>3464400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1356600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1375400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>941300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1019200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>986400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1236800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1067500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>765600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>883400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>843200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>605800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>803600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>844300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>695200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>50001000</v>
+        <v>52077100</v>
       </c>
       <c r="E54" s="3">
-        <v>50093000</v>
+        <v>50346000</v>
       </c>
       <c r="F54" s="3">
-        <v>47298700</v>
+        <v>50438700</v>
       </c>
       <c r="G54" s="3">
-        <v>48044800</v>
+        <v>47625100</v>
       </c>
       <c r="H54" s="3">
-        <v>47708800</v>
+        <v>48376400</v>
       </c>
       <c r="I54" s="3">
-        <v>51080100</v>
+        <v>48038000</v>
       </c>
       <c r="J54" s="3">
+        <v>51432600</v>
+      </c>
+      <c r="K54" s="3">
         <v>46894000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>50262000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>47750100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>46066000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43458200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>41896600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>42577000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>42644000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41528400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>41352000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>39883700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>41368400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>38494500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>38218700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3043800</v>
+        <v>3243000</v>
       </c>
       <c r="E57" s="3">
-        <v>2902700</v>
+        <v>3064800</v>
       </c>
       <c r="F57" s="3">
-        <v>3068000</v>
+        <v>2922700</v>
       </c>
       <c r="G57" s="3">
-        <v>2780300</v>
+        <v>3089200</v>
       </c>
       <c r="H57" s="3">
-        <v>2604900</v>
+        <v>2799500</v>
       </c>
       <c r="I57" s="3">
-        <v>2600200</v>
+        <v>2622900</v>
       </c>
       <c r="J57" s="3">
+        <v>2618100</v>
+      </c>
+      <c r="K57" s="3">
         <v>3082800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3026000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2950000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2779100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2999500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2745400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2712300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2660400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2883800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3326600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3177800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3106700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3323400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3092100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1796400</v>
+        <v>1565400</v>
       </c>
       <c r="E58" s="3">
-        <v>2951800</v>
+        <v>1808800</v>
       </c>
       <c r="F58" s="3">
-        <v>1884500</v>
+        <v>2972200</v>
       </c>
       <c r="G58" s="3">
-        <v>2264200</v>
+        <v>1897500</v>
       </c>
       <c r="H58" s="3">
-        <v>2014700</v>
+        <v>2279800</v>
       </c>
       <c r="I58" s="3">
-        <v>3281600</v>
+        <v>2028600</v>
       </c>
       <c r="J58" s="3">
+        <v>3304300</v>
+      </c>
+      <c r="K58" s="3">
         <v>3025900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3919700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4501200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4222500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3535300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3544100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4315000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4155400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3853500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4527000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4420600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4844500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3754300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3834200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1672400</v>
+        <v>1475100</v>
       </c>
       <c r="E59" s="3">
-        <v>1573400</v>
+        <v>1683900</v>
       </c>
       <c r="F59" s="3">
-        <v>1496200</v>
+        <v>1584200</v>
       </c>
       <c r="G59" s="3">
-        <v>1642800</v>
+        <v>1506500</v>
       </c>
       <c r="H59" s="3">
-        <v>1723100</v>
+        <v>1654100</v>
       </c>
       <c r="I59" s="3">
-        <v>1458000</v>
+        <v>1735000</v>
       </c>
       <c r="J59" s="3">
+        <v>1468000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1514100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1657300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1543200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1454200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1402700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1301500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1289500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1228600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1249500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>804500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>743500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>672200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>687600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>689900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6512600</v>
+        <v>6283500</v>
       </c>
       <c r="E60" s="3">
-        <v>7427900</v>
+        <v>6557500</v>
       </c>
       <c r="F60" s="3">
-        <v>6448700</v>
+        <v>7479200</v>
       </c>
       <c r="G60" s="3">
-        <v>6687200</v>
+        <v>6493100</v>
       </c>
       <c r="H60" s="3">
-        <v>6342600</v>
+        <v>6733400</v>
       </c>
       <c r="I60" s="3">
-        <v>7339800</v>
+        <v>6386400</v>
       </c>
       <c r="J60" s="3">
+        <v>7390500</v>
+      </c>
+      <c r="K60" s="3">
         <v>7622800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8603100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8994400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8455700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7937400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7591000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8316800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8044300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7986900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8658100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8341800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8623400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7765300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7616200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19820800</v>
+        <v>21251300</v>
       </c>
       <c r="E61" s="3">
-        <v>19464500</v>
+        <v>19957500</v>
       </c>
       <c r="F61" s="3">
-        <v>18638800</v>
+        <v>19598800</v>
       </c>
       <c r="G61" s="3">
-        <v>19424700</v>
+        <v>18767400</v>
       </c>
       <c r="H61" s="3">
-        <v>19510500</v>
+        <v>19558700</v>
       </c>
       <c r="I61" s="3">
-        <v>19891700</v>
+        <v>19645100</v>
       </c>
       <c r="J61" s="3">
+        <v>20029000</v>
+      </c>
+      <c r="K61" s="3">
         <v>17476300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18608000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17406000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16948400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15039100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14231500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13826500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14564200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>13555800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>13735100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>12973800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>13641500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>12731100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>12679600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5915400</v>
+        <v>6086500</v>
       </c>
       <c r="E62" s="3">
-        <v>5762500</v>
+        <v>5956200</v>
       </c>
       <c r="F62" s="3">
-        <v>5581700</v>
+        <v>5802300</v>
       </c>
       <c r="G62" s="3">
-        <v>5497500</v>
+        <v>5620200</v>
       </c>
       <c r="H62" s="3">
-        <v>5375800</v>
+        <v>5535400</v>
       </c>
       <c r="I62" s="3">
-        <v>5585600</v>
+        <v>5412900</v>
       </c>
       <c r="J62" s="3">
+        <v>5624100</v>
+      </c>
+      <c r="K62" s="3">
         <v>5103700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5422800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5123700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4851400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4735500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4709700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4832900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4756900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4636400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4340200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4371500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4358900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4282100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5051900</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32513800</v>
+        <v>33896900</v>
       </c>
       <c r="E66" s="3">
-        <v>32919200</v>
+        <v>32738200</v>
       </c>
       <c r="F66" s="3">
-        <v>30934200</v>
+        <v>33146400</v>
       </c>
       <c r="G66" s="3">
-        <v>31883000</v>
+        <v>31147600</v>
       </c>
       <c r="H66" s="3">
-        <v>31500200</v>
+        <v>32103000</v>
       </c>
       <c r="I66" s="3">
-        <v>33082200</v>
+        <v>31717600</v>
       </c>
       <c r="J66" s="3">
+        <v>33310500</v>
+      </c>
+      <c r="K66" s="3">
         <v>30463300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32912500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31785000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30493300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>27960200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26767600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>27216400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>27597300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>26419500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26975400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>25928300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>26866500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>25019700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>25588200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,55 +4504,58 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3121000</v>
+        <v>3142600</v>
       </c>
       <c r="E70" s="3">
-        <v>3121000</v>
+        <v>3142600</v>
       </c>
       <c r="F70" s="3">
-        <v>3121000</v>
+        <v>3142600</v>
       </c>
       <c r="G70" s="3">
+        <v>3142600</v>
+      </c>
+      <c r="H70" s="3">
+        <v>3143300</v>
+      </c>
+      <c r="I70" s="3">
+        <v>3143300</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3143300</v>
+      </c>
+      <c r="K70" s="3">
         <v>3121800</v>
       </c>
-      <c r="H70" s="3">
-        <v>3121800</v>
-      </c>
-      <c r="I70" s="3">
-        <v>3121800</v>
-      </c>
-      <c r="J70" s="3">
-        <v>3121800</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3319500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3175300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3082400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3047400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>2909700</v>
-      </c>
-      <c r="P70" s="3">
-        <v>3014200</v>
       </c>
       <c r="Q70" s="3">
         <v>3014200</v>
       </c>
       <c r="R70" s="3">
-        <v>2979800</v>
+        <v>3014200</v>
       </c>
       <c r="S70" s="3">
         <v>2979800</v>
@@ -4396,7 +4564,7 @@
         <v>2979800</v>
       </c>
       <c r="U70" s="3">
-        <v>3076000</v>
+        <v>2979800</v>
       </c>
       <c r="V70" s="3">
         <v>3076000</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>3076000</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>3076000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2651700</v>
+        <v>-2325300</v>
       </c>
       <c r="E72" s="3">
-        <v>-2879300</v>
+        <v>-2670000</v>
       </c>
       <c r="F72" s="3">
-        <v>-3649600</v>
+        <v>-2899200</v>
       </c>
       <c r="G72" s="3">
-        <v>-3966200</v>
+        <v>-3674800</v>
       </c>
       <c r="H72" s="3">
-        <v>-4009100</v>
+        <v>-3993500</v>
       </c>
       <c r="I72" s="3">
-        <v>-2331200</v>
+        <v>-4036700</v>
       </c>
       <c r="J72" s="3">
+        <v>-2347300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3611400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3925600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4119700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3860600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3757500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3181400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3621700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3908500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3674900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4370700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4812100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4858300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4640100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5443700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14366200</v>
+        <v>15037600</v>
       </c>
       <c r="E76" s="3">
-        <v>14052800</v>
+        <v>14465300</v>
       </c>
       <c r="F76" s="3">
-        <v>13243500</v>
+        <v>14149700</v>
       </c>
       <c r="G76" s="3">
-        <v>13040000</v>
+        <v>13334900</v>
       </c>
       <c r="H76" s="3">
-        <v>13086800</v>
+        <v>13130000</v>
       </c>
       <c r="I76" s="3">
-        <v>14876100</v>
+        <v>13177100</v>
       </c>
       <c r="J76" s="3">
+        <v>14978800</v>
+      </c>
+      <c r="K76" s="3">
         <v>13309000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14030000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12789800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12490300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12450700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12219300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12346500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12032600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12129100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11396800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10975600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11425900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10398800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9554500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>534100</v>
+        <v>594300</v>
       </c>
       <c r="E81" s="3">
-        <v>500500</v>
+        <v>537800</v>
       </c>
       <c r="F81" s="3">
-        <v>693100</v>
+        <v>504000</v>
       </c>
       <c r="G81" s="3">
-        <v>539500</v>
+        <v>697900</v>
       </c>
       <c r="H81" s="3">
-        <v>184800</v>
+        <v>543300</v>
       </c>
       <c r="I81" s="3">
-        <v>530200</v>
+        <v>186100</v>
       </c>
       <c r="J81" s="3">
+        <v>533800</v>
+      </c>
+      <c r="K81" s="3">
         <v>523900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>718800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>603500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>569700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>461200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>591500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1027600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>497600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>488200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>597600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>569300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>493200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>504700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>899000</v>
+        <v>900500</v>
       </c>
       <c r="E83" s="3">
-        <v>883400</v>
+        <v>905200</v>
       </c>
       <c r="F83" s="3">
-        <v>861500</v>
+        <v>889500</v>
       </c>
       <c r="G83" s="3">
-        <v>863900</v>
+        <v>867500</v>
       </c>
       <c r="H83" s="3">
+        <v>869800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>854900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>865100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>852200</v>
+      </c>
+      <c r="L83" s="3">
+        <v>904500</v>
+      </c>
+      <c r="M83" s="3">
+        <v>881000</v>
+      </c>
+      <c r="N83" s="3">
         <v>849100</v>
       </c>
-      <c r="I83" s="3">
-        <v>859200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>852200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>904500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>881000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>849100</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>772500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>726000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1505600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>746800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>736800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>724100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>729300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>696800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>679100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1948400</v>
+        <v>1392700</v>
       </c>
       <c r="E89" s="3">
-        <v>1553100</v>
+        <v>1961800</v>
       </c>
       <c r="F89" s="3">
-        <v>1274800</v>
+        <v>1563800</v>
       </c>
       <c r="G89" s="3">
-        <v>1645100</v>
+        <v>1283600</v>
       </c>
       <c r="H89" s="3">
-        <v>1997500</v>
+        <v>1656500</v>
       </c>
       <c r="I89" s="3">
-        <v>1131300</v>
+        <v>2011300</v>
       </c>
       <c r="J89" s="3">
+        <v>1139100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1630300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1872000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1659800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1167000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1360800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1484600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2674700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1126200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1233900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1661800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1603000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1008700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1167700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1492700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-941100</v>
+        <v>-909900</v>
       </c>
       <c r="E91" s="3">
-        <v>-789000</v>
+        <v>-947600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1164800</v>
+        <v>-794500</v>
       </c>
       <c r="G91" s="3">
-        <v>-803800</v>
+        <v>-1172900</v>
       </c>
       <c r="H91" s="3">
-        <v>-697000</v>
+        <v>-809400</v>
       </c>
       <c r="I91" s="3">
-        <v>-610500</v>
+        <v>-701800</v>
       </c>
       <c r="J91" s="3">
+        <v>-614700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-899000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-839800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-770800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-654300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-741300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-734000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1495800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-818600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-774000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-775500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-654500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-762900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-749800</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-962900</v>
+        <v>-1247400</v>
       </c>
       <c r="E94" s="3">
-        <v>-805400</v>
+        <v>-969500</v>
       </c>
       <c r="F94" s="3">
-        <v>-495100</v>
+        <v>-811000</v>
       </c>
       <c r="G94" s="3">
-        <v>-913000</v>
+        <v>-498500</v>
       </c>
       <c r="H94" s="3">
-        <v>-736000</v>
+        <v>-919300</v>
       </c>
       <c r="I94" s="3">
-        <v>-615900</v>
+        <v>-741100</v>
       </c>
       <c r="J94" s="3">
+        <v>-620200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-906000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-837300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-785100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-672800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-717700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-864000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1696800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-871000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-848400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-801500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-538800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1917500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-838100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1139300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-616700</v>
+        <v>-622500</v>
       </c>
       <c r="E96" s="3">
-        <v>-587100</v>
+        <v>-621000</v>
       </c>
       <c r="F96" s="3">
-        <v>-587100</v>
+        <v>-591100</v>
       </c>
       <c r="G96" s="3">
-        <v>-587100</v>
+        <v>-591100</v>
       </c>
       <c r="H96" s="3">
-        <v>-587100</v>
+        <v>-591100</v>
       </c>
       <c r="I96" s="3">
+        <v>-591100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-562100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-558200</v>
       </c>
-      <c r="J96" s="3">
-        <v>-558200</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-591100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-564600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-521900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-515300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-492700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-996700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-486300</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-480800</v>
       </c>
       <c r="S96" s="3">
         <v>-480800</v>
       </c>
       <c r="T96" s="3">
+        <v>-480800</v>
+      </c>
+      <c r="U96" s="3">
         <v>-465900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-456300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-455600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-456300</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1652100</v>
+        <v>180600</v>
       </c>
       <c r="E100" s="3">
-        <v>1110300</v>
+        <v>-1663500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1911000</v>
+        <v>1117900</v>
       </c>
       <c r="G100" s="3">
-        <v>-629200</v>
+        <v>-1924200</v>
       </c>
       <c r="H100" s="3">
-        <v>-2144100</v>
+        <v>-633500</v>
       </c>
       <c r="I100" s="3">
-        <v>1460300</v>
+        <v>-2158900</v>
       </c>
       <c r="J100" s="3">
+        <v>1470400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1364400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1140800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-536900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-307200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-948300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-303800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1154800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>176900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1393200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>198000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1029200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>645300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-744400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>244300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-666600</v>
+        <v>325800</v>
       </c>
       <c r="E102" s="3">
-        <v>1858000</v>
+        <v>-671200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1131300</v>
+        <v>1870800</v>
       </c>
       <c r="G102" s="3">
-        <v>102900</v>
+        <v>-1139100</v>
       </c>
       <c r="H102" s="3">
-        <v>-882600</v>
+        <v>103600</v>
       </c>
       <c r="I102" s="3">
-        <v>1975700</v>
+        <v>-888700</v>
       </c>
       <c r="J102" s="3">
+        <v>1989300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-640100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-106100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>337800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>187100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-305200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>316800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-176900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>432100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1007700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1058300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>35000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-263500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-414800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>597700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>BCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4581600</v>
+        <v>4872500</v>
       </c>
       <c r="E8" s="3">
-        <v>4473200</v>
+        <v>4579700</v>
       </c>
       <c r="F8" s="3">
-        <v>4479500</v>
+        <v>4471400</v>
       </c>
       <c r="G8" s="3">
-        <v>4790400</v>
+        <v>4477700</v>
       </c>
       <c r="H8" s="3">
-        <v>4543100</v>
+        <v>4788500</v>
       </c>
       <c r="I8" s="3">
-        <v>4203200</v>
+        <v>4541300</v>
       </c>
       <c r="J8" s="3">
+        <v>4201500</v>
+      </c>
+      <c r="K8" s="3">
         <v>4427700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4892400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4924600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4670100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4379500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4730200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4270800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8563700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4208100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4492100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4239800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4233100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4099300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4380400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4153800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1351900</v>
+        <v>1696600</v>
       </c>
       <c r="E9" s="3">
-        <v>1306300</v>
+        <v>1351300</v>
       </c>
       <c r="F9" s="3">
-        <v>1367600</v>
+        <v>1305800</v>
       </c>
       <c r="G9" s="3">
-        <v>1613300</v>
+        <v>1367000</v>
       </c>
       <c r="H9" s="3">
-        <v>1402900</v>
+        <v>1612600</v>
       </c>
       <c r="I9" s="3">
-        <v>1154800</v>
+        <v>1402300</v>
       </c>
       <c r="J9" s="3">
+        <v>1154400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1298500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1664600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1473200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1352900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1337900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1632500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1297100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2582100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1287300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1511500</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1248800</v>
       </c>
       <c r="U9" s="3">
         <v>1248800</v>
       </c>
       <c r="V9" s="3">
+        <v>1248800</v>
+      </c>
+      <c r="W9" s="3">
         <v>1249900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1514900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1236900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3229700</v>
+        <v>3175800</v>
       </c>
       <c r="E10" s="3">
-        <v>3166900</v>
+        <v>3228400</v>
       </c>
       <c r="F10" s="3">
-        <v>3111900</v>
+        <v>3165600</v>
       </c>
       <c r="G10" s="3">
-        <v>3177100</v>
+        <v>3110700</v>
       </c>
       <c r="H10" s="3">
-        <v>3140200</v>
+        <v>3175800</v>
       </c>
       <c r="I10" s="3">
-        <v>3048300</v>
+        <v>3139000</v>
       </c>
       <c r="J10" s="3">
+        <v>3047100</v>
+      </c>
+      <c r="K10" s="3">
         <v>3129200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3227800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3451300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3317200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3041600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3097600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2973600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5981700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2920800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2980600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2991000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2984300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2849400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2865500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2917000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,144 +1143,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E14" s="3">
         <v>19600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>134200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>113800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>50200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>40000</v>
       </c>
-      <c r="I14" s="3">
-        <v>369800</v>
-      </c>
       <c r="J14" s="3">
+        <v>369600</v>
+      </c>
+      <c r="K14" s="3">
         <v>30600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>96700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>19900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>46000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>21600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>192600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>40000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>34600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>96000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>29000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>29800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>64500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>15400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>900500</v>
+        <v>922900</v>
       </c>
       <c r="E15" s="3">
-        <v>905200</v>
+        <v>900100</v>
       </c>
       <c r="F15" s="3">
-        <v>889500</v>
+        <v>904800</v>
       </c>
       <c r="G15" s="3">
-        <v>867500</v>
+        <v>889100</v>
       </c>
       <c r="H15" s="3">
-        <v>869800</v>
+        <v>867100</v>
       </c>
       <c r="I15" s="3">
-        <v>865900</v>
+        <v>869500</v>
       </c>
       <c r="J15" s="3">
+        <v>865600</v>
+      </c>
+      <c r="K15" s="3">
         <v>854100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>840500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>892900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>871500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>839100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>772500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>726000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1505600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>746800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>737500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>719700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>727100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>698300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>679100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3513100</v>
+        <v>3961400</v>
       </c>
       <c r="E17" s="3">
-        <v>3568800</v>
+        <v>3511700</v>
       </c>
       <c r="F17" s="3">
-        <v>3575900</v>
+        <v>3567400</v>
       </c>
       <c r="G17" s="3">
-        <v>3830300</v>
+        <v>3574500</v>
       </c>
       <c r="H17" s="3">
-        <v>3526400</v>
+        <v>3828700</v>
       </c>
       <c r="I17" s="3">
-        <v>3608900</v>
+        <v>3525100</v>
       </c>
       <c r="J17" s="3">
+        <v>3607400</v>
+      </c>
+      <c r="K17" s="3">
         <v>3415000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3892900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3708300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3548000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3406500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3873200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3252700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6577900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3261100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3592300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3198600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3217200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3198100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3445500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3121300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1068500</v>
+        <v>911100</v>
       </c>
       <c r="E18" s="3">
-        <v>904400</v>
+        <v>1068000</v>
       </c>
       <c r="F18" s="3">
-        <v>903600</v>
+        <v>904000</v>
       </c>
       <c r="G18" s="3">
-        <v>960100</v>
+        <v>903200</v>
       </c>
       <c r="H18" s="3">
-        <v>1016600</v>
+        <v>959700</v>
       </c>
       <c r="I18" s="3">
-        <v>594300</v>
+        <v>1016200</v>
       </c>
       <c r="J18" s="3">
+        <v>594000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1012700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>999500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1216200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1122100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>973100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>857000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1018100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1985900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>947000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>899700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1041100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1015800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>901100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>934900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1032500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23600</v>
+        <v>16500</v>
       </c>
       <c r="E20" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F20" s="3">
         <v>67500</v>
       </c>
-      <c r="F20" s="3">
-        <v>44000</v>
-      </c>
       <c r="G20" s="3">
+        <v>43900</v>
+      </c>
+      <c r="H20" s="3">
         <v>-29000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-15700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-71400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-33000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-26500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>38100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-40400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>68500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-121200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-55700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-43200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-11200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-31500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1992500</v>
+        <v>1850400</v>
       </c>
       <c r="E21" s="3">
-        <v>1877100</v>
+        <v>1991700</v>
       </c>
       <c r="F21" s="3">
-        <v>1837000</v>
+        <v>1876300</v>
       </c>
       <c r="G21" s="3">
-        <v>1798500</v>
+        <v>1836300</v>
       </c>
       <c r="H21" s="3">
-        <v>1870800</v>
+        <v>1797800</v>
       </c>
       <c r="I21" s="3">
-        <v>1377800</v>
+        <v>1870000</v>
       </c>
       <c r="J21" s="3">
+        <v>1377200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1844900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1825200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2158800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1962700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1890700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1644000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1704100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3370200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1638100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1638800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1717600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1733300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1597200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1582600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1673200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>213500</v>
+        <v>215800</v>
       </c>
       <c r="E22" s="3">
-        <v>210400</v>
+        <v>213400</v>
       </c>
       <c r="F22" s="3">
-        <v>209600</v>
+        <v>210300</v>
       </c>
       <c r="G22" s="3">
-        <v>215100</v>
+        <v>209500</v>
       </c>
       <c r="H22" s="3">
-        <v>219000</v>
+        <v>215000</v>
       </c>
       <c r="I22" s="3">
-        <v>219800</v>
+        <v>218900</v>
       </c>
       <c r="J22" s="3">
+        <v>219700</v>
+      </c>
+      <c r="K22" s="3">
         <v>217500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>222200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>232100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>221300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>216300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>197100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>185300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>365900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>180700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>179400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>180100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>177100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>179800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>172900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>878500</v>
+        <v>711800</v>
       </c>
       <c r="E23" s="3">
-        <v>761500</v>
+        <v>878100</v>
       </c>
       <c r="F23" s="3">
-        <v>737900</v>
+        <v>761200</v>
       </c>
       <c r="G23" s="3">
-        <v>716000</v>
+        <v>737700</v>
       </c>
       <c r="H23" s="3">
-        <v>781900</v>
+        <v>715700</v>
       </c>
       <c r="I23" s="3">
-        <v>303000</v>
+        <v>781600</v>
       </c>
       <c r="J23" s="3">
+        <v>302900</v>
+      </c>
+      <c r="K23" s="3">
         <v>762300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>750800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1022200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>860400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>825200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>674300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>792800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1498800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>710600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>721900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>817900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>827600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>720600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>730600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>832800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>240200</v>
+        <v>195400</v>
       </c>
       <c r="E24" s="3">
+        <v>240100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>185200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>198500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>149900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>205600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>75300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>190800</v>
+      </c>
+      <c r="L24" s="3">
+        <v>191000</v>
+      </c>
+      <c r="M24" s="3">
+        <v>264500</v>
+      </c>
+      <c r="N24" s="3">
+        <v>218100</v>
+      </c>
+      <c r="O24" s="3">
+        <v>223200</v>
+      </c>
+      <c r="P24" s="3">
+        <v>185700</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>162800</v>
+      </c>
+      <c r="R24" s="3">
+        <v>396700</v>
+      </c>
+      <c r="S24" s="3">
+        <v>176900</v>
+      </c>
+      <c r="T24" s="3">
+        <v>202400</v>
+      </c>
+      <c r="U24" s="3">
         <v>185300</v>
       </c>
-      <c r="F24" s="3">
-        <v>198600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>149900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>205700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>75400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>190800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>191000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>264500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>218100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>223200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>185700</v>
-      </c>
-      <c r="P24" s="3">
-        <v>162800</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>396700</v>
-      </c>
-      <c r="R24" s="3">
-        <v>176900</v>
-      </c>
-      <c r="S24" s="3">
-        <v>202400</v>
-      </c>
-      <c r="T24" s="3">
-        <v>185300</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>221800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>192100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>193600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>638200</v>
+        <v>516400</v>
       </c>
       <c r="E26" s="3">
-        <v>576200</v>
+        <v>638000</v>
       </c>
       <c r="F26" s="3">
-        <v>539300</v>
+        <v>576000</v>
       </c>
       <c r="G26" s="3">
-        <v>566000</v>
+        <v>539100</v>
       </c>
       <c r="H26" s="3">
-        <v>576200</v>
+        <v>565800</v>
       </c>
       <c r="I26" s="3">
-        <v>227700</v>
+        <v>576000</v>
       </c>
       <c r="J26" s="3">
+        <v>227600</v>
+      </c>
+      <c r="K26" s="3">
         <v>571500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>559800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>757800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>642300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>602000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>488600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>630000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1102100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>533700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>519500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>632600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>605800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>528500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>537000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>614600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>594300</v>
+        <v>490500</v>
       </c>
       <c r="E27" s="3">
-        <v>537800</v>
+        <v>594000</v>
       </c>
       <c r="F27" s="3">
-        <v>504000</v>
+        <v>537500</v>
       </c>
       <c r="G27" s="3">
-        <v>532300</v>
+        <v>503800</v>
       </c>
       <c r="H27" s="3">
-        <v>538500</v>
+        <v>532100</v>
       </c>
       <c r="I27" s="3">
-        <v>182900</v>
+        <v>538300</v>
       </c>
       <c r="J27" s="3">
+        <v>182800</v>
+      </c>
+      <c r="K27" s="3">
         <v>529900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>520000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>712200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>597900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>562700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>461200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>591500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1027600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>497600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>488200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>597600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>569300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>493200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>504700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2075,35 +2135,35 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>165600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>4700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>3100</v>
-      </c>
-      <c r="J29" s="3">
-        <v>3900</v>
       </c>
       <c r="K29" s="3">
         <v>3900</v>
       </c>
       <c r="L29" s="3">
+        <v>3900</v>
+      </c>
+      <c r="M29" s="3">
         <v>6600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>5600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>6900</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23600</v>
+        <v>-16500</v>
       </c>
       <c r="E32" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-67500</v>
       </c>
-      <c r="F32" s="3">
-        <v>-44000</v>
-      </c>
       <c r="G32" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="H32" s="3">
         <v>29000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>15700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>71400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>33000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>26500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-38100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>40400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-68500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>40000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>121200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>55700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>43200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>11200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>31500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>594300</v>
+        <v>490500</v>
       </c>
       <c r="E33" s="3">
-        <v>537800</v>
+        <v>594000</v>
       </c>
       <c r="F33" s="3">
-        <v>504000</v>
+        <v>537500</v>
       </c>
       <c r="G33" s="3">
-        <v>697900</v>
+        <v>503800</v>
       </c>
       <c r="H33" s="3">
-        <v>543300</v>
+        <v>697600</v>
       </c>
       <c r="I33" s="3">
-        <v>186100</v>
+        <v>543000</v>
       </c>
       <c r="J33" s="3">
+        <v>186000</v>
+      </c>
+      <c r="K33" s="3">
         <v>533800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>523900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>718800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>603500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>569700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>461200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>591500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1027600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>497600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>488200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>597600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>569300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>493200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>504700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>594300</v>
+        <v>490500</v>
       </c>
       <c r="E35" s="3">
-        <v>537800</v>
+        <v>594000</v>
       </c>
       <c r="F35" s="3">
-        <v>504000</v>
+        <v>537500</v>
       </c>
       <c r="G35" s="3">
-        <v>697900</v>
+        <v>503800</v>
       </c>
       <c r="H35" s="3">
-        <v>543300</v>
+        <v>697600</v>
       </c>
       <c r="I35" s="3">
-        <v>186100</v>
+        <v>543000</v>
       </c>
       <c r="J35" s="3">
+        <v>186000</v>
+      </c>
+      <c r="K35" s="3">
         <v>533800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>523900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>718800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>603500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>569700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>461200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>591500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1027600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>497600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>488200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>597600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>569300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>493200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>504700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1701200</v>
+        <v>162400</v>
       </c>
       <c r="E41" s="3">
-        <v>1375400</v>
+        <v>1700500</v>
       </c>
       <c r="F41" s="3">
-        <v>2046600</v>
+        <v>1374900</v>
       </c>
       <c r="G41" s="3">
-        <v>175900</v>
+        <v>2045800</v>
       </c>
       <c r="H41" s="3">
-        <v>1318100</v>
+        <v>175800</v>
       </c>
       <c r="I41" s="3">
-        <v>1214500</v>
+        <v>1317600</v>
       </c>
       <c r="J41" s="3">
+        <v>1214000</v>
+      </c>
+      <c r="K41" s="3">
         <v>2103100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>113100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>867600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>514200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>323500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>293600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>902600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>465100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1472800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>414500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>391800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>655300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1070100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,484 +2886,508 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3068000</v>
+        <v>3423800</v>
       </c>
       <c r="E43" s="3">
-        <v>2913300</v>
+        <v>3066800</v>
       </c>
       <c r="F43" s="3">
-        <v>2991000</v>
+        <v>2912200</v>
       </c>
       <c r="G43" s="3">
-        <v>3309000</v>
+        <v>2989900</v>
       </c>
       <c r="H43" s="3">
-        <v>2939200</v>
+        <v>3307700</v>
       </c>
       <c r="I43" s="3">
-        <v>2930600</v>
+        <v>2938100</v>
       </c>
       <c r="J43" s="3">
+        <v>2929400</v>
+      </c>
+      <c r="K43" s="3">
         <v>3161400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3234900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3245700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>797000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>752900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>751200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>658400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2851600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2841000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2947800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2131400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2117300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2164900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2288600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2473700</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>378200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>328000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>328000</v>
+      </c>
+      <c r="G44" s="3">
+        <v>360200</v>
+      </c>
+      <c r="H44" s="3">
+        <v>344500</v>
+      </c>
+      <c r="I44" s="3">
+        <v>333500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>349200</v>
+      </c>
+      <c r="K44" s="3">
+        <v>382300</v>
+      </c>
+      <c r="L44" s="3">
+        <v>332900</v>
+      </c>
+      <c r="M44" s="3">
+        <v>400400</v>
+      </c>
+      <c r="N44" s="3">
+        <v>386200</v>
+      </c>
+      <c r="O44" s="3">
+        <v>363400</v>
+      </c>
+      <c r="P44" s="3">
+        <v>328800</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>356800</v>
+      </c>
+      <c r="R44" s="3">
         <v>328200</v>
       </c>
-      <c r="E44" s="3">
-        <v>328200</v>
-      </c>
-      <c r="F44" s="3">
-        <v>360300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>344600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>333600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>349300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>382300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>332900</v>
-      </c>
-      <c r="L44" s="3">
-        <v>400400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>386200</v>
-      </c>
-      <c r="N44" s="3">
-        <v>363400</v>
-      </c>
-      <c r="O44" s="3">
-        <v>328800</v>
-      </c>
-      <c r="P44" s="3">
-        <v>356800</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>328200</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>333500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>282800</v>
-      </c>
-      <c r="T44" s="3">
-        <v>325200</v>
       </c>
       <c r="U44" s="3">
         <v>325200</v>
       </c>
       <c r="V44" s="3">
+        <v>325200</v>
+      </c>
+      <c r="W44" s="3">
         <v>328800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>309600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>822700</v>
+        <v>899300</v>
       </c>
       <c r="E45" s="3">
-        <v>836100</v>
+        <v>822400</v>
       </c>
       <c r="F45" s="3">
-        <v>795300</v>
+        <v>835700</v>
       </c>
       <c r="G45" s="3">
-        <v>635900</v>
+        <v>794900</v>
       </c>
       <c r="H45" s="3">
-        <v>1322800</v>
+        <v>635600</v>
       </c>
       <c r="I45" s="3">
-        <v>1363600</v>
+        <v>1322300</v>
       </c>
       <c r="J45" s="3">
+        <v>1363100</v>
+      </c>
+      <c r="K45" s="3">
         <v>875300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>623000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>738700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>733500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>753700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>717700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>603900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>709900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>639900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>512800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>486000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>499400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>749800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>476300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5920100</v>
+        <v>4863800</v>
       </c>
       <c r="E46" s="3">
-        <v>5453000</v>
+        <v>5917700</v>
       </c>
       <c r="F46" s="3">
-        <v>6193300</v>
+        <v>5450800</v>
       </c>
       <c r="G46" s="3">
-        <v>4465400</v>
+        <v>6190800</v>
       </c>
       <c r="H46" s="3">
-        <v>5913800</v>
+        <v>4463600</v>
       </c>
       <c r="I46" s="3">
-        <v>5858000</v>
+        <v>5911400</v>
       </c>
       <c r="J46" s="3">
+        <v>5855700</v>
+      </c>
+      <c r="K46" s="3">
         <v>6522200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4303800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5185700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5145900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4645100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4409000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4361600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4183300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4717000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4208500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4415400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3356400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3635300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3729800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4348200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>731700</v>
+        <v>721200</v>
       </c>
       <c r="E47" s="3">
-        <v>749700</v>
+        <v>731400</v>
       </c>
       <c r="F47" s="3">
-        <v>770100</v>
+        <v>749400</v>
       </c>
       <c r="G47" s="3">
-        <v>1438200</v>
+        <v>769800</v>
       </c>
       <c r="H47" s="3">
-        <v>1327500</v>
+        <v>1437600</v>
       </c>
       <c r="I47" s="3">
-        <v>1216800</v>
+        <v>1327000</v>
       </c>
       <c r="J47" s="3">
+        <v>1216300</v>
+      </c>
+      <c r="K47" s="3">
         <v>927900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>959800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>995700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>964300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>985400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>992500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>879300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>916100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>935700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>926500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>616200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>657100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>675300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>654500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>793600</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21844000</v>
+        <v>22157100</v>
       </c>
       <c r="E48" s="3">
-        <v>21631300</v>
+        <v>21835400</v>
       </c>
       <c r="F48" s="3">
-        <v>21486800</v>
+        <v>21622700</v>
       </c>
       <c r="G48" s="3">
-        <v>21599100</v>
+        <v>21478300</v>
       </c>
       <c r="H48" s="3">
-        <v>21241100</v>
+        <v>21590600</v>
       </c>
       <c r="I48" s="3">
-        <v>21070700</v>
+        <v>21232700</v>
       </c>
       <c r="J48" s="3">
+        <v>21062400</v>
+      </c>
+      <c r="K48" s="3">
         <v>21535500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21547000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22698600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21740600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20997600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18908500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17968100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18362100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18194200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17882600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17678000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17552900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18015000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>17166900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16807300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18798000</v>
+        <v>20514700</v>
       </c>
       <c r="E49" s="3">
-        <v>18717200</v>
+        <v>18790600</v>
       </c>
       <c r="F49" s="3">
-        <v>18710100</v>
+        <v>18709800</v>
       </c>
       <c r="G49" s="3">
-        <v>18610400</v>
+        <v>18702700</v>
       </c>
       <c r="H49" s="3">
-        <v>18435300</v>
+        <v>18603000</v>
       </c>
       <c r="I49" s="3">
-        <v>18407900</v>
+        <v>18428000</v>
       </c>
       <c r="J49" s="3">
+        <v>18400600</v>
+      </c>
+      <c r="K49" s="3">
         <v>18982500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18726900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20006600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18957900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18418700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18161900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17450700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>18048100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>18031600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>17627400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>17799300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>17711500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>18239300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>16099000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>15574300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4783300</v>
+        <v>4135600</v>
       </c>
       <c r="E52" s="3">
-        <v>3794900</v>
+        <v>4781400</v>
       </c>
       <c r="F52" s="3">
-        <v>3278400</v>
+        <v>3793400</v>
       </c>
       <c r="G52" s="3">
-        <v>1512000</v>
+        <v>3277100</v>
       </c>
       <c r="H52" s="3">
-        <v>1458600</v>
+        <v>1511400</v>
       </c>
       <c r="I52" s="3">
-        <v>1484500</v>
+        <v>1458000</v>
       </c>
       <c r="J52" s="3">
+        <v>1483900</v>
+      </c>
+      <c r="K52" s="3">
         <v>3464400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1356600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1375400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>941300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1019200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>986400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1236800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1067500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>765600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>883400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>843200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>605800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>803600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>844300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>695200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>52077100</v>
+        <v>52392400</v>
       </c>
       <c r="E54" s="3">
-        <v>50346000</v>
+        <v>52056500</v>
       </c>
       <c r="F54" s="3">
-        <v>50438700</v>
+        <v>50326200</v>
       </c>
       <c r="G54" s="3">
-        <v>47625100</v>
+        <v>50418800</v>
       </c>
       <c r="H54" s="3">
-        <v>48376400</v>
+        <v>47606300</v>
       </c>
       <c r="I54" s="3">
-        <v>48038000</v>
+        <v>48357200</v>
       </c>
       <c r="J54" s="3">
+        <v>48019000</v>
+      </c>
+      <c r="K54" s="3">
         <v>51432600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46894000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>50262000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>47750100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>46066000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>43458200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41896600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>42577000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>42644000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>41528400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41352000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>39883700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>41368400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>38494500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>38218700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3243000</v>
+        <v>3496000</v>
       </c>
       <c r="E57" s="3">
-        <v>3064800</v>
+        <v>3241800</v>
       </c>
       <c r="F57" s="3">
-        <v>2922700</v>
+        <v>3063600</v>
       </c>
       <c r="G57" s="3">
-        <v>3089200</v>
+        <v>2921600</v>
       </c>
       <c r="H57" s="3">
-        <v>2799500</v>
+        <v>3088000</v>
       </c>
       <c r="I57" s="3">
-        <v>2622900</v>
+        <v>2798400</v>
       </c>
       <c r="J57" s="3">
+        <v>2621800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2618100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3082800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3026000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2950000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2779100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2999500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2745400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2712300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2660400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2883800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3326600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3177800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3106700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3323400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3092100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1565400</v>
+        <v>2059900</v>
       </c>
       <c r="E58" s="3">
-        <v>1808800</v>
+        <v>1564800</v>
       </c>
       <c r="F58" s="3">
-        <v>2972200</v>
+        <v>1808000</v>
       </c>
       <c r="G58" s="3">
-        <v>1897500</v>
+        <v>2971000</v>
       </c>
       <c r="H58" s="3">
-        <v>2279800</v>
+        <v>1896700</v>
       </c>
       <c r="I58" s="3">
-        <v>2028600</v>
+        <v>2278900</v>
       </c>
       <c r="J58" s="3">
+        <v>2027800</v>
+      </c>
+      <c r="K58" s="3">
         <v>3304300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3025900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3919700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4501200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4222500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3535300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3544100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4315000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4155400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3853500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4527000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4420600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4844500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3754300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3834200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1475100</v>
+        <v>1595400</v>
       </c>
       <c r="E59" s="3">
-        <v>1683900</v>
+        <v>1474500</v>
       </c>
       <c r="F59" s="3">
-        <v>1584200</v>
+        <v>1683300</v>
       </c>
       <c r="G59" s="3">
-        <v>1506500</v>
+        <v>1583600</v>
       </c>
       <c r="H59" s="3">
-        <v>1654100</v>
+        <v>1505900</v>
       </c>
       <c r="I59" s="3">
-        <v>1735000</v>
+        <v>1653400</v>
       </c>
       <c r="J59" s="3">
+        <v>1734300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1468000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1514100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1657300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1543200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1454200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1402700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1301500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1289500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1228600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1249500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>804500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>743500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>672200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>687600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>689900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6283500</v>
+        <v>7151300</v>
       </c>
       <c r="E60" s="3">
-        <v>6557500</v>
+        <v>6281100</v>
       </c>
       <c r="F60" s="3">
-        <v>7479200</v>
+        <v>6554900</v>
       </c>
       <c r="G60" s="3">
-        <v>6493100</v>
+        <v>7476200</v>
       </c>
       <c r="H60" s="3">
-        <v>6733400</v>
+        <v>6490600</v>
       </c>
       <c r="I60" s="3">
-        <v>6386400</v>
+        <v>6730700</v>
       </c>
       <c r="J60" s="3">
+        <v>6383900</v>
+      </c>
+      <c r="K60" s="3">
         <v>7390500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7622800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8603100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8994400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8455700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7937400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7591000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8316800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8044300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7986900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8658100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8341800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8623400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7765300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7616200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21251300</v>
+        <v>21225600</v>
       </c>
       <c r="E61" s="3">
-        <v>19957500</v>
+        <v>21242900</v>
       </c>
       <c r="F61" s="3">
-        <v>19598800</v>
+        <v>19949700</v>
       </c>
       <c r="G61" s="3">
-        <v>18767400</v>
+        <v>19591000</v>
       </c>
       <c r="H61" s="3">
-        <v>19558700</v>
+        <v>18760000</v>
       </c>
       <c r="I61" s="3">
-        <v>19645100</v>
+        <v>19551000</v>
       </c>
       <c r="J61" s="3">
+        <v>19637300</v>
+      </c>
+      <c r="K61" s="3">
         <v>20029000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17476300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18608000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17406000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16948400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15039100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14231500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13826500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14564200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>13555800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>13735100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>12973800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>13641500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>12731100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>12679600</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6086500</v>
+        <v>6012700</v>
       </c>
       <c r="E62" s="3">
-        <v>5956200</v>
+        <v>6084100</v>
       </c>
       <c r="F62" s="3">
-        <v>5802300</v>
+        <v>5953800</v>
       </c>
       <c r="G62" s="3">
-        <v>5620200</v>
+        <v>5800000</v>
       </c>
       <c r="H62" s="3">
-        <v>5535400</v>
+        <v>5618000</v>
       </c>
       <c r="I62" s="3">
-        <v>5412900</v>
+        <v>5533200</v>
       </c>
       <c r="J62" s="3">
+        <v>5410800</v>
+      </c>
+      <c r="K62" s="3">
         <v>5624100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5103700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5422800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5123700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4851400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4735500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4709700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4832900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4756900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4636400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4340200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4371500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4358900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4282100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5051900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33896900</v>
+        <v>34629800</v>
       </c>
       <c r="E66" s="3">
-        <v>32738200</v>
+        <v>33883500</v>
       </c>
       <c r="F66" s="3">
-        <v>33146400</v>
+        <v>32725200</v>
       </c>
       <c r="G66" s="3">
-        <v>31147600</v>
+        <v>33133300</v>
       </c>
       <c r="H66" s="3">
-        <v>32103000</v>
+        <v>31135300</v>
       </c>
       <c r="I66" s="3">
-        <v>31717600</v>
+        <v>32090400</v>
       </c>
       <c r="J66" s="3">
+        <v>31705100</v>
+      </c>
+      <c r="K66" s="3">
         <v>33310500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30463300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32912500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31785000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30493300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>27960200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26767600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>27216400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>27597300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26419500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26975400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>25928300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>26866500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>25019700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>25588200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,58 +4671,61 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3142600</v>
+        <v>3141300</v>
       </c>
       <c r="E70" s="3">
-        <v>3142600</v>
+        <v>3141300</v>
       </c>
       <c r="F70" s="3">
-        <v>3142600</v>
+        <v>3141300</v>
       </c>
       <c r="G70" s="3">
-        <v>3142600</v>
+        <v>3141300</v>
       </c>
       <c r="H70" s="3">
+        <v>3141300</v>
+      </c>
+      <c r="I70" s="3">
+        <v>3142100</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3142100</v>
+      </c>
+      <c r="K70" s="3">
         <v>3143300</v>
       </c>
-      <c r="I70" s="3">
-        <v>3143300</v>
-      </c>
-      <c r="J70" s="3">
-        <v>3143300</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3121800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3319500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3175300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3082400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>3047400</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>2909700</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>3014200</v>
       </c>
       <c r="R70" s="3">
         <v>3014200</v>
       </c>
       <c r="S70" s="3">
-        <v>2979800</v>
+        <v>3014200</v>
       </c>
       <c r="T70" s="3">
         <v>2979800</v>
@@ -4567,7 +4734,7 @@
         <v>2979800</v>
       </c>
       <c r="V70" s="3">
-        <v>3076000</v>
+        <v>2979800</v>
       </c>
       <c r="W70" s="3">
         <v>3076000</v>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>3076000</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>3076000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2325300</v>
+        <v>-2668100</v>
       </c>
       <c r="E72" s="3">
-        <v>-2670000</v>
+        <v>-2324400</v>
       </c>
       <c r="F72" s="3">
-        <v>-2899200</v>
+        <v>-2668900</v>
       </c>
       <c r="G72" s="3">
-        <v>-3674800</v>
+        <v>-2898000</v>
       </c>
       <c r="H72" s="3">
-        <v>-3993500</v>
+        <v>-3673400</v>
       </c>
       <c r="I72" s="3">
-        <v>-4036700</v>
+        <v>-3992000</v>
       </c>
       <c r="J72" s="3">
+        <v>-4035100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2347300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3611400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3925600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4119700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3860600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3757500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3181400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3621700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3908500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3674900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4370700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4812100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4858300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4640100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5443700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15037600</v>
+        <v>14621300</v>
       </c>
       <c r="E76" s="3">
-        <v>14465300</v>
+        <v>15031700</v>
       </c>
       <c r="F76" s="3">
-        <v>14149700</v>
+        <v>14459600</v>
       </c>
       <c r="G76" s="3">
-        <v>13334900</v>
+        <v>14144200</v>
       </c>
       <c r="H76" s="3">
-        <v>13130000</v>
+        <v>13329600</v>
       </c>
       <c r="I76" s="3">
-        <v>13177100</v>
+        <v>13124800</v>
       </c>
       <c r="J76" s="3">
+        <v>13171900</v>
+      </c>
+      <c r="K76" s="3">
         <v>14978800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13309000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14030000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12789800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12490300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12450700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12219300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12346500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12032600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12129100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11396800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10975600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11425900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10398800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9554500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>594300</v>
+        <v>490500</v>
       </c>
       <c r="E81" s="3">
-        <v>537800</v>
+        <v>594000</v>
       </c>
       <c r="F81" s="3">
-        <v>504000</v>
+        <v>537500</v>
       </c>
       <c r="G81" s="3">
-        <v>697900</v>
+        <v>503800</v>
       </c>
       <c r="H81" s="3">
-        <v>543300</v>
+        <v>697600</v>
       </c>
       <c r="I81" s="3">
-        <v>186100</v>
+        <v>543000</v>
       </c>
       <c r="J81" s="3">
+        <v>186000</v>
+      </c>
+      <c r="K81" s="3">
         <v>533800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>523900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>718800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>603500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>569700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>461200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>591500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1027600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>497600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>488200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>597600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>569300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>493200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>504700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>900500</v>
+        <v>922900</v>
       </c>
       <c r="E83" s="3">
-        <v>905200</v>
+        <v>900100</v>
       </c>
       <c r="F83" s="3">
-        <v>889500</v>
+        <v>904800</v>
       </c>
       <c r="G83" s="3">
-        <v>867500</v>
+        <v>889100</v>
       </c>
       <c r="H83" s="3">
-        <v>869800</v>
+        <v>867100</v>
       </c>
       <c r="I83" s="3">
-        <v>854900</v>
+        <v>869500</v>
       </c>
       <c r="J83" s="3">
+        <v>854600</v>
+      </c>
+      <c r="K83" s="3">
         <v>865100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>852200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>904500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>881000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>849100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>772500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>726000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1505600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>746800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>736800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>724100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>729300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>696800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>679100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1392700</v>
+        <v>1367800</v>
       </c>
       <c r="E89" s="3">
-        <v>1961800</v>
+        <v>1392100</v>
       </c>
       <c r="F89" s="3">
-        <v>1563800</v>
+        <v>1961100</v>
       </c>
       <c r="G89" s="3">
-        <v>1283600</v>
+        <v>1563200</v>
       </c>
       <c r="H89" s="3">
-        <v>1656500</v>
+        <v>1283000</v>
       </c>
       <c r="I89" s="3">
-        <v>2011300</v>
+        <v>1655800</v>
       </c>
       <c r="J89" s="3">
+        <v>2010500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1139100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1630300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1872000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1659800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1167000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1360800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1484600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2674700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1126200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1233900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1661800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1603000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1008700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1167700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1492700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-909900</v>
+        <v>-1144900</v>
       </c>
       <c r="E91" s="3">
-        <v>-947600</v>
+        <v>-909500</v>
       </c>
       <c r="F91" s="3">
-        <v>-794500</v>
+        <v>-947200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1172900</v>
+        <v>-794200</v>
       </c>
       <c r="H91" s="3">
-        <v>-809400</v>
+        <v>-1172400</v>
       </c>
       <c r="I91" s="3">
-        <v>-701800</v>
+        <v>-809100</v>
       </c>
       <c r="J91" s="3">
+        <v>-701600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-614700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-899000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-839800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-770800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-654300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-741300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-734000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1495800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-700800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-818600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-774000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-775500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-654500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-762900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-749800</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1247400</v>
+        <v>-2468800</v>
       </c>
       <c r="E94" s="3">
-        <v>-969500</v>
+        <v>-1247000</v>
       </c>
       <c r="F94" s="3">
-        <v>-811000</v>
+        <v>-969200</v>
       </c>
       <c r="G94" s="3">
-        <v>-498500</v>
+        <v>-810600</v>
       </c>
       <c r="H94" s="3">
-        <v>-919300</v>
+        <v>-498300</v>
       </c>
       <c r="I94" s="3">
-        <v>-741100</v>
+        <v>-918900</v>
       </c>
       <c r="J94" s="3">
+        <v>-740800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-620200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-906000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-837300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-785100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-672800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-717700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-864000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1696800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-871000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-848400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-801500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-538800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1917500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-838100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1139300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6250,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-622500</v>
+        <v>-623900</v>
       </c>
       <c r="E96" s="3">
-        <v>-621000</v>
+        <v>-622300</v>
       </c>
       <c r="F96" s="3">
+        <v>-620700</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-590900</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-590900</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-590900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-590900</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-562100</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-558200</v>
+      </c>
+      <c r="M96" s="3">
         <v>-591100</v>
       </c>
-      <c r="G96" s="3">
-        <v>-591100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-591100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-591100</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-562100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-558200</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-591100</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-564600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-521900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-515300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-492700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-996700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-486300</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-480800</v>
       </c>
       <c r="T96" s="3">
         <v>-480800</v>
       </c>
       <c r="U96" s="3">
+        <v>-480800</v>
+      </c>
+      <c r="V96" s="3">
         <v>-465900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-456300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-455600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-456300</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>180600</v>
+        <v>-437100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1663500</v>
+        <v>180500</v>
       </c>
       <c r="F100" s="3">
-        <v>1117900</v>
+        <v>-1662900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1924200</v>
+        <v>1117500</v>
       </c>
       <c r="H100" s="3">
-        <v>-633500</v>
+        <v>-1923400</v>
       </c>
       <c r="I100" s="3">
-        <v>-2158900</v>
+        <v>-633300</v>
       </c>
       <c r="J100" s="3">
+        <v>-2158000</v>
+      </c>
+      <c r="K100" s="3">
         <v>1470400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1364400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1140800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-536900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-307200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-948300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-303800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1154800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>176900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1393200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>198000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1029200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>645300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-744400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>244300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>325800</v>
+        <v>-1538100</v>
       </c>
       <c r="E102" s="3">
-        <v>-671200</v>
+        <v>325700</v>
       </c>
       <c r="F102" s="3">
-        <v>1870800</v>
+        <v>-671000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1139100</v>
+        <v>1870000</v>
       </c>
       <c r="H102" s="3">
+        <v>-1138700</v>
+      </c>
+      <c r="I102" s="3">
         <v>103600</v>
       </c>
-      <c r="I102" s="3">
-        <v>-888700</v>
-      </c>
       <c r="J102" s="3">
+        <v>-888300</v>
+      </c>
+      <c r="K102" s="3">
         <v>1989300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-640100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-106100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>337800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>187100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-305200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>316800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-176900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>432100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1007700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1058300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>35000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-263500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-414800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>597700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>BCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4872500</v>
+        <v>4484800</v>
       </c>
       <c r="E8" s="3">
-        <v>4579700</v>
+        <v>4760100</v>
       </c>
       <c r="F8" s="3">
-        <v>4471400</v>
+        <v>4474100</v>
       </c>
       <c r="G8" s="3">
-        <v>4477700</v>
+        <v>4368300</v>
       </c>
       <c r="H8" s="3">
-        <v>4788500</v>
+        <v>4374400</v>
       </c>
       <c r="I8" s="3">
-        <v>4541300</v>
+        <v>4678000</v>
       </c>
       <c r="J8" s="3">
+        <v>4436500</v>
+      </c>
+      <c r="K8" s="3">
         <v>4201500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4427700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4892400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4924600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4670100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4379500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4730200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4270800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8563700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4208100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4492100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4239800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4233100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4099300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4380400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4153800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1696600</v>
+        <v>1324800</v>
       </c>
       <c r="E9" s="3">
-        <v>1351300</v>
+        <v>1657500</v>
       </c>
       <c r="F9" s="3">
-        <v>1305800</v>
+        <v>1320200</v>
       </c>
       <c r="G9" s="3">
-        <v>1367000</v>
+        <v>1275700</v>
       </c>
       <c r="H9" s="3">
-        <v>1612600</v>
+        <v>1335500</v>
       </c>
       <c r="I9" s="3">
-        <v>1402300</v>
+        <v>1575400</v>
       </c>
       <c r="J9" s="3">
+        <v>1370000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1154400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1298500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1664600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1473200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1352900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1337900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1632500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1297100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2582100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1287300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1511500</v>
-      </c>
-      <c r="U9" s="3">
-        <v>1248800</v>
       </c>
       <c r="V9" s="3">
         <v>1248800</v>
       </c>
       <c r="W9" s="3">
+        <v>1248800</v>
+      </c>
+      <c r="X9" s="3">
         <v>1249900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1514900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1236900</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3175800</v>
+        <v>3160100</v>
       </c>
       <c r="E10" s="3">
-        <v>3228400</v>
+        <v>3102600</v>
       </c>
       <c r="F10" s="3">
-        <v>3165600</v>
+        <v>3154000</v>
       </c>
       <c r="G10" s="3">
-        <v>3110700</v>
+        <v>3092600</v>
       </c>
       <c r="H10" s="3">
-        <v>3175800</v>
+        <v>3039000</v>
       </c>
       <c r="I10" s="3">
-        <v>3139000</v>
+        <v>3102600</v>
       </c>
       <c r="J10" s="3">
+        <v>3066600</v>
+      </c>
+      <c r="K10" s="3">
         <v>3047100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3129200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3227800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3451300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3317200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3041600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3097600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2973600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5981700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2920800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2980600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2991000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2984300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2849400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2865500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2917000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,150 +1163,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>73000</v>
+        <v>11500</v>
       </c>
       <c r="E14" s="3">
-        <v>19600</v>
+        <v>71300</v>
       </c>
       <c r="F14" s="3">
-        <v>134200</v>
+        <v>19200</v>
       </c>
       <c r="G14" s="3">
-        <v>113800</v>
+        <v>131100</v>
       </c>
       <c r="H14" s="3">
-        <v>50200</v>
+        <v>111200</v>
       </c>
       <c r="I14" s="3">
+        <v>49100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>39100</v>
+      </c>
+      <c r="K14" s="3">
+        <v>369600</v>
+      </c>
+      <c r="L14" s="3">
+        <v>30600</v>
+      </c>
+      <c r="M14" s="3">
+        <v>96700</v>
+      </c>
+      <c r="N14" s="3">
+        <v>19900</v>
+      </c>
+      <c r="O14" s="3">
+        <v>46000</v>
+      </c>
+      <c r="P14" s="3">
+        <v>21600</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>192600</v>
+      </c>
+      <c r="R14" s="3">
         <v>40000</v>
       </c>
-      <c r="J14" s="3">
-        <v>369600</v>
-      </c>
-      <c r="K14" s="3">
-        <v>30600</v>
-      </c>
-      <c r="L14" s="3">
-        <v>96700</v>
-      </c>
-      <c r="M14" s="3">
-        <v>19900</v>
-      </c>
-      <c r="N14" s="3">
-        <v>46000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>21600</v>
-      </c>
-      <c r="P14" s="3">
-        <v>192600</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>40000</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>34600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>96000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>29000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>29800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>64500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>15400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>922900</v>
+        <v>882400</v>
       </c>
       <c r="E15" s="3">
-        <v>900100</v>
+        <v>901600</v>
       </c>
       <c r="F15" s="3">
-        <v>904800</v>
+        <v>879300</v>
       </c>
       <c r="G15" s="3">
-        <v>889100</v>
+        <v>883900</v>
       </c>
       <c r="H15" s="3">
-        <v>867100</v>
+        <v>868600</v>
       </c>
       <c r="I15" s="3">
-        <v>869500</v>
+        <v>847100</v>
       </c>
       <c r="J15" s="3">
+        <v>849400</v>
+      </c>
+      <c r="K15" s="3">
         <v>865600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>854100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>840500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>892900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>871500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>839100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>772500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>726000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1505600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>746800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>737500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>719700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>727100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>698300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>679100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3961400</v>
+        <v>3411500</v>
       </c>
       <c r="E17" s="3">
-        <v>3511700</v>
+        <v>3870000</v>
       </c>
       <c r="F17" s="3">
-        <v>3567400</v>
+        <v>3430700</v>
       </c>
       <c r="G17" s="3">
-        <v>3574500</v>
+        <v>3485100</v>
       </c>
       <c r="H17" s="3">
-        <v>3828700</v>
+        <v>3492000</v>
       </c>
       <c r="I17" s="3">
-        <v>3525100</v>
+        <v>3740400</v>
       </c>
       <c r="J17" s="3">
+        <v>3443700</v>
+      </c>
+      <c r="K17" s="3">
         <v>3607400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3415000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3892900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3708300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3548000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3406500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3873200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3252700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6577900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3261100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3592300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3198600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3217200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3198100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3445500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3121300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>911100</v>
+        <v>1073300</v>
       </c>
       <c r="E18" s="3">
-        <v>1068000</v>
+        <v>890100</v>
       </c>
       <c r="F18" s="3">
-        <v>904000</v>
+        <v>1043400</v>
       </c>
       <c r="G18" s="3">
-        <v>903200</v>
+        <v>883200</v>
       </c>
       <c r="H18" s="3">
-        <v>959700</v>
+        <v>882400</v>
       </c>
       <c r="I18" s="3">
-        <v>1016200</v>
+        <v>937600</v>
       </c>
       <c r="J18" s="3">
+        <v>992800</v>
+      </c>
+      <c r="K18" s="3">
         <v>594000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1012700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>999500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1216200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1122100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>973100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>857000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1018100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1985900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>947000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>899700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1041100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1015800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>901100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>934900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1032500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16500</v>
+        <v>98900</v>
       </c>
       <c r="E20" s="3">
-        <v>23500</v>
+        <v>16100</v>
       </c>
       <c r="F20" s="3">
-        <v>67500</v>
+        <v>23000</v>
       </c>
       <c r="G20" s="3">
-        <v>43900</v>
+        <v>65900</v>
       </c>
       <c r="H20" s="3">
-        <v>-29000</v>
+        <v>42900</v>
       </c>
       <c r="I20" s="3">
-        <v>-15700</v>
+        <v>-28400</v>
       </c>
       <c r="J20" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-71400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-33000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-26500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>38100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-40400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>68500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-40000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-121200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-55700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-43200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-11200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-31500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1850400</v>
+        <v>2054600</v>
       </c>
       <c r="E21" s="3">
-        <v>1991700</v>
+        <v>1807700</v>
       </c>
       <c r="F21" s="3">
-        <v>1876300</v>
+        <v>1945700</v>
       </c>
       <c r="G21" s="3">
-        <v>1836300</v>
+        <v>1833000</v>
       </c>
       <c r="H21" s="3">
-        <v>1797800</v>
+        <v>1793900</v>
       </c>
       <c r="I21" s="3">
-        <v>1870000</v>
+        <v>1756400</v>
       </c>
       <c r="J21" s="3">
+        <v>1826900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1377200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1844900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1825200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2158800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1962700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1890700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1644000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1704100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3370200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1638100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1638800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1717600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1733300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1597200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1582600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1673200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>215800</v>
+        <v>199300</v>
       </c>
       <c r="E22" s="3">
-        <v>213400</v>
+        <v>210800</v>
       </c>
       <c r="F22" s="3">
-        <v>210300</v>
+        <v>208500</v>
       </c>
       <c r="G22" s="3">
-        <v>209500</v>
+        <v>205500</v>
       </c>
       <c r="H22" s="3">
-        <v>215000</v>
+        <v>204700</v>
       </c>
       <c r="I22" s="3">
-        <v>218900</v>
+        <v>210100</v>
       </c>
       <c r="J22" s="3">
+        <v>213900</v>
+      </c>
+      <c r="K22" s="3">
         <v>219700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>217500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>222200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>232100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>221300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>216300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>197100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>185300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>365900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>180700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>179400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>180100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>177100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>179800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>172900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>711800</v>
+        <v>972900</v>
       </c>
       <c r="E23" s="3">
-        <v>878100</v>
+        <v>695300</v>
       </c>
       <c r="F23" s="3">
-        <v>761200</v>
+        <v>857900</v>
       </c>
       <c r="G23" s="3">
-        <v>737700</v>
+        <v>743600</v>
       </c>
       <c r="H23" s="3">
-        <v>715700</v>
+        <v>720600</v>
       </c>
       <c r="I23" s="3">
-        <v>781600</v>
+        <v>699200</v>
       </c>
       <c r="J23" s="3">
+        <v>763600</v>
+      </c>
+      <c r="K23" s="3">
         <v>302900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>762300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>750800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1022200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>860400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>825200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>674300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>792800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1498800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>710600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>721900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>817900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>827600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>720600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>730600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>832800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>195400</v>
+        <v>256800</v>
       </c>
       <c r="E24" s="3">
-        <v>240100</v>
+        <v>190900</v>
       </c>
       <c r="F24" s="3">
-        <v>185200</v>
+        <v>234600</v>
       </c>
       <c r="G24" s="3">
-        <v>198500</v>
+        <v>180900</v>
       </c>
       <c r="H24" s="3">
-        <v>149900</v>
+        <v>194000</v>
       </c>
       <c r="I24" s="3">
-        <v>205600</v>
+        <v>146400</v>
       </c>
       <c r="J24" s="3">
+        <v>200900</v>
+      </c>
+      <c r="K24" s="3">
         <v>75300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>190800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>191000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>264500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>218100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>223200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>185700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>162800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>396700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>176900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>202400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>185300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>221800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>192100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>193600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>516400</v>
+        <v>716000</v>
       </c>
       <c r="E26" s="3">
-        <v>638000</v>
+        <v>504400</v>
       </c>
       <c r="F26" s="3">
-        <v>576000</v>
+        <v>623300</v>
       </c>
       <c r="G26" s="3">
-        <v>539100</v>
+        <v>562700</v>
       </c>
       <c r="H26" s="3">
-        <v>565800</v>
+        <v>526700</v>
       </c>
       <c r="I26" s="3">
-        <v>576000</v>
+        <v>552700</v>
       </c>
       <c r="J26" s="3">
+        <v>562700</v>
+      </c>
+      <c r="K26" s="3">
         <v>227600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>571500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>559800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>757800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>642300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>602000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>488600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>630000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1102100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>533700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>519500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>632600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>605800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>528500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>537000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>614600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>490500</v>
+        <v>672300</v>
       </c>
       <c r="E27" s="3">
-        <v>594000</v>
+        <v>479200</v>
       </c>
       <c r="F27" s="3">
-        <v>537500</v>
+        <v>580300</v>
       </c>
       <c r="G27" s="3">
-        <v>503800</v>
+        <v>525100</v>
       </c>
       <c r="H27" s="3">
-        <v>532100</v>
+        <v>492200</v>
       </c>
       <c r="I27" s="3">
-        <v>538300</v>
+        <v>519800</v>
       </c>
       <c r="J27" s="3">
+        <v>525900</v>
+      </c>
+      <c r="K27" s="3">
         <v>182800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>529900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>520000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>712200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>597900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>562700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>461200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>591500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1027600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>497600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>488200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>597600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>569300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>493200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>504700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,13 +2178,16 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2138,35 +2199,35 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>165600</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>4700</v>
+        <v>161800</v>
       </c>
       <c r="J29" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K29" s="3">
         <v>3100</v>
-      </c>
-      <c r="K29" s="3">
-        <v>3900</v>
       </c>
       <c r="L29" s="3">
         <v>3900</v>
       </c>
       <c r="M29" s="3">
+        <v>3900</v>
+      </c>
+      <c r="N29" s="3">
         <v>6600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>5600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>6900</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16500</v>
+        <v>-98900</v>
       </c>
       <c r="E32" s="3">
-        <v>-23500</v>
+        <v>-16100</v>
       </c>
       <c r="F32" s="3">
-        <v>-67500</v>
+        <v>-23000</v>
       </c>
       <c r="G32" s="3">
-        <v>-43900</v>
+        <v>-65900</v>
       </c>
       <c r="H32" s="3">
-        <v>29000</v>
+        <v>-42900</v>
       </c>
       <c r="I32" s="3">
-        <v>15700</v>
+        <v>28400</v>
       </c>
       <c r="J32" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K32" s="3">
         <v>71400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>33000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>26500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-38100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>40400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-68500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>40000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>121200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>55700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>43200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>11200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>31500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>490500</v>
+        <v>672300</v>
       </c>
       <c r="E33" s="3">
-        <v>594000</v>
+        <v>479200</v>
       </c>
       <c r="F33" s="3">
-        <v>537500</v>
+        <v>580300</v>
       </c>
       <c r="G33" s="3">
-        <v>503800</v>
+        <v>525100</v>
       </c>
       <c r="H33" s="3">
-        <v>697600</v>
+        <v>492200</v>
       </c>
       <c r="I33" s="3">
-        <v>543000</v>
+        <v>681500</v>
       </c>
       <c r="J33" s="3">
+        <v>530500</v>
+      </c>
+      <c r="K33" s="3">
         <v>186000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>533800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>523900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>718800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>603500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>569700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>461200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>591500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1027600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>497600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>488200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>597600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>569300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>493200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>504700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>490500</v>
+        <v>672300</v>
       </c>
       <c r="E35" s="3">
-        <v>594000</v>
+        <v>479200</v>
       </c>
       <c r="F35" s="3">
-        <v>537500</v>
+        <v>580300</v>
       </c>
       <c r="G35" s="3">
-        <v>503800</v>
+        <v>525100</v>
       </c>
       <c r="H35" s="3">
-        <v>697600</v>
+        <v>492200</v>
       </c>
       <c r="I35" s="3">
-        <v>543000</v>
+        <v>681500</v>
       </c>
       <c r="J35" s="3">
+        <v>530500</v>
+      </c>
+      <c r="K35" s="3">
         <v>186000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>533800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>523900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>718800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>603500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>569700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>461200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>591500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1027600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>497600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>488200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>597600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>569300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>493200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>504700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>162400</v>
+        <v>79700</v>
       </c>
       <c r="E41" s="3">
-        <v>1700500</v>
+        <v>158700</v>
       </c>
       <c r="F41" s="3">
-        <v>1374900</v>
+        <v>1661300</v>
       </c>
       <c r="G41" s="3">
-        <v>2045800</v>
+        <v>1343200</v>
       </c>
       <c r="H41" s="3">
-        <v>175800</v>
+        <v>1998600</v>
       </c>
       <c r="I41" s="3">
-        <v>1317600</v>
+        <v>171700</v>
       </c>
       <c r="J41" s="3">
+        <v>1287200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1214000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2103100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>113100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>867600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>514200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>323500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>293600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>902600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>465100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1472800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>414500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>391800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>655300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1070100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,505 +2979,529 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3423800</v>
+        <v>3016700</v>
       </c>
       <c r="E43" s="3">
-        <v>3066800</v>
+        <v>3344900</v>
       </c>
       <c r="F43" s="3">
-        <v>2912200</v>
+        <v>2996000</v>
       </c>
       <c r="G43" s="3">
-        <v>2989900</v>
+        <v>2845000</v>
       </c>
       <c r="H43" s="3">
-        <v>3307700</v>
+        <v>2920900</v>
       </c>
       <c r="I43" s="3">
-        <v>2938100</v>
+        <v>3231400</v>
       </c>
       <c r="J43" s="3">
+        <v>2870300</v>
+      </c>
+      <c r="K43" s="3">
         <v>2929400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3161400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3234900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3245700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>797000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>752900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>751200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>658400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2851600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2841000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2947800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2131400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2117300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2164900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2288600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2473700</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>378200</v>
+        <v>434700</v>
       </c>
       <c r="E44" s="3">
-        <v>328000</v>
+        <v>369500</v>
       </c>
       <c r="F44" s="3">
-        <v>328000</v>
+        <v>320500</v>
       </c>
       <c r="G44" s="3">
-        <v>360200</v>
+        <v>320500</v>
       </c>
       <c r="H44" s="3">
-        <v>344500</v>
+        <v>351900</v>
       </c>
       <c r="I44" s="3">
+        <v>336600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>325800</v>
+      </c>
+      <c r="K44" s="3">
+        <v>349200</v>
+      </c>
+      <c r="L44" s="3">
+        <v>382300</v>
+      </c>
+      <c r="M44" s="3">
+        <v>332900</v>
+      </c>
+      <c r="N44" s="3">
+        <v>400400</v>
+      </c>
+      <c r="O44" s="3">
+        <v>386200</v>
+      </c>
+      <c r="P44" s="3">
+        <v>363400</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>328800</v>
+      </c>
+      <c r="R44" s="3">
+        <v>356800</v>
+      </c>
+      <c r="S44" s="3">
+        <v>328200</v>
+      </c>
+      <c r="T44" s="3">
         <v>333500</v>
       </c>
-      <c r="J44" s="3">
-        <v>349200</v>
-      </c>
-      <c r="K44" s="3">
-        <v>382300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>332900</v>
-      </c>
-      <c r="M44" s="3">
-        <v>400400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>386200</v>
-      </c>
-      <c r="O44" s="3">
-        <v>363400</v>
-      </c>
-      <c r="P44" s="3">
-        <v>328800</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>356800</v>
-      </c>
-      <c r="R44" s="3">
-        <v>328200</v>
-      </c>
-      <c r="S44" s="3">
-        <v>333500</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>282800</v>
-      </c>
-      <c r="U44" s="3">
-        <v>325200</v>
       </c>
       <c r="V44" s="3">
         <v>325200</v>
       </c>
       <c r="W44" s="3">
+        <v>325200</v>
+      </c>
+      <c r="X44" s="3">
         <v>328800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>309600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>899300</v>
+        <v>927600</v>
       </c>
       <c r="E45" s="3">
-        <v>822400</v>
+        <v>878600</v>
       </c>
       <c r="F45" s="3">
-        <v>835700</v>
+        <v>803400</v>
       </c>
       <c r="G45" s="3">
-        <v>794900</v>
+        <v>816500</v>
       </c>
       <c r="H45" s="3">
-        <v>635600</v>
+        <v>776600</v>
       </c>
       <c r="I45" s="3">
-        <v>1322300</v>
+        <v>621000</v>
       </c>
       <c r="J45" s="3">
+        <v>1291800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1363100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>875300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>623000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>738700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>733500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>753700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>717700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>603900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>709900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>639900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>512800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>486000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>499400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>749800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>476300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4863800</v>
+        <v>4458800</v>
       </c>
       <c r="E46" s="3">
-        <v>5917700</v>
+        <v>4751600</v>
       </c>
       <c r="F46" s="3">
-        <v>5450800</v>
+        <v>5781200</v>
       </c>
       <c r="G46" s="3">
-        <v>6190800</v>
+        <v>5325100</v>
       </c>
       <c r="H46" s="3">
-        <v>4463600</v>
+        <v>6048000</v>
       </c>
       <c r="I46" s="3">
-        <v>5911400</v>
+        <v>4360600</v>
       </c>
       <c r="J46" s="3">
+        <v>5775100</v>
+      </c>
+      <c r="K46" s="3">
         <v>5855700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6522200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4303800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5185700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5145900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4645100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4409000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4361600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4183300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4717000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4208500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4415400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3356400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3635300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3729800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4348200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>721200</v>
+        <v>690700</v>
       </c>
       <c r="E47" s="3">
-        <v>731400</v>
+        <v>704500</v>
       </c>
       <c r="F47" s="3">
-        <v>749400</v>
+        <v>714500</v>
       </c>
       <c r="G47" s="3">
-        <v>769800</v>
+        <v>732100</v>
       </c>
       <c r="H47" s="3">
-        <v>1437600</v>
+        <v>752100</v>
       </c>
       <c r="I47" s="3">
-        <v>1327000</v>
+        <v>1404500</v>
       </c>
       <c r="J47" s="3">
+        <v>1296400</v>
+      </c>
+      <c r="K47" s="3">
         <v>1216300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>927900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>959800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>995700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>964300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>985400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>992500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>879300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>916100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>935700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>926500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>616200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>657100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>675300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>654500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>793600</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22157100</v>
+        <v>21548700</v>
       </c>
       <c r="E48" s="3">
-        <v>21835400</v>
+        <v>21646100</v>
       </c>
       <c r="F48" s="3">
-        <v>21622700</v>
+        <v>21331800</v>
       </c>
       <c r="G48" s="3">
-        <v>21478300</v>
+        <v>21124000</v>
       </c>
       <c r="H48" s="3">
-        <v>21590600</v>
+        <v>20982900</v>
       </c>
       <c r="I48" s="3">
-        <v>21232700</v>
+        <v>21092600</v>
       </c>
       <c r="J48" s="3">
+        <v>20743000</v>
+      </c>
+      <c r="K48" s="3">
         <v>21062400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21535500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21547000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22698600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21740600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20997600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18908500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17968100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18362100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18194200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17882600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17678000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17552900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>18015000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>17166900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16807300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20514700</v>
+        <v>20353500</v>
       </c>
       <c r="E49" s="3">
-        <v>18790600</v>
+        <v>20041500</v>
       </c>
       <c r="F49" s="3">
-        <v>18709800</v>
+        <v>18357200</v>
       </c>
       <c r="G49" s="3">
-        <v>18702700</v>
+        <v>18278200</v>
       </c>
       <c r="H49" s="3">
-        <v>18603000</v>
+        <v>18271300</v>
       </c>
       <c r="I49" s="3">
-        <v>18428000</v>
+        <v>18174000</v>
       </c>
       <c r="J49" s="3">
+        <v>18003000</v>
+      </c>
+      <c r="K49" s="3">
         <v>18400600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18982500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18726900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20006600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18957900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18418700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>18161900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17450700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>18048100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>18031600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>17627400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>17799300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>17711500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>18239300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>16099000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>15574300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4135600</v>
+        <v>4569900</v>
       </c>
       <c r="E52" s="3">
-        <v>4781400</v>
+        <v>4040200</v>
       </c>
       <c r="F52" s="3">
-        <v>3793400</v>
+        <v>4671100</v>
       </c>
       <c r="G52" s="3">
-        <v>3277100</v>
+        <v>3705900</v>
       </c>
       <c r="H52" s="3">
-        <v>1511400</v>
+        <v>3201500</v>
       </c>
       <c r="I52" s="3">
-        <v>1458000</v>
+        <v>1476500</v>
       </c>
       <c r="J52" s="3">
+        <v>1424400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1483900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3464400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1356600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1375400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>941300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1019200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>986400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1236800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1067500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>765600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>883400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>843200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>605800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>803600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>844300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>695200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>52392400</v>
+        <v>51621700</v>
       </c>
       <c r="E54" s="3">
-        <v>52056500</v>
+        <v>51184000</v>
       </c>
       <c r="F54" s="3">
-        <v>50326200</v>
+        <v>50855800</v>
       </c>
       <c r="G54" s="3">
-        <v>50418800</v>
+        <v>49165400</v>
       </c>
       <c r="H54" s="3">
-        <v>47606300</v>
+        <v>49255900</v>
       </c>
       <c r="I54" s="3">
-        <v>48357200</v>
+        <v>46508200</v>
       </c>
       <c r="J54" s="3">
+        <v>47241900</v>
+      </c>
+      <c r="K54" s="3">
         <v>48019000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>51432600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46894000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>50262000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>47750100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>46066000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>43458200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41896600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>42577000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>42644000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41528400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>41352000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>39883700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>41368400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>38494500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>38218700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3496000</v>
+        <v>2944700</v>
       </c>
       <c r="E57" s="3">
-        <v>3241800</v>
+        <v>3415400</v>
       </c>
       <c r="F57" s="3">
-        <v>3063600</v>
+        <v>3167000</v>
       </c>
       <c r="G57" s="3">
-        <v>2921600</v>
+        <v>2993000</v>
       </c>
       <c r="H57" s="3">
-        <v>3088000</v>
+        <v>2854200</v>
       </c>
       <c r="I57" s="3">
-        <v>2798400</v>
+        <v>3016700</v>
       </c>
       <c r="J57" s="3">
+        <v>2733800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2621800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2618100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3082800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3026000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2950000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2779100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2999500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2745400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2712300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2660400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2883800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3326600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3177800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3106700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3323400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3092100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2059900</v>
+        <v>2362800</v>
       </c>
       <c r="E58" s="3">
-        <v>1564800</v>
+        <v>2012400</v>
       </c>
       <c r="F58" s="3">
-        <v>1808000</v>
+        <v>1528700</v>
       </c>
       <c r="G58" s="3">
-        <v>2971000</v>
+        <v>1766300</v>
       </c>
       <c r="H58" s="3">
-        <v>1896700</v>
+        <v>2902500</v>
       </c>
       <c r="I58" s="3">
-        <v>2278900</v>
+        <v>1853000</v>
       </c>
       <c r="J58" s="3">
+        <v>2226300</v>
+      </c>
+      <c r="K58" s="3">
         <v>2027800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3304300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3025900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3919700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4501200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4222500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3535300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3544100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4315000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4155400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3853500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4527000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4420600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4844500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3754300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3834200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1595400</v>
+        <v>1566200</v>
       </c>
       <c r="E59" s="3">
-        <v>1474500</v>
+        <v>1558600</v>
       </c>
       <c r="F59" s="3">
-        <v>1683300</v>
+        <v>1440500</v>
       </c>
       <c r="G59" s="3">
-        <v>1583600</v>
+        <v>1644400</v>
       </c>
       <c r="H59" s="3">
-        <v>1505900</v>
+        <v>1547100</v>
       </c>
       <c r="I59" s="3">
-        <v>1653400</v>
+        <v>1471200</v>
       </c>
       <c r="J59" s="3">
+        <v>1615300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1734300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1468000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1514100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1657300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1543200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1454200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1402700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1301500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1289500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1228600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1249500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>804500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>743500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>672200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>687600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>689900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7151300</v>
+        <v>6873700</v>
       </c>
       <c r="E60" s="3">
-        <v>6281100</v>
+        <v>6986400</v>
       </c>
       <c r="F60" s="3">
-        <v>6554900</v>
+        <v>6136200</v>
       </c>
       <c r="G60" s="3">
-        <v>7476200</v>
+        <v>6403700</v>
       </c>
       <c r="H60" s="3">
-        <v>6490600</v>
+        <v>7303800</v>
       </c>
       <c r="I60" s="3">
-        <v>6730700</v>
+        <v>6340900</v>
       </c>
       <c r="J60" s="3">
+        <v>6575500</v>
+      </c>
+      <c r="K60" s="3">
         <v>6383900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7390500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7622800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8603100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8994400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8455700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7937400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7591000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8316800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8044300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7986900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8658100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8341800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8623400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7765300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7616200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21225600</v>
+        <v>20605000</v>
       </c>
       <c r="E61" s="3">
-        <v>21242900</v>
+        <v>20736100</v>
       </c>
       <c r="F61" s="3">
-        <v>19949700</v>
+        <v>20752900</v>
       </c>
       <c r="G61" s="3">
-        <v>19591000</v>
+        <v>19489500</v>
       </c>
       <c r="H61" s="3">
-        <v>18760000</v>
+        <v>19139200</v>
       </c>
       <c r="I61" s="3">
-        <v>19551000</v>
+        <v>18327300</v>
       </c>
       <c r="J61" s="3">
+        <v>19100100</v>
+      </c>
+      <c r="K61" s="3">
         <v>19637300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20029000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17476300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18608000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17406000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16948400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15039100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14231500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>13826500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14564200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>13555800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>13735100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>12973800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>13641500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>12731100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>12679600</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6012700</v>
+        <v>5908500</v>
       </c>
       <c r="E62" s="3">
-        <v>6084100</v>
+        <v>5874000</v>
       </c>
       <c r="F62" s="3">
-        <v>5953800</v>
+        <v>5943800</v>
       </c>
       <c r="G62" s="3">
-        <v>5800000</v>
+        <v>5816500</v>
       </c>
       <c r="H62" s="3">
-        <v>5618000</v>
+        <v>5666200</v>
       </c>
       <c r="I62" s="3">
-        <v>5533200</v>
+        <v>5488400</v>
       </c>
       <c r="J62" s="3">
+        <v>5405600</v>
+      </c>
+      <c r="K62" s="3">
         <v>5410800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5624100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5103700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5422800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5123700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4851400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4735500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4709700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4832900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4756900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4636400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4340200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4371500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4358900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4282100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5051900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34629800</v>
+        <v>33631000</v>
       </c>
       <c r="E66" s="3">
-        <v>33883500</v>
+        <v>33831100</v>
       </c>
       <c r="F66" s="3">
-        <v>32725200</v>
+        <v>33102000</v>
       </c>
       <c r="G66" s="3">
-        <v>33133300</v>
+        <v>31970400</v>
       </c>
       <c r="H66" s="3">
-        <v>31135300</v>
+        <v>32369100</v>
       </c>
       <c r="I66" s="3">
-        <v>32090400</v>
+        <v>30417200</v>
       </c>
       <c r="J66" s="3">
+        <v>31350200</v>
+      </c>
+      <c r="K66" s="3">
         <v>31705100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33310500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30463300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32912500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31785000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30493300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>27960200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26767600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>27216400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>27597300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26419500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>26975400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>25928300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>26866500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>25019700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>25588200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,61 +4839,64 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3141300</v>
+        <v>2978400</v>
       </c>
       <c r="E70" s="3">
-        <v>3141300</v>
+        <v>3068900</v>
       </c>
       <c r="F70" s="3">
-        <v>3141300</v>
+        <v>3068900</v>
       </c>
       <c r="G70" s="3">
-        <v>3141300</v>
+        <v>3068900</v>
       </c>
       <c r="H70" s="3">
-        <v>3141300</v>
+        <v>3068900</v>
       </c>
       <c r="I70" s="3">
+        <v>3068900</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3069600</v>
+      </c>
+      <c r="K70" s="3">
         <v>3142100</v>
       </c>
-      <c r="J70" s="3">
-        <v>3142100</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3143300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3121800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3319500</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3175300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>3082400</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>3047400</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>2909700</v>
-      </c>
-      <c r="R70" s="3">
-        <v>3014200</v>
       </c>
       <c r="S70" s="3">
         <v>3014200</v>
       </c>
       <c r="T70" s="3">
-        <v>2979800</v>
+        <v>3014200</v>
       </c>
       <c r="U70" s="3">
         <v>2979800</v>
@@ -4737,7 +4905,7 @@
         <v>2979800</v>
       </c>
       <c r="W70" s="3">
-        <v>3076000</v>
+        <v>2979800</v>
       </c>
       <c r="X70" s="3">
         <v>3076000</v>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>3076000</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>3076000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2668100</v>
+        <v>-2100600</v>
       </c>
       <c r="E72" s="3">
-        <v>-2324400</v>
+        <v>-2606600</v>
       </c>
       <c r="F72" s="3">
-        <v>-2668900</v>
+        <v>-2270800</v>
       </c>
       <c r="G72" s="3">
-        <v>-2898000</v>
+        <v>-2607300</v>
       </c>
       <c r="H72" s="3">
-        <v>-3673400</v>
+        <v>-2831200</v>
       </c>
       <c r="I72" s="3">
-        <v>-3992000</v>
+        <v>-3588600</v>
       </c>
       <c r="J72" s="3">
+        <v>-3899900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4035100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2347300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3611400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3925600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4119700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3860600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3757500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3181400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3621700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3908500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3674900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4370700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4812100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4858300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4640100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-5443700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14621300</v>
+        <v>15012300</v>
       </c>
       <c r="E76" s="3">
-        <v>15031700</v>
+        <v>14284000</v>
       </c>
       <c r="F76" s="3">
-        <v>14459600</v>
+        <v>14685000</v>
       </c>
       <c r="G76" s="3">
-        <v>14144200</v>
+        <v>14126100</v>
       </c>
       <c r="H76" s="3">
-        <v>13329600</v>
+        <v>13817900</v>
       </c>
       <c r="I76" s="3">
-        <v>13124800</v>
+        <v>13022100</v>
       </c>
       <c r="J76" s="3">
+        <v>12822100</v>
+      </c>
+      <c r="K76" s="3">
         <v>13171900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14978800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13309000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14030000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12789800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12490300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12450700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12219300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12346500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12032600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12129100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11396800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10975600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11425900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10398800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9554500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>490500</v>
+        <v>672300</v>
       </c>
       <c r="E81" s="3">
-        <v>594000</v>
+        <v>479200</v>
       </c>
       <c r="F81" s="3">
-        <v>537500</v>
+        <v>580300</v>
       </c>
       <c r="G81" s="3">
-        <v>503800</v>
+        <v>525100</v>
       </c>
       <c r="H81" s="3">
-        <v>697600</v>
+        <v>492200</v>
       </c>
       <c r="I81" s="3">
-        <v>543000</v>
+        <v>681500</v>
       </c>
       <c r="J81" s="3">
+        <v>530500</v>
+      </c>
+      <c r="K81" s="3">
         <v>186000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>533800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>523900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>718800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>603500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>569700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>461200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>591500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1027600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>497600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>488200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>597600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>569300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>493200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>504700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>922900</v>
+        <v>882400</v>
       </c>
       <c r="E83" s="3">
-        <v>900100</v>
+        <v>901600</v>
       </c>
       <c r="F83" s="3">
-        <v>904800</v>
+        <v>879300</v>
       </c>
       <c r="G83" s="3">
-        <v>889100</v>
+        <v>883900</v>
       </c>
       <c r="H83" s="3">
-        <v>867100</v>
+        <v>868600</v>
       </c>
       <c r="I83" s="3">
-        <v>869500</v>
+        <v>847100</v>
       </c>
       <c r="J83" s="3">
+        <v>849400</v>
+      </c>
+      <c r="K83" s="3">
         <v>854600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>865100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>852200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>904500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>881000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>849100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>772500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>726000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1505600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>746800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>736800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>724100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>729300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>696800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>679100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1367800</v>
+        <v>1315600</v>
       </c>
       <c r="E89" s="3">
-        <v>1392100</v>
+        <v>1336300</v>
       </c>
       <c r="F89" s="3">
-        <v>1961100</v>
+        <v>1360000</v>
       </c>
       <c r="G89" s="3">
-        <v>1563200</v>
+        <v>1915800</v>
       </c>
       <c r="H89" s="3">
-        <v>1283000</v>
+        <v>1527100</v>
       </c>
       <c r="I89" s="3">
-        <v>1655800</v>
+        <v>1253500</v>
       </c>
       <c r="J89" s="3">
+        <v>1617600</v>
+      </c>
+      <c r="K89" s="3">
         <v>2010500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1139100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1630300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1872000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1659800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1167000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1360800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1484600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2674700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1126200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1233900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1661800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1603000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1008700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1167700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1492700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1144900</v>
+        <v>-729800</v>
       </c>
       <c r="E91" s="3">
-        <v>-909500</v>
+        <v>-1118500</v>
       </c>
       <c r="F91" s="3">
-        <v>-947200</v>
+        <v>-888500</v>
       </c>
       <c r="G91" s="3">
-        <v>-794200</v>
+        <v>-925300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1172400</v>
+        <v>-775800</v>
       </c>
       <c r="I91" s="3">
-        <v>-809100</v>
+        <v>-1145400</v>
       </c>
       <c r="J91" s="3">
+        <v>-790400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-701600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-614700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-899000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-839800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-770800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-654300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-741300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-734000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1495800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-700800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-818600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-774000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-775500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-654500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-762900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-749800</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2468800</v>
+        <v>-803400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1247000</v>
+        <v>-2411800</v>
       </c>
       <c r="F94" s="3">
-        <v>-969200</v>
+        <v>-1218200</v>
       </c>
       <c r="G94" s="3">
-        <v>-810600</v>
+        <v>-946800</v>
       </c>
       <c r="H94" s="3">
-        <v>-498300</v>
+        <v>-791900</v>
       </c>
       <c r="I94" s="3">
-        <v>-918900</v>
+        <v>-486800</v>
       </c>
       <c r="J94" s="3">
+        <v>-897700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-740800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-620200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-906000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-837300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-785100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-672800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-717700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-864000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1696800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-871000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-848400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-801500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-538800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1917500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-838100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1139300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6484,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-623900</v>
+        <v>-609500</v>
       </c>
       <c r="E96" s="3">
-        <v>-622300</v>
+        <v>-609500</v>
       </c>
       <c r="F96" s="3">
-        <v>-620700</v>
+        <v>-607900</v>
       </c>
       <c r="G96" s="3">
+        <v>-606400</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-577300</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-577300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-577300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-590900</v>
       </c>
-      <c r="H96" s="3">
-        <v>-590900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-590900</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-590900</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-562100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-558200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-591100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-564600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-521900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-515300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-492700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-996700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-486300</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-480800</v>
       </c>
       <c r="U96" s="3">
         <v>-480800</v>
       </c>
       <c r="V96" s="3">
+        <v>-480800</v>
+      </c>
+      <c r="W96" s="3">
         <v>-465900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-456300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-455600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-456300</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-437100</v>
+        <v>-591100</v>
       </c>
       <c r="E100" s="3">
-        <v>180500</v>
+        <v>-427000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1662900</v>
+        <v>176300</v>
       </c>
       <c r="G100" s="3">
-        <v>1117500</v>
+        <v>-1624500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1923400</v>
+        <v>1091700</v>
       </c>
       <c r="I100" s="3">
-        <v>-633300</v>
+        <v>-1879000</v>
       </c>
       <c r="J100" s="3">
+        <v>-618700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2158000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1470400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1364400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1140800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-536900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-307200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-948300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-303800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1154800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>176900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1393200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>198000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1029200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>645300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-744400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>244300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1538100</v>
+        <v>-79000</v>
       </c>
       <c r="E102" s="3">
-        <v>325700</v>
+        <v>-1502600</v>
       </c>
       <c r="F102" s="3">
-        <v>-671000</v>
+        <v>318200</v>
       </c>
       <c r="G102" s="3">
-        <v>1870000</v>
+        <v>-655500</v>
       </c>
       <c r="H102" s="3">
-        <v>-1138700</v>
+        <v>1826900</v>
       </c>
       <c r="I102" s="3">
-        <v>103600</v>
+        <v>-1112400</v>
       </c>
       <c r="J102" s="3">
+        <v>101200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-888300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1989300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-640100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-106100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>337800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>187100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-305200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>316800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-176900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>432100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1007700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1058300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>35000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-263500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-414800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>597700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>BCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4484800</v>
+        <v>4534900</v>
       </c>
       <c r="E8" s="3">
-        <v>4760100</v>
+        <v>4526400</v>
       </c>
       <c r="F8" s="3">
-        <v>4474100</v>
+        <v>4804200</v>
       </c>
       <c r="G8" s="3">
-        <v>4368300</v>
+        <v>4515600</v>
       </c>
       <c r="H8" s="3">
-        <v>4374400</v>
+        <v>4408800</v>
       </c>
       <c r="I8" s="3">
-        <v>4678000</v>
+        <v>4415000</v>
       </c>
       <c r="J8" s="3">
+        <v>4721400</v>
+      </c>
+      <c r="K8" s="3">
         <v>4436500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4201500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4427700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4892400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4924600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4670100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4379500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4730200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4270800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8563700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4208100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4492100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4239800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4233100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4099300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4380400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4153800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1324800</v>
+        <v>1310700</v>
       </c>
       <c r="E9" s="3">
-        <v>1657500</v>
+        <v>1337000</v>
       </c>
       <c r="F9" s="3">
-        <v>1320200</v>
+        <v>1672800</v>
       </c>
       <c r="G9" s="3">
-        <v>1275700</v>
+        <v>1332400</v>
       </c>
       <c r="H9" s="3">
-        <v>1335500</v>
+        <v>1287500</v>
       </c>
       <c r="I9" s="3">
-        <v>1575400</v>
+        <v>1347900</v>
       </c>
       <c r="J9" s="3">
+        <v>1590100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1370000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1154400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1298500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1664600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1473200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1352900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1337900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1632500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1297100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2582100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1287300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1511500</v>
-      </c>
-      <c r="V9" s="3">
-        <v>1248800</v>
       </c>
       <c r="W9" s="3">
         <v>1248800</v>
       </c>
       <c r="X9" s="3">
+        <v>1248800</v>
+      </c>
+      <c r="Y9" s="3">
         <v>1249900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1514900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1236900</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3160100</v>
+        <v>3224200</v>
       </c>
       <c r="E10" s="3">
-        <v>3102600</v>
+        <v>3189400</v>
       </c>
       <c r="F10" s="3">
-        <v>3154000</v>
+        <v>3131400</v>
       </c>
       <c r="G10" s="3">
-        <v>3092600</v>
+        <v>3183200</v>
       </c>
       <c r="H10" s="3">
-        <v>3039000</v>
+        <v>3121300</v>
       </c>
       <c r="I10" s="3">
-        <v>3102600</v>
+        <v>3067100</v>
       </c>
       <c r="J10" s="3">
+        <v>3131400</v>
+      </c>
+      <c r="K10" s="3">
         <v>3066600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3047100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3129200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3227800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3451300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3317200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3041600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3097600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2973600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5981700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2920800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2980600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2991000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2984300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2849400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2865500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2917000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,156 +1183,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11500</v>
+        <v>113000</v>
       </c>
       <c r="E14" s="3">
-        <v>71300</v>
+        <v>11600</v>
       </c>
       <c r="F14" s="3">
+        <v>72000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>19300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>132300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>112200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K14" s="3">
+        <v>39100</v>
+      </c>
+      <c r="L14" s="3">
+        <v>369600</v>
+      </c>
+      <c r="M14" s="3">
+        <v>30600</v>
+      </c>
+      <c r="N14" s="3">
+        <v>96700</v>
+      </c>
+      <c r="O14" s="3">
+        <v>19900</v>
+      </c>
+      <c r="P14" s="3">
+        <v>46000</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>21600</v>
+      </c>
+      <c r="R14" s="3">
+        <v>192600</v>
+      </c>
+      <c r="S14" s="3">
+        <v>40000</v>
+      </c>
+      <c r="T14" s="3">
+        <v>34600</v>
+      </c>
+      <c r="U14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V14" s="3">
+        <v>96000</v>
+      </c>
+      <c r="W14" s="3">
+        <v>29000</v>
+      </c>
+      <c r="X14" s="3">
+        <v>29800</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>64500</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>15400</v>
+      </c>
+      <c r="AA14" s="3">
         <v>19200</v>
       </c>
-      <c r="G14" s="3">
-        <v>131100</v>
-      </c>
-      <c r="H14" s="3">
-        <v>111200</v>
-      </c>
-      <c r="I14" s="3">
-        <v>49100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>39100</v>
-      </c>
-      <c r="K14" s="3">
-        <v>369600</v>
-      </c>
-      <c r="L14" s="3">
-        <v>30600</v>
-      </c>
-      <c r="M14" s="3">
-        <v>96700</v>
-      </c>
-      <c r="N14" s="3">
-        <v>19900</v>
-      </c>
-      <c r="O14" s="3">
-        <v>46000</v>
-      </c>
-      <c r="P14" s="3">
-        <v>21600</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>192600</v>
-      </c>
-      <c r="R14" s="3">
-        <v>40000</v>
-      </c>
-      <c r="S14" s="3">
-        <v>34600</v>
-      </c>
-      <c r="T14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="U14" s="3">
-        <v>96000</v>
-      </c>
-      <c r="V14" s="3">
-        <v>29000</v>
-      </c>
-      <c r="W14" s="3">
-        <v>29800</v>
-      </c>
-      <c r="X14" s="3">
-        <v>64500</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>15400</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>882400</v>
+        <v>927700</v>
       </c>
       <c r="E15" s="3">
-        <v>901600</v>
+        <v>890600</v>
       </c>
       <c r="F15" s="3">
-        <v>879300</v>
+        <v>909900</v>
       </c>
       <c r="G15" s="3">
-        <v>883900</v>
+        <v>887500</v>
       </c>
       <c r="H15" s="3">
-        <v>868600</v>
+        <v>892100</v>
       </c>
       <c r="I15" s="3">
-        <v>847100</v>
+        <v>876700</v>
       </c>
       <c r="J15" s="3">
+        <v>855000</v>
+      </c>
+      <c r="K15" s="3">
         <v>849400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>865600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>854100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>840500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>892900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>871500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>839100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>772500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>726000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1505600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>746800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>737500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>719700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>727100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>698300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>679100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3411500</v>
+        <v>3571600</v>
       </c>
       <c r="E17" s="3">
-        <v>3870000</v>
+        <v>3443200</v>
       </c>
       <c r="F17" s="3">
-        <v>3430700</v>
+        <v>3905900</v>
       </c>
       <c r="G17" s="3">
-        <v>3485100</v>
+        <v>3462500</v>
       </c>
       <c r="H17" s="3">
-        <v>3492000</v>
+        <v>3517500</v>
       </c>
       <c r="I17" s="3">
-        <v>3740400</v>
+        <v>3524400</v>
       </c>
       <c r="J17" s="3">
+        <v>3775100</v>
+      </c>
+      <c r="K17" s="3">
         <v>3443700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3607400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3415000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3892900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3708300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3548000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3406500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3873200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3252700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6577900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3261100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3592300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3198600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3217200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3198100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3445500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3121300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1073300</v>
+        <v>963300</v>
       </c>
       <c r="E18" s="3">
-        <v>890100</v>
+        <v>1083300</v>
       </c>
       <c r="F18" s="3">
-        <v>1043400</v>
+        <v>898300</v>
       </c>
       <c r="G18" s="3">
-        <v>883200</v>
+        <v>1053100</v>
       </c>
       <c r="H18" s="3">
-        <v>882400</v>
+        <v>891400</v>
       </c>
       <c r="I18" s="3">
-        <v>937600</v>
+        <v>890600</v>
       </c>
       <c r="J18" s="3">
+        <v>946300</v>
+      </c>
+      <c r="K18" s="3">
         <v>992800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>594000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1012700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>999500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1216200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1122100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>973100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>857000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1018100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1985900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>947000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>899700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1041100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1015800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>901100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>934900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1032500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>98900</v>
+        <v>-69600</v>
       </c>
       <c r="E20" s="3">
-        <v>16100</v>
+        <v>99800</v>
       </c>
       <c r="F20" s="3">
-        <v>23000</v>
+        <v>16200</v>
       </c>
       <c r="G20" s="3">
-        <v>65900</v>
+        <v>23200</v>
       </c>
       <c r="H20" s="3">
-        <v>42900</v>
+        <v>66500</v>
       </c>
       <c r="I20" s="3">
-        <v>-28400</v>
+        <v>43300</v>
       </c>
       <c r="J20" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-15300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-71400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-33000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-26500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>38100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-40400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>68500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-40000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-121200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-55700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-43200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-11200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-31500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2054600</v>
+        <v>1821400</v>
       </c>
       <c r="E21" s="3">
-        <v>1807700</v>
+        <v>2073700</v>
       </c>
       <c r="F21" s="3">
-        <v>1945700</v>
+        <v>1824500</v>
       </c>
       <c r="G21" s="3">
-        <v>1833000</v>
+        <v>1963800</v>
       </c>
       <c r="H21" s="3">
-        <v>1793900</v>
+        <v>1850000</v>
       </c>
       <c r="I21" s="3">
-        <v>1756400</v>
+        <v>1810600</v>
       </c>
       <c r="J21" s="3">
+        <v>1772700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1826900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1377200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1844900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1825200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2158800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1962700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1890700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1644000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1704100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3370200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1638100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1638800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1717600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1733300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1597200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1582600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1673200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>199300</v>
+        <v>208100</v>
       </c>
       <c r="E22" s="3">
-        <v>210800</v>
+        <v>201200</v>
       </c>
       <c r="F22" s="3">
-        <v>208500</v>
+        <v>212800</v>
       </c>
       <c r="G22" s="3">
-        <v>205500</v>
+        <v>210500</v>
       </c>
       <c r="H22" s="3">
-        <v>204700</v>
+        <v>207400</v>
       </c>
       <c r="I22" s="3">
-        <v>210100</v>
+        <v>206600</v>
       </c>
       <c r="J22" s="3">
+        <v>212000</v>
+      </c>
+      <c r="K22" s="3">
         <v>213900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>219700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>217500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>222200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>232100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>221300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>216300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>197100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>185300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>365900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>180700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>179400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>180100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>177100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>179800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>172900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>972900</v>
+        <v>685500</v>
       </c>
       <c r="E23" s="3">
-        <v>695300</v>
+        <v>981900</v>
       </c>
       <c r="F23" s="3">
-        <v>857900</v>
+        <v>701800</v>
       </c>
       <c r="G23" s="3">
-        <v>743600</v>
+        <v>865800</v>
       </c>
       <c r="H23" s="3">
+        <v>750500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>727300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>705700</v>
+      </c>
+      <c r="K23" s="3">
+        <v>763600</v>
+      </c>
+      <c r="L23" s="3">
+        <v>302900</v>
+      </c>
+      <c r="M23" s="3">
+        <v>762300</v>
+      </c>
+      <c r="N23" s="3">
+        <v>750800</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1022200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>860400</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>825200</v>
+      </c>
+      <c r="R23" s="3">
+        <v>674300</v>
+      </c>
+      <c r="S23" s="3">
+        <v>792800</v>
+      </c>
+      <c r="T23" s="3">
+        <v>1498800</v>
+      </c>
+      <c r="U23" s="3">
+        <v>710600</v>
+      </c>
+      <c r="V23" s="3">
+        <v>721900</v>
+      </c>
+      <c r="W23" s="3">
+        <v>817900</v>
+      </c>
+      <c r="X23" s="3">
+        <v>827600</v>
+      </c>
+      <c r="Y23" s="3">
         <v>720600</v>
       </c>
-      <c r="I23" s="3">
-        <v>699200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>763600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>302900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>762300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>750800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1022200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>860400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>825200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>674300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>792800</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1498800</v>
-      </c>
-      <c r="T23" s="3">
-        <v>710600</v>
-      </c>
-      <c r="U23" s="3">
-        <v>721900</v>
-      </c>
-      <c r="V23" s="3">
-        <v>817900</v>
-      </c>
-      <c r="W23" s="3">
-        <v>827600</v>
-      </c>
-      <c r="X23" s="3">
-        <v>720600</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>730600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>832800</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>256800</v>
+        <v>179500</v>
       </c>
       <c r="E24" s="3">
-        <v>190900</v>
+        <v>259200</v>
       </c>
       <c r="F24" s="3">
-        <v>234600</v>
+        <v>192700</v>
       </c>
       <c r="G24" s="3">
-        <v>180900</v>
+        <v>236800</v>
       </c>
       <c r="H24" s="3">
-        <v>194000</v>
+        <v>182600</v>
       </c>
       <c r="I24" s="3">
-        <v>146400</v>
+        <v>195800</v>
       </c>
       <c r="J24" s="3">
+        <v>147800</v>
+      </c>
+      <c r="K24" s="3">
         <v>200900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>75300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>190800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>191000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>264500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>218100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>223200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>185700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>162800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>396700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>176900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>202400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>185300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>221800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>192100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>193600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>716000</v>
+        <v>506000</v>
       </c>
       <c r="E26" s="3">
-        <v>504400</v>
+        <v>722700</v>
       </c>
       <c r="F26" s="3">
-        <v>623300</v>
+        <v>509100</v>
       </c>
       <c r="G26" s="3">
+        <v>629100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>567900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>531600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>557900</v>
+      </c>
+      <c r="K26" s="3">
         <v>562700</v>
       </c>
-      <c r="H26" s="3">
-        <v>526700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>552700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>562700</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>227600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>571500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>559800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>757800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>642300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>602000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>488600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>630000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1102100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>533700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>519500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>632600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>605800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>528500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>537000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>614600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>672300</v>
+        <v>461200</v>
       </c>
       <c r="E27" s="3">
-        <v>479200</v>
+        <v>678600</v>
       </c>
       <c r="F27" s="3">
-        <v>580300</v>
+        <v>483600</v>
       </c>
       <c r="G27" s="3">
-        <v>525100</v>
+        <v>585700</v>
       </c>
       <c r="H27" s="3">
-        <v>492200</v>
+        <v>530000</v>
       </c>
       <c r="I27" s="3">
-        <v>519800</v>
+        <v>496700</v>
       </c>
       <c r="J27" s="3">
+        <v>524600</v>
+      </c>
+      <c r="K27" s="3">
         <v>525900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>182800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>529900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>520000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>712200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>597900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>562700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>461200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>591500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1027600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>497600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>488200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>597600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>569300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>493200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>504700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,16 +2239,19 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2202,35 +2263,35 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>161800</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>163300</v>
+      </c>
+      <c r="K29" s="3">
         <v>4600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>3100</v>
-      </c>
-      <c r="L29" s="3">
-        <v>3900</v>
       </c>
       <c r="M29" s="3">
         <v>3900</v>
       </c>
       <c r="N29" s="3">
+        <v>3900</v>
+      </c>
+      <c r="O29" s="3">
         <v>6600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>5600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>6900</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-98900</v>
+        <v>69600</v>
       </c>
       <c r="E32" s="3">
-        <v>-16100</v>
+        <v>-99800</v>
       </c>
       <c r="F32" s="3">
-        <v>-23000</v>
+        <v>-16200</v>
       </c>
       <c r="G32" s="3">
-        <v>-65900</v>
+        <v>-23200</v>
       </c>
       <c r="H32" s="3">
-        <v>-42900</v>
+        <v>-66500</v>
       </c>
       <c r="I32" s="3">
-        <v>28400</v>
+        <v>-43300</v>
       </c>
       <c r="J32" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K32" s="3">
         <v>15300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>71400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>33000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>26500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-38100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>40400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-68500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>40000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>121200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>55700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>43200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>11200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>31500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>672300</v>
+        <v>461200</v>
       </c>
       <c r="E33" s="3">
-        <v>479200</v>
+        <v>678600</v>
       </c>
       <c r="F33" s="3">
-        <v>580300</v>
+        <v>483600</v>
       </c>
       <c r="G33" s="3">
-        <v>525100</v>
+        <v>585700</v>
       </c>
       <c r="H33" s="3">
-        <v>492200</v>
+        <v>530000</v>
       </c>
       <c r="I33" s="3">
-        <v>681500</v>
+        <v>496700</v>
       </c>
       <c r="J33" s="3">
+        <v>687900</v>
+      </c>
+      <c r="K33" s="3">
         <v>530500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>186000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>533800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>523900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>718800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>603500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>569700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>461200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>591500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1027600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>497600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>488200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>597600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>569300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>493200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>504700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>672300</v>
+        <v>461200</v>
       </c>
       <c r="E35" s="3">
-        <v>479200</v>
+        <v>678600</v>
       </c>
       <c r="F35" s="3">
-        <v>580300</v>
+        <v>483600</v>
       </c>
       <c r="G35" s="3">
-        <v>525100</v>
+        <v>585700</v>
       </c>
       <c r="H35" s="3">
-        <v>492200</v>
+        <v>530000</v>
       </c>
       <c r="I35" s="3">
-        <v>681500</v>
+        <v>496700</v>
       </c>
       <c r="J35" s="3">
+        <v>687900</v>
+      </c>
+      <c r="K35" s="3">
         <v>530500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>186000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>533800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>523900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>718800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>603500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>569700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>461200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>591500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1027600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>497600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>488200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>597600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>569300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>493200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>504700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>79700</v>
+        <v>461200</v>
       </c>
       <c r="E41" s="3">
-        <v>158700</v>
+        <v>80500</v>
       </c>
       <c r="F41" s="3">
-        <v>1661300</v>
+        <v>160200</v>
       </c>
       <c r="G41" s="3">
-        <v>1343200</v>
+        <v>1676700</v>
       </c>
       <c r="H41" s="3">
-        <v>1998600</v>
+        <v>1355600</v>
       </c>
       <c r="I41" s="3">
-        <v>171700</v>
+        <v>2017200</v>
       </c>
       <c r="J41" s="3">
+        <v>173300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1287200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1214000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2103100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>113100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>867600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>514200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>323500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>293600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>902600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>465100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1472800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>414500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>391800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>655300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1070100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,526 +3072,550 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3016700</v>
+        <v>3061700</v>
       </c>
       <c r="E43" s="3">
-        <v>3344900</v>
+        <v>3044700</v>
       </c>
       <c r="F43" s="3">
-        <v>2996000</v>
+        <v>3375900</v>
       </c>
       <c r="G43" s="3">
-        <v>2845000</v>
+        <v>3023800</v>
       </c>
       <c r="H43" s="3">
-        <v>2920900</v>
+        <v>2871400</v>
       </c>
       <c r="I43" s="3">
-        <v>3231400</v>
+        <v>2948000</v>
       </c>
       <c r="J43" s="3">
+        <v>3261400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2870300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2929400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3161400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3234900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3245700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>797000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>752900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>751200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>658400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2851600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2841000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2947800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2131400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2117300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2164900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2288600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2473700</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>434700</v>
+        <v>437200</v>
       </c>
       <c r="E44" s="3">
-        <v>369500</v>
+        <v>438700</v>
       </c>
       <c r="F44" s="3">
-        <v>320500</v>
+        <v>372900</v>
       </c>
       <c r="G44" s="3">
-        <v>320500</v>
+        <v>323400</v>
       </c>
       <c r="H44" s="3">
-        <v>351900</v>
+        <v>323400</v>
       </c>
       <c r="I44" s="3">
-        <v>336600</v>
+        <v>355200</v>
       </c>
       <c r="J44" s="3">
+        <v>339700</v>
+      </c>
+      <c r="K44" s="3">
         <v>325800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>349200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>382300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>332900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>400400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>386200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>363400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>328800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>356800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>328200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>333500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>282800</v>
-      </c>
-      <c r="V44" s="3">
-        <v>325200</v>
       </c>
       <c r="W44" s="3">
         <v>325200</v>
       </c>
       <c r="X44" s="3">
+        <v>325200</v>
+      </c>
+      <c r="Y44" s="3">
         <v>328800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>309600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>927600</v>
+        <v>916100</v>
       </c>
       <c r="E45" s="3">
-        <v>878600</v>
+        <v>936200</v>
       </c>
       <c r="F45" s="3">
-        <v>803400</v>
+        <v>886700</v>
       </c>
       <c r="G45" s="3">
-        <v>816500</v>
+        <v>810900</v>
       </c>
       <c r="H45" s="3">
-        <v>776600</v>
+        <v>824000</v>
       </c>
       <c r="I45" s="3">
-        <v>621000</v>
+        <v>783800</v>
       </c>
       <c r="J45" s="3">
+        <v>626700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1291800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1363100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>875300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>623000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>738700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>733500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>753700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>717700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>603900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>709900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>639900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>512800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>486000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>499400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>749800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>476300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4458800</v>
+        <v>4876200</v>
       </c>
       <c r="E46" s="3">
-        <v>4751600</v>
+        <v>4500100</v>
       </c>
       <c r="F46" s="3">
-        <v>5781200</v>
+        <v>4795700</v>
       </c>
       <c r="G46" s="3">
-        <v>5325100</v>
+        <v>5834800</v>
       </c>
       <c r="H46" s="3">
-        <v>6048000</v>
+        <v>5374500</v>
       </c>
       <c r="I46" s="3">
-        <v>4360600</v>
+        <v>6104100</v>
       </c>
       <c r="J46" s="3">
+        <v>4401100</v>
+      </c>
+      <c r="K46" s="3">
         <v>5775100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5855700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6522200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4303800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5185700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5145900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4645100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4409000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4361600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4183300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4717000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4208500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4415400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3356400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3635300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3729800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4348200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>690700</v>
+        <v>673200</v>
       </c>
       <c r="E47" s="3">
-        <v>704500</v>
+        <v>697100</v>
       </c>
       <c r="F47" s="3">
-        <v>714500</v>
+        <v>711100</v>
       </c>
       <c r="G47" s="3">
-        <v>732100</v>
+        <v>721100</v>
       </c>
       <c r="H47" s="3">
-        <v>752100</v>
+        <v>738900</v>
       </c>
       <c r="I47" s="3">
-        <v>1404500</v>
+        <v>759000</v>
       </c>
       <c r="J47" s="3">
+        <v>1417500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1296400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1216300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>927900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>959800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>995700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>964300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>985400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>992500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>879300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>916100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>935700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>926500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>616200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>657100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>675300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>654500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>793600</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21548700</v>
+        <v>21786500</v>
       </c>
       <c r="E48" s="3">
-        <v>21646100</v>
+        <v>21748600</v>
       </c>
       <c r="F48" s="3">
-        <v>21331800</v>
+        <v>21846800</v>
       </c>
       <c r="G48" s="3">
-        <v>21124000</v>
+        <v>21529600</v>
       </c>
       <c r="H48" s="3">
-        <v>20982900</v>
+        <v>21319900</v>
       </c>
       <c r="I48" s="3">
-        <v>21092600</v>
+        <v>21177500</v>
       </c>
       <c r="J48" s="3">
+        <v>21288200</v>
+      </c>
+      <c r="K48" s="3">
         <v>20743000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21062400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21535500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21547000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22698600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21740600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20997600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18908500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17968100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18362100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18194200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17882600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17678000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>17552900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>18015000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>17166900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>16807300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20353500</v>
+        <v>20639000</v>
       </c>
       <c r="E49" s="3">
-        <v>20041500</v>
+        <v>20542300</v>
       </c>
       <c r="F49" s="3">
-        <v>18357200</v>
+        <v>20227400</v>
       </c>
       <c r="G49" s="3">
-        <v>18278200</v>
+        <v>18527400</v>
       </c>
       <c r="H49" s="3">
-        <v>18271300</v>
+        <v>18447700</v>
       </c>
       <c r="I49" s="3">
-        <v>18174000</v>
+        <v>18440800</v>
       </c>
       <c r="J49" s="3">
+        <v>18342500</v>
+      </c>
+      <c r="K49" s="3">
         <v>18003000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18400600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18982500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18726900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20006600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18957900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>18418700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>18161900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>17450700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>18048100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>18031600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>17627400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>17799300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>17711500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>18239300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>16099000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>15574300</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4569900</v>
+        <v>4663400</v>
       </c>
       <c r="E52" s="3">
-        <v>4040200</v>
+        <v>4612300</v>
       </c>
       <c r="F52" s="3">
-        <v>4671100</v>
+        <v>4077700</v>
       </c>
       <c r="G52" s="3">
-        <v>3705900</v>
+        <v>4714500</v>
       </c>
       <c r="H52" s="3">
-        <v>3201500</v>
+        <v>3740300</v>
       </c>
       <c r="I52" s="3">
-        <v>1476500</v>
+        <v>3231200</v>
       </c>
       <c r="J52" s="3">
+        <v>1490200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1424400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1483900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3464400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1356600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1375400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>941300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1019200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>986400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1236800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1067500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>765600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>883400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>843200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>605800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>803600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>844300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>695200</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>51621700</v>
+        <v>52638200</v>
       </c>
       <c r="E54" s="3">
-        <v>51184000</v>
+        <v>52100500</v>
       </c>
       <c r="F54" s="3">
-        <v>50855800</v>
+        <v>51658600</v>
       </c>
       <c r="G54" s="3">
-        <v>49165400</v>
+        <v>51327500</v>
       </c>
       <c r="H54" s="3">
-        <v>49255900</v>
+        <v>49621400</v>
       </c>
       <c r="I54" s="3">
-        <v>46508200</v>
+        <v>49712700</v>
       </c>
       <c r="J54" s="3">
+        <v>46939500</v>
+      </c>
+      <c r="K54" s="3">
         <v>47241900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>48019000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>51432600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>46894000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>50262000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>47750100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46066000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>43458200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41896600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>42577000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>42644000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>41528400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>41352000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>39883700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>41368400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>38494500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>38218700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2944700</v>
+        <v>3286900</v>
       </c>
       <c r="E57" s="3">
-        <v>3415400</v>
+        <v>2972000</v>
       </c>
       <c r="F57" s="3">
-        <v>3167000</v>
+        <v>3447100</v>
       </c>
       <c r="G57" s="3">
-        <v>2993000</v>
+        <v>3196400</v>
       </c>
       <c r="H57" s="3">
-        <v>2854200</v>
+        <v>3020700</v>
       </c>
       <c r="I57" s="3">
-        <v>3016700</v>
+        <v>2880700</v>
       </c>
       <c r="J57" s="3">
+        <v>3044700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2733800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2621800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2618100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3082800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3026000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2950000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2779100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2999500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2745400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2712300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2660400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2883800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3326600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3177800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3106700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3323400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3092100</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2362800</v>
+        <v>2560300</v>
       </c>
       <c r="E58" s="3">
-        <v>2012400</v>
+        <v>2384700</v>
       </c>
       <c r="F58" s="3">
-        <v>1528700</v>
+        <v>2031100</v>
       </c>
       <c r="G58" s="3">
-        <v>1766300</v>
+        <v>1542900</v>
       </c>
       <c r="H58" s="3">
-        <v>2902500</v>
+        <v>1782700</v>
       </c>
       <c r="I58" s="3">
-        <v>1853000</v>
+        <v>2929400</v>
       </c>
       <c r="J58" s="3">
+        <v>1870200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2226300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2027800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3304300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3025900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3919700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4501200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4222500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3535300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3544100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4315000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4155400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3853500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4527000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4420600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4844500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3754300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3834200</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1566200</v>
+        <v>1696100</v>
       </c>
       <c r="E59" s="3">
-        <v>1558600</v>
+        <v>1580800</v>
       </c>
       <c r="F59" s="3">
-        <v>1440500</v>
+        <v>1573000</v>
       </c>
       <c r="G59" s="3">
-        <v>1644400</v>
+        <v>1453900</v>
       </c>
       <c r="H59" s="3">
-        <v>1547100</v>
+        <v>1659700</v>
       </c>
       <c r="I59" s="3">
-        <v>1471200</v>
+        <v>1561400</v>
       </c>
       <c r="J59" s="3">
+        <v>1484800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1615300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1734300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1468000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1514100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1657300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1543200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1454200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1402700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1301500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1289500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1228600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1249500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>804500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>743500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>672200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>687600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>689900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6873700</v>
+        <v>7543300</v>
       </c>
       <c r="E60" s="3">
-        <v>6986400</v>
+        <v>6937400</v>
       </c>
       <c r="F60" s="3">
-        <v>6136200</v>
+        <v>7051200</v>
       </c>
       <c r="G60" s="3">
-        <v>6403700</v>
+        <v>6193100</v>
       </c>
       <c r="H60" s="3">
-        <v>7303800</v>
+        <v>6463100</v>
       </c>
       <c r="I60" s="3">
-        <v>6340900</v>
+        <v>7371500</v>
       </c>
       <c r="J60" s="3">
+        <v>6399700</v>
+      </c>
+      <c r="K60" s="3">
         <v>6575500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6383900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7390500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7622800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8603100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8994400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8455700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7937400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7591000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8316800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8044300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7986900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8658100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8341800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8623400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7765300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7616200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20605000</v>
+        <v>20896700</v>
       </c>
       <c r="E61" s="3">
-        <v>20736100</v>
+        <v>20796100</v>
       </c>
       <c r="F61" s="3">
-        <v>20752900</v>
+        <v>20928400</v>
       </c>
       <c r="G61" s="3">
-        <v>19489500</v>
+        <v>20945400</v>
       </c>
       <c r="H61" s="3">
-        <v>19139200</v>
+        <v>19670300</v>
       </c>
       <c r="I61" s="3">
-        <v>18327300</v>
+        <v>19316700</v>
       </c>
       <c r="J61" s="3">
+        <v>18497300</v>
+      </c>
+      <c r="K61" s="3">
         <v>19100100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19637300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20029000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17476300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18608000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17406000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16948400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15039100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14231500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>13826500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14564200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>13555800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>13735100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>12973800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>13641500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>12731100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>12679600</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5908500</v>
+        <v>5810100</v>
       </c>
       <c r="E62" s="3">
-        <v>5874000</v>
+        <v>5963300</v>
       </c>
       <c r="F62" s="3">
-        <v>5943800</v>
+        <v>5928500</v>
       </c>
       <c r="G62" s="3">
-        <v>5816500</v>
+        <v>5998900</v>
       </c>
       <c r="H62" s="3">
-        <v>5666200</v>
+        <v>5870400</v>
       </c>
       <c r="I62" s="3">
-        <v>5488400</v>
+        <v>5718800</v>
       </c>
       <c r="J62" s="3">
+        <v>5539300</v>
+      </c>
+      <c r="K62" s="3">
         <v>5405600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5410800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5624100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5103700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5422800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5123700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4851400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4735500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4709700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4832900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4756900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4636400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4340200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4371500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4358900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4282100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5051900</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33631000</v>
+        <v>34503800</v>
       </c>
       <c r="E66" s="3">
-        <v>33831100</v>
+        <v>33942900</v>
       </c>
       <c r="F66" s="3">
-        <v>33102000</v>
+        <v>34144800</v>
       </c>
       <c r="G66" s="3">
-        <v>31970400</v>
+        <v>33409000</v>
       </c>
       <c r="H66" s="3">
-        <v>32369100</v>
+        <v>32266900</v>
       </c>
       <c r="I66" s="3">
-        <v>30417200</v>
+        <v>32669300</v>
       </c>
       <c r="J66" s="3">
+        <v>30699300</v>
+      </c>
+      <c r="K66" s="3">
         <v>31350200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31705100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33310500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30463300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32912500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31785000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30493300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>27960200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>26767600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>27216400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>27597300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>26419500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>26975400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>25928300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>26866500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>25019700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>25588200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,64 +5007,67 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2978400</v>
+        <v>3006000</v>
       </c>
       <c r="E70" s="3">
-        <v>3068900</v>
+        <v>3006000</v>
       </c>
       <c r="F70" s="3">
-        <v>3068900</v>
+        <v>3097300</v>
       </c>
       <c r="G70" s="3">
-        <v>3068900</v>
+        <v>3097300</v>
       </c>
       <c r="H70" s="3">
-        <v>3068900</v>
+        <v>3097300</v>
       </c>
       <c r="I70" s="3">
-        <v>3068900</v>
+        <v>3097300</v>
       </c>
       <c r="J70" s="3">
+        <v>3097300</v>
+      </c>
+      <c r="K70" s="3">
         <v>3069600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3142100</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3143300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3121800</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3319500</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>3175300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>3082400</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>3047400</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>2909700</v>
-      </c>
-      <c r="S70" s="3">
-        <v>3014200</v>
       </c>
       <c r="T70" s="3">
         <v>3014200</v>
       </c>
       <c r="U70" s="3">
-        <v>2979800</v>
+        <v>3014200</v>
       </c>
       <c r="V70" s="3">
         <v>2979800</v>
@@ -4908,7 +5076,7 @@
         <v>2979800</v>
       </c>
       <c r="X70" s="3">
-        <v>3076000</v>
+        <v>2979800</v>
       </c>
       <c r="Y70" s="3">
         <v>3076000</v>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>3076000</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>3076000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2100600</v>
+        <v>-2096100</v>
       </c>
       <c r="E72" s="3">
-        <v>-2606600</v>
+        <v>-2120100</v>
       </c>
       <c r="F72" s="3">
-        <v>-2270800</v>
+        <v>-2630800</v>
       </c>
       <c r="G72" s="3">
-        <v>-2607300</v>
+        <v>-2291800</v>
       </c>
       <c r="H72" s="3">
-        <v>-2831200</v>
+        <v>-2631500</v>
       </c>
       <c r="I72" s="3">
-        <v>-3588600</v>
+        <v>-2857500</v>
       </c>
       <c r="J72" s="3">
+        <v>-3621900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3899900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4035100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2347300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3611400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3925600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4119700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3860600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3757500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3181400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3621700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3908500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3674900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4370700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4812100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4858300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4640100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-5443700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15012300</v>
+        <v>15128400</v>
       </c>
       <c r="E76" s="3">
-        <v>14284000</v>
+        <v>15151600</v>
       </c>
       <c r="F76" s="3">
-        <v>14685000</v>
+        <v>14416500</v>
       </c>
       <c r="G76" s="3">
-        <v>14126100</v>
+        <v>14821200</v>
       </c>
       <c r="H76" s="3">
-        <v>13817900</v>
+        <v>14257100</v>
       </c>
       <c r="I76" s="3">
-        <v>13022100</v>
+        <v>13946100</v>
       </c>
       <c r="J76" s="3">
+        <v>13142900</v>
+      </c>
+      <c r="K76" s="3">
         <v>12822100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13171900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14978800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13309000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14030000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12789800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12490300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12450700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12219300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12346500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12032600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12129100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11396800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10975600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11425900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10398800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>9554500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>672300</v>
+        <v>461200</v>
       </c>
       <c r="E81" s="3">
-        <v>479200</v>
+        <v>678600</v>
       </c>
       <c r="F81" s="3">
-        <v>580300</v>
+        <v>483600</v>
       </c>
       <c r="G81" s="3">
-        <v>525100</v>
+        <v>585700</v>
       </c>
       <c r="H81" s="3">
-        <v>492200</v>
+        <v>530000</v>
       </c>
       <c r="I81" s="3">
-        <v>681500</v>
+        <v>496700</v>
       </c>
       <c r="J81" s="3">
+        <v>687900</v>
+      </c>
+      <c r="K81" s="3">
         <v>530500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>186000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>533800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>523900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>718800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>603500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>569700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>461200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>591500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1027600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>497600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>488200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>597600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>569300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>493200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>504700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>882400</v>
+        <v>927700</v>
       </c>
       <c r="E83" s="3">
-        <v>901600</v>
+        <v>890600</v>
       </c>
       <c r="F83" s="3">
-        <v>879300</v>
+        <v>909900</v>
       </c>
       <c r="G83" s="3">
-        <v>883900</v>
+        <v>887500</v>
       </c>
       <c r="H83" s="3">
-        <v>868600</v>
+        <v>892100</v>
       </c>
       <c r="I83" s="3">
-        <v>847100</v>
+        <v>876700</v>
       </c>
       <c r="J83" s="3">
+        <v>855000</v>
+      </c>
+      <c r="K83" s="3">
         <v>849400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>854600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>865100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>852200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>904500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>881000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>849100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>772500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>726000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1505600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>746800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>736800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>724100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>729300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>696800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>679100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1315600</v>
+        <v>2009400</v>
       </c>
       <c r="E89" s="3">
-        <v>1336300</v>
+        <v>1327800</v>
       </c>
       <c r="F89" s="3">
-        <v>1360000</v>
+        <v>1348600</v>
       </c>
       <c r="G89" s="3">
-        <v>1915800</v>
+        <v>1372600</v>
       </c>
       <c r="H89" s="3">
-        <v>1527100</v>
+        <v>1933600</v>
       </c>
       <c r="I89" s="3">
-        <v>1253500</v>
+        <v>1541300</v>
       </c>
       <c r="J89" s="3">
+        <v>1265100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1617600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2010500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1139100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1630300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1872000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1659800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1167000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1360800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1484600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2674700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1126200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1233900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1661800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1603000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1008700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1167700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1492700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-729800</v>
+        <v>-948600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1118500</v>
+        <v>-736600</v>
       </c>
       <c r="F91" s="3">
-        <v>-888500</v>
+        <v>-1128900</v>
       </c>
       <c r="G91" s="3">
-        <v>-925300</v>
+        <v>-896800</v>
       </c>
       <c r="H91" s="3">
-        <v>-775800</v>
+        <v>-933900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1145400</v>
+        <v>-783000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1156000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-790400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-701600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-614700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-899000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-839800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-770800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-654300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-741300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-734000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1495800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-700800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-818600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-774000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-775500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-654500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-762900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-749800</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-803400</v>
+        <v>-927000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2411800</v>
+        <v>-810900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1218200</v>
+        <v>-2434200</v>
       </c>
       <c r="G94" s="3">
-        <v>-946800</v>
+        <v>-1229500</v>
       </c>
       <c r="H94" s="3">
-        <v>-791900</v>
+        <v>-955600</v>
       </c>
       <c r="I94" s="3">
-        <v>-486800</v>
+        <v>-799300</v>
       </c>
       <c r="J94" s="3">
+        <v>-491300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-897700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-740800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-620200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-906000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-837300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-785100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-672800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-717700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-864000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1696800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-871000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-848400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-801500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-538800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1917500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-838100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1139300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-609500</v>
+        <v>-649200</v>
       </c>
       <c r="E96" s="3">
-        <v>-609500</v>
+        <v>-615100</v>
       </c>
       <c r="F96" s="3">
-        <v>-607900</v>
+        <v>-615100</v>
       </c>
       <c r="G96" s="3">
-        <v>-606400</v>
+        <v>-613600</v>
       </c>
       <c r="H96" s="3">
+        <v>-612000</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-582600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-582600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-577300</v>
       </c>
-      <c r="I96" s="3">
-        <v>-577300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-577300</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-590900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-562100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-558200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-591100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-564600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-521900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-515300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-492700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-996700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-486300</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-480800</v>
       </c>
       <c r="V96" s="3">
         <v>-480800</v>
       </c>
       <c r="W96" s="3">
+        <v>-480800</v>
+      </c>
+      <c r="X96" s="3">
         <v>-465900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-456300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-455600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-456300</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-591100</v>
+        <v>-765200</v>
       </c>
       <c r="E100" s="3">
-        <v>-427000</v>
+        <v>-596600</v>
       </c>
       <c r="F100" s="3">
-        <v>176300</v>
+        <v>-431000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1624500</v>
+        <v>178000</v>
       </c>
       <c r="H100" s="3">
-        <v>1091700</v>
+        <v>-1639600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1879000</v>
+        <v>1101800</v>
       </c>
       <c r="J100" s="3">
+        <v>-1896500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-618700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2158000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1470400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1364400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1140800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-536900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-307200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-948300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-303800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1154800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>176900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1393200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>198000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1029200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>645300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-744400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>244300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-79000</v>
+        <v>317200</v>
       </c>
       <c r="E102" s="3">
-        <v>-1502600</v>
+        <v>-79700</v>
       </c>
       <c r="F102" s="3">
-        <v>318200</v>
+        <v>-1516600</v>
       </c>
       <c r="G102" s="3">
-        <v>-655500</v>
+        <v>321100</v>
       </c>
       <c r="H102" s="3">
-        <v>1826900</v>
+        <v>-661600</v>
       </c>
       <c r="I102" s="3">
-        <v>-1112400</v>
+        <v>1843800</v>
       </c>
       <c r="J102" s="3">
+        <v>-1122700</v>
+      </c>
+      <c r="K102" s="3">
         <v>101200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-888300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1989300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-640100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-106100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>337800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>187100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-305200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>316800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-176900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>432100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1007700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1058300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>35000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-263500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-414800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>597700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>BCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4534900</v>
+        <v>4523200</v>
       </c>
       <c r="E8" s="3">
-        <v>4526400</v>
+        <v>4400800</v>
       </c>
       <c r="F8" s="3">
-        <v>4804200</v>
+        <v>4392500</v>
       </c>
       <c r="G8" s="3">
-        <v>4515600</v>
+        <v>4662100</v>
       </c>
       <c r="H8" s="3">
-        <v>4408800</v>
+        <v>4382000</v>
       </c>
       <c r="I8" s="3">
-        <v>4415000</v>
+        <v>4278400</v>
       </c>
       <c r="J8" s="3">
+        <v>4284400</v>
+      </c>
+      <c r="K8" s="3">
         <v>4721400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4436500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4201500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4427700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4892400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4924600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4670100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4379500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4730200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4270800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8563700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4208100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4492100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4239800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4233100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4099300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4380400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4153800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1310700</v>
+        <v>1398100</v>
       </c>
       <c r="E9" s="3">
-        <v>1337000</v>
+        <v>1272000</v>
       </c>
       <c r="F9" s="3">
-        <v>1672800</v>
+        <v>1297500</v>
       </c>
       <c r="G9" s="3">
-        <v>1332400</v>
+        <v>1623400</v>
       </c>
       <c r="H9" s="3">
-        <v>1287500</v>
+        <v>1293000</v>
       </c>
       <c r="I9" s="3">
-        <v>1347900</v>
+        <v>1249400</v>
       </c>
       <c r="J9" s="3">
+        <v>1308000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1590100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1370000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1154400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1298500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1664600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1473200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1352900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1337900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1632500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1297100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2582100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1287300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1511500</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1248800</v>
       </c>
       <c r="X9" s="3">
         <v>1248800</v>
       </c>
       <c r="Y9" s="3">
+        <v>1248800</v>
+      </c>
+      <c r="Z9" s="3">
         <v>1249900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1514900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1236900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3224200</v>
+        <v>3125100</v>
       </c>
       <c r="E10" s="3">
-        <v>3189400</v>
+        <v>3128800</v>
       </c>
       <c r="F10" s="3">
+        <v>3095000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3038700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3089000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3029000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2976400</v>
+      </c>
+      <c r="K10" s="3">
         <v>3131400</v>
       </c>
-      <c r="G10" s="3">
-        <v>3183200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3121300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3067100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3131400</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3066600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3047100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3129200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3227800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3451300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3317200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3041600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3097600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2973600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5981700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2920800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2980600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2991000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2984300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2849400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2865500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2917000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,162 +1203,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>113000</v>
+        <v>32300</v>
       </c>
       <c r="E14" s="3">
-        <v>11600</v>
+        <v>109600</v>
       </c>
       <c r="F14" s="3">
-        <v>72000</v>
+        <v>11300</v>
       </c>
       <c r="G14" s="3">
-        <v>19300</v>
+        <v>69800</v>
       </c>
       <c r="H14" s="3">
-        <v>132300</v>
+        <v>18800</v>
       </c>
       <c r="I14" s="3">
-        <v>112200</v>
+        <v>128400</v>
       </c>
       <c r="J14" s="3">
+        <v>108900</v>
+      </c>
+      <c r="K14" s="3">
         <v>49500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>39100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>369600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>30600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>96700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>19900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>46000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>21600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>192600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>40000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>34600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>96000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>29000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>29800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>64500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>15400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>927700</v>
+        <v>886800</v>
       </c>
       <c r="E15" s="3">
-        <v>890600</v>
+        <v>900300</v>
       </c>
       <c r="F15" s="3">
-        <v>909900</v>
+        <v>864200</v>
       </c>
       <c r="G15" s="3">
-        <v>887500</v>
+        <v>883000</v>
       </c>
       <c r="H15" s="3">
-        <v>892100</v>
+        <v>861200</v>
       </c>
       <c r="I15" s="3">
-        <v>876700</v>
+        <v>865700</v>
       </c>
       <c r="J15" s="3">
+        <v>850700</v>
+      </c>
+      <c r="K15" s="3">
         <v>855000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>849400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>865600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>854100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>840500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>892900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>871500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>839100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>772500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>726000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1505600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>746800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>737500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>719700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>727100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>698300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>679100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3571600</v>
+        <v>3499000</v>
       </c>
       <c r="E17" s="3">
-        <v>3443200</v>
+        <v>3466000</v>
       </c>
       <c r="F17" s="3">
-        <v>3905900</v>
+        <v>3341300</v>
       </c>
       <c r="G17" s="3">
-        <v>3462500</v>
+        <v>3790300</v>
       </c>
       <c r="H17" s="3">
-        <v>3517500</v>
+        <v>3360100</v>
       </c>
       <c r="I17" s="3">
-        <v>3524400</v>
+        <v>3413400</v>
       </c>
       <c r="J17" s="3">
+        <v>3420200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3775100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3443700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3607400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3415000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3892900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3708300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3548000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3406500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3873200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3252700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6577900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3261100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3592300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3198600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3217200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3198100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3445500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3121300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>963300</v>
+        <v>1024200</v>
       </c>
       <c r="E18" s="3">
-        <v>1083300</v>
+        <v>934800</v>
       </c>
       <c r="F18" s="3">
-        <v>898300</v>
+        <v>1051200</v>
       </c>
       <c r="G18" s="3">
-        <v>1053100</v>
+        <v>871700</v>
       </c>
       <c r="H18" s="3">
-        <v>891400</v>
+        <v>1021900</v>
       </c>
       <c r="I18" s="3">
-        <v>890600</v>
+        <v>865000</v>
       </c>
       <c r="J18" s="3">
+        <v>864200</v>
+      </c>
+      <c r="K18" s="3">
         <v>946300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>992800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>594000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1012700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>999500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1216200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1122100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>973100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>857000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1018100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1985900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>947000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>899700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1041100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1015800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>901100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>934900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1032500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-69600</v>
+        <v>-87900</v>
       </c>
       <c r="E20" s="3">
-        <v>99800</v>
+        <v>-67600</v>
       </c>
       <c r="F20" s="3">
-        <v>16200</v>
+        <v>96900</v>
       </c>
       <c r="G20" s="3">
-        <v>23200</v>
+        <v>15800</v>
       </c>
       <c r="H20" s="3">
-        <v>66500</v>
+        <v>22500</v>
       </c>
       <c r="I20" s="3">
-        <v>43300</v>
+        <v>64600</v>
       </c>
       <c r="J20" s="3">
+        <v>42000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-28600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-71400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-33000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-26500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>38100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-40400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>68500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-40000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-121200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-55700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-43200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-11200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-31500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1821400</v>
+        <v>1823100</v>
       </c>
       <c r="E21" s="3">
-        <v>2073700</v>
+        <v>1767500</v>
       </c>
       <c r="F21" s="3">
-        <v>1824500</v>
+        <v>2012300</v>
       </c>
       <c r="G21" s="3">
-        <v>1963800</v>
+        <v>1770500</v>
       </c>
       <c r="H21" s="3">
-        <v>1850000</v>
+        <v>1905700</v>
       </c>
       <c r="I21" s="3">
-        <v>1810600</v>
+        <v>1795300</v>
       </c>
       <c r="J21" s="3">
+        <v>1757000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1772700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1826900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1377200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1844900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1825200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2158800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1962700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1890700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1644000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1704100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3370200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1638100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1638800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1717600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1733300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1597200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1582600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1673200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>208100</v>
+        <v>223800</v>
       </c>
       <c r="E22" s="3">
+        <v>202000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>195200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>206500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>204200</v>
+      </c>
+      <c r="I22" s="3">
         <v>201200</v>
       </c>
-      <c r="F22" s="3">
-        <v>212800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>210500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>207400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>206600</v>
-      </c>
       <c r="J22" s="3">
+        <v>200500</v>
+      </c>
+      <c r="K22" s="3">
         <v>212000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>213900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>219700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>217500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>222200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>232100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>221300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>216300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>197100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>185300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>365900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>180700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>179400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>180100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>177100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>179800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>172900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>685500</v>
+        <v>712600</v>
       </c>
       <c r="E23" s="3">
-        <v>981900</v>
+        <v>665300</v>
       </c>
       <c r="F23" s="3">
-        <v>701800</v>
+        <v>952800</v>
       </c>
       <c r="G23" s="3">
-        <v>865800</v>
+        <v>681000</v>
       </c>
       <c r="H23" s="3">
-        <v>750500</v>
+        <v>840200</v>
       </c>
       <c r="I23" s="3">
-        <v>727300</v>
+        <v>728300</v>
       </c>
       <c r="J23" s="3">
+        <v>705800</v>
+      </c>
+      <c r="K23" s="3">
         <v>705700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>763600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>302900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>762300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>750800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1022200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>860400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>825200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>674300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>792800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1498800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>710600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>721900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>817900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>827600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>720600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>730600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>832800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>179500</v>
+        <v>133700</v>
       </c>
       <c r="E24" s="3">
-        <v>259200</v>
+        <v>174200</v>
       </c>
       <c r="F24" s="3">
-        <v>192700</v>
+        <v>251500</v>
       </c>
       <c r="G24" s="3">
-        <v>236800</v>
+        <v>187000</v>
       </c>
       <c r="H24" s="3">
-        <v>182600</v>
+        <v>229800</v>
       </c>
       <c r="I24" s="3">
-        <v>195800</v>
+        <v>177200</v>
       </c>
       <c r="J24" s="3">
+        <v>190000</v>
+      </c>
+      <c r="K24" s="3">
         <v>147800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>75300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>190800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>191000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>264500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>218100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>223200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>185700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>162800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>396700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>176900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>202400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>185300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>221800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>192100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>193600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>506000</v>
+        <v>578900</v>
       </c>
       <c r="E26" s="3">
-        <v>722700</v>
+        <v>491100</v>
       </c>
       <c r="F26" s="3">
-        <v>509100</v>
+        <v>701300</v>
       </c>
       <c r="G26" s="3">
-        <v>629100</v>
+        <v>494100</v>
       </c>
       <c r="H26" s="3">
-        <v>567900</v>
+        <v>610400</v>
       </c>
       <c r="I26" s="3">
-        <v>531600</v>
+        <v>551100</v>
       </c>
       <c r="J26" s="3">
+        <v>515800</v>
+      </c>
+      <c r="K26" s="3">
         <v>557900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>562700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>227600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>571500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>559800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>757800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>642300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>602000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>488600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>630000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1102100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>533700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>519500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>632600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>605800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>528500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>537000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>614600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>536900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>447500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>658500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>469300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>568400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>514300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>482100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>524600</v>
+      </c>
+      <c r="L27" s="3">
+        <v>525900</v>
+      </c>
+      <c r="M27" s="3">
+        <v>182800</v>
+      </c>
+      <c r="N27" s="3">
+        <v>529900</v>
+      </c>
+      <c r="O27" s="3">
+        <v>520000</v>
+      </c>
+      <c r="P27" s="3">
+        <v>712200</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>597900</v>
+      </c>
+      <c r="R27" s="3">
+        <v>562700</v>
+      </c>
+      <c r="S27" s="3">
         <v>461200</v>
       </c>
-      <c r="E27" s="3">
-        <v>678600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>483600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>585700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>530000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>496700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>524600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>525900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>182800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>529900</v>
-      </c>
-      <c r="N27" s="3">
-        <v>520000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>712200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>597900</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>562700</v>
-      </c>
-      <c r="R27" s="3">
-        <v>461200</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>591500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1027600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>497600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>488200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>597600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>569300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>493200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>504700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2253,8 +2314,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2266,35 +2327,35 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>163300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>4600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>3100</v>
-      </c>
-      <c r="M29" s="3">
-        <v>3900</v>
       </c>
       <c r="N29" s="3">
         <v>3900</v>
       </c>
       <c r="O29" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P29" s="3">
         <v>6600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>5600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>6900</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>69600</v>
+        <v>87900</v>
       </c>
       <c r="E32" s="3">
-        <v>-99800</v>
+        <v>67600</v>
       </c>
       <c r="F32" s="3">
-        <v>-16200</v>
+        <v>-96900</v>
       </c>
       <c r="G32" s="3">
-        <v>-23200</v>
+        <v>-15800</v>
       </c>
       <c r="H32" s="3">
-        <v>-66500</v>
+        <v>-22500</v>
       </c>
       <c r="I32" s="3">
-        <v>-43300</v>
+        <v>-64600</v>
       </c>
       <c r="J32" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="K32" s="3">
         <v>28600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>71400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>33000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>26500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-38100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>40400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-68500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>40000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>121200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>55700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>43200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>11200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>31500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>536900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>447500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>658500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>469300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>568400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>514300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>482100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>687900</v>
+      </c>
+      <c r="L33" s="3">
+        <v>530500</v>
+      </c>
+      <c r="M33" s="3">
+        <v>186000</v>
+      </c>
+      <c r="N33" s="3">
+        <v>533800</v>
+      </c>
+      <c r="O33" s="3">
+        <v>523900</v>
+      </c>
+      <c r="P33" s="3">
+        <v>718800</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>603500</v>
+      </c>
+      <c r="R33" s="3">
+        <v>569700</v>
+      </c>
+      <c r="S33" s="3">
         <v>461200</v>
       </c>
-      <c r="E33" s="3">
-        <v>678600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>483600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>585700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>530000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>496700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>687900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>530500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>186000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>533800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>523900</v>
-      </c>
-      <c r="O33" s="3">
-        <v>718800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>603500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>569700</v>
-      </c>
-      <c r="R33" s="3">
-        <v>461200</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>591500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1027600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>497600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>488200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>597600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>569300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>493200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>504700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>536900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>447500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>658500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>469300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>568400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>514300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>482100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>687900</v>
+      </c>
+      <c r="L35" s="3">
+        <v>530500</v>
+      </c>
+      <c r="M35" s="3">
+        <v>186000</v>
+      </c>
+      <c r="N35" s="3">
+        <v>533800</v>
+      </c>
+      <c r="O35" s="3">
+        <v>523900</v>
+      </c>
+      <c r="P35" s="3">
+        <v>718800</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>603500</v>
+      </c>
+      <c r="R35" s="3">
+        <v>569700</v>
+      </c>
+      <c r="S35" s="3">
         <v>461200</v>
       </c>
-      <c r="E35" s="3">
-        <v>678600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>483600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>585700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>530000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>496700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>687900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>530500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>186000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>533800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>523900</v>
-      </c>
-      <c r="O35" s="3">
-        <v>718800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>603500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>569700</v>
-      </c>
-      <c r="R35" s="3">
-        <v>461200</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>591500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1027600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>497600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>488200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>597600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>569300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>493200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>504700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>461200</v>
+        <v>550400</v>
       </c>
       <c r="E41" s="3">
-        <v>80500</v>
+        <v>447500</v>
       </c>
       <c r="F41" s="3">
-        <v>160200</v>
+        <v>78100</v>
       </c>
       <c r="G41" s="3">
-        <v>1676700</v>
+        <v>155400</v>
       </c>
       <c r="H41" s="3">
-        <v>1355600</v>
+        <v>1627100</v>
       </c>
       <c r="I41" s="3">
-        <v>2017200</v>
+        <v>1315500</v>
       </c>
       <c r="J41" s="3">
+        <v>1957500</v>
+      </c>
+      <c r="K41" s="3">
         <v>173300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1287200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1214000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2103100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>113100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>867600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>514200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>323500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>600200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>293600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>902600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>465100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1472800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>414500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>391800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>655300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1070100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,547 +3165,571 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3061700</v>
+        <v>3155100</v>
       </c>
       <c r="E43" s="3">
-        <v>3044700</v>
+        <v>2971200</v>
       </c>
       <c r="F43" s="3">
-        <v>3375900</v>
+        <v>2954600</v>
       </c>
       <c r="G43" s="3">
-        <v>3023800</v>
+        <v>3276000</v>
       </c>
       <c r="H43" s="3">
-        <v>2871400</v>
+        <v>2934400</v>
       </c>
       <c r="I43" s="3">
-        <v>2948000</v>
+        <v>2786400</v>
       </c>
       <c r="J43" s="3">
+        <v>2860800</v>
+      </c>
+      <c r="K43" s="3">
         <v>3261400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2870300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2929400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3161400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3234900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3245700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>797000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>752900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>751200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>658400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2851600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2841000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2947800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2131400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2117300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2164900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2288600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2473700</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>437200</v>
+        <v>470800</v>
       </c>
       <c r="E44" s="3">
-        <v>438700</v>
+        <v>424200</v>
       </c>
       <c r="F44" s="3">
-        <v>372900</v>
+        <v>425700</v>
       </c>
       <c r="G44" s="3">
-        <v>323400</v>
+        <v>361900</v>
       </c>
       <c r="H44" s="3">
-        <v>323400</v>
+        <v>313900</v>
       </c>
       <c r="I44" s="3">
-        <v>355200</v>
+        <v>313900</v>
       </c>
       <c r="J44" s="3">
+        <v>344600</v>
+      </c>
+      <c r="K44" s="3">
         <v>339700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>325800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>349200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>382300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>332900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>400400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>386200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>363400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>328800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>356800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>328200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>333500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>282800</v>
-      </c>
-      <c r="W44" s="3">
-        <v>325200</v>
       </c>
       <c r="X44" s="3">
         <v>325200</v>
       </c>
       <c r="Y44" s="3">
+        <v>325200</v>
+      </c>
+      <c r="Z44" s="3">
         <v>328800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>309600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>916100</v>
+        <v>957300</v>
       </c>
       <c r="E45" s="3">
-        <v>936200</v>
+        <v>889000</v>
       </c>
       <c r="F45" s="3">
-        <v>886700</v>
+        <v>908500</v>
       </c>
       <c r="G45" s="3">
-        <v>810900</v>
+        <v>860500</v>
       </c>
       <c r="H45" s="3">
-        <v>824000</v>
+        <v>786900</v>
       </c>
       <c r="I45" s="3">
-        <v>783800</v>
+        <v>799700</v>
       </c>
       <c r="J45" s="3">
+        <v>760600</v>
+      </c>
+      <c r="K45" s="3">
         <v>626700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1291800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1363100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>875300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>623000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>738700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>733500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>753700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>717700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>603900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>709900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>639900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>512800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>486000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>499400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>749800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>476300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4876200</v>
+        <v>5133600</v>
       </c>
       <c r="E46" s="3">
-        <v>4500100</v>
+        <v>4731900</v>
       </c>
       <c r="F46" s="3">
-        <v>4795700</v>
+        <v>4367000</v>
       </c>
       <c r="G46" s="3">
-        <v>5834800</v>
+        <v>4653800</v>
       </c>
       <c r="H46" s="3">
-        <v>5374500</v>
+        <v>5662200</v>
       </c>
       <c r="I46" s="3">
-        <v>6104100</v>
+        <v>5215500</v>
       </c>
       <c r="J46" s="3">
+        <v>5923500</v>
+      </c>
+      <c r="K46" s="3">
         <v>4401100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5775100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5855700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6522200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4303800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5185700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5145900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4645100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4409000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4361600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4183300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4717000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4208500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4415400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3356400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3635300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3729800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4348200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>673200</v>
+        <v>647200</v>
       </c>
       <c r="E47" s="3">
-        <v>697100</v>
+        <v>653200</v>
       </c>
       <c r="F47" s="3">
-        <v>711100</v>
+        <v>676500</v>
       </c>
       <c r="G47" s="3">
-        <v>721100</v>
+        <v>690000</v>
       </c>
       <c r="H47" s="3">
-        <v>738900</v>
+        <v>699800</v>
       </c>
       <c r="I47" s="3">
-        <v>759000</v>
+        <v>717100</v>
       </c>
       <c r="J47" s="3">
+        <v>736600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1417500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1296400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1216300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>927900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>959800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>995700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>964300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>985400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>992500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>879300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>916100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>935700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>926500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>616200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>657100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>675300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>654500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>793600</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21786500</v>
+        <v>21379200</v>
       </c>
       <c r="E48" s="3">
-        <v>21748600</v>
+        <v>21142000</v>
       </c>
       <c r="F48" s="3">
-        <v>21846800</v>
+        <v>21105200</v>
       </c>
       <c r="G48" s="3">
-        <v>21529600</v>
+        <v>21200500</v>
       </c>
       <c r="H48" s="3">
-        <v>21319900</v>
+        <v>20892700</v>
       </c>
       <c r="I48" s="3">
-        <v>21177500</v>
+        <v>20689200</v>
       </c>
       <c r="J48" s="3">
+        <v>20551000</v>
+      </c>
+      <c r="K48" s="3">
         <v>21288200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20743000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21062400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21535500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21547000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22698600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>21740600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20997600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18908500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17968100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18362100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18194200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17882600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>17678000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>17552900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>18015000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>17166900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>16807300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20639000</v>
+        <v>20170400</v>
       </c>
       <c r="E49" s="3">
-        <v>20542300</v>
+        <v>20028400</v>
       </c>
       <c r="F49" s="3">
-        <v>20227400</v>
+        <v>19934600</v>
       </c>
       <c r="G49" s="3">
-        <v>18527400</v>
+        <v>19629000</v>
       </c>
       <c r="H49" s="3">
-        <v>18447700</v>
+        <v>17979300</v>
       </c>
       <c r="I49" s="3">
-        <v>18440800</v>
+        <v>17902000</v>
       </c>
       <c r="J49" s="3">
+        <v>17895200</v>
+      </c>
+      <c r="K49" s="3">
         <v>18342500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18003000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18400600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18982500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18726900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20006600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>18957900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>18418700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>18161900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>17450700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>18048100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>18031600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>17627400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>17799300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>17711500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>18239300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>16099000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>15574300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4663400</v>
+        <v>4148500</v>
       </c>
       <c r="E52" s="3">
-        <v>4612300</v>
+        <v>4525400</v>
       </c>
       <c r="F52" s="3">
-        <v>4077700</v>
+        <v>4475900</v>
       </c>
       <c r="G52" s="3">
-        <v>4714500</v>
+        <v>3957000</v>
       </c>
       <c r="H52" s="3">
-        <v>3740300</v>
+        <v>4575000</v>
       </c>
       <c r="I52" s="3">
-        <v>3231200</v>
+        <v>3629700</v>
       </c>
       <c r="J52" s="3">
+        <v>3135600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1490200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1424400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1483900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3464400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1356600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1375400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>941300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1019200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>986400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1236800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1067500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>765600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>883400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>843200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>605800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>803600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>844300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>695200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>52638200</v>
+        <v>51479000</v>
       </c>
       <c r="E54" s="3">
-        <v>52100500</v>
+        <v>51081000</v>
       </c>
       <c r="F54" s="3">
-        <v>51658600</v>
+        <v>50559200</v>
       </c>
       <c r="G54" s="3">
-        <v>51327500</v>
+        <v>50130400</v>
       </c>
       <c r="H54" s="3">
-        <v>49621400</v>
+        <v>49809000</v>
       </c>
       <c r="I54" s="3">
-        <v>49712700</v>
+        <v>48153400</v>
       </c>
       <c r="J54" s="3">
+        <v>48242000</v>
+      </c>
+      <c r="K54" s="3">
         <v>46939500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>47241900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>48019000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>51432600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>46894000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>50262000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>47750100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>46066000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>43458200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>41896600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>42577000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>42644000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>41528400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>41352000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>39883700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>41368400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>38494500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>38218700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3286900</v>
+        <v>3455500</v>
       </c>
       <c r="E57" s="3">
-        <v>2972000</v>
+        <v>3189700</v>
       </c>
       <c r="F57" s="3">
-        <v>3447100</v>
+        <v>2884100</v>
       </c>
       <c r="G57" s="3">
-        <v>3196400</v>
+        <v>3345100</v>
       </c>
       <c r="H57" s="3">
-        <v>3020700</v>
+        <v>3101800</v>
       </c>
       <c r="I57" s="3">
-        <v>2880700</v>
+        <v>2931400</v>
       </c>
       <c r="J57" s="3">
+        <v>2795500</v>
+      </c>
+      <c r="K57" s="3">
         <v>3044700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2733800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2621800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2618100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3082800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3026000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2950000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2779100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2999500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2745400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2712300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2660400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2883800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3326600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3177800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3106700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3323400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3092100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2560300</v>
+        <v>3518500</v>
       </c>
       <c r="E58" s="3">
-        <v>2384700</v>
+        <v>2484600</v>
       </c>
       <c r="F58" s="3">
-        <v>2031100</v>
+        <v>2314200</v>
       </c>
       <c r="G58" s="3">
-        <v>1542900</v>
+        <v>1971000</v>
       </c>
       <c r="H58" s="3">
-        <v>1782700</v>
+        <v>1497200</v>
       </c>
       <c r="I58" s="3">
-        <v>2929400</v>
+        <v>1730000</v>
       </c>
       <c r="J58" s="3">
+        <v>2842800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1870200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2226300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2027800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3304300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3025900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3919700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4501200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4222500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3535300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3544100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4315000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4155400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3853500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4527000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4420600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4844500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3754300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3834200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1696100</v>
+        <v>1595600</v>
       </c>
       <c r="E59" s="3">
-        <v>1580800</v>
+        <v>1645900</v>
       </c>
       <c r="F59" s="3">
-        <v>1573000</v>
+        <v>1534000</v>
       </c>
       <c r="G59" s="3">
-        <v>1453900</v>
+        <v>1526500</v>
       </c>
       <c r="H59" s="3">
-        <v>1659700</v>
+        <v>1410900</v>
       </c>
       <c r="I59" s="3">
-        <v>1561400</v>
+        <v>1610600</v>
       </c>
       <c r="J59" s="3">
+        <v>1515200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1484800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1615300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1734300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1468000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1514100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1657300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1543200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1454200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1402700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1301500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1289500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1228600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1249500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>804500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>743500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>672200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>687600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>689900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7543300</v>
+        <v>8569600</v>
       </c>
       <c r="E60" s="3">
-        <v>6937400</v>
+        <v>7320100</v>
       </c>
       <c r="F60" s="3">
-        <v>7051200</v>
+        <v>6732200</v>
       </c>
       <c r="G60" s="3">
-        <v>6193100</v>
+        <v>6842600</v>
       </c>
       <c r="H60" s="3">
-        <v>6463100</v>
+        <v>6009900</v>
       </c>
       <c r="I60" s="3">
-        <v>7371500</v>
+        <v>6271900</v>
       </c>
       <c r="J60" s="3">
+        <v>7153400</v>
+      </c>
+      <c r="K60" s="3">
         <v>6399700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6575500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6383900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7390500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7622800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8603100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8994400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8455700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7937400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7591000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8316800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8044300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7986900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8658100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8341800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8623400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7765300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7616200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20896700</v>
+        <v>20098300</v>
       </c>
       <c r="E61" s="3">
-        <v>20796100</v>
+        <v>20278500</v>
       </c>
       <c r="F61" s="3">
-        <v>20928400</v>
+        <v>20180900</v>
       </c>
       <c r="G61" s="3">
-        <v>20945400</v>
+        <v>20309300</v>
       </c>
       <c r="H61" s="3">
-        <v>19670300</v>
+        <v>20325800</v>
       </c>
       <c r="I61" s="3">
-        <v>19316700</v>
+        <v>19088400</v>
       </c>
       <c r="J61" s="3">
+        <v>18745200</v>
+      </c>
+      <c r="K61" s="3">
         <v>18497300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19100100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19637300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20029000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17476300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>18608000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17406000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16948400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15039100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14231500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>13826500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14564200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>13555800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>13735100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>12973800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>13641500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>12731100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>12679600</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5810100</v>
+        <v>5555600</v>
       </c>
       <c r="E62" s="3">
-        <v>5963300</v>
+        <v>5638200</v>
       </c>
       <c r="F62" s="3">
-        <v>5928500</v>
+        <v>5786900</v>
       </c>
       <c r="G62" s="3">
-        <v>5998900</v>
+        <v>5753100</v>
       </c>
       <c r="H62" s="3">
-        <v>5870400</v>
+        <v>5821400</v>
       </c>
       <c r="I62" s="3">
-        <v>5718800</v>
+        <v>5696800</v>
       </c>
       <c r="J62" s="3">
+        <v>5549600</v>
+      </c>
+      <c r="K62" s="3">
         <v>5539300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5405600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5410800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5624100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5103700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5422800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5123700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4851400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4735500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4709700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4832900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4756900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4636400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4340200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4371500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4358900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4282100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>5051900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34503800</v>
+        <v>34478700</v>
       </c>
       <c r="E66" s="3">
-        <v>33942900</v>
+        <v>33483100</v>
       </c>
       <c r="F66" s="3">
-        <v>34144800</v>
+        <v>32938700</v>
       </c>
       <c r="G66" s="3">
-        <v>33409000</v>
+        <v>33134700</v>
       </c>
       <c r="H66" s="3">
-        <v>32266900</v>
+        <v>32420600</v>
       </c>
       <c r="I66" s="3">
-        <v>32669300</v>
+        <v>31312400</v>
       </c>
       <c r="J66" s="3">
+        <v>31702800</v>
+      </c>
+      <c r="K66" s="3">
         <v>30699300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31350200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31705100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33310500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30463300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32912500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31785000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30493300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>27960200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26767600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>27216400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>27597300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>26419500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>26975400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>25928300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>26866500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>25019700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>25588200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,67 +5175,70 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3006000</v>
+        <v>2917100</v>
       </c>
       <c r="E70" s="3">
-        <v>3006000</v>
+        <v>2917100</v>
       </c>
       <c r="F70" s="3">
+        <v>2917100</v>
+      </c>
+      <c r="G70" s="3">
+        <v>3005700</v>
+      </c>
+      <c r="H70" s="3">
+        <v>3005700</v>
+      </c>
+      <c r="I70" s="3">
+        <v>3005700</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3005700</v>
+      </c>
+      <c r="K70" s="3">
         <v>3097300</v>
       </c>
-      <c r="G70" s="3">
-        <v>3097300</v>
-      </c>
-      <c r="H70" s="3">
-        <v>3097300</v>
-      </c>
-      <c r="I70" s="3">
-        <v>3097300</v>
-      </c>
-      <c r="J70" s="3">
-        <v>3097300</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3069600</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3142100</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3143300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3121800</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>3319500</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>3175300</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>3082400</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>3047400</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>2909700</v>
-      </c>
-      <c r="T70" s="3">
-        <v>3014200</v>
       </c>
       <c r="U70" s="3">
         <v>3014200</v>
       </c>
       <c r="V70" s="3">
-        <v>2979800</v>
+        <v>3014200</v>
       </c>
       <c r="W70" s="3">
         <v>2979800</v>
@@ -5079,7 +5247,7 @@
         <v>2979800</v>
       </c>
       <c r="Y70" s="3">
-        <v>3076000</v>
+        <v>2979800</v>
       </c>
       <c r="Z70" s="3">
         <v>3076000</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>3076000</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>3076000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2096100</v>
+        <v>-2443300</v>
       </c>
       <c r="E72" s="3">
-        <v>-2120100</v>
+        <v>-2034100</v>
       </c>
       <c r="F72" s="3">
-        <v>-2630800</v>
+        <v>-2057400</v>
       </c>
       <c r="G72" s="3">
-        <v>-2291800</v>
+        <v>-2552900</v>
       </c>
       <c r="H72" s="3">
-        <v>-2631500</v>
+        <v>-2224000</v>
       </c>
       <c r="I72" s="3">
-        <v>-2857500</v>
+        <v>-2553700</v>
       </c>
       <c r="J72" s="3">
+        <v>-2772900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3621900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3899900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4035100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2347300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3611400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3925600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4119700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3860600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3757500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3181400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3621700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3908500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3674900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4370700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4812100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4858300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-4640100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-5443700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15128400</v>
+        <v>14083100</v>
       </c>
       <c r="E76" s="3">
-        <v>15151600</v>
+        <v>14680800</v>
       </c>
       <c r="F76" s="3">
-        <v>14416500</v>
+        <v>14703300</v>
       </c>
       <c r="G76" s="3">
-        <v>14821200</v>
+        <v>13990000</v>
       </c>
       <c r="H76" s="3">
-        <v>14257100</v>
+        <v>14382700</v>
       </c>
       <c r="I76" s="3">
-        <v>13946100</v>
+        <v>13835300</v>
       </c>
       <c r="J76" s="3">
+        <v>13533500</v>
+      </c>
+      <c r="K76" s="3">
         <v>13142900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12822100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13171900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14978800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13309000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14030000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12789800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12490300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12450700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12219300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12346500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12032600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12129100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11396800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10975600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11425900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10398800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>9554500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>536900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>447500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>658500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>469300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>568400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>514300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>482100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>687900</v>
+      </c>
+      <c r="L81" s="3">
+        <v>530500</v>
+      </c>
+      <c r="M81" s="3">
+        <v>186000</v>
+      </c>
+      <c r="N81" s="3">
+        <v>533800</v>
+      </c>
+      <c r="O81" s="3">
+        <v>523900</v>
+      </c>
+      <c r="P81" s="3">
+        <v>718800</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>603500</v>
+      </c>
+      <c r="R81" s="3">
+        <v>569700</v>
+      </c>
+      <c r="S81" s="3">
         <v>461200</v>
       </c>
-      <c r="E81" s="3">
-        <v>678600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>483600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>585700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>530000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>496700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>687900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>530500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>186000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>533800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>523900</v>
-      </c>
-      <c r="O81" s="3">
-        <v>718800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>603500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>569700</v>
-      </c>
-      <c r="R81" s="3">
-        <v>461200</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>591500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1027600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>497600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>488200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>597600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>569300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>493200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>504700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>927700</v>
+        <v>886800</v>
       </c>
       <c r="E83" s="3">
-        <v>890600</v>
+        <v>900300</v>
       </c>
       <c r="F83" s="3">
-        <v>909900</v>
+        <v>864200</v>
       </c>
       <c r="G83" s="3">
-        <v>887500</v>
+        <v>883000</v>
       </c>
       <c r="H83" s="3">
-        <v>892100</v>
+        <v>861200</v>
       </c>
       <c r="I83" s="3">
-        <v>876700</v>
+        <v>865700</v>
       </c>
       <c r="J83" s="3">
+        <v>850700</v>
+      </c>
+      <c r="K83" s="3">
         <v>855000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>849400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>854600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>865100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>852200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>904500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>881000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>849100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>772500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>726000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1505600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>746800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>736800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>724100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>729300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>696800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>679100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2009400</v>
+        <v>1498700</v>
       </c>
       <c r="E89" s="3">
-        <v>1327800</v>
+        <v>1950000</v>
       </c>
       <c r="F89" s="3">
-        <v>1348600</v>
+        <v>1288500</v>
       </c>
       <c r="G89" s="3">
-        <v>1372600</v>
+        <v>1308700</v>
       </c>
       <c r="H89" s="3">
-        <v>1933600</v>
+        <v>1332000</v>
       </c>
       <c r="I89" s="3">
-        <v>1541300</v>
+        <v>1876400</v>
       </c>
       <c r="J89" s="3">
+        <v>1495700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1265100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1617600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2010500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1139100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1630300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1872000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1659800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1167000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1360800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1484600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2674700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1126200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1233900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1661800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1603000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1008700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1167700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1492700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-948600</v>
+        <v>-988900</v>
       </c>
       <c r="E91" s="3">
-        <v>-736600</v>
+        <v>-920600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1128900</v>
+        <v>-714800</v>
       </c>
       <c r="G91" s="3">
-        <v>-896800</v>
+        <v>-1095500</v>
       </c>
       <c r="H91" s="3">
-        <v>-933900</v>
+        <v>-870200</v>
       </c>
       <c r="I91" s="3">
-        <v>-783000</v>
+        <v>-906300</v>
       </c>
       <c r="J91" s="3">
+        <v>-759900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1156000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-790400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-701600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-614700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-899000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-839800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-770800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-654300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-741300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-734000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1495800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-700800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-818600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-774000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-775500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-654500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-762900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-749800</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-927000</v>
+        <v>-1000100</v>
       </c>
       <c r="E94" s="3">
-        <v>-810900</v>
+        <v>-899500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2434200</v>
+        <v>-786900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1229500</v>
+        <v>-2362200</v>
       </c>
       <c r="H94" s="3">
-        <v>-955600</v>
+        <v>-1193100</v>
       </c>
       <c r="I94" s="3">
-        <v>-799300</v>
+        <v>-927300</v>
       </c>
       <c r="J94" s="3">
+        <v>-775600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-491300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-897700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-740800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-620200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-906000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-837300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-785100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-672800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-717700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-864000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1696800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-871000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-848400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-801500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-538800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1917500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-838100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1139300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-649200</v>
+        <v>-630000</v>
       </c>
       <c r="E96" s="3">
-        <v>-615100</v>
+        <v>-630000</v>
       </c>
       <c r="F96" s="3">
-        <v>-615100</v>
+        <v>-596900</v>
       </c>
       <c r="G96" s="3">
-        <v>-613600</v>
+        <v>-596900</v>
       </c>
       <c r="H96" s="3">
-        <v>-612000</v>
+        <v>-595400</v>
       </c>
       <c r="I96" s="3">
+        <v>-593900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-565400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-582600</v>
       </c>
-      <c r="J96" s="3">
-        <v>-582600</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-577300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-590900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-562100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-558200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-591100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-564600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-521900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-515300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-492700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-996700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-486300</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-480800</v>
       </c>
       <c r="W96" s="3">
         <v>-480800</v>
       </c>
       <c r="X96" s="3">
+        <v>-480800</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-465900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-456300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-455600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-456300</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-765200</v>
+        <v>-395700</v>
       </c>
       <c r="E100" s="3">
-        <v>-596600</v>
+        <v>-742600</v>
       </c>
       <c r="F100" s="3">
-        <v>-431000</v>
+        <v>-578900</v>
       </c>
       <c r="G100" s="3">
-        <v>178000</v>
+        <v>-491100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1639600</v>
+        <v>172700</v>
       </c>
       <c r="I100" s="3">
-        <v>1101800</v>
+        <v>-1518200</v>
       </c>
       <c r="J100" s="3">
+        <v>1069200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1896500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-618700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2158000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1470400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1364400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1140800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-536900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-307200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-948300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-303800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1154800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>176900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1393200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>198000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1029200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>645300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-744400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>244300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>317200</v>
+        <v>102900</v>
       </c>
       <c r="E102" s="3">
-        <v>-79700</v>
+        <v>307900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1516600</v>
+        <v>-77300</v>
       </c>
       <c r="G102" s="3">
-        <v>321100</v>
+        <v>-1538500</v>
       </c>
       <c r="H102" s="3">
-        <v>-661600</v>
+        <v>307900</v>
       </c>
       <c r="I102" s="3">
-        <v>1843800</v>
+        <v>-571400</v>
       </c>
       <c r="J102" s="3">
+        <v>1789300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1122700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>101200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-888300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1989300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-640100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-106100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>337800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>187100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-305200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>316800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-176900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>432100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1007700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1058300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>35000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-263500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-414800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>597700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>BCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4523200</v>
+        <v>4656800</v>
       </c>
       <c r="E8" s="3">
-        <v>4400800</v>
+        <v>4356700</v>
       </c>
       <c r="F8" s="3">
-        <v>4392500</v>
+        <v>4238800</v>
       </c>
       <c r="G8" s="3">
-        <v>4662100</v>
+        <v>4230800</v>
       </c>
       <c r="H8" s="3">
-        <v>4382000</v>
+        <v>4490500</v>
       </c>
       <c r="I8" s="3">
-        <v>4278400</v>
+        <v>4220700</v>
       </c>
       <c r="J8" s="3">
+        <v>4120900</v>
+      </c>
+      <c r="K8" s="3">
         <v>4284400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4721400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4436500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4201500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4427700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4892400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4924600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4670100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4379500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4730200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4270800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8563700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4208100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4492100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4239800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4233100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4099300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4380400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4153800</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1398100</v>
+        <v>1704600</v>
       </c>
       <c r="E9" s="3">
-        <v>1272000</v>
+        <v>1346600</v>
       </c>
       <c r="F9" s="3">
-        <v>1297500</v>
+        <v>1225100</v>
       </c>
       <c r="G9" s="3">
-        <v>1623400</v>
+        <v>1249700</v>
       </c>
       <c r="H9" s="3">
-        <v>1293000</v>
+        <v>1563600</v>
       </c>
       <c r="I9" s="3">
-        <v>1249400</v>
+        <v>1245400</v>
       </c>
       <c r="J9" s="3">
+        <v>1203400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1308000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1590100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1370000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1154400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1298500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1664600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1473200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1352900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1337900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1632500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1297100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2582100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1287300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1511500</v>
-      </c>
-      <c r="X9" s="3">
-        <v>1248800</v>
       </c>
       <c r="Y9" s="3">
         <v>1248800</v>
       </c>
       <c r="Z9" s="3">
+        <v>1248800</v>
+      </c>
+      <c r="AA9" s="3">
         <v>1249900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1514900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1236900</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3125100</v>
+        <v>2952200</v>
       </c>
       <c r="E10" s="3">
-        <v>3128800</v>
+        <v>3010000</v>
       </c>
       <c r="F10" s="3">
-        <v>3095000</v>
+        <v>3013700</v>
       </c>
       <c r="G10" s="3">
-        <v>3038700</v>
+        <v>2981100</v>
       </c>
       <c r="H10" s="3">
-        <v>3089000</v>
+        <v>2926900</v>
       </c>
       <c r="I10" s="3">
-        <v>3029000</v>
+        <v>2975300</v>
       </c>
       <c r="J10" s="3">
+        <v>2917500</v>
+      </c>
+      <c r="K10" s="3">
         <v>2976400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3131400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3066600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3047100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3129200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3227800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3451300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3317200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3041600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3097600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2973600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5981700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2920800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2980600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2991000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2984300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2849400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2865500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2917000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,168 +1222,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>32300</v>
+        <v>122200</v>
       </c>
       <c r="E14" s="3">
-        <v>109600</v>
+        <v>31100</v>
       </c>
       <c r="F14" s="3">
-        <v>11300</v>
+        <v>105600</v>
       </c>
       <c r="G14" s="3">
-        <v>69800</v>
+        <v>10800</v>
       </c>
       <c r="H14" s="3">
-        <v>18800</v>
+        <v>67300</v>
       </c>
       <c r="I14" s="3">
-        <v>128400</v>
+        <v>18100</v>
       </c>
       <c r="J14" s="3">
+        <v>123700</v>
+      </c>
+      <c r="K14" s="3">
         <v>108900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>49500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>39100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>369600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>30600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>96700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>19900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>46000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>21600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>192600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>40000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>34600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>96000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>29000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>29800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>64500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>15400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>886800</v>
+        <v>862100</v>
       </c>
       <c r="E15" s="3">
-        <v>900300</v>
+        <v>854100</v>
       </c>
       <c r="F15" s="3">
-        <v>864200</v>
+        <v>867100</v>
       </c>
       <c r="G15" s="3">
-        <v>883000</v>
+        <v>832400</v>
       </c>
       <c r="H15" s="3">
-        <v>861200</v>
+        <v>850500</v>
       </c>
       <c r="I15" s="3">
-        <v>865700</v>
+        <v>829500</v>
       </c>
       <c r="J15" s="3">
+        <v>833900</v>
+      </c>
+      <c r="K15" s="3">
         <v>850700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>855000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>849400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>865600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>854100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>840500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>892900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>871500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>839100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>772500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>726000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>1505600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>746800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>737500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>719700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>727100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>698300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>679100</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3499000</v>
+        <v>3878600</v>
       </c>
       <c r="E17" s="3">
-        <v>3466000</v>
+        <v>3370200</v>
       </c>
       <c r="F17" s="3">
-        <v>3341300</v>
+        <v>3338400</v>
       </c>
       <c r="G17" s="3">
-        <v>3790300</v>
+        <v>3218300</v>
       </c>
       <c r="H17" s="3">
-        <v>3360100</v>
+        <v>3650800</v>
       </c>
       <c r="I17" s="3">
-        <v>3413400</v>
+        <v>3236400</v>
       </c>
       <c r="J17" s="3">
+        <v>3287800</v>
+      </c>
+      <c r="K17" s="3">
         <v>3420200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3775100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3443700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3607400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3415000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3892900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3708300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3548000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3406500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3873200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3252700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6577900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3261100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3592300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3198600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3217200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3198100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3445500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3121300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1024200</v>
+        <v>778200</v>
       </c>
       <c r="E18" s="3">
-        <v>934800</v>
+        <v>986500</v>
       </c>
       <c r="F18" s="3">
-        <v>1051200</v>
+        <v>900400</v>
       </c>
       <c r="G18" s="3">
-        <v>871700</v>
+        <v>1012500</v>
       </c>
       <c r="H18" s="3">
-        <v>1021900</v>
+        <v>839700</v>
       </c>
       <c r="I18" s="3">
-        <v>865000</v>
+        <v>984300</v>
       </c>
       <c r="J18" s="3">
+        <v>833100</v>
+      </c>
+      <c r="K18" s="3">
         <v>864200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>946300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>992800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>594000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1012700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>999500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1216200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1122100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>973100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>857000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1018100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1985900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>947000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>899700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1041100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1015800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>901100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>934900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1032500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1615,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-87900</v>
+        <v>23100</v>
       </c>
       <c r="E20" s="3">
-        <v>-67600</v>
+        <v>-84600</v>
       </c>
       <c r="F20" s="3">
-        <v>96900</v>
+        <v>-65100</v>
       </c>
       <c r="G20" s="3">
-        <v>15800</v>
+        <v>93300</v>
       </c>
       <c r="H20" s="3">
-        <v>22500</v>
+        <v>15200</v>
       </c>
       <c r="I20" s="3">
-        <v>64600</v>
+        <v>21700</v>
       </c>
       <c r="J20" s="3">
+        <v>62200</v>
+      </c>
+      <c r="K20" s="3">
         <v>42000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-28600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-71400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-33000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-26500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>38100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-40400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>68500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-40000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-121200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-55700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-43200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-31500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1823100</v>
+        <v>1663400</v>
       </c>
       <c r="E21" s="3">
-        <v>1767500</v>
+        <v>1756000</v>
       </c>
       <c r="F21" s="3">
-        <v>2012300</v>
+        <v>1702500</v>
       </c>
       <c r="G21" s="3">
-        <v>1770500</v>
+        <v>1938200</v>
       </c>
       <c r="H21" s="3">
-        <v>1905700</v>
+        <v>1705400</v>
       </c>
       <c r="I21" s="3">
-        <v>1795300</v>
+        <v>1835500</v>
       </c>
       <c r="J21" s="3">
+        <v>1729200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1757000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1772700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1826900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1377200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1844900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1825200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2158800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1962700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1890700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1644000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1704100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3370200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1638100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1638800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1717600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1733300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1597200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1582600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1673200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>223800</v>
+        <v>230700</v>
       </c>
       <c r="E22" s="3">
-        <v>202000</v>
+        <v>215500</v>
       </c>
       <c r="F22" s="3">
-        <v>195200</v>
+        <v>194500</v>
       </c>
       <c r="G22" s="3">
-        <v>206500</v>
+        <v>188000</v>
       </c>
       <c r="H22" s="3">
-        <v>204200</v>
+        <v>198900</v>
       </c>
       <c r="I22" s="3">
-        <v>201200</v>
+        <v>196700</v>
       </c>
       <c r="J22" s="3">
+        <v>193800</v>
+      </c>
+      <c r="K22" s="3">
         <v>200500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>212000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>213900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>219700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>217500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>222200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>232100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>221300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>216300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>197100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>185300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>365900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>180700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>179400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>180100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>177100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>179800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>172900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>712600</v>
+        <v>570600</v>
       </c>
       <c r="E23" s="3">
-        <v>665300</v>
+        <v>686300</v>
       </c>
       <c r="F23" s="3">
-        <v>952800</v>
+        <v>640800</v>
       </c>
       <c r="G23" s="3">
-        <v>681000</v>
+        <v>917800</v>
       </c>
       <c r="H23" s="3">
-        <v>840200</v>
+        <v>656000</v>
       </c>
       <c r="I23" s="3">
-        <v>728300</v>
+        <v>809300</v>
       </c>
       <c r="J23" s="3">
+        <v>701500</v>
+      </c>
+      <c r="K23" s="3">
         <v>705800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>705700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>763600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>302900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>762300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>750800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1022200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>860400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>825200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>674300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>792800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1498800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>710600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>721900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>817900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>827600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>720600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>730600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>832800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>133700</v>
+        <v>160600</v>
       </c>
       <c r="E24" s="3">
-        <v>174200</v>
+        <v>128700</v>
       </c>
       <c r="F24" s="3">
-        <v>251500</v>
+        <v>167800</v>
       </c>
       <c r="G24" s="3">
-        <v>187000</v>
+        <v>242300</v>
       </c>
       <c r="H24" s="3">
-        <v>229800</v>
+        <v>180100</v>
       </c>
       <c r="I24" s="3">
-        <v>177200</v>
+        <v>221300</v>
       </c>
       <c r="J24" s="3">
+        <v>170700</v>
+      </c>
+      <c r="K24" s="3">
         <v>190000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>147800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>75300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>190800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>191000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>264500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>218100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>223200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>185700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>162800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>396700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>176900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>202400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>185300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>221800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>192100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>193600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>578900</v>
+        <v>410100</v>
       </c>
       <c r="E26" s="3">
-        <v>491100</v>
+        <v>557600</v>
       </c>
       <c r="F26" s="3">
-        <v>701300</v>
+        <v>473000</v>
       </c>
       <c r="G26" s="3">
-        <v>494100</v>
+        <v>675500</v>
       </c>
       <c r="H26" s="3">
-        <v>610400</v>
+        <v>475900</v>
       </c>
       <c r="I26" s="3">
-        <v>551100</v>
+        <v>588000</v>
       </c>
       <c r="J26" s="3">
+        <v>530800</v>
+      </c>
+      <c r="K26" s="3">
         <v>515800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>557900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>562700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>227600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>571500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>559800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>757800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>642300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>602000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>488600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>630000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1102100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>533700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>519500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>632600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>605800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>528500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>537000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>614600</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>536900</v>
+        <v>381900</v>
       </c>
       <c r="E27" s="3">
-        <v>447500</v>
+        <v>517100</v>
       </c>
       <c r="F27" s="3">
-        <v>658500</v>
+        <v>431000</v>
       </c>
       <c r="G27" s="3">
-        <v>469300</v>
+        <v>634300</v>
       </c>
       <c r="H27" s="3">
-        <v>568400</v>
+        <v>452000</v>
       </c>
       <c r="I27" s="3">
-        <v>514300</v>
+        <v>547500</v>
       </c>
       <c r="J27" s="3">
+        <v>495400</v>
+      </c>
+      <c r="K27" s="3">
         <v>482100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>524600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>525900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>182800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>529900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>520000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>712200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>597900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>562700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>461200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>591500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1027600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>497600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>488200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>597600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>569300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>493200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>504700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2317,8 +2377,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2330,35 +2390,35 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>163300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>4600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>3100</v>
-      </c>
-      <c r="N29" s="3">
-        <v>3900</v>
       </c>
       <c r="O29" s="3">
         <v>3900</v>
       </c>
       <c r="P29" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Q29" s="3">
         <v>6600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>5600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>6900</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>87900</v>
+        <v>-23100</v>
       </c>
       <c r="E32" s="3">
-        <v>67600</v>
+        <v>84600</v>
       </c>
       <c r="F32" s="3">
-        <v>-96900</v>
+        <v>65100</v>
       </c>
       <c r="G32" s="3">
-        <v>-15800</v>
+        <v>-93300</v>
       </c>
       <c r="H32" s="3">
-        <v>-22500</v>
+        <v>-15200</v>
       </c>
       <c r="I32" s="3">
-        <v>-64600</v>
+        <v>-21700</v>
       </c>
       <c r="J32" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-42000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>28600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>71400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>33000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>26500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-38100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>40400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-68500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>40000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>121200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>55700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>43200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>11200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>31500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>536900</v>
+        <v>381900</v>
       </c>
       <c r="E33" s="3">
-        <v>447500</v>
+        <v>517100</v>
       </c>
       <c r="F33" s="3">
-        <v>658500</v>
+        <v>431000</v>
       </c>
       <c r="G33" s="3">
-        <v>469300</v>
+        <v>634300</v>
       </c>
       <c r="H33" s="3">
-        <v>568400</v>
+        <v>452000</v>
       </c>
       <c r="I33" s="3">
-        <v>514300</v>
+        <v>547500</v>
       </c>
       <c r="J33" s="3">
+        <v>495400</v>
+      </c>
+      <c r="K33" s="3">
         <v>482100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>687900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>530500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>186000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>533800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>523900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>718800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>603500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>569700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>461200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>591500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1027600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>497600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>488200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>597600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>569300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>493200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>504700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>536900</v>
+        <v>381900</v>
       </c>
       <c r="E35" s="3">
-        <v>447500</v>
+        <v>517100</v>
       </c>
       <c r="F35" s="3">
-        <v>658500</v>
+        <v>431000</v>
       </c>
       <c r="G35" s="3">
-        <v>469300</v>
+        <v>634300</v>
       </c>
       <c r="H35" s="3">
-        <v>568400</v>
+        <v>452000</v>
       </c>
       <c r="I35" s="3">
-        <v>514300</v>
+        <v>547500</v>
       </c>
       <c r="J35" s="3">
+        <v>495400</v>
+      </c>
+      <c r="K35" s="3">
         <v>482100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>687900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>530500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>186000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>533800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>523900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>718800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>603500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>569700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>461200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>591500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1027600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>497600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>488200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>597600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>569300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>493200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>504700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>550400</v>
+        <v>107800</v>
       </c>
       <c r="E41" s="3">
-        <v>447500</v>
+        <v>530100</v>
       </c>
       <c r="F41" s="3">
-        <v>78100</v>
+        <v>431000</v>
       </c>
       <c r="G41" s="3">
-        <v>155400</v>
+        <v>75200</v>
       </c>
       <c r="H41" s="3">
-        <v>1627100</v>
+        <v>149700</v>
       </c>
       <c r="I41" s="3">
-        <v>1315500</v>
+        <v>1567200</v>
       </c>
       <c r="J41" s="3">
+        <v>1267100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1957500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>173300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1287200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1214000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2103100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>113100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>867600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>514200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>323500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>600200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>293600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>902600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>465100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1472800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>414500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>391800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>655300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1070100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,568 +3257,592 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3155100</v>
+        <v>3308000</v>
       </c>
       <c r="E43" s="3">
-        <v>2971200</v>
+        <v>3039000</v>
       </c>
       <c r="F43" s="3">
-        <v>2954600</v>
+        <v>2861800</v>
       </c>
       <c r="G43" s="3">
-        <v>3276000</v>
+        <v>2845900</v>
       </c>
       <c r="H43" s="3">
-        <v>2934400</v>
+        <v>3155400</v>
       </c>
       <c r="I43" s="3">
-        <v>2786400</v>
+        <v>2826300</v>
       </c>
       <c r="J43" s="3">
+        <v>2683900</v>
+      </c>
+      <c r="K43" s="3">
         <v>2860800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3261400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2870300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2929400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3161400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3234900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3245700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>797000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>752900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>751200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>658400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2851600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2841000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2947800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2131400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2117300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2164900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2288600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2473700</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>470800</v>
+        <v>474400</v>
       </c>
       <c r="E44" s="3">
-        <v>424200</v>
+        <v>453500</v>
       </c>
       <c r="F44" s="3">
-        <v>425700</v>
+        <v>408600</v>
       </c>
       <c r="G44" s="3">
-        <v>361900</v>
+        <v>410100</v>
       </c>
       <c r="H44" s="3">
-        <v>313900</v>
+        <v>348600</v>
       </c>
       <c r="I44" s="3">
-        <v>313900</v>
+        <v>302300</v>
       </c>
       <c r="J44" s="3">
+        <v>302300</v>
+      </c>
+      <c r="K44" s="3">
         <v>344600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>339700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>325800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>349200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>382300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>332900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>400400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>386200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>363400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>328800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>356800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>328200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>333500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>282800</v>
-      </c>
-      <c r="X44" s="3">
-        <v>325200</v>
       </c>
       <c r="Y44" s="3">
         <v>325200</v>
       </c>
       <c r="Z44" s="3">
+        <v>325200</v>
+      </c>
+      <c r="AA44" s="3">
         <v>328800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>309600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>957300</v>
+        <v>801300</v>
       </c>
       <c r="E45" s="3">
-        <v>889000</v>
+        <v>922100</v>
       </c>
       <c r="F45" s="3">
-        <v>908500</v>
+        <v>856300</v>
       </c>
       <c r="G45" s="3">
-        <v>860500</v>
+        <v>875100</v>
       </c>
       <c r="H45" s="3">
-        <v>786900</v>
+        <v>828800</v>
       </c>
       <c r="I45" s="3">
-        <v>799700</v>
+        <v>757900</v>
       </c>
       <c r="J45" s="3">
+        <v>770200</v>
+      </c>
+      <c r="K45" s="3">
         <v>760600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>626700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1291800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1363100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>875300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>623000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>738700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>733500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>753700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>717700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>603900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>709900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>639900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>512800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>486000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>499400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>749800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>476300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5133600</v>
+        <v>4691500</v>
       </c>
       <c r="E46" s="3">
-        <v>4731900</v>
+        <v>4944700</v>
       </c>
       <c r="F46" s="3">
-        <v>4367000</v>
+        <v>4557700</v>
       </c>
       <c r="G46" s="3">
-        <v>4653800</v>
+        <v>4206200</v>
       </c>
       <c r="H46" s="3">
-        <v>5662200</v>
+        <v>4482500</v>
       </c>
       <c r="I46" s="3">
-        <v>5215500</v>
+        <v>5453800</v>
       </c>
       <c r="J46" s="3">
+        <v>5023500</v>
+      </c>
+      <c r="K46" s="3">
         <v>5923500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4401100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5775100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5855700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6522200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4303800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5185700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5145900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4645100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4409000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4361600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4183300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4717000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4208500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4415400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3356400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3635300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3729800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4348200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>647200</v>
+        <v>1400200</v>
       </c>
       <c r="E47" s="3">
-        <v>653200</v>
+        <v>623400</v>
       </c>
       <c r="F47" s="3">
-        <v>676500</v>
+        <v>629200</v>
       </c>
       <c r="G47" s="3">
-        <v>690000</v>
+        <v>651600</v>
       </c>
       <c r="H47" s="3">
-        <v>699800</v>
+        <v>664600</v>
       </c>
       <c r="I47" s="3">
-        <v>717100</v>
+        <v>674000</v>
       </c>
       <c r="J47" s="3">
+        <v>690700</v>
+      </c>
+      <c r="K47" s="3">
         <v>736600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1417500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1296400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1216300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>927900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>959800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>995700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>964300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>985400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>992500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>879300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>916100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>935700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>926500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>616200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>657100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>675300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>654500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>793600</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21379200</v>
+        <v>21158500</v>
       </c>
       <c r="E48" s="3">
-        <v>21142000</v>
+        <v>20592200</v>
       </c>
       <c r="F48" s="3">
-        <v>21105200</v>
+        <v>20363700</v>
       </c>
       <c r="G48" s="3">
-        <v>21200500</v>
+        <v>20328300</v>
       </c>
       <c r="H48" s="3">
-        <v>20892700</v>
+        <v>20420100</v>
       </c>
       <c r="I48" s="3">
-        <v>20689200</v>
+        <v>20123600</v>
       </c>
       <c r="J48" s="3">
+        <v>19927600</v>
+      </c>
+      <c r="K48" s="3">
         <v>20551000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21288200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20743000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21062400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21535500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21547000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22698600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>21740600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20997600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18908500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17968100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18362100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18194200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>17882600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>17678000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>17552900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>18015000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>17166900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>16807300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20170400</v>
+        <v>19591300</v>
       </c>
       <c r="E49" s="3">
-        <v>20028400</v>
+        <v>19427900</v>
       </c>
       <c r="F49" s="3">
-        <v>19934600</v>
+        <v>19291200</v>
       </c>
       <c r="G49" s="3">
-        <v>19629000</v>
+        <v>19200800</v>
       </c>
       <c r="H49" s="3">
-        <v>17979300</v>
+        <v>18906400</v>
       </c>
       <c r="I49" s="3">
-        <v>17902000</v>
+        <v>17317500</v>
       </c>
       <c r="J49" s="3">
+        <v>17243000</v>
+      </c>
+      <c r="K49" s="3">
         <v>17895200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18342500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18003000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18400600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18982500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18726900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20006600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>18957900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>18418700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>18161900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>17450700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>18048100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>18031600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>17627400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>17799300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>17711500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>18239300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>16099000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>15574300</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4148500</v>
+        <v>3298600</v>
       </c>
       <c r="E52" s="3">
-        <v>4525400</v>
+        <v>3995800</v>
       </c>
       <c r="F52" s="3">
-        <v>4475900</v>
+        <v>4358800</v>
       </c>
       <c r="G52" s="3">
-        <v>3957000</v>
+        <v>4311100</v>
       </c>
       <c r="H52" s="3">
-        <v>4575000</v>
+        <v>3811400</v>
       </c>
       <c r="I52" s="3">
-        <v>3629700</v>
+        <v>4406600</v>
       </c>
       <c r="J52" s="3">
+        <v>3496000</v>
+      </c>
+      <c r="K52" s="3">
         <v>3135600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1490200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1424400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1483900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3464400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1356600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1375400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>941300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1019200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>986400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1236800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1067500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>765600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>883400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>843200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>605800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>803600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>844300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>695200</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>51479000</v>
+        <v>50140100</v>
       </c>
       <c r="E54" s="3">
-        <v>51081000</v>
+        <v>49584000</v>
       </c>
       <c r="F54" s="3">
-        <v>50559200</v>
+        <v>49200700</v>
       </c>
       <c r="G54" s="3">
-        <v>50130400</v>
+        <v>48698000</v>
       </c>
       <c r="H54" s="3">
-        <v>49809000</v>
+        <v>48285100</v>
       </c>
       <c r="I54" s="3">
-        <v>48153400</v>
+        <v>47975500</v>
       </c>
       <c r="J54" s="3">
+        <v>46380800</v>
+      </c>
+      <c r="K54" s="3">
         <v>48242000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46939500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>47241900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>48019000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>51432600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>46894000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>50262000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>47750100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>46066000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>43458200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41896600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>42577000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>42644000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>41528400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>41352000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>39883700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>41368400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>38494500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>38218700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3455500</v>
+        <v>3775900</v>
       </c>
       <c r="E57" s="3">
-        <v>3189700</v>
+        <v>3328300</v>
       </c>
       <c r="F57" s="3">
-        <v>2884100</v>
+        <v>3072200</v>
       </c>
       <c r="G57" s="3">
-        <v>3345100</v>
+        <v>2777900</v>
       </c>
       <c r="H57" s="3">
-        <v>3101800</v>
+        <v>3221900</v>
       </c>
       <c r="I57" s="3">
-        <v>2931400</v>
+        <v>2987600</v>
       </c>
       <c r="J57" s="3">
+        <v>2823500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2795500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3044700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2733800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2621800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2618100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3082800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3026000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2950000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2779100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2999500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2745400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2712300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2660400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2883800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3326600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3177800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3106700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3323400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3092100</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3518500</v>
+        <v>2992000</v>
       </c>
       <c r="E58" s="3">
-        <v>2484600</v>
+        <v>3389000</v>
       </c>
       <c r="F58" s="3">
-        <v>2314200</v>
+        <v>2393100</v>
       </c>
       <c r="G58" s="3">
-        <v>1971000</v>
+        <v>2229000</v>
       </c>
       <c r="H58" s="3">
-        <v>1497200</v>
+        <v>1898500</v>
       </c>
       <c r="I58" s="3">
-        <v>1730000</v>
+        <v>1442100</v>
       </c>
       <c r="J58" s="3">
+        <v>1666300</v>
+      </c>
+      <c r="K58" s="3">
         <v>2842800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1870200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2226300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2027800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3304300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3025900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3919700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4501200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4222500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3535300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3544100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4315000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4155400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3853500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4527000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4420600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4844500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3754300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3834200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1595600</v>
+        <v>1526700</v>
       </c>
       <c r="E59" s="3">
-        <v>1645900</v>
+        <v>1536800</v>
       </c>
       <c r="F59" s="3">
-        <v>1534000</v>
+        <v>1585300</v>
       </c>
       <c r="G59" s="3">
-        <v>1526500</v>
+        <v>1477500</v>
       </c>
       <c r="H59" s="3">
-        <v>1410900</v>
+        <v>1470300</v>
       </c>
       <c r="I59" s="3">
-        <v>1610600</v>
+        <v>1358900</v>
       </c>
       <c r="J59" s="3">
+        <v>1551300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1515200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1484800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1615300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1734300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1468000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1514100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1657300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1543200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1454200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1402700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1301500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1289500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1228600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1249500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>804500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>743500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>672200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>687600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>689900</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8569600</v>
+        <v>8294600</v>
       </c>
       <c r="E60" s="3">
-        <v>7320100</v>
+        <v>8254100</v>
       </c>
       <c r="F60" s="3">
-        <v>6732200</v>
+        <v>7050700</v>
       </c>
       <c r="G60" s="3">
-        <v>6842600</v>
+        <v>6484400</v>
       </c>
       <c r="H60" s="3">
-        <v>6009900</v>
+        <v>6590700</v>
       </c>
       <c r="I60" s="3">
-        <v>6271900</v>
+        <v>5788700</v>
       </c>
       <c r="J60" s="3">
+        <v>6041100</v>
+      </c>
+      <c r="K60" s="3">
         <v>7153400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6399700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6575500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6383900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7390500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7622800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8603100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8994400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8455700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7937400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7591000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8316800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8044300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7986900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8658100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8341800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8623400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7765300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>7616200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20098300</v>
+        <v>20093200</v>
       </c>
       <c r="E61" s="3">
-        <v>20278500</v>
+        <v>19358400</v>
       </c>
       <c r="F61" s="3">
-        <v>20180900</v>
+        <v>19532000</v>
       </c>
       <c r="G61" s="3">
-        <v>20309300</v>
+        <v>19438000</v>
       </c>
       <c r="H61" s="3">
-        <v>20325800</v>
+        <v>19561700</v>
       </c>
       <c r="I61" s="3">
-        <v>19088400</v>
+        <v>19577600</v>
       </c>
       <c r="J61" s="3">
+        <v>18385700</v>
+      </c>
+      <c r="K61" s="3">
         <v>18745200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18497300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19100100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19637300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20029000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17476300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18608000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17406000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16948400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15039100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14231500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>13826500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14564200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>13555800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>13735100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>12973800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>13641500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>12731100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>12679600</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5555600</v>
+        <v>5469000</v>
       </c>
       <c r="E62" s="3">
-        <v>5638200</v>
+        <v>5351100</v>
       </c>
       <c r="F62" s="3">
-        <v>5786900</v>
+        <v>5430700</v>
       </c>
       <c r="G62" s="3">
-        <v>5753100</v>
+        <v>5573900</v>
       </c>
       <c r="H62" s="3">
-        <v>5821400</v>
+        <v>5541300</v>
       </c>
       <c r="I62" s="3">
-        <v>5696800</v>
+        <v>5607100</v>
       </c>
       <c r="J62" s="3">
+        <v>5487100</v>
+      </c>
+      <c r="K62" s="3">
         <v>5549600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5539300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5405600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5410800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5624100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5103700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5422800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5123700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4851400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4735500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4709700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4832900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4756900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4636400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4340200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4371500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4358900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4282100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>5051900</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34478700</v>
+        <v>34100500</v>
       </c>
       <c r="E66" s="3">
-        <v>33483100</v>
+        <v>33209500</v>
       </c>
       <c r="F66" s="3">
-        <v>32938700</v>
+        <v>32250500</v>
       </c>
       <c r="G66" s="3">
-        <v>33134700</v>
+        <v>31726200</v>
       </c>
       <c r="H66" s="3">
-        <v>32420600</v>
+        <v>31915000</v>
       </c>
       <c r="I66" s="3">
-        <v>31312400</v>
+        <v>31227200</v>
       </c>
       <c r="J66" s="3">
+        <v>30159700</v>
+      </c>
+      <c r="K66" s="3">
         <v>31702800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30699300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31350200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31705100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33310500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30463300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32912500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31785000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30493300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>27960200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26767600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>27216400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>27597300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>26419500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>26975400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>25928300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>26866500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>25019700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>25588200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,70 +5342,73 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2917100</v>
+        <v>2798900</v>
       </c>
       <c r="E70" s="3">
-        <v>2917100</v>
+        <v>2809700</v>
       </c>
       <c r="F70" s="3">
-        <v>2917100</v>
+        <v>2809700</v>
       </c>
       <c r="G70" s="3">
+        <v>2809700</v>
+      </c>
+      <c r="H70" s="3">
+        <v>2895000</v>
+      </c>
+      <c r="I70" s="3">
+        <v>2895000</v>
+      </c>
+      <c r="J70" s="3">
+        <v>2895000</v>
+      </c>
+      <c r="K70" s="3">
         <v>3005700</v>
       </c>
-      <c r="H70" s="3">
-        <v>3005700</v>
-      </c>
-      <c r="I70" s="3">
-        <v>3005700</v>
-      </c>
-      <c r="J70" s="3">
-        <v>3005700</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3097300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3069600</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3142100</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3143300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>3121800</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>3319500</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>3175300</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>3082400</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>3047400</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>2909700</v>
-      </c>
-      <c r="U70" s="3">
-        <v>3014200</v>
       </c>
       <c r="V70" s="3">
         <v>3014200</v>
       </c>
       <c r="W70" s="3">
-        <v>2979800</v>
+        <v>3014200</v>
       </c>
       <c r="X70" s="3">
         <v>2979800</v>
@@ -5250,7 +5417,7 @@
         <v>2979800</v>
       </c>
       <c r="Z70" s="3">
-        <v>3076000</v>
+        <v>2979800</v>
       </c>
       <c r="AA70" s="3">
         <v>3076000</v>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>3076000</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>3076000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2443300</v>
+        <v>-2639000</v>
       </c>
       <c r="E72" s="3">
-        <v>-2034100</v>
+        <v>-2353400</v>
       </c>
       <c r="F72" s="3">
-        <v>-2057400</v>
+        <v>-1959200</v>
       </c>
       <c r="G72" s="3">
-        <v>-2552900</v>
+        <v>-1981600</v>
       </c>
       <c r="H72" s="3">
-        <v>-2224000</v>
+        <v>-2458900</v>
       </c>
       <c r="I72" s="3">
-        <v>-2553700</v>
+        <v>-2142200</v>
       </c>
       <c r="J72" s="3">
+        <v>-2459700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2772900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3621900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3899900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4035100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2347300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3611400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3925600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4119700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3860600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3757500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3181400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3621700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3908500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3674900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4370700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4812100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-4858300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-4640100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-5443700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14083100</v>
+        <v>13240700</v>
       </c>
       <c r="E76" s="3">
-        <v>14680800</v>
+        <v>13564700</v>
       </c>
       <c r="F76" s="3">
-        <v>14703300</v>
+        <v>14140400</v>
       </c>
       <c r="G76" s="3">
-        <v>13990000</v>
+        <v>14162100</v>
       </c>
       <c r="H76" s="3">
-        <v>14382700</v>
+        <v>13475000</v>
       </c>
       <c r="I76" s="3">
-        <v>13835300</v>
+        <v>13853300</v>
       </c>
       <c r="J76" s="3">
+        <v>13326100</v>
+      </c>
+      <c r="K76" s="3">
         <v>13533500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13142900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12822100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13171900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14978800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13309000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14030000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12789800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12490300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12450700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12219300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12346500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12032600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12129100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11396800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10975600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11425900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10398800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>9554500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>536900</v>
+        <v>381900</v>
       </c>
       <c r="E81" s="3">
-        <v>447500</v>
+        <v>517100</v>
       </c>
       <c r="F81" s="3">
-        <v>658500</v>
+        <v>431000</v>
       </c>
       <c r="G81" s="3">
-        <v>469300</v>
+        <v>634300</v>
       </c>
       <c r="H81" s="3">
-        <v>568400</v>
+        <v>452000</v>
       </c>
       <c r="I81" s="3">
-        <v>514300</v>
+        <v>547500</v>
       </c>
       <c r="J81" s="3">
+        <v>495400</v>
+      </c>
+      <c r="K81" s="3">
         <v>482100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>687900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>530500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>186000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>533800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>523900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>718800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>603500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>569700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>461200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>591500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1027600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>497600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>488200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>597600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>569300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>493200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>504700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>886800</v>
+        <v>862100</v>
       </c>
       <c r="E83" s="3">
-        <v>900300</v>
+        <v>854100</v>
       </c>
       <c r="F83" s="3">
-        <v>864200</v>
+        <v>867100</v>
       </c>
       <c r="G83" s="3">
-        <v>883000</v>
+        <v>832400</v>
       </c>
       <c r="H83" s="3">
-        <v>861200</v>
+        <v>850500</v>
       </c>
       <c r="I83" s="3">
-        <v>865700</v>
+        <v>829500</v>
       </c>
       <c r="J83" s="3">
+        <v>833900</v>
+      </c>
+      <c r="K83" s="3">
         <v>850700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>855000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>849400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>854600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>865100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>852200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>904500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>881000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>849100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>772500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>726000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1505600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>746800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>736800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>724100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>729300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>696800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>679100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1498700</v>
+        <v>1450800</v>
       </c>
       <c r="E89" s="3">
-        <v>1950000</v>
+        <v>1443500</v>
       </c>
       <c r="F89" s="3">
-        <v>1288500</v>
+        <v>1878200</v>
       </c>
       <c r="G89" s="3">
-        <v>1308700</v>
+        <v>1241000</v>
       </c>
       <c r="H89" s="3">
-        <v>1332000</v>
+        <v>1260600</v>
       </c>
       <c r="I89" s="3">
-        <v>1876400</v>
+        <v>1283000</v>
       </c>
       <c r="J89" s="3">
+        <v>1807300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1495700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1265100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1617600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2010500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1139100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1630300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1872000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1659800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1167000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1360800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1484600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2674700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1126200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1233900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1661800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1603000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1008700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1167700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1492700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-988900</v>
+        <v>-1184600</v>
       </c>
       <c r="E91" s="3">
-        <v>-920600</v>
+        <v>-952500</v>
       </c>
       <c r="F91" s="3">
-        <v>-714800</v>
+        <v>-886700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1095500</v>
+        <v>-688500</v>
       </c>
       <c r="H91" s="3">
-        <v>-870200</v>
+        <v>-1055200</v>
       </c>
       <c r="I91" s="3">
-        <v>-906300</v>
+        <v>-838200</v>
       </c>
       <c r="J91" s="3">
+        <v>-872900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-759900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1156000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-790400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-701600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-614700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-899000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-839800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-770800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-654300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-741300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-734000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1495800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-700800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-818600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-774000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-775500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-654500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-762900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-749800</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1000100</v>
+        <v>-1402300</v>
       </c>
       <c r="E94" s="3">
-        <v>-899500</v>
+        <v>-963300</v>
       </c>
       <c r="F94" s="3">
-        <v>-786900</v>
+        <v>-866400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2362200</v>
+        <v>-757900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1193100</v>
+        <v>-2275300</v>
       </c>
       <c r="I94" s="3">
-        <v>-927300</v>
+        <v>-1149200</v>
       </c>
       <c r="J94" s="3">
+        <v>-893200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-775600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-491300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-897700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-740800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-620200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-906000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-837300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-785100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-672800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-717700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-864000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1696800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-871000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-848400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-801500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-538800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1917500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-838100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1139300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7185,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-630000</v>
+        <v>-606800</v>
       </c>
       <c r="E96" s="3">
-        <v>-630000</v>
+        <v>-606800</v>
       </c>
       <c r="F96" s="3">
-        <v>-596900</v>
+        <v>-606800</v>
       </c>
       <c r="G96" s="3">
-        <v>-596900</v>
+        <v>-575000</v>
       </c>
       <c r="H96" s="3">
-        <v>-595400</v>
+        <v>-575000</v>
       </c>
       <c r="I96" s="3">
-        <v>-593900</v>
+        <v>-573500</v>
       </c>
       <c r="J96" s="3">
+        <v>-572100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-565400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-582600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-577300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-590900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-562100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-558200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-591100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-564600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-521900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-515300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-492700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-996700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-486300</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-480800</v>
       </c>
       <c r="X96" s="3">
         <v>-480800</v>
       </c>
       <c r="Y96" s="3">
+        <v>-480800</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-465900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-456300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-455600</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-456300</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7515,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-395700</v>
+        <v>-507000</v>
       </c>
       <c r="E100" s="3">
-        <v>-742600</v>
+        <v>-381100</v>
       </c>
       <c r="F100" s="3">
-        <v>-578900</v>
+        <v>-715300</v>
       </c>
       <c r="G100" s="3">
-        <v>-491100</v>
+        <v>-557600</v>
       </c>
       <c r="H100" s="3">
-        <v>172700</v>
+        <v>-473000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1518200</v>
+        <v>166300</v>
       </c>
       <c r="J100" s="3">
+        <v>-1462400</v>
+      </c>
+      <c r="K100" s="3">
         <v>1069200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1896500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-618700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2158000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1470400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1364400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1140800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-536900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-307200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-948300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-303800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1154800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>176900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1393200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>198000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1029200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>645300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-744400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>244300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7681,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>102900</v>
+        <v>-458500</v>
       </c>
       <c r="E102" s="3">
-        <v>307900</v>
+        <v>99100</v>
       </c>
       <c r="F102" s="3">
-        <v>-77300</v>
+        <v>296500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1538500</v>
+        <v>-74500</v>
       </c>
       <c r="H102" s="3">
-        <v>307900</v>
+        <v>-1481900</v>
       </c>
       <c r="I102" s="3">
-        <v>-571400</v>
+        <v>296500</v>
       </c>
       <c r="J102" s="3">
+        <v>-550400</v>
+      </c>
+      <c r="K102" s="3">
         <v>1789300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1122700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>101200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-888300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1989300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-640100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-106100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>337800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>187100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-305200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>316800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-176900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>432100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1007700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1058300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>35000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-263500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-414800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>597700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>BCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4656800</v>
+        <v>4484400</v>
       </c>
       <c r="E8" s="3">
-        <v>4356700</v>
+        <v>4769600</v>
       </c>
       <c r="F8" s="3">
-        <v>4238800</v>
+        <v>4462200</v>
       </c>
       <c r="G8" s="3">
-        <v>4230800</v>
+        <v>4341500</v>
       </c>
       <c r="H8" s="3">
-        <v>4490500</v>
+        <v>4333300</v>
       </c>
       <c r="I8" s="3">
-        <v>4220700</v>
+        <v>4599300</v>
       </c>
       <c r="J8" s="3">
+        <v>4323000</v>
+      </c>
+      <c r="K8" s="3">
         <v>4120900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4284400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4721400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4436500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4201500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4427700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4892400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4924600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4670100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4379500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4730200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4270800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8563700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4208100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4492100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4239800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4233100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4099300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4380400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4153800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1704600</v>
+        <v>1447400</v>
       </c>
       <c r="E9" s="3">
-        <v>1346600</v>
+        <v>1745900</v>
       </c>
       <c r="F9" s="3">
-        <v>1225100</v>
+        <v>1379300</v>
       </c>
       <c r="G9" s="3">
-        <v>1249700</v>
+        <v>1254800</v>
       </c>
       <c r="H9" s="3">
-        <v>1563600</v>
+        <v>1280000</v>
       </c>
       <c r="I9" s="3">
-        <v>1245400</v>
+        <v>1601500</v>
       </c>
       <c r="J9" s="3">
+        <v>1275600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1203400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1308000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1590100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1370000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1154400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1298500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1664600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1473200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1352900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1337900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1632500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1297100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2582100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1287300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1511500</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>1248800</v>
       </c>
       <c r="Z9" s="3">
         <v>1248800</v>
       </c>
       <c r="AA9" s="3">
+        <v>1248800</v>
+      </c>
+      <c r="AB9" s="3">
         <v>1249900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1514900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1236900</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2952200</v>
+        <v>3037000</v>
       </c>
       <c r="E10" s="3">
-        <v>3010000</v>
+        <v>3023700</v>
       </c>
       <c r="F10" s="3">
-        <v>3013700</v>
+        <v>3083000</v>
       </c>
       <c r="G10" s="3">
-        <v>2981100</v>
+        <v>3086700</v>
       </c>
       <c r="H10" s="3">
-        <v>2926900</v>
+        <v>3053300</v>
       </c>
       <c r="I10" s="3">
-        <v>2975300</v>
+        <v>2997800</v>
       </c>
       <c r="J10" s="3">
+        <v>3047400</v>
+      </c>
+      <c r="K10" s="3">
         <v>2917500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2976400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3131400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3066600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3047100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3129200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3227800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3451300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3317200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3041600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3097600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2973600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5981700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2920800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2980600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2991000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2984300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2849400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2865500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2917000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,174 +1242,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>122200</v>
+        <v>61500</v>
       </c>
       <c r="E14" s="3">
-        <v>31100</v>
+        <v>125200</v>
       </c>
       <c r="F14" s="3">
-        <v>105600</v>
+        <v>31900</v>
       </c>
       <c r="G14" s="3">
-        <v>10800</v>
+        <v>108100</v>
       </c>
       <c r="H14" s="3">
-        <v>67300</v>
+        <v>11100</v>
       </c>
       <c r="I14" s="3">
-        <v>18100</v>
+        <v>68900</v>
       </c>
       <c r="J14" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K14" s="3">
         <v>123700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>108900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>49500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>39100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>369600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>30600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>96700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>19900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>46000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>21600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>192600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>40000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>34600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>96000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>29000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>29800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>64500</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>15400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>862100</v>
+        <v>889600</v>
       </c>
       <c r="E15" s="3">
+        <v>883000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>874800</v>
+      </c>
+      <c r="G15" s="3">
+        <v>888100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>852600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>871100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>849600</v>
+      </c>
+      <c r="K15" s="3">
+        <v>833900</v>
+      </c>
+      <c r="L15" s="3">
+        <v>850700</v>
+      </c>
+      <c r="M15" s="3">
+        <v>855000</v>
+      </c>
+      <c r="N15" s="3">
+        <v>849400</v>
+      </c>
+      <c r="O15" s="3">
+        <v>865600</v>
+      </c>
+      <c r="P15" s="3">
         <v>854100</v>
       </c>
-      <c r="F15" s="3">
-        <v>867100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>832400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>850500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>829500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>833900</v>
-      </c>
-      <c r="K15" s="3">
-        <v>850700</v>
-      </c>
-      <c r="L15" s="3">
-        <v>855000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>849400</v>
-      </c>
-      <c r="N15" s="3">
-        <v>865600</v>
-      </c>
-      <c r="O15" s="3">
-        <v>854100</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>840500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>892900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>871500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>839100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>772500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>726000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>1505600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>746800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>737500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>719700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>727100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>698300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>679100</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3878600</v>
+        <v>3555600</v>
       </c>
       <c r="E17" s="3">
-        <v>3370200</v>
+        <v>3972600</v>
       </c>
       <c r="F17" s="3">
-        <v>3338400</v>
+        <v>3451800</v>
       </c>
       <c r="G17" s="3">
-        <v>3218300</v>
+        <v>3419300</v>
       </c>
       <c r="H17" s="3">
-        <v>3650800</v>
+        <v>3296300</v>
       </c>
       <c r="I17" s="3">
-        <v>3236400</v>
+        <v>3739300</v>
       </c>
       <c r="J17" s="3">
+        <v>3314800</v>
+      </c>
+      <c r="K17" s="3">
         <v>3287800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3420200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3775100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3443700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3607400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3415000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3892900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3708300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3548000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3406500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3873200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3252700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6577900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3261100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3592300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3198600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3217200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3198100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3445500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3121300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>778200</v>
+        <v>928900</v>
       </c>
       <c r="E18" s="3">
-        <v>986500</v>
+        <v>797000</v>
       </c>
       <c r="F18" s="3">
-        <v>900400</v>
+        <v>1010400</v>
       </c>
       <c r="G18" s="3">
-        <v>1012500</v>
+        <v>922200</v>
       </c>
       <c r="H18" s="3">
-        <v>839700</v>
+        <v>1037000</v>
       </c>
       <c r="I18" s="3">
-        <v>984300</v>
+        <v>860000</v>
       </c>
       <c r="J18" s="3">
+        <v>1008100</v>
+      </c>
+      <c r="K18" s="3">
         <v>833100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>864200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>946300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>992800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>594000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1012700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>999500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1216200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1122100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>973100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>857000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1018100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1985900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>947000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>899700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1041100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1015800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>901100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>934900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1032500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,423 +1649,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23100</v>
+        <v>109600</v>
       </c>
       <c r="E20" s="3">
-        <v>-84600</v>
+        <v>23700</v>
       </c>
       <c r="F20" s="3">
-        <v>-65100</v>
+        <v>-86700</v>
       </c>
       <c r="G20" s="3">
-        <v>93300</v>
+        <v>-66700</v>
       </c>
       <c r="H20" s="3">
-        <v>15200</v>
+        <v>95600</v>
       </c>
       <c r="I20" s="3">
-        <v>21700</v>
+        <v>15600</v>
       </c>
       <c r="J20" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K20" s="3">
         <v>62200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>42000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-28600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-71400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-33000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>38100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-40400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>68500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-40000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-121200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-55700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-43200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-11200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-31500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1663400</v>
+        <v>1928100</v>
       </c>
       <c r="E21" s="3">
-        <v>1756000</v>
+        <v>1703700</v>
       </c>
       <c r="F21" s="3">
-        <v>1702500</v>
+        <v>1798500</v>
       </c>
       <c r="G21" s="3">
-        <v>1938200</v>
+        <v>1743700</v>
       </c>
       <c r="H21" s="3">
-        <v>1705400</v>
+        <v>1985200</v>
       </c>
       <c r="I21" s="3">
-        <v>1835500</v>
+        <v>1746700</v>
       </c>
       <c r="J21" s="3">
+        <v>1880000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1729200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1757000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1772700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1826900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1377200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1844900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1825200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2158800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1962700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1890700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1644000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1704100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3370200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1638100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1638800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1717600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1733300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1597200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1582600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1673200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>230700</v>
+        <v>254800</v>
       </c>
       <c r="E22" s="3">
-        <v>215500</v>
+        <v>236300</v>
       </c>
       <c r="F22" s="3">
-        <v>194500</v>
+        <v>220700</v>
       </c>
       <c r="G22" s="3">
-        <v>188000</v>
+        <v>199300</v>
       </c>
       <c r="H22" s="3">
-        <v>198900</v>
+        <v>192600</v>
       </c>
       <c r="I22" s="3">
-        <v>196700</v>
+        <v>203700</v>
       </c>
       <c r="J22" s="3">
+        <v>201500</v>
+      </c>
+      <c r="K22" s="3">
         <v>193800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>212000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>213900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>219700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>217500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>222200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>232100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>221300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>216300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>197100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>185300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>365900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>180700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>179400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>180100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>177100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>179800</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>172900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>570600</v>
+        <v>783700</v>
       </c>
       <c r="E23" s="3">
-        <v>686300</v>
+        <v>584400</v>
       </c>
       <c r="F23" s="3">
-        <v>640800</v>
+        <v>703000</v>
       </c>
       <c r="G23" s="3">
-        <v>917800</v>
+        <v>656300</v>
       </c>
       <c r="H23" s="3">
-        <v>656000</v>
+        <v>940000</v>
       </c>
       <c r="I23" s="3">
-        <v>809300</v>
+        <v>671900</v>
       </c>
       <c r="J23" s="3">
+        <v>828900</v>
+      </c>
+      <c r="K23" s="3">
         <v>701500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>705800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>705700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>763600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>302900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>762300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>750800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1022200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>860400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>825200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>674300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>792800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1498800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>710600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>721900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>817900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>827600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>720600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>730600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>832800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>160600</v>
+        <v>200000</v>
       </c>
       <c r="E24" s="3">
-        <v>128700</v>
+        <v>164400</v>
       </c>
       <c r="F24" s="3">
-        <v>167800</v>
+        <v>131900</v>
       </c>
       <c r="G24" s="3">
-        <v>242300</v>
+        <v>171900</v>
       </c>
       <c r="H24" s="3">
-        <v>180100</v>
+        <v>248100</v>
       </c>
       <c r="I24" s="3">
-        <v>221300</v>
+        <v>184400</v>
       </c>
       <c r="J24" s="3">
+        <v>226700</v>
+      </c>
+      <c r="K24" s="3">
         <v>170700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>190000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>147800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>75300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>190800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>191000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>264500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>218100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>223200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>185700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>162800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>396700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>176900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>202400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>185300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>221800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>192100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>193600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>410100</v>
+        <v>583700</v>
       </c>
       <c r="E26" s="3">
-        <v>557600</v>
+        <v>420000</v>
       </c>
       <c r="F26" s="3">
-        <v>473000</v>
+        <v>571100</v>
       </c>
       <c r="G26" s="3">
-        <v>675500</v>
+        <v>484400</v>
       </c>
       <c r="H26" s="3">
-        <v>475900</v>
+        <v>691900</v>
       </c>
       <c r="I26" s="3">
-        <v>588000</v>
+        <v>487400</v>
       </c>
       <c r="J26" s="3">
+        <v>602200</v>
+      </c>
+      <c r="K26" s="3">
         <v>530800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>515800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>557900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>562700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>227600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>571500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>559800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>757800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>642300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>602000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>488600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>630000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1102100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>533700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>519500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>632600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>605800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>528500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>537000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>614600</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>381900</v>
+        <v>537000</v>
       </c>
       <c r="E27" s="3">
-        <v>517100</v>
+        <v>391100</v>
       </c>
       <c r="F27" s="3">
-        <v>431000</v>
+        <v>529600</v>
       </c>
       <c r="G27" s="3">
-        <v>634300</v>
+        <v>441500</v>
       </c>
       <c r="H27" s="3">
-        <v>452000</v>
+        <v>649600</v>
       </c>
       <c r="I27" s="3">
-        <v>547500</v>
+        <v>463000</v>
       </c>
       <c r="J27" s="3">
+        <v>560700</v>
+      </c>
+      <c r="K27" s="3">
         <v>495400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>482100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>524600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>525900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>182800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>529900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>520000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>712200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>597900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>562700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>461200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>591500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1027600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>497600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>488200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>597600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>569300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>493200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>504700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2380,8 +2441,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2393,35 +2454,35 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>163300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>4600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>3100</v>
-      </c>
-      <c r="O29" s="3">
-        <v>3900</v>
       </c>
       <c r="P29" s="3">
         <v>3900</v>
       </c>
       <c r="Q29" s="3">
+        <v>3900</v>
+      </c>
+      <c r="R29" s="3">
         <v>6600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>5600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>6900</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23100</v>
+        <v>-109600</v>
       </c>
       <c r="E32" s="3">
-        <v>84600</v>
+        <v>-23700</v>
       </c>
       <c r="F32" s="3">
-        <v>65100</v>
+        <v>86700</v>
       </c>
       <c r="G32" s="3">
-        <v>-93300</v>
+        <v>66700</v>
       </c>
       <c r="H32" s="3">
-        <v>-15200</v>
+        <v>-95600</v>
       </c>
       <c r="I32" s="3">
-        <v>-21700</v>
+        <v>-15600</v>
       </c>
       <c r="J32" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-62200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-42000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>28600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>71400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>33000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>26500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-38100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>40400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-68500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>40000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>121200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>55700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>43200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>11200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>31500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>381900</v>
+        <v>537000</v>
       </c>
       <c r="E33" s="3">
-        <v>517100</v>
+        <v>391100</v>
       </c>
       <c r="F33" s="3">
-        <v>431000</v>
+        <v>529600</v>
       </c>
       <c r="G33" s="3">
-        <v>634300</v>
+        <v>441500</v>
       </c>
       <c r="H33" s="3">
-        <v>452000</v>
+        <v>649600</v>
       </c>
       <c r="I33" s="3">
-        <v>547500</v>
+        <v>463000</v>
       </c>
       <c r="J33" s="3">
+        <v>560700</v>
+      </c>
+      <c r="K33" s="3">
         <v>495400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>482100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>687900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>530500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>186000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>533800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>523900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>718800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>603500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>569700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>461200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>591500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1027600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>497600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>488200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>597600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>569300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>493200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>504700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>381900</v>
+        <v>537000</v>
       </c>
       <c r="E35" s="3">
-        <v>517100</v>
+        <v>391100</v>
       </c>
       <c r="F35" s="3">
-        <v>431000</v>
+        <v>529600</v>
       </c>
       <c r="G35" s="3">
-        <v>634300</v>
+        <v>441500</v>
       </c>
       <c r="H35" s="3">
-        <v>452000</v>
+        <v>649600</v>
       </c>
       <c r="I35" s="3">
-        <v>547500</v>
+        <v>463000</v>
       </c>
       <c r="J35" s="3">
+        <v>560700</v>
+      </c>
+      <c r="K35" s="3">
         <v>495400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>482100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>687900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>530500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>186000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>533800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>523900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>718800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>603500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>569700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>461200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>591500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1027600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>497600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>488200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>597600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>569300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>493200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>504700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>107800</v>
+        <v>548900</v>
       </c>
       <c r="E41" s="3">
-        <v>530100</v>
+        <v>110400</v>
       </c>
       <c r="F41" s="3">
-        <v>431000</v>
+        <v>543000</v>
       </c>
       <c r="G41" s="3">
-        <v>75200</v>
+        <v>441500</v>
       </c>
       <c r="H41" s="3">
-        <v>149700</v>
+        <v>77000</v>
       </c>
       <c r="I41" s="3">
-        <v>1567200</v>
+        <v>153300</v>
       </c>
       <c r="J41" s="3">
+        <v>1605200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1267100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1957500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>173300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1287200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1214000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2103100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>113100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>867600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>514200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>323500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>600200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>293600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>902600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>465100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1472800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>414500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>391800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>655300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1070100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,589 +3350,613 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3308000</v>
+        <v>3145900</v>
       </c>
       <c r="E43" s="3">
-        <v>3039000</v>
+        <v>3388100</v>
       </c>
       <c r="F43" s="3">
-        <v>2861800</v>
+        <v>3112600</v>
       </c>
       <c r="G43" s="3">
-        <v>2845900</v>
+        <v>2931100</v>
       </c>
       <c r="H43" s="3">
-        <v>3155400</v>
+        <v>2914800</v>
       </c>
       <c r="I43" s="3">
-        <v>2826300</v>
+        <v>3231800</v>
       </c>
       <c r="J43" s="3">
+        <v>2894800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2683900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2860800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3261400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2870300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2929400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3161400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3234900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3245700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>797000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>752900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>751200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>658400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2851600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2841000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2947800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2131400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2117300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2164900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2288600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2473700</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>474400</v>
+        <v>498500</v>
       </c>
       <c r="E44" s="3">
-        <v>453500</v>
+        <v>485900</v>
       </c>
       <c r="F44" s="3">
-        <v>408600</v>
+        <v>464400</v>
       </c>
       <c r="G44" s="3">
-        <v>410100</v>
+        <v>418500</v>
       </c>
       <c r="H44" s="3">
-        <v>348600</v>
+        <v>420000</v>
       </c>
       <c r="I44" s="3">
+        <v>357000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>309600</v>
+      </c>
+      <c r="K44" s="3">
         <v>302300</v>
       </c>
-      <c r="J44" s="3">
-        <v>302300</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>344600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>339700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>325800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>349200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>382300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>332900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>400400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>386200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>363400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>328800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>356800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>328200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>333500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>282800</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>325200</v>
       </c>
       <c r="Z44" s="3">
         <v>325200</v>
       </c>
       <c r="AA44" s="3">
+        <v>325200</v>
+      </c>
+      <c r="AB44" s="3">
         <v>328800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>309600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>801300</v>
+        <v>1115600</v>
       </c>
       <c r="E45" s="3">
-        <v>922100</v>
+        <v>820700</v>
       </c>
       <c r="F45" s="3">
-        <v>856300</v>
+        <v>944400</v>
       </c>
       <c r="G45" s="3">
-        <v>875100</v>
+        <v>877000</v>
       </c>
       <c r="H45" s="3">
-        <v>828800</v>
+        <v>896300</v>
       </c>
       <c r="I45" s="3">
-        <v>757900</v>
+        <v>848900</v>
       </c>
       <c r="J45" s="3">
+        <v>776300</v>
+      </c>
+      <c r="K45" s="3">
         <v>770200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>760600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>626700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1291800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1363100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>875300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>623000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>738700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>733500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>753700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>717700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>603900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>709900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>639900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>512800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>486000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>499400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>749800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>476300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4691500</v>
+        <v>5308900</v>
       </c>
       <c r="E46" s="3">
-        <v>4944700</v>
+        <v>4805200</v>
       </c>
       <c r="F46" s="3">
-        <v>4557700</v>
+        <v>5064400</v>
       </c>
       <c r="G46" s="3">
-        <v>4206200</v>
+        <v>4668100</v>
       </c>
       <c r="H46" s="3">
-        <v>4482500</v>
+        <v>4308100</v>
       </c>
       <c r="I46" s="3">
-        <v>5453800</v>
+        <v>4591100</v>
       </c>
       <c r="J46" s="3">
+        <v>5585900</v>
+      </c>
+      <c r="K46" s="3">
         <v>5023500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5923500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4401100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5775100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5855700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6522200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4303800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5185700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5145900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4645100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4409000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4361600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4183300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4717000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4208500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4415400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3356400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3635300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3729800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4348200</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1400200</v>
+        <v>684400</v>
       </c>
       <c r="E47" s="3">
-        <v>623400</v>
+        <v>1434100</v>
       </c>
       <c r="F47" s="3">
-        <v>629200</v>
+        <v>638500</v>
       </c>
       <c r="G47" s="3">
-        <v>651600</v>
+        <v>644400</v>
       </c>
       <c r="H47" s="3">
-        <v>664600</v>
+        <v>667400</v>
       </c>
       <c r="I47" s="3">
-        <v>674000</v>
+        <v>680700</v>
       </c>
       <c r="J47" s="3">
+        <v>690400</v>
+      </c>
+      <c r="K47" s="3">
         <v>690700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>736600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1417500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1296400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1216300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>927900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>959800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>995700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>964300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>985400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>992500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>879300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>916100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>935700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>926500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>616200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>657100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>675300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>654500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>793600</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21158500</v>
+        <v>21654100</v>
       </c>
       <c r="E48" s="3">
-        <v>20592200</v>
+        <v>21671100</v>
       </c>
       <c r="F48" s="3">
-        <v>20363700</v>
+        <v>21091100</v>
       </c>
       <c r="G48" s="3">
-        <v>20328300</v>
+        <v>20857000</v>
       </c>
       <c r="H48" s="3">
-        <v>20420100</v>
+        <v>20820700</v>
       </c>
       <c r="I48" s="3">
-        <v>20123600</v>
+        <v>20914800</v>
       </c>
       <c r="J48" s="3">
+        <v>20611100</v>
+      </c>
+      <c r="K48" s="3">
         <v>19927600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20551000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21288200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20743000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21062400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21535500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>21547000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22698600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>21740600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>20997600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18908500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17968100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18362100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>18194200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>17882600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>17678000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>17552900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>18015000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>17166900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>16807300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19591300</v>
+        <v>20124400</v>
       </c>
       <c r="E49" s="3">
-        <v>19427900</v>
+        <v>20065900</v>
       </c>
       <c r="F49" s="3">
-        <v>19291200</v>
+        <v>19898500</v>
       </c>
       <c r="G49" s="3">
-        <v>19200800</v>
+        <v>19758500</v>
       </c>
       <c r="H49" s="3">
-        <v>18906400</v>
+        <v>19665900</v>
       </c>
       <c r="I49" s="3">
-        <v>17317500</v>
+        <v>19364400</v>
       </c>
       <c r="J49" s="3">
+        <v>17737000</v>
+      </c>
+      <c r="K49" s="3">
         <v>17243000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17895200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18342500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18003000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18400600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18982500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>18726900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20006600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>18957900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>18418700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>18161900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>17450700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>18048100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>18031600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>17627400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>17799300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>17711500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>18239300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>16099000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>15574300</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3298600</v>
+        <v>4061500</v>
       </c>
       <c r="E52" s="3">
-        <v>3995800</v>
+        <v>3378500</v>
       </c>
       <c r="F52" s="3">
-        <v>4358800</v>
+        <v>4092600</v>
       </c>
       <c r="G52" s="3">
-        <v>4311100</v>
+        <v>4464400</v>
       </c>
       <c r="H52" s="3">
-        <v>3811400</v>
+        <v>4415600</v>
       </c>
       <c r="I52" s="3">
-        <v>4406600</v>
+        <v>3903700</v>
       </c>
       <c r="J52" s="3">
+        <v>4513300</v>
+      </c>
+      <c r="K52" s="3">
         <v>3496000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3135600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1490200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1424400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1483900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3464400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1356600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1375400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>941300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1019200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>986400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1236800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1067500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>765600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>883400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>843200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>605800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>803600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>844300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>695200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>50140100</v>
+        <v>51833300</v>
       </c>
       <c r="E54" s="3">
-        <v>49584000</v>
+        <v>51354800</v>
       </c>
       <c r="F54" s="3">
-        <v>49200700</v>
+        <v>50785100</v>
       </c>
       <c r="G54" s="3">
-        <v>48698000</v>
+        <v>50392500</v>
       </c>
       <c r="H54" s="3">
-        <v>48285100</v>
+        <v>49877700</v>
       </c>
       <c r="I54" s="3">
-        <v>47975500</v>
+        <v>49454800</v>
       </c>
       <c r="J54" s="3">
+        <v>49137700</v>
+      </c>
+      <c r="K54" s="3">
         <v>46380800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>48242000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46939500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>47241900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>48019000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>51432600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46894000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>50262000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>47750100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>46066000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>43458200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>41896600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>42577000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>42644000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>41528400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>41352000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>39883700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>41368400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>38494500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>38218700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4448,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3775900</v>
+        <v>3022200</v>
       </c>
       <c r="E57" s="3">
-        <v>3328300</v>
+        <v>3867400</v>
       </c>
       <c r="F57" s="3">
-        <v>3072200</v>
+        <v>3408900</v>
       </c>
       <c r="G57" s="3">
-        <v>2777900</v>
+        <v>3146700</v>
       </c>
       <c r="H57" s="3">
-        <v>3221900</v>
+        <v>2845200</v>
       </c>
       <c r="I57" s="3">
-        <v>2987600</v>
+        <v>3300000</v>
       </c>
       <c r="J57" s="3">
+        <v>3060000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2823500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2795500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3044700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2733800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2621800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2618100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3082800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3026000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2950000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2779100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2999500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2745400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2712300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2660400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2883800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3326600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3177800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3106700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3323400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3092100</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2992000</v>
+        <v>4701500</v>
       </c>
       <c r="E58" s="3">
-        <v>3389000</v>
+        <v>3064400</v>
       </c>
       <c r="F58" s="3">
-        <v>2393100</v>
+        <v>3471100</v>
       </c>
       <c r="G58" s="3">
-        <v>2229000</v>
+        <v>2451100</v>
       </c>
       <c r="H58" s="3">
-        <v>1898500</v>
+        <v>2283000</v>
       </c>
       <c r="I58" s="3">
-        <v>1442100</v>
+        <v>1944400</v>
       </c>
       <c r="J58" s="3">
+        <v>1477000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1666300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2842800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1870200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2226300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2027800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3304300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3025900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3919700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4501200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4222500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3535300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3544100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4315000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4155400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3853500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4527000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4420600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4844500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3754300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3834200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1526700</v>
+        <v>1653300</v>
       </c>
       <c r="E59" s="3">
-        <v>1536800</v>
+        <v>1563700</v>
       </c>
       <c r="F59" s="3">
-        <v>1585300</v>
+        <v>1574100</v>
       </c>
       <c r="G59" s="3">
-        <v>1477500</v>
+        <v>1623700</v>
       </c>
       <c r="H59" s="3">
-        <v>1470300</v>
+        <v>1513300</v>
       </c>
       <c r="I59" s="3">
-        <v>1358900</v>
+        <v>1505900</v>
       </c>
       <c r="J59" s="3">
+        <v>1391900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1551300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1515200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1484800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1615300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1734300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1468000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1514100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1657300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1543200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1454200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1402700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1301500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1289500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1228600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1249500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>804500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>743500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>672200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>687600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>689900</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8294600</v>
+        <v>9377000</v>
       </c>
       <c r="E60" s="3">
-        <v>8254100</v>
+        <v>8495500</v>
       </c>
       <c r="F60" s="3">
-        <v>7050700</v>
+        <v>8454100</v>
       </c>
       <c r="G60" s="3">
-        <v>6484400</v>
+        <v>7221500</v>
       </c>
       <c r="H60" s="3">
-        <v>6590700</v>
+        <v>6641500</v>
       </c>
       <c r="I60" s="3">
-        <v>5788700</v>
+        <v>6750400</v>
       </c>
       <c r="J60" s="3">
+        <v>5928900</v>
+      </c>
+      <c r="K60" s="3">
         <v>6041100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7153400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6399700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6575500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6383900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7390500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7622800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8603100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8994400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8455700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7937400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7591000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8316800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8044300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7986900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8658100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8341800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>8623400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>7765300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>7616200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20093200</v>
+        <v>20337800</v>
       </c>
       <c r="E61" s="3">
-        <v>19358400</v>
+        <v>20580000</v>
       </c>
       <c r="F61" s="3">
-        <v>19532000</v>
+        <v>19827400</v>
       </c>
       <c r="G61" s="3">
-        <v>19438000</v>
+        <v>20005200</v>
       </c>
       <c r="H61" s="3">
-        <v>19561700</v>
+        <v>19908900</v>
       </c>
       <c r="I61" s="3">
-        <v>19577600</v>
+        <v>20035500</v>
       </c>
       <c r="J61" s="3">
+        <v>20051800</v>
+      </c>
+      <c r="K61" s="3">
         <v>18385700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18745200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18497300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19100100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19637300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20029000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17476300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18608000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17406000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16948400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15039100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14231500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>13826500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>14564200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>13555800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>13735100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>12973800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>13641500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>12731100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>12679600</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5469000</v>
+        <v>5624400</v>
       </c>
       <c r="E62" s="3">
-        <v>5351100</v>
+        <v>5601500</v>
       </c>
       <c r="F62" s="3">
-        <v>5430700</v>
+        <v>5480700</v>
       </c>
       <c r="G62" s="3">
-        <v>5573900</v>
+        <v>5562200</v>
       </c>
       <c r="H62" s="3">
-        <v>5541300</v>
+        <v>5708900</v>
       </c>
       <c r="I62" s="3">
-        <v>5607100</v>
+        <v>5675500</v>
       </c>
       <c r="J62" s="3">
+        <v>5743000</v>
+      </c>
+      <c r="K62" s="3">
         <v>5487100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5549600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5539300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5405600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5410800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5624100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5103700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5422800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5123700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4851400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4735500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4709700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4832900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4756900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4636400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4340200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4371500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4358900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>4282100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>5051900</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34100500</v>
+        <v>35585900</v>
       </c>
       <c r="E66" s="3">
-        <v>33209500</v>
+        <v>34926600</v>
       </c>
       <c r="F66" s="3">
-        <v>32250500</v>
+        <v>34014000</v>
       </c>
       <c r="G66" s="3">
-        <v>31726200</v>
+        <v>33031800</v>
       </c>
       <c r="H66" s="3">
-        <v>31915000</v>
+        <v>32494800</v>
       </c>
       <c r="I66" s="3">
-        <v>31227200</v>
+        <v>32688100</v>
       </c>
       <c r="J66" s="3">
+        <v>31983700</v>
+      </c>
+      <c r="K66" s="3">
         <v>30159700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31702800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30699300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31350200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31705100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33310500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30463300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>32912500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>31785000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>30493300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>27960200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>26767600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>27216400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>27597300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>26419500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>26975400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>25928300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>26866500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>25019700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>25588200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,73 +5510,76 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2798900</v>
+        <v>2834800</v>
       </c>
       <c r="E70" s="3">
-        <v>2809700</v>
+        <v>2866700</v>
       </c>
       <c r="F70" s="3">
-        <v>2809700</v>
+        <v>2877800</v>
       </c>
       <c r="G70" s="3">
-        <v>2809700</v>
+        <v>2877800</v>
       </c>
       <c r="H70" s="3">
+        <v>2877800</v>
+      </c>
+      <c r="I70" s="3">
+        <v>2965200</v>
+      </c>
+      <c r="J70" s="3">
+        <v>2965200</v>
+      </c>
+      <c r="K70" s="3">
         <v>2895000</v>
       </c>
-      <c r="I70" s="3">
-        <v>2895000</v>
-      </c>
-      <c r="J70" s="3">
-        <v>2895000</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3005700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3097300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3069600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3142100</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>3143300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>3121800</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>3319500</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>3175300</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>3082400</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>3047400</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>2909700</v>
-      </c>
-      <c r="V70" s="3">
-        <v>3014200</v>
       </c>
       <c r="W70" s="3">
         <v>3014200</v>
       </c>
       <c r="X70" s="3">
-        <v>2979800</v>
+        <v>3014200</v>
       </c>
       <c r="Y70" s="3">
         <v>2979800</v>
@@ -5420,7 +5588,7 @@
         <v>2979800</v>
       </c>
       <c r="AA70" s="3">
-        <v>3076000</v>
+        <v>2979800</v>
       </c>
       <c r="AB70" s="3">
         <v>3076000</v>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>3076000</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>3076000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2639000</v>
+        <v>-2908100</v>
       </c>
       <c r="E72" s="3">
-        <v>-2353400</v>
+        <v>-2703000</v>
       </c>
       <c r="F72" s="3">
-        <v>-1959200</v>
+        <v>-2410400</v>
       </c>
       <c r="G72" s="3">
-        <v>-1981600</v>
+        <v>-2006700</v>
       </c>
       <c r="H72" s="3">
-        <v>-2458900</v>
+        <v>-2029600</v>
       </c>
       <c r="I72" s="3">
-        <v>-2142200</v>
+        <v>-2518500</v>
       </c>
       <c r="J72" s="3">
+        <v>-2194100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2459700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2772900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3621900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3899900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4035100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2347300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3611400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3925600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4119700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3860600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3757500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3181400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3621700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3908500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3674900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4370700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-4812100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-4858300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-4640100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-5443700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13240700</v>
+        <v>13412600</v>
       </c>
       <c r="E76" s="3">
-        <v>13564700</v>
+        <v>13561500</v>
       </c>
       <c r="F76" s="3">
-        <v>14140400</v>
+        <v>13893300</v>
       </c>
       <c r="G76" s="3">
-        <v>14162100</v>
+        <v>14482900</v>
       </c>
       <c r="H76" s="3">
-        <v>13475000</v>
+        <v>14505200</v>
       </c>
       <c r="I76" s="3">
-        <v>13853300</v>
+        <v>13801500</v>
       </c>
       <c r="J76" s="3">
+        <v>14188900</v>
+      </c>
+      <c r="K76" s="3">
         <v>13326100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13533500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13142900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12822100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13171900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14978800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13309000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14030000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12789800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12490300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12450700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12219300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12346500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12032600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12129100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11396800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10975600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11425900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10398800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>9554500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>381900</v>
+        <v>537000</v>
       </c>
       <c r="E81" s="3">
-        <v>517100</v>
+        <v>391100</v>
       </c>
       <c r="F81" s="3">
-        <v>431000</v>
+        <v>529600</v>
       </c>
       <c r="G81" s="3">
-        <v>634300</v>
+        <v>441500</v>
       </c>
       <c r="H81" s="3">
-        <v>452000</v>
+        <v>649600</v>
       </c>
       <c r="I81" s="3">
-        <v>547500</v>
+        <v>463000</v>
       </c>
       <c r="J81" s="3">
+        <v>560700</v>
+      </c>
+      <c r="K81" s="3">
         <v>495400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>482100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>687900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>530500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>186000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>533800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>523900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>718800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>603500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>569700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>461200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>591500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1027600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>497600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>488200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>597600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>569300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>493200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>504700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>862100</v>
+        <v>889600</v>
       </c>
       <c r="E83" s="3">
-        <v>854100</v>
+        <v>883000</v>
       </c>
       <c r="F83" s="3">
-        <v>867100</v>
+        <v>874800</v>
       </c>
       <c r="G83" s="3">
-        <v>832400</v>
+        <v>888100</v>
       </c>
       <c r="H83" s="3">
-        <v>850500</v>
+        <v>852600</v>
       </c>
       <c r="I83" s="3">
-        <v>829500</v>
+        <v>871100</v>
       </c>
       <c r="J83" s="3">
+        <v>849600</v>
+      </c>
+      <c r="K83" s="3">
         <v>833900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>850700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>855000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>849400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>854600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>865100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>852200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>904500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>881000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>849100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>772500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>726000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1505600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>746800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>736800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>724100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>729300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>696800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>679100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1450800</v>
+        <v>894100</v>
       </c>
       <c r="E89" s="3">
-        <v>1443500</v>
+        <v>1485900</v>
       </c>
       <c r="F89" s="3">
-        <v>1878200</v>
+        <v>1478500</v>
       </c>
       <c r="G89" s="3">
-        <v>1241000</v>
+        <v>1923700</v>
       </c>
       <c r="H89" s="3">
-        <v>1260600</v>
+        <v>1271100</v>
       </c>
       <c r="I89" s="3">
-        <v>1283000</v>
+        <v>1291100</v>
       </c>
       <c r="J89" s="3">
+        <v>1314100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1807300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1495700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1265100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1617600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2010500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1139100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1630300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1872000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1659800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1167000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1360800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1484600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2674700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1126200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1233900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1661800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1603000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1008700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1167700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1492700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1184600</v>
+        <v>-1086000</v>
       </c>
       <c r="E91" s="3">
-        <v>-952500</v>
+        <v>-1635000</v>
       </c>
       <c r="F91" s="3">
-        <v>-886700</v>
+        <v>-1320000</v>
       </c>
       <c r="G91" s="3">
-        <v>-688500</v>
+        <v>-1219000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1055200</v>
+        <v>-959000</v>
       </c>
       <c r="I91" s="3">
-        <v>-838200</v>
+        <v>-1033000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1582000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-872900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-759900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1156000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-790400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-701600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-614700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-899000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-839800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-770800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-654300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-741300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-734000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1495800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-700800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-818600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-774000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-775500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-654500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-762900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-749800</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1402300</v>
+        <v>-808100</v>
       </c>
       <c r="E94" s="3">
-        <v>-963300</v>
+        <v>-1436300</v>
       </c>
       <c r="F94" s="3">
-        <v>-866400</v>
+        <v>-986700</v>
       </c>
       <c r="G94" s="3">
-        <v>-757900</v>
+        <v>-887400</v>
       </c>
       <c r="H94" s="3">
-        <v>-2275300</v>
+        <v>-776300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1149200</v>
+        <v>-2330400</v>
       </c>
       <c r="J94" s="3">
+        <v>-1177000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-893200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-775600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-491300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-897700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-740800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-620200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-906000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-837300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-785100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-672800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-717700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-864000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1696800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-871000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-848400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-801500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-538800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1917500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-838100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1139300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,91 +7419,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-606800</v>
+        <v>-621500</v>
       </c>
       <c r="E96" s="3">
-        <v>-606800</v>
+        <v>-621500</v>
       </c>
       <c r="F96" s="3">
-        <v>-606800</v>
+        <v>-621500</v>
       </c>
       <c r="G96" s="3">
-        <v>-575000</v>
+        <v>-621500</v>
       </c>
       <c r="H96" s="3">
-        <v>-575000</v>
+        <v>-588900</v>
       </c>
       <c r="I96" s="3">
-        <v>-573500</v>
+        <v>-588900</v>
       </c>
       <c r="J96" s="3">
+        <v>-587400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-572100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-565400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-582600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-577300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-590900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-562100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-558200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-591100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-564600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-521900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-515300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-492700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-996700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-486300</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-480800</v>
       </c>
       <c r="Y96" s="3">
         <v>-480800</v>
       </c>
       <c r="Z96" s="3">
+        <v>-480800</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-465900</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-456300</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-455600</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-456300</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,91 +7761,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-507000</v>
+        <v>323000</v>
       </c>
       <c r="E100" s="3">
-        <v>-381100</v>
+        <v>-519300</v>
       </c>
       <c r="F100" s="3">
-        <v>-715300</v>
+        <v>-390400</v>
       </c>
       <c r="G100" s="3">
-        <v>-557600</v>
+        <v>-732600</v>
       </c>
       <c r="H100" s="3">
-        <v>-473000</v>
+        <v>-571100</v>
       </c>
       <c r="I100" s="3">
-        <v>166300</v>
+        <v>-484400</v>
       </c>
       <c r="J100" s="3">
+        <v>170400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1462400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1069200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1896500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-618700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2158000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1470400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1364400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1140800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-536900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-307200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-948300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-303800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1154800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>176900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1393200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>198000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1029200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>645300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-744400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>244300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-458500</v>
+        <v>408900</v>
       </c>
       <c r="E102" s="3">
-        <v>99100</v>
+        <v>-469600</v>
       </c>
       <c r="F102" s="3">
-        <v>296500</v>
+        <v>101500</v>
       </c>
       <c r="G102" s="3">
-        <v>-74500</v>
+        <v>303700</v>
       </c>
       <c r="H102" s="3">
-        <v>-1481900</v>
+        <v>-76300</v>
       </c>
       <c r="I102" s="3">
-        <v>296500</v>
+        <v>-1517800</v>
       </c>
       <c r="J102" s="3">
+        <v>303700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-550400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1789300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1122700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>101200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-888300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1989300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-640100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-106100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>337800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>187100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-305200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>316800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-176900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>432100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1007700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1058300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>35000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-263500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-414800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>597700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>BCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4484400</v>
+        <v>4491000</v>
       </c>
       <c r="E8" s="3">
-        <v>4769600</v>
+        <v>4482100</v>
       </c>
       <c r="F8" s="3">
-        <v>4462200</v>
+        <v>4767200</v>
       </c>
       <c r="G8" s="3">
-        <v>4341500</v>
+        <v>4459900</v>
       </c>
       <c r="H8" s="3">
-        <v>4333300</v>
+        <v>4339200</v>
       </c>
       <c r="I8" s="3">
-        <v>4599300</v>
+        <v>4331100</v>
       </c>
       <c r="J8" s="3">
+        <v>4596900</v>
+      </c>
+      <c r="K8" s="3">
         <v>4323000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4120900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4284400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4721400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4436500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4201500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4427700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4892400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4924600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4670100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4379500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4730200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4270800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8563700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4208100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4492100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4239800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4233100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4099300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4380400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>4153800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1447400</v>
+        <v>1359300</v>
       </c>
       <c r="E9" s="3">
-        <v>1745900</v>
+        <v>1446700</v>
       </c>
       <c r="F9" s="3">
-        <v>1379300</v>
+        <v>1745000</v>
       </c>
       <c r="G9" s="3">
-        <v>1254800</v>
+        <v>1378600</v>
       </c>
       <c r="H9" s="3">
-        <v>1280000</v>
+        <v>1254200</v>
       </c>
       <c r="I9" s="3">
-        <v>1601500</v>
+        <v>1279300</v>
       </c>
       <c r="J9" s="3">
+        <v>1600700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1275600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1203400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1308000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1590100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1370000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1154400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1298500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1664600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1473200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1352900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1337900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1632500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1297100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2582100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1287300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1511500</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>1248800</v>
       </c>
       <c r="AA9" s="3">
         <v>1248800</v>
       </c>
       <c r="AB9" s="3">
+        <v>1248800</v>
+      </c>
+      <c r="AC9" s="3">
         <v>1249900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1514900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1236900</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3037000</v>
+        <v>3131700</v>
       </c>
       <c r="E10" s="3">
-        <v>3023700</v>
+        <v>3035500</v>
       </c>
       <c r="F10" s="3">
-        <v>3083000</v>
+        <v>3022100</v>
       </c>
       <c r="G10" s="3">
-        <v>3086700</v>
+        <v>3081400</v>
       </c>
       <c r="H10" s="3">
-        <v>3053300</v>
+        <v>3085100</v>
       </c>
       <c r="I10" s="3">
-        <v>2997800</v>
+        <v>3051800</v>
       </c>
       <c r="J10" s="3">
+        <v>2996200</v>
+      </c>
+      <c r="K10" s="3">
         <v>3047400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2917500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2976400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3131400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3066600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3047100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3129200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3227800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3451300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3317200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3041600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3097600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2973600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5981700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2920800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2980600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2991000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2984300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2849400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2865500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2917000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,180 +1262,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>61500</v>
+        <v>74800</v>
       </c>
       <c r="E14" s="3">
-        <v>125200</v>
+        <v>61400</v>
       </c>
       <c r="F14" s="3">
-        <v>31900</v>
+        <v>125100</v>
       </c>
       <c r="G14" s="3">
+        <v>31800</v>
+      </c>
+      <c r="H14" s="3">
         <v>108100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>11100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>68900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>18500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>123700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>108900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>49500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>39100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>369600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>30600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>96700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>19900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>46000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>21600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>192600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>40000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>34600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>96000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>29000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>29800</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>64500</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>15400</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>889600</v>
+        <v>912100</v>
       </c>
       <c r="E15" s="3">
-        <v>883000</v>
+        <v>889200</v>
       </c>
       <c r="F15" s="3">
-        <v>874800</v>
+        <v>882500</v>
       </c>
       <c r="G15" s="3">
-        <v>888100</v>
+        <v>874400</v>
       </c>
       <c r="H15" s="3">
-        <v>852600</v>
+        <v>887700</v>
       </c>
       <c r="I15" s="3">
-        <v>871100</v>
+        <v>852200</v>
       </c>
       <c r="J15" s="3">
+        <v>870700</v>
+      </c>
+      <c r="K15" s="3">
         <v>849600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>833900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>850700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>855000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>849400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>865600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>854100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>840500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>892900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>871500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>839100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>772500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>726000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>1505600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>746800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>737500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>719700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>727100</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>698300</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>679100</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3555600</v>
+        <v>3519700</v>
       </c>
       <c r="E17" s="3">
-        <v>3972600</v>
+        <v>3553700</v>
       </c>
       <c r="F17" s="3">
-        <v>3451800</v>
+        <v>3970600</v>
       </c>
       <c r="G17" s="3">
-        <v>3419300</v>
+        <v>3450100</v>
       </c>
       <c r="H17" s="3">
-        <v>3296300</v>
+        <v>3417500</v>
       </c>
       <c r="I17" s="3">
-        <v>3739300</v>
+        <v>3294600</v>
       </c>
       <c r="J17" s="3">
+        <v>3737300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3314800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3287800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3420200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3775100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3443700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3607400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3415000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3892900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3708300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3548000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3406500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3873200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3252700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6577900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3261100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3592300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3198600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3217200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3198100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3445500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3121300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>928900</v>
+        <v>971400</v>
       </c>
       <c r="E18" s="3">
-        <v>797000</v>
+        <v>928400</v>
       </c>
       <c r="F18" s="3">
-        <v>1010400</v>
+        <v>796600</v>
       </c>
       <c r="G18" s="3">
-        <v>922200</v>
+        <v>1009900</v>
       </c>
       <c r="H18" s="3">
-        <v>1037000</v>
+        <v>921700</v>
       </c>
       <c r="I18" s="3">
-        <v>860000</v>
+        <v>1036500</v>
       </c>
       <c r="J18" s="3">
+        <v>859600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1008100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>833100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>864200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>946300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>992800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>594000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1012700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>999500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1216200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1122100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>973100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>857000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1018100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1985900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>947000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>899700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1041100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1015800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>901100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>934900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1032500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-209500</v>
+      </c>
+      <c r="E20" s="3">
         <v>109600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>23700</v>
       </c>
-      <c r="F20" s="3">
-        <v>-86700</v>
-      </c>
       <c r="G20" s="3">
-        <v>-66700</v>
+        <v>-86600</v>
       </c>
       <c r="H20" s="3">
-        <v>95600</v>
+        <v>-66600</v>
       </c>
       <c r="I20" s="3">
-        <v>15600</v>
+        <v>95500</v>
       </c>
       <c r="J20" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K20" s="3">
         <v>22200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>62200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>42000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-28600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-15300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-71400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-26500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>38100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-40400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>68500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-40000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-121200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-55700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-43200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-11200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-31500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1928100</v>
+        <v>1674000</v>
       </c>
       <c r="E21" s="3">
-        <v>1703700</v>
+        <v>1927200</v>
       </c>
       <c r="F21" s="3">
-        <v>1798500</v>
+        <v>1702800</v>
       </c>
       <c r="G21" s="3">
-        <v>1743700</v>
+        <v>1797600</v>
       </c>
       <c r="H21" s="3">
-        <v>1985200</v>
+        <v>1742800</v>
       </c>
       <c r="I21" s="3">
-        <v>1746700</v>
+        <v>1984200</v>
       </c>
       <c r="J21" s="3">
+        <v>1745800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1880000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1729200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1757000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1772700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1826900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1377200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1844900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1825200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2158800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1962700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1890700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1644000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1704100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3370200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1638100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1638800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1717600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1733300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1597200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1582600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1673200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>254800</v>
+        <v>265800</v>
       </c>
       <c r="E22" s="3">
-        <v>236300</v>
+        <v>254700</v>
       </c>
       <c r="F22" s="3">
-        <v>220700</v>
+        <v>236200</v>
       </c>
       <c r="G22" s="3">
-        <v>199300</v>
+        <v>220600</v>
       </c>
       <c r="H22" s="3">
-        <v>192600</v>
+        <v>199200</v>
       </c>
       <c r="I22" s="3">
-        <v>203700</v>
+        <v>192500</v>
       </c>
       <c r="J22" s="3">
+        <v>203600</v>
+      </c>
+      <c r="K22" s="3">
         <v>201500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>193800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>212000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>213900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>219700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>217500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>222200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>232100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>221300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>216300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>197100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>185300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>365900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>180700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>179400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>180100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>177100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>179800</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>172900</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>783700</v>
+        <v>496000</v>
       </c>
       <c r="E23" s="3">
-        <v>584400</v>
+        <v>783300</v>
       </c>
       <c r="F23" s="3">
-        <v>703000</v>
+        <v>584100</v>
       </c>
       <c r="G23" s="3">
-        <v>656300</v>
+        <v>702600</v>
       </c>
       <c r="H23" s="3">
-        <v>940000</v>
+        <v>656000</v>
       </c>
       <c r="I23" s="3">
-        <v>671900</v>
+        <v>939500</v>
       </c>
       <c r="J23" s="3">
+        <v>671500</v>
+      </c>
+      <c r="K23" s="3">
         <v>828900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>701500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>705800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>705700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>763600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>302900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>762300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>750800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1022200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>860400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>825200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>674300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>792800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1498800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>710600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>721900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>817900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>827600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>720600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>730600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>832800</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200000</v>
+        <v>202100</v>
       </c>
       <c r="E24" s="3">
+        <v>199900</v>
+      </c>
+      <c r="F24" s="3">
         <v>164400</v>
       </c>
-      <c r="F24" s="3">
-        <v>131900</v>
-      </c>
       <c r="G24" s="3">
-        <v>171900</v>
+        <v>131800</v>
       </c>
       <c r="H24" s="3">
-        <v>248100</v>
+        <v>171800</v>
       </c>
       <c r="I24" s="3">
-        <v>184400</v>
+        <v>248000</v>
       </c>
       <c r="J24" s="3">
+        <v>184300</v>
+      </c>
+      <c r="K24" s="3">
         <v>226700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>170700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>190000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>147800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>75300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>190800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>191000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>264500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>218100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>223200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>185700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>162800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>396700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>176900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>202400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>185300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>221800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>192100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>193600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>583700</v>
+        <v>293900</v>
       </c>
       <c r="E26" s="3">
-        <v>420000</v>
+        <v>583400</v>
       </c>
       <c r="F26" s="3">
-        <v>571100</v>
+        <v>419800</v>
       </c>
       <c r="G26" s="3">
-        <v>484400</v>
+        <v>570800</v>
       </c>
       <c r="H26" s="3">
-        <v>691900</v>
+        <v>484200</v>
       </c>
       <c r="I26" s="3">
-        <v>487400</v>
+        <v>691500</v>
       </c>
       <c r="J26" s="3">
+        <v>487200</v>
+      </c>
+      <c r="K26" s="3">
         <v>602200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>530800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>515800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>557900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>562700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>227600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>571500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>559800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>757800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>642300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>602000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>488600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>630000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1102100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>533700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>519500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>632600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>605800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>528500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>537000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>614600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>537000</v>
+        <v>243600</v>
       </c>
       <c r="E27" s="3">
-        <v>391100</v>
+        <v>536800</v>
       </c>
       <c r="F27" s="3">
-        <v>529600</v>
+        <v>390900</v>
       </c>
       <c r="G27" s="3">
-        <v>441500</v>
+        <v>529400</v>
       </c>
       <c r="H27" s="3">
-        <v>649600</v>
+        <v>441300</v>
       </c>
       <c r="I27" s="3">
-        <v>463000</v>
+        <v>649300</v>
       </c>
       <c r="J27" s="3">
+        <v>462700</v>
+      </c>
+      <c r="K27" s="3">
         <v>560700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>495400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>482100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>524600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>525900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>182800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>529900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>520000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>712200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>597900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>562700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>461200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>591500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1027600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>497600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>488200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>597600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>569300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>493200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>504700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2444,8 +2505,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2457,35 +2518,35 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>163300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>4600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>3100</v>
-      </c>
-      <c r="P29" s="3">
-        <v>3900</v>
       </c>
       <c r="Q29" s="3">
         <v>3900</v>
       </c>
       <c r="R29" s="3">
+        <v>3900</v>
+      </c>
+      <c r="S29" s="3">
         <v>6600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>5600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>6900</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>209500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-109600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-23700</v>
       </c>
-      <c r="F32" s="3">
-        <v>86700</v>
-      </c>
       <c r="G32" s="3">
-        <v>66700</v>
+        <v>86600</v>
       </c>
       <c r="H32" s="3">
-        <v>-95600</v>
+        <v>66600</v>
       </c>
       <c r="I32" s="3">
-        <v>-15600</v>
+        <v>-95500</v>
       </c>
       <c r="J32" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-22200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-62200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-42000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>28600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>15300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>71400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>33000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>26500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-38100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>40400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-68500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>40000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>121200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>55700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>43200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>11200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>31500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>537000</v>
+        <v>243600</v>
       </c>
       <c r="E33" s="3">
-        <v>391100</v>
+        <v>536800</v>
       </c>
       <c r="F33" s="3">
-        <v>529600</v>
+        <v>390900</v>
       </c>
       <c r="G33" s="3">
-        <v>441500</v>
+        <v>529400</v>
       </c>
       <c r="H33" s="3">
-        <v>649600</v>
+        <v>441300</v>
       </c>
       <c r="I33" s="3">
-        <v>463000</v>
+        <v>649300</v>
       </c>
       <c r="J33" s="3">
+        <v>462700</v>
+      </c>
+      <c r="K33" s="3">
         <v>560700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>495400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>482100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>687900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>530500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>186000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>533800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>523900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>718800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>603500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>569700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>461200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>591500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1027600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>497600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>488200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>597600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>569300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>493200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>504700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>537000</v>
+        <v>243600</v>
       </c>
       <c r="E35" s="3">
-        <v>391100</v>
+        <v>536800</v>
       </c>
       <c r="F35" s="3">
-        <v>529600</v>
+        <v>390900</v>
       </c>
       <c r="G35" s="3">
-        <v>441500</v>
+        <v>529400</v>
       </c>
       <c r="H35" s="3">
-        <v>649600</v>
+        <v>441300</v>
       </c>
       <c r="I35" s="3">
-        <v>463000</v>
+        <v>649300</v>
       </c>
       <c r="J35" s="3">
+        <v>462700</v>
+      </c>
+      <c r="K35" s="3">
         <v>560700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>495400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>482100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>687900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>530500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>186000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>533800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>523900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>718800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>603500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>569700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>461200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>591500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1027600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>497600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>488200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>597600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>569300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>493200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>504700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>548900</v>
+        <v>666300</v>
       </c>
       <c r="E41" s="3">
-        <v>110400</v>
+        <v>548600</v>
       </c>
       <c r="F41" s="3">
-        <v>543000</v>
+        <v>110300</v>
       </c>
       <c r="G41" s="3">
-        <v>441500</v>
+        <v>542700</v>
       </c>
       <c r="H41" s="3">
+        <v>441300</v>
+      </c>
+      <c r="I41" s="3">
         <v>77000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>153300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1605200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1267100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1957500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>173300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1287200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1214000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2103100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>113100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>800900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>867600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>514200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>323500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>600200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>293600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>902600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>465100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1472800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>414500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>391800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>655300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1070100</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,610 +3443,634 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3145900</v>
+        <v>3090300</v>
       </c>
       <c r="E43" s="3">
-        <v>3388100</v>
+        <v>3144300</v>
       </c>
       <c r="F43" s="3">
-        <v>3112600</v>
+        <v>3386400</v>
       </c>
       <c r="G43" s="3">
-        <v>2931100</v>
+        <v>3111000</v>
       </c>
       <c r="H43" s="3">
-        <v>2914800</v>
+        <v>2929600</v>
       </c>
       <c r="I43" s="3">
-        <v>3231800</v>
+        <v>2913300</v>
       </c>
       <c r="J43" s="3">
+        <v>3230200</v>
+      </c>
+      <c r="K43" s="3">
         <v>2894800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2683900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2860800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3261400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2870300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2929400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3161400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3234900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3245700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>797000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>752900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>751200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>658400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2851600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2841000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2947800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2131400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2117300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2164900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2288600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2473700</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>498500</v>
+        <v>485700</v>
       </c>
       <c r="E44" s="3">
-        <v>485900</v>
+        <v>498300</v>
       </c>
       <c r="F44" s="3">
-        <v>464400</v>
+        <v>485700</v>
       </c>
       <c r="G44" s="3">
-        <v>418500</v>
+        <v>464200</v>
       </c>
       <c r="H44" s="3">
-        <v>420000</v>
+        <v>418300</v>
       </c>
       <c r="I44" s="3">
-        <v>357000</v>
+        <v>419800</v>
       </c>
       <c r="J44" s="3">
+        <v>356900</v>
+      </c>
+      <c r="K44" s="3">
         <v>309600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>302300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>344600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>339700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>325800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>349200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>382300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>332900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>400400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>386200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>363400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>328800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>356800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>328200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>333500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>282800</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>325200</v>
       </c>
       <c r="AA44" s="3">
         <v>325200</v>
       </c>
       <c r="AB44" s="3">
+        <v>325200</v>
+      </c>
+      <c r="AC44" s="3">
         <v>328800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>309600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1115600</v>
+        <v>915100</v>
       </c>
       <c r="E45" s="3">
-        <v>820700</v>
+        <v>1115000</v>
       </c>
       <c r="F45" s="3">
-        <v>944400</v>
+        <v>820300</v>
       </c>
       <c r="G45" s="3">
-        <v>877000</v>
+        <v>944000</v>
       </c>
       <c r="H45" s="3">
-        <v>896300</v>
+        <v>876600</v>
       </c>
       <c r="I45" s="3">
-        <v>848900</v>
+        <v>895800</v>
       </c>
       <c r="J45" s="3">
+        <v>848500</v>
+      </c>
+      <c r="K45" s="3">
         <v>776300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>770200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>760600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>626700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1291800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1363100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>875300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>623000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>738700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>733500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>753700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>717700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>603900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>709900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>639900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>512800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>486000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>499400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>749800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>476300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5308900</v>
+        <v>5157300</v>
       </c>
       <c r="E46" s="3">
-        <v>4805200</v>
+        <v>5306200</v>
       </c>
       <c r="F46" s="3">
-        <v>5064400</v>
+        <v>4802700</v>
       </c>
       <c r="G46" s="3">
-        <v>4668100</v>
+        <v>5061800</v>
       </c>
       <c r="H46" s="3">
-        <v>4308100</v>
+        <v>4665700</v>
       </c>
       <c r="I46" s="3">
-        <v>4591100</v>
+        <v>4305900</v>
       </c>
       <c r="J46" s="3">
+        <v>4588800</v>
+      </c>
+      <c r="K46" s="3">
         <v>5585900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5023500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5923500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4401100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5775100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5855700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6522200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4303800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5185700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5145900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4645100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4409000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4361600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4183300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4717000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4208500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4415400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3356400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3635300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3729800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>4348200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>684400</v>
+        <v>418300</v>
       </c>
       <c r="E47" s="3">
-        <v>1434100</v>
+        <v>684100</v>
       </c>
       <c r="F47" s="3">
-        <v>638500</v>
+        <v>1433300</v>
       </c>
       <c r="G47" s="3">
-        <v>644400</v>
+        <v>638200</v>
       </c>
       <c r="H47" s="3">
-        <v>667400</v>
+        <v>644100</v>
       </c>
       <c r="I47" s="3">
-        <v>680700</v>
+        <v>667100</v>
       </c>
       <c r="J47" s="3">
+        <v>680400</v>
+      </c>
+      <c r="K47" s="3">
         <v>690400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>690700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>736600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1417500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1296400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1216300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>927900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>959800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>995700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>964300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>985400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>992500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>879300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>916100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>935700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>926500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>616200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>657100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>675300</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>654500</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>793600</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21654100</v>
+        <v>22143400</v>
       </c>
       <c r="E48" s="3">
-        <v>21671100</v>
+        <v>21642900</v>
       </c>
       <c r="F48" s="3">
-        <v>21091100</v>
+        <v>21660000</v>
       </c>
       <c r="G48" s="3">
-        <v>20857000</v>
+        <v>21080300</v>
       </c>
       <c r="H48" s="3">
-        <v>20820700</v>
+        <v>20846300</v>
       </c>
       <c r="I48" s="3">
-        <v>20914800</v>
+        <v>20810000</v>
       </c>
       <c r="J48" s="3">
+        <v>20904100</v>
+      </c>
+      <c r="K48" s="3">
         <v>20611100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19927600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20551000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21288200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20743000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21062400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>21535500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>21547000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>22698600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>21740600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>20997600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18908500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17968100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>18362100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>18194200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>17882600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>17678000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>17552900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>18015000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>17166900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>16807300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20124400</v>
+        <v>20298500</v>
       </c>
       <c r="E49" s="3">
-        <v>20065900</v>
+        <v>20114100</v>
       </c>
       <c r="F49" s="3">
-        <v>19898500</v>
+        <v>20055600</v>
       </c>
       <c r="G49" s="3">
-        <v>19758500</v>
+        <v>19888300</v>
       </c>
       <c r="H49" s="3">
-        <v>19665900</v>
+        <v>19748400</v>
       </c>
       <c r="I49" s="3">
-        <v>19364400</v>
+        <v>19655800</v>
       </c>
       <c r="J49" s="3">
+        <v>19354500</v>
+      </c>
+      <c r="K49" s="3">
         <v>17737000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17243000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17895200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18342500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18003000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18400600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>18982500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>18726900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20006600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>18957900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>18418700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>18161900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>17450700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>18048100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>18031600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>17627400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>17799300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>17711500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>18239300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>16099000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>15574300</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4061500</v>
+        <v>3843900</v>
       </c>
       <c r="E52" s="3">
-        <v>3378500</v>
+        <v>4059400</v>
       </c>
       <c r="F52" s="3">
-        <v>4092600</v>
+        <v>3376800</v>
       </c>
       <c r="G52" s="3">
-        <v>4464400</v>
+        <v>4090500</v>
       </c>
       <c r="H52" s="3">
-        <v>4415600</v>
+        <v>4462100</v>
       </c>
       <c r="I52" s="3">
-        <v>3903700</v>
+        <v>4413300</v>
       </c>
       <c r="J52" s="3">
+        <v>3901700</v>
+      </c>
+      <c r="K52" s="3">
         <v>4513300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3496000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3135600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1490200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1424400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1483900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3464400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1356600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1375400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>941300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1019200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>986400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1236800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1067500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>765600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>883400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>843200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>605800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>803600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>844300</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>695200</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>51833300</v>
+        <v>51861500</v>
       </c>
       <c r="E54" s="3">
-        <v>51354800</v>
+        <v>51806700</v>
       </c>
       <c r="F54" s="3">
-        <v>50785100</v>
+        <v>51328400</v>
       </c>
       <c r="G54" s="3">
-        <v>50392500</v>
+        <v>50759100</v>
       </c>
       <c r="H54" s="3">
-        <v>49877700</v>
+        <v>50366700</v>
       </c>
       <c r="I54" s="3">
-        <v>49454800</v>
+        <v>49852100</v>
       </c>
       <c r="J54" s="3">
+        <v>49429400</v>
+      </c>
+      <c r="K54" s="3">
         <v>49137700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46380800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>48242000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>46939500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>47241900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>48019000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>51432600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>46894000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>50262000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>47750100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>46066000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>43458200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>41896600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>42577000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>42644000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>41528400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>41352000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>39883700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>41368400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>38494500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>38218700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3022200</v>
+        <v>3218300</v>
       </c>
       <c r="E57" s="3">
-        <v>3867400</v>
+        <v>3020700</v>
       </c>
       <c r="F57" s="3">
-        <v>3408900</v>
+        <v>3865400</v>
       </c>
       <c r="G57" s="3">
-        <v>3146700</v>
+        <v>3407100</v>
       </c>
       <c r="H57" s="3">
-        <v>2845200</v>
+        <v>3145000</v>
       </c>
       <c r="I57" s="3">
-        <v>3300000</v>
+        <v>2843700</v>
       </c>
       <c r="J57" s="3">
+        <v>3298300</v>
+      </c>
+      <c r="K57" s="3">
         <v>3060000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2823500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2795500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3044700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2733800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2621800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2618100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3082800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3026000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2950000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2779100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2999500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2745400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2712300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2660400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2883800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3326600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3177800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3106700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3323400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>3092100</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4701500</v>
+        <v>4471000</v>
       </c>
       <c r="E58" s="3">
-        <v>3064400</v>
+        <v>4699100</v>
       </c>
       <c r="F58" s="3">
-        <v>3471100</v>
+        <v>3062900</v>
       </c>
       <c r="G58" s="3">
-        <v>2451100</v>
+        <v>3469300</v>
       </c>
       <c r="H58" s="3">
-        <v>2283000</v>
+        <v>2449900</v>
       </c>
       <c r="I58" s="3">
-        <v>1944400</v>
+        <v>2281800</v>
       </c>
       <c r="J58" s="3">
+        <v>1943400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1477000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1666300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2842800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1870200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2226300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2027800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3304300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3025900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3919700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4501200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4222500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3535300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3544100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4315000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4155400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3853500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4527000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4420600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4844500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3754300</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>3834200</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1653300</v>
+        <v>1632500</v>
       </c>
       <c r="E59" s="3">
-        <v>1563700</v>
+        <v>1652500</v>
       </c>
       <c r="F59" s="3">
-        <v>1574100</v>
+        <v>1562900</v>
       </c>
       <c r="G59" s="3">
-        <v>1623700</v>
+        <v>1573300</v>
       </c>
       <c r="H59" s="3">
-        <v>1513300</v>
+        <v>1622900</v>
       </c>
       <c r="I59" s="3">
-        <v>1505900</v>
+        <v>1512600</v>
       </c>
       <c r="J59" s="3">
+        <v>1505200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1391900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1551300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1515200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1484800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1615300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1734300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1468000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1514100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1657300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1543200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1454200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1402700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1301500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1289500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1228600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1249500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>804500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>743500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>672200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>687600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>689900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9377000</v>
+        <v>9321900</v>
       </c>
       <c r="E60" s="3">
-        <v>8495500</v>
+        <v>9372200</v>
       </c>
       <c r="F60" s="3">
-        <v>8454100</v>
+        <v>8491200</v>
       </c>
       <c r="G60" s="3">
-        <v>7221500</v>
+        <v>8449700</v>
       </c>
       <c r="H60" s="3">
-        <v>6641500</v>
+        <v>7217800</v>
       </c>
       <c r="I60" s="3">
-        <v>6750400</v>
+        <v>6638100</v>
       </c>
       <c r="J60" s="3">
+        <v>6746900</v>
+      </c>
+      <c r="K60" s="3">
         <v>5928900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6041100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7153400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6399700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6575500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6383900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7390500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7622800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8603100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8994400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8455700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7937400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7591000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8316800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8044300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7986900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8658100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>8341800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>8623400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>7765300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>7616200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20337800</v>
+        <v>20962600</v>
       </c>
       <c r="E61" s="3">
-        <v>20580000</v>
+        <v>20327300</v>
       </c>
       <c r="F61" s="3">
-        <v>19827400</v>
+        <v>20569400</v>
       </c>
       <c r="G61" s="3">
-        <v>20005200</v>
+        <v>19817200</v>
       </c>
       <c r="H61" s="3">
-        <v>19908900</v>
+        <v>19994900</v>
       </c>
       <c r="I61" s="3">
-        <v>20035500</v>
+        <v>19898700</v>
       </c>
       <c r="J61" s="3">
+        <v>20025300</v>
+      </c>
+      <c r="K61" s="3">
         <v>20051800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18385700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18745200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18497300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19100100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19637300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20029000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17476300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18608000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17406000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16948400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>15039100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14231500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>13826500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>14564200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>13555800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>13735100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>12973800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>13641500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>12731100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>12679600</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5624400</v>
+        <v>5697100</v>
       </c>
       <c r="E62" s="3">
-        <v>5601500</v>
+        <v>5621600</v>
       </c>
       <c r="F62" s="3">
-        <v>5480700</v>
+        <v>5598600</v>
       </c>
       <c r="G62" s="3">
-        <v>5562200</v>
+        <v>5477900</v>
       </c>
       <c r="H62" s="3">
-        <v>5708900</v>
+        <v>5559400</v>
       </c>
       <c r="I62" s="3">
-        <v>5675500</v>
+        <v>5706000</v>
       </c>
       <c r="J62" s="3">
+        <v>5672600</v>
+      </c>
+      <c r="K62" s="3">
         <v>5743000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5487100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5549600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5539300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5405600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5410800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5624100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5103700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5422800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5123700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4851400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4735500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4709700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4832900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4756900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4636400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4340200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4371500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>4358900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>4282100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>5051900</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35585900</v>
+        <v>36224300</v>
       </c>
       <c r="E66" s="3">
-        <v>34926600</v>
+        <v>35567600</v>
       </c>
       <c r="F66" s="3">
-        <v>34014000</v>
+        <v>34908700</v>
       </c>
       <c r="G66" s="3">
-        <v>33031800</v>
+        <v>33996600</v>
       </c>
       <c r="H66" s="3">
-        <v>32494800</v>
+        <v>33014900</v>
       </c>
       <c r="I66" s="3">
-        <v>32688100</v>
+        <v>32478100</v>
       </c>
       <c r="J66" s="3">
+        <v>32671300</v>
+      </c>
+      <c r="K66" s="3">
         <v>31983700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30159700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31702800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30699300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31350200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31705100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33310500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30463300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>32912500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>31785000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>30493300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>27960200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>26767600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>27216400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>27597300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>26419500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>26975400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>25928300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>26866500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>25019700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>25588200</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,76 +5678,79 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2834800</v>
+        <v>2799300</v>
       </c>
       <c r="E70" s="3">
-        <v>2866700</v>
+        <v>2833400</v>
       </c>
       <c r="F70" s="3">
-        <v>2877800</v>
+        <v>2865200</v>
       </c>
       <c r="G70" s="3">
-        <v>2877800</v>
+        <v>2876300</v>
       </c>
       <c r="H70" s="3">
-        <v>2877800</v>
+        <v>2876300</v>
       </c>
       <c r="I70" s="3">
+        <v>2876300</v>
+      </c>
+      <c r="J70" s="3">
+        <v>2963700</v>
+      </c>
+      <c r="K70" s="3">
         <v>2965200</v>
       </c>
-      <c r="J70" s="3">
-        <v>2965200</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2895000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3005700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3097300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3069600</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>3142100</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>3143300</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>3121800</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>3319500</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>3175300</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>3082400</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>3047400</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>2909700</v>
-      </c>
-      <c r="W70" s="3">
-        <v>3014200</v>
       </c>
       <c r="X70" s="3">
         <v>3014200</v>
       </c>
       <c r="Y70" s="3">
-        <v>2979800</v>
+        <v>3014200</v>
       </c>
       <c r="Z70" s="3">
         <v>2979800</v>
@@ -5591,7 +5759,7 @@
         <v>2979800</v>
       </c>
       <c r="AB70" s="3">
-        <v>3076000</v>
+        <v>2979800</v>
       </c>
       <c r="AC70" s="3">
         <v>3076000</v>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>3076000</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>3076000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2908100</v>
+        <v>-3419000</v>
       </c>
       <c r="E72" s="3">
-        <v>-2703000</v>
+        <v>-2906700</v>
       </c>
       <c r="F72" s="3">
-        <v>-2410400</v>
+        <v>-2701600</v>
       </c>
       <c r="G72" s="3">
-        <v>-2006700</v>
+        <v>-2409100</v>
       </c>
       <c r="H72" s="3">
-        <v>-2029600</v>
+        <v>-2005600</v>
       </c>
       <c r="I72" s="3">
-        <v>-2518500</v>
+        <v>-2028600</v>
       </c>
       <c r="J72" s="3">
+        <v>-2517200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2194100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2459700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2772900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3621900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3899900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4035100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2347300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3611400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3925600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4119700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3860600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3757500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3181400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3621700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3908500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-3674900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-4370700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-4812100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-4858300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-4640100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-5443700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13412600</v>
+        <v>12837800</v>
       </c>
       <c r="E76" s="3">
-        <v>13561500</v>
+        <v>13405700</v>
       </c>
       <c r="F76" s="3">
-        <v>13893300</v>
+        <v>13554500</v>
       </c>
       <c r="G76" s="3">
-        <v>14482900</v>
+        <v>13886200</v>
       </c>
       <c r="H76" s="3">
-        <v>14505200</v>
+        <v>14475500</v>
       </c>
       <c r="I76" s="3">
-        <v>13801500</v>
+        <v>14497700</v>
       </c>
       <c r="J76" s="3">
+        <v>13794400</v>
+      </c>
+      <c r="K76" s="3">
         <v>14188900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13326100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13533500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13142900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12822100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13171900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14978800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13309000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14030000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12789800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12490300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12450700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12219300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12346500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12032600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12129100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11396800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10975600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>11425900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>10398800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>9554500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>537000</v>
+        <v>243600</v>
       </c>
       <c r="E81" s="3">
-        <v>391100</v>
+        <v>536800</v>
       </c>
       <c r="F81" s="3">
-        <v>529600</v>
+        <v>390900</v>
       </c>
       <c r="G81" s="3">
-        <v>441500</v>
+        <v>529400</v>
       </c>
       <c r="H81" s="3">
-        <v>649600</v>
+        <v>441300</v>
       </c>
       <c r="I81" s="3">
-        <v>463000</v>
+        <v>649300</v>
       </c>
       <c r="J81" s="3">
+        <v>462700</v>
+      </c>
+      <c r="K81" s="3">
         <v>560700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>495400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>482100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>687900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>530500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>186000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>533800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>523900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>718800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>603500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>569700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>461200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>591500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1027600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>497600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>488200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>597600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>569300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>493200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>504700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>889600</v>
+        <v>912100</v>
       </c>
       <c r="E83" s="3">
-        <v>883000</v>
+        <v>889200</v>
       </c>
       <c r="F83" s="3">
-        <v>874800</v>
+        <v>882500</v>
       </c>
       <c r="G83" s="3">
-        <v>888100</v>
+        <v>874400</v>
       </c>
       <c r="H83" s="3">
-        <v>852600</v>
+        <v>887700</v>
       </c>
       <c r="I83" s="3">
-        <v>871100</v>
+        <v>852200</v>
       </c>
       <c r="J83" s="3">
+        <v>870700</v>
+      </c>
+      <c r="K83" s="3">
         <v>849600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>833900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>850700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>855000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>849400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>854600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>865100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>852200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>904500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>881000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>849100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>772500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>726000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1505600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>746800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>736800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>724100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>729300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>696800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>679100</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>894100</v>
+        <v>1484400</v>
       </c>
       <c r="E89" s="3">
-        <v>1485900</v>
+        <v>893600</v>
       </c>
       <c r="F89" s="3">
-        <v>1478500</v>
+        <v>1485200</v>
       </c>
       <c r="G89" s="3">
-        <v>1923700</v>
+        <v>1477800</v>
       </c>
       <c r="H89" s="3">
-        <v>1271100</v>
+        <v>1922700</v>
       </c>
       <c r="I89" s="3">
-        <v>1291100</v>
+        <v>1270500</v>
       </c>
       <c r="J89" s="3">
+        <v>1290400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1314100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1807300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1495700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1265100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1617600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2010500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1139100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1630300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1872000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1659800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1167000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1360800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1484600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2674700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1126200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1233900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1661800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1603000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1008700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1167700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1492700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1307000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1086000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1635000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1320000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1219000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-959000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1033000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1582000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-872900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-759900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1156000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-790400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-701600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-614700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-899000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-839800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-770800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-654300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-741300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-734000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1495800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-700800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-818600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-774000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-775500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-654500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-762900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-749800</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-808100</v>
+        <v>-1078000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1436300</v>
+        <v>-807700</v>
       </c>
       <c r="F94" s="3">
-        <v>-986700</v>
+        <v>-1435600</v>
       </c>
       <c r="G94" s="3">
-        <v>-887400</v>
+        <v>-986200</v>
       </c>
       <c r="H94" s="3">
-        <v>-776300</v>
+        <v>-887000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2330400</v>
+        <v>-775900</v>
       </c>
       <c r="J94" s="3">
+        <v>-2329200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1177000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-893200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-775600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-491300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-897700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-740800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-620200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-906000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-837300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-785100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-672800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-717700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-864000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1696800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-871000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-848400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-801500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-538800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1917500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-838100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1139300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,94 +7653,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-621500</v>
+        <v>-653000</v>
       </c>
       <c r="E96" s="3">
-        <v>-621500</v>
+        <v>-621200</v>
       </c>
       <c r="F96" s="3">
-        <v>-621500</v>
+        <v>-621200</v>
       </c>
       <c r="G96" s="3">
-        <v>-621500</v>
+        <v>-621200</v>
       </c>
       <c r="H96" s="3">
-        <v>-588900</v>
+        <v>-621200</v>
       </c>
       <c r="I96" s="3">
-        <v>-588900</v>
+        <v>-588600</v>
       </c>
       <c r="J96" s="3">
+        <v>-588600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-587400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-572100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-565400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-582600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-577300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-590900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-562100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-558200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-591100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-564600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-521900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-515300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-492700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-996700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-486300</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-480800</v>
       </c>
       <c r="Z96" s="3">
         <v>-480800</v>
       </c>
       <c r="AA96" s="3">
+        <v>-480800</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-465900</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-456300</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-455600</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-456300</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>323000</v>
+        <v>-555300</v>
       </c>
       <c r="E100" s="3">
-        <v>-519300</v>
+        <v>322800</v>
       </c>
       <c r="F100" s="3">
-        <v>-390400</v>
+        <v>-519000</v>
       </c>
       <c r="G100" s="3">
-        <v>-732600</v>
+        <v>-390200</v>
       </c>
       <c r="H100" s="3">
-        <v>-571100</v>
+        <v>-732200</v>
       </c>
       <c r="I100" s="3">
-        <v>-484400</v>
+        <v>-570800</v>
       </c>
       <c r="J100" s="3">
+        <v>-484200</v>
+      </c>
+      <c r="K100" s="3">
         <v>170400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1462400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1069200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1896500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-618700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2158000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1470400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1364400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1140800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-536900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-307200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-948300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-303800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1154800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>176900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1393200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>198000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1029200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>645300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-744400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>244300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>408900</v>
+        <v>-148800</v>
       </c>
       <c r="E102" s="3">
-        <v>-469600</v>
+        <v>408700</v>
       </c>
       <c r="F102" s="3">
-        <v>101500</v>
+        <v>-469400</v>
       </c>
       <c r="G102" s="3">
+        <v>101400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>303500</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-76300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1517000</v>
+      </c>
+      <c r="K102" s="3">
         <v>303700</v>
       </c>
-      <c r="H102" s="3">
-        <v>-76300</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-1517800</v>
-      </c>
-      <c r="J102" s="3">
-        <v>303700</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-550400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1789300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1122700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>101200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-888300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1989300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-640100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-106100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>337800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>187100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-305200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>316800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-176900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>432100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1007700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1058300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>35000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-263500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-414800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>597700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>BCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4491000</v>
+        <v>4420200</v>
       </c>
       <c r="E8" s="3">
-        <v>4482100</v>
+        <v>4410000</v>
       </c>
       <c r="F8" s="3">
-        <v>4767200</v>
+        <v>4401300</v>
       </c>
       <c r="G8" s="3">
-        <v>4459900</v>
+        <v>4681200</v>
       </c>
       <c r="H8" s="3">
-        <v>4339200</v>
+        <v>4379500</v>
       </c>
       <c r="I8" s="3">
-        <v>4331100</v>
+        <v>4261000</v>
       </c>
       <c r="J8" s="3">
+        <v>4253000</v>
+      </c>
+      <c r="K8" s="3">
         <v>4596900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4323000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4120900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4284400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4721400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4436500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4201500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4427700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4892400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4924600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4670100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4379500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4730200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4270800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8563700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4208100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4492100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4239800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4233100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4099300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>4380400</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>4153800</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>1359300</v>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="3">
-        <v>1446700</v>
+        <v>1334800</v>
       </c>
       <c r="F9" s="3">
-        <v>1745000</v>
+        <v>1420600</v>
       </c>
       <c r="G9" s="3">
-        <v>1378600</v>
+        <v>1713600</v>
       </c>
       <c r="H9" s="3">
-        <v>1254200</v>
+        <v>1353700</v>
       </c>
       <c r="I9" s="3">
-        <v>1279300</v>
+        <v>1231600</v>
       </c>
       <c r="J9" s="3">
+        <v>1256300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1600700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1275600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1203400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1308000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1590100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1370000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1154400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1298500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1664600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1473200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1352900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1337900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1632500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1297100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2582100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1287300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1511500</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>1248800</v>
       </c>
       <c r="AB9" s="3">
         <v>1248800</v>
       </c>
       <c r="AC9" s="3">
+        <v>1248800</v>
+      </c>
+      <c r="AD9" s="3">
         <v>1249900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1514900</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1236900</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>3131700</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>3035500</v>
+        <v>3075300</v>
       </c>
       <c r="F10" s="3">
-        <v>3022100</v>
+        <v>2980700</v>
       </c>
       <c r="G10" s="3">
-        <v>3081400</v>
+        <v>2967700</v>
       </c>
       <c r="H10" s="3">
-        <v>3085100</v>
+        <v>3025800</v>
       </c>
       <c r="I10" s="3">
-        <v>3051800</v>
+        <v>3029500</v>
       </c>
       <c r="J10" s="3">
+        <v>2996700</v>
+      </c>
+      <c r="K10" s="3">
         <v>2996200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3047400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2917500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2976400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3131400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3066600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3047100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3129200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3227800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3451300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3317200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3041600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3097600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2973600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5981700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2920800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2980600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2991000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2984300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2849400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2865500</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>2917000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,186 +1282,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>74800</v>
+        <v>7300</v>
       </c>
       <c r="E14" s="3">
-        <v>61400</v>
+        <v>73400</v>
       </c>
       <c r="F14" s="3">
-        <v>125100</v>
+        <v>60300</v>
       </c>
       <c r="G14" s="3">
-        <v>31800</v>
+        <v>122900</v>
       </c>
       <c r="H14" s="3">
-        <v>108100</v>
+        <v>31300</v>
       </c>
       <c r="I14" s="3">
-        <v>11100</v>
+        <v>106100</v>
       </c>
       <c r="J14" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K14" s="3">
         <v>68900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>123700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>108900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>49500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>39100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>369600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>30600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>96700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>19900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>46000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>21600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>192600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>40000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>34600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>96000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>29000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>29800</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>64500</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>15400</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>912100</v>
+        <v>895700</v>
       </c>
       <c r="E15" s="3">
-        <v>889200</v>
+        <v>895700</v>
       </c>
       <c r="F15" s="3">
-        <v>882500</v>
+        <v>873100</v>
       </c>
       <c r="G15" s="3">
-        <v>874400</v>
+        <v>866600</v>
       </c>
       <c r="H15" s="3">
-        <v>887700</v>
+        <v>858600</v>
       </c>
       <c r="I15" s="3">
-        <v>852200</v>
+        <v>871700</v>
       </c>
       <c r="J15" s="3">
+        <v>836800</v>
+      </c>
+      <c r="K15" s="3">
         <v>870700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>849600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>833900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>850700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>855000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>849400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>865600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>854100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>840500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>892900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>871500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>839100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>772500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>726000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>1505600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>746800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>737500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>719700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>727100</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>698300</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>679100</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3519700</v>
+        <v>3384200</v>
       </c>
       <c r="E17" s="3">
-        <v>3553700</v>
+        <v>3456200</v>
       </c>
       <c r="F17" s="3">
-        <v>3970600</v>
+        <v>3489600</v>
       </c>
       <c r="G17" s="3">
-        <v>3450100</v>
+        <v>3899000</v>
       </c>
       <c r="H17" s="3">
-        <v>3417500</v>
+        <v>3387900</v>
       </c>
       <c r="I17" s="3">
-        <v>3294600</v>
+        <v>3355900</v>
       </c>
       <c r="J17" s="3">
+        <v>3235200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3737300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3314800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3287800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3420200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3775100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3443700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3607400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3415000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3892900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3708300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3548000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3406500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3873200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3252700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6577900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3261100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3592300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3198600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3217200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3198100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3445500</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>3121300</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>971400</v>
+        <v>1036000</v>
       </c>
       <c r="E18" s="3">
-        <v>928400</v>
+        <v>953800</v>
       </c>
       <c r="F18" s="3">
-        <v>796600</v>
+        <v>911700</v>
       </c>
       <c r="G18" s="3">
-        <v>1009900</v>
+        <v>782300</v>
       </c>
       <c r="H18" s="3">
-        <v>921700</v>
+        <v>991600</v>
       </c>
       <c r="I18" s="3">
-        <v>1036500</v>
+        <v>905100</v>
       </c>
       <c r="J18" s="3">
+        <v>1017800</v>
+      </c>
+      <c r="K18" s="3">
         <v>859600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1008100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>833100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>864200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>946300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>992800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>594000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1012700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>999500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1216200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1122100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>973100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>857000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1018100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1985900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>947000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>899700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1041100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1015800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>901100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>934900</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>1032500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-209500</v>
+        <v>-74200</v>
       </c>
       <c r="E20" s="3">
-        <v>109600</v>
+        <v>-205700</v>
       </c>
       <c r="F20" s="3">
-        <v>23700</v>
+        <v>107600</v>
       </c>
       <c r="G20" s="3">
-        <v>-86600</v>
+        <v>23300</v>
       </c>
       <c r="H20" s="3">
-        <v>-66600</v>
+        <v>-85100</v>
       </c>
       <c r="I20" s="3">
-        <v>95500</v>
+        <v>-65400</v>
       </c>
       <c r="J20" s="3">
+        <v>93800</v>
+      </c>
+      <c r="K20" s="3">
         <v>15500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>22200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>62200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>42000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-28600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-15300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-71400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-33000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-26500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>38100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-40400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>68500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>14500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-40000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-121200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-55700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-43200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-11200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-31500</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1674000</v>
+        <v>1857500</v>
       </c>
       <c r="E21" s="3">
-        <v>1927200</v>
+        <v>1643800</v>
       </c>
       <c r="F21" s="3">
-        <v>1702800</v>
+        <v>1892400</v>
       </c>
       <c r="G21" s="3">
-        <v>1797600</v>
+        <v>1672100</v>
       </c>
       <c r="H21" s="3">
-        <v>1742800</v>
+        <v>1765200</v>
       </c>
       <c r="I21" s="3">
-        <v>1984200</v>
+        <v>1711400</v>
       </c>
       <c r="J21" s="3">
+        <v>1948400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1745800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1880000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1729200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1757000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1772700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1826900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1377200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1844900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1825200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2158800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1962700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1890700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1644000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1704100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3370200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1638100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1638800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1717600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1733300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1597200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1582600</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1673200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>265800</v>
+        <v>271200</v>
       </c>
       <c r="E22" s="3">
-        <v>254700</v>
+        <v>261000</v>
       </c>
       <c r="F22" s="3">
-        <v>236200</v>
+        <v>250100</v>
       </c>
       <c r="G22" s="3">
-        <v>220600</v>
+        <v>231900</v>
       </c>
       <c r="H22" s="3">
-        <v>199200</v>
+        <v>216600</v>
       </c>
       <c r="I22" s="3">
-        <v>192500</v>
+        <v>195600</v>
       </c>
       <c r="J22" s="3">
+        <v>189000</v>
+      </c>
+      <c r="K22" s="3">
         <v>203600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>201500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>193800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>212000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>213900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>219700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>217500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>222200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>232100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>221300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>216300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>197100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>185300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>365900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>180700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>179400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>180100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>177100</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>179800</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>172900</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>496000</v>
+        <v>690700</v>
       </c>
       <c r="E23" s="3">
-        <v>783300</v>
+        <v>487100</v>
       </c>
       <c r="F23" s="3">
-        <v>584100</v>
+        <v>769200</v>
       </c>
       <c r="G23" s="3">
-        <v>702600</v>
+        <v>573600</v>
       </c>
       <c r="H23" s="3">
-        <v>656000</v>
+        <v>689900</v>
       </c>
       <c r="I23" s="3">
-        <v>939500</v>
+        <v>644100</v>
       </c>
       <c r="J23" s="3">
+        <v>922600</v>
+      </c>
+      <c r="K23" s="3">
         <v>671500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>828900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>701500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>705800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>705700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>763600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>302900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>762300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>750800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1022200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>860400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>825200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>674300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>792800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1498800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>710600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>721900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>817900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>827600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>720600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>730600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>832800</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>202100</v>
+        <v>176700</v>
       </c>
       <c r="E24" s="3">
-        <v>199900</v>
+        <v>198500</v>
       </c>
       <c r="F24" s="3">
-        <v>164400</v>
+        <v>196300</v>
       </c>
       <c r="G24" s="3">
-        <v>131800</v>
+        <v>161400</v>
       </c>
       <c r="H24" s="3">
-        <v>171800</v>
+        <v>129400</v>
       </c>
       <c r="I24" s="3">
-        <v>248000</v>
+        <v>168700</v>
       </c>
       <c r="J24" s="3">
+        <v>243500</v>
+      </c>
+      <c r="K24" s="3">
         <v>184300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>226700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>170700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>190000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>147800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>75300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>190800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>191000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>264500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>218100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>223200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>185700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>162800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>396700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>176900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>202400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>185300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>221800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>192100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>193600</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>293900</v>
+        <v>514000</v>
       </c>
       <c r="E26" s="3">
-        <v>583400</v>
+        <v>288600</v>
       </c>
       <c r="F26" s="3">
-        <v>419800</v>
+        <v>572900</v>
       </c>
       <c r="G26" s="3">
-        <v>570800</v>
+        <v>412200</v>
       </c>
       <c r="H26" s="3">
-        <v>484200</v>
+        <v>560500</v>
       </c>
       <c r="I26" s="3">
-        <v>691500</v>
+        <v>475500</v>
       </c>
       <c r="J26" s="3">
+        <v>679000</v>
+      </c>
+      <c r="K26" s="3">
         <v>487200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>602200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>530800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>515800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>557900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>562700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>227600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>571500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>559800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>757800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>642300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>602000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>488600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>630000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1102100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>533700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>519500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>632600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>605800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>528500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>537000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>614600</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>243600</v>
+        <v>465300</v>
       </c>
       <c r="E27" s="3">
-        <v>536800</v>
+        <v>239200</v>
       </c>
       <c r="F27" s="3">
-        <v>390900</v>
+        <v>527100</v>
       </c>
       <c r="G27" s="3">
-        <v>529400</v>
+        <v>383900</v>
       </c>
       <c r="H27" s="3">
-        <v>441300</v>
+        <v>519800</v>
       </c>
       <c r="I27" s="3">
-        <v>649300</v>
+        <v>433300</v>
       </c>
       <c r="J27" s="3">
+        <v>637600</v>
+      </c>
+      <c r="K27" s="3">
         <v>462700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>560700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>495400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>482100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>524600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>525900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>182800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>529900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>520000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>712200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>597900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>562700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>461200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>591500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1027600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>497600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>488200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>597600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>569300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>493200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>504700</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2508,8 +2569,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2521,35 +2582,35 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>163300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>4600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>3900</v>
       </c>
       <c r="R29" s="3">
         <v>3900</v>
       </c>
       <c r="S29" s="3">
+        <v>3900</v>
+      </c>
+      <c r="T29" s="3">
         <v>6600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>5600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>6900</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>209500</v>
+        <v>74200</v>
       </c>
       <c r="E32" s="3">
-        <v>-109600</v>
+        <v>205700</v>
       </c>
       <c r="F32" s="3">
-        <v>-23700</v>
+        <v>-107600</v>
       </c>
       <c r="G32" s="3">
-        <v>86600</v>
+        <v>-23300</v>
       </c>
       <c r="H32" s="3">
-        <v>66600</v>
+        <v>85100</v>
       </c>
       <c r="I32" s="3">
-        <v>-95500</v>
+        <v>65400</v>
       </c>
       <c r="J32" s="3">
+        <v>-93800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-15500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-22200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-62200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-42000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>28600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>15300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>71400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>33000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>26500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-38100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>40400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-68500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-14500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>40000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>121200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>55700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>43200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>11200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>31500</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>243600</v>
+        <v>465300</v>
       </c>
       <c r="E33" s="3">
-        <v>536800</v>
+        <v>239200</v>
       </c>
       <c r="F33" s="3">
-        <v>390900</v>
+        <v>527100</v>
       </c>
       <c r="G33" s="3">
-        <v>529400</v>
+        <v>383900</v>
       </c>
       <c r="H33" s="3">
-        <v>441300</v>
+        <v>519800</v>
       </c>
       <c r="I33" s="3">
-        <v>649300</v>
+        <v>433300</v>
       </c>
       <c r="J33" s="3">
+        <v>637600</v>
+      </c>
+      <c r="K33" s="3">
         <v>462700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>560700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>495400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>482100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>687900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>530500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>186000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>533800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>523900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>718800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>603500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>569700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>461200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>591500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1027600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>497600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>488200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>597600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>569300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>493200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>504700</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>243600</v>
+        <v>465300</v>
       </c>
       <c r="E35" s="3">
-        <v>536800</v>
+        <v>239200</v>
       </c>
       <c r="F35" s="3">
-        <v>390900</v>
+        <v>527100</v>
       </c>
       <c r="G35" s="3">
-        <v>529400</v>
+        <v>383900</v>
       </c>
       <c r="H35" s="3">
-        <v>441300</v>
+        <v>519800</v>
       </c>
       <c r="I35" s="3">
-        <v>649300</v>
+        <v>433300</v>
       </c>
       <c r="J35" s="3">
+        <v>637600</v>
+      </c>
+      <c r="K35" s="3">
         <v>462700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>560700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>495400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>482100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>687900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>530500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>186000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>533800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>523900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>718800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>603500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>569700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>461200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>591500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1027600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>497600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>488200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>597600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>569300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>493200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>504700</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>666300</v>
+        <v>450000</v>
       </c>
       <c r="E41" s="3">
-        <v>548600</v>
+        <v>654300</v>
       </c>
       <c r="F41" s="3">
-        <v>110300</v>
+        <v>538700</v>
       </c>
       <c r="G41" s="3">
-        <v>542700</v>
+        <v>108300</v>
       </c>
       <c r="H41" s="3">
-        <v>441300</v>
+        <v>532900</v>
       </c>
       <c r="I41" s="3">
-        <v>77000</v>
+        <v>433300</v>
       </c>
       <c r="J41" s="3">
+        <v>75600</v>
+      </c>
+      <c r="K41" s="3">
         <v>153300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1605200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1267100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1957500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>173300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1287200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1214000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2103100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>113100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>800900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>867600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>514200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>323500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>600200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>293600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>902600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>465100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1472800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>414500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>391800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>655300</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1070100</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,631 +3536,655 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3090300</v>
+        <v>3084000</v>
       </c>
       <c r="E43" s="3">
-        <v>3144300</v>
+        <v>3034500</v>
       </c>
       <c r="F43" s="3">
-        <v>3386400</v>
+        <v>3087600</v>
       </c>
       <c r="G43" s="3">
-        <v>3111000</v>
+        <v>3325300</v>
       </c>
       <c r="H43" s="3">
-        <v>2929600</v>
+        <v>3054900</v>
       </c>
       <c r="I43" s="3">
-        <v>2913300</v>
+        <v>2876800</v>
       </c>
       <c r="J43" s="3">
+        <v>2860800</v>
+      </c>
+      <c r="K43" s="3">
         <v>3230200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2894800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2683900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2860800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3261400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2870300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2929400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3161400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3234900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3245700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>797000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>752900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>751200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>658400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2851600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2841000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2947800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2131400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2117300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2164900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2288600</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>2473700</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>485700</v>
+        <v>462400</v>
       </c>
       <c r="E44" s="3">
-        <v>498300</v>
+        <v>476900</v>
       </c>
       <c r="F44" s="3">
-        <v>485700</v>
+        <v>489300</v>
       </c>
       <c r="G44" s="3">
-        <v>464200</v>
+        <v>476900</v>
       </c>
       <c r="H44" s="3">
-        <v>418300</v>
+        <v>455800</v>
       </c>
       <c r="I44" s="3">
-        <v>419800</v>
+        <v>410800</v>
       </c>
       <c r="J44" s="3">
+        <v>412200</v>
+      </c>
+      <c r="K44" s="3">
         <v>356900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>309600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>302300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>344600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>339700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>325800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>349200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>382300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>332900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>400400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>386200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>363400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>328800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>356800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>328200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>333500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>282800</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>325200</v>
       </c>
       <c r="AB44" s="3">
         <v>325200</v>
       </c>
       <c r="AC44" s="3">
+        <v>325200</v>
+      </c>
+      <c r="AD44" s="3">
         <v>328800</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>309600</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>915100</v>
+        <v>901500</v>
       </c>
       <c r="E45" s="3">
-        <v>1115000</v>
+        <v>898600</v>
       </c>
       <c r="F45" s="3">
-        <v>820300</v>
+        <v>1094900</v>
       </c>
       <c r="G45" s="3">
-        <v>944000</v>
+        <v>805500</v>
       </c>
       <c r="H45" s="3">
-        <v>876600</v>
+        <v>926900</v>
       </c>
       <c r="I45" s="3">
-        <v>895800</v>
+        <v>860800</v>
       </c>
       <c r="J45" s="3">
+        <v>879700</v>
+      </c>
+      <c r="K45" s="3">
         <v>848500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>776300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>770200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>760600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>626700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1291800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1363100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>875300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>623000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>738700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>733500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>753700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>717700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>603900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>709900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>639900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>512800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>486000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>499400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>749800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>476300</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5157300</v>
+        <v>4897900</v>
       </c>
       <c r="E46" s="3">
-        <v>5306200</v>
+        <v>5064400</v>
       </c>
       <c r="F46" s="3">
-        <v>4802700</v>
+        <v>5210500</v>
       </c>
       <c r="G46" s="3">
-        <v>5061800</v>
+        <v>4716100</v>
       </c>
       <c r="H46" s="3">
-        <v>4665700</v>
+        <v>4970600</v>
       </c>
       <c r="I46" s="3">
-        <v>4305900</v>
+        <v>4581600</v>
       </c>
       <c r="J46" s="3">
+        <v>4228300</v>
+      </c>
+      <c r="K46" s="3">
         <v>4588800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5585900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5023500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5923500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4401100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5775100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5855700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6522200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4303800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5185700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5145900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4645100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4409000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4361600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4183300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4717000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4208500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4415400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3356400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3635300</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>3729800</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>4348200</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>418300</v>
+        <v>419500</v>
       </c>
       <c r="E47" s="3">
-        <v>684100</v>
+        <v>410800</v>
       </c>
       <c r="F47" s="3">
-        <v>1433300</v>
+        <v>671800</v>
       </c>
       <c r="G47" s="3">
-        <v>638200</v>
+        <v>1407500</v>
       </c>
       <c r="H47" s="3">
-        <v>644100</v>
+        <v>626700</v>
       </c>
       <c r="I47" s="3">
-        <v>667100</v>
+        <v>632500</v>
       </c>
       <c r="J47" s="3">
+        <v>655000</v>
+      </c>
+      <c r="K47" s="3">
         <v>680400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>690400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>690700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>736600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1417500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1296400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1216300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>927900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>959800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>995700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>964300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>985400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>992500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>879300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>916100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>935700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>926500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>616200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>657100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>675300</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>654500</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>793600</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22143400</v>
+        <v>21925200</v>
       </c>
       <c r="E48" s="3">
-        <v>21642900</v>
+        <v>21744100</v>
       </c>
       <c r="F48" s="3">
-        <v>21660000</v>
+        <v>21252700</v>
       </c>
       <c r="G48" s="3">
-        <v>21080300</v>
+        <v>21269400</v>
       </c>
       <c r="H48" s="3">
-        <v>20846300</v>
+        <v>20700200</v>
       </c>
       <c r="I48" s="3">
-        <v>20810000</v>
+        <v>20470400</v>
       </c>
       <c r="J48" s="3">
+        <v>20434800</v>
+      </c>
+      <c r="K48" s="3">
         <v>20904100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20611100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19927600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20551000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21288200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20743000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>21062400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>21535500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>21547000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>22698600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>21740600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>20997600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18908500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>17968100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>18362100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>18194200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>17882600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>17678000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>17552900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>18015000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>17166900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>16807300</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20298500</v>
+        <v>20003000</v>
       </c>
       <c r="E49" s="3">
-        <v>20114100</v>
+        <v>19932400</v>
       </c>
       <c r="F49" s="3">
-        <v>20055600</v>
+        <v>19751400</v>
       </c>
       <c r="G49" s="3">
-        <v>19888300</v>
+        <v>19694000</v>
       </c>
       <c r="H49" s="3">
-        <v>19748400</v>
+        <v>19529700</v>
       </c>
       <c r="I49" s="3">
-        <v>19655800</v>
+        <v>19392300</v>
       </c>
       <c r="J49" s="3">
+        <v>19301400</v>
+      </c>
+      <c r="K49" s="3">
         <v>19354500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17737000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17243000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17895200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18342500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18003000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>18400600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>18982500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>18726900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>20006600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>18957900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>18418700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>18161900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>17450700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>18048100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>18031600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>17627400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>17799300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>17711500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>18239300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>16099000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>15574300</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3843900</v>
+        <v>3915700</v>
       </c>
       <c r="E52" s="3">
-        <v>4059400</v>
+        <v>3774600</v>
       </c>
       <c r="F52" s="3">
-        <v>3376800</v>
+        <v>3986200</v>
       </c>
       <c r="G52" s="3">
-        <v>4090500</v>
+        <v>3315900</v>
       </c>
       <c r="H52" s="3">
-        <v>4462100</v>
+        <v>4016700</v>
       </c>
       <c r="I52" s="3">
-        <v>4413300</v>
+        <v>4381700</v>
       </c>
       <c r="J52" s="3">
+        <v>4333700</v>
+      </c>
+      <c r="K52" s="3">
         <v>3901700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4513300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3496000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3135600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1490200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1424400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1483900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3464400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1356600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1375400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>941300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1019200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>986400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1236800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1067500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>765600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>883400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>843200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>605800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>803600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>844300</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>695200</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>51861500</v>
+        <v>51161100</v>
       </c>
       <c r="E54" s="3">
-        <v>51806700</v>
+        <v>50926300</v>
       </c>
       <c r="F54" s="3">
-        <v>51328400</v>
+        <v>50872500</v>
       </c>
       <c r="G54" s="3">
-        <v>50759100</v>
+        <v>50402900</v>
       </c>
       <c r="H54" s="3">
-        <v>50366700</v>
+        <v>49843800</v>
       </c>
       <c r="I54" s="3">
-        <v>49852100</v>
+        <v>49458500</v>
       </c>
       <c r="J54" s="3">
+        <v>48953200</v>
+      </c>
+      <c r="K54" s="3">
         <v>49429400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>49137700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46380800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>48242000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>46939500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>47241900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>48019000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>51432600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>46894000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>50262000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>47750100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>46066000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>43458200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>41896600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>42577000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>42644000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>41528400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>41352000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>39883700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>41368400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>38494500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>38218700</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3218300</v>
+        <v>3165400</v>
       </c>
       <c r="E57" s="3">
-        <v>3020700</v>
+        <v>3160300</v>
       </c>
       <c r="F57" s="3">
-        <v>3865400</v>
+        <v>2966200</v>
       </c>
       <c r="G57" s="3">
-        <v>3407100</v>
+        <v>3795700</v>
       </c>
       <c r="H57" s="3">
-        <v>3145000</v>
+        <v>3345700</v>
       </c>
       <c r="I57" s="3">
-        <v>2843700</v>
+        <v>3088300</v>
       </c>
       <c r="J57" s="3">
+        <v>2792400</v>
+      </c>
+      <c r="K57" s="3">
         <v>3298300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3060000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2823500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2795500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3044700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2733800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2621800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2618100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3082800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3026000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2950000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2779100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2999500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2745400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2712300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2660400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2883800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3326600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3177800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3106700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>3323400</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>3092100</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4471000</v>
+        <v>3759400</v>
       </c>
       <c r="E58" s="3">
-        <v>4699100</v>
+        <v>4390400</v>
       </c>
       <c r="F58" s="3">
-        <v>3062900</v>
+        <v>4614300</v>
       </c>
       <c r="G58" s="3">
-        <v>3469300</v>
+        <v>3007600</v>
       </c>
       <c r="H58" s="3">
-        <v>2449900</v>
+        <v>3406800</v>
       </c>
       <c r="I58" s="3">
-        <v>2281800</v>
+        <v>2405700</v>
       </c>
       <c r="J58" s="3">
+        <v>2240600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1943400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1477000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1666300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2842800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1870200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2226300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2027800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3304300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3025900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3919700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4501200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4222500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3535300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3544100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4315000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4155400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3853500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4527000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4420600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>4844500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>3754300</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>3834200</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1632500</v>
+        <v>1632100</v>
       </c>
       <c r="E59" s="3">
-        <v>1652500</v>
+        <v>1603100</v>
       </c>
       <c r="F59" s="3">
-        <v>1562900</v>
+        <v>1622700</v>
       </c>
       <c r="G59" s="3">
-        <v>1573300</v>
+        <v>1534700</v>
       </c>
       <c r="H59" s="3">
-        <v>1622900</v>
+        <v>1544900</v>
       </c>
       <c r="I59" s="3">
-        <v>1512600</v>
+        <v>1593600</v>
       </c>
       <c r="J59" s="3">
+        <v>1485300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1505200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1391900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1551300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1515200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1484800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1615300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1734300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1468000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1514100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1657300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1543200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1454200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1402700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1301500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1289500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1228600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1249500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>804500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>743500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>672200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>687600</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>689900</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9321900</v>
+        <v>8556900</v>
       </c>
       <c r="E60" s="3">
-        <v>9372200</v>
+        <v>9153800</v>
       </c>
       <c r="F60" s="3">
-        <v>8491200</v>
+        <v>9203200</v>
       </c>
       <c r="G60" s="3">
-        <v>8449700</v>
+        <v>8338100</v>
       </c>
       <c r="H60" s="3">
-        <v>7217800</v>
+        <v>8297400</v>
       </c>
       <c r="I60" s="3">
-        <v>6638100</v>
+        <v>7087600</v>
       </c>
       <c r="J60" s="3">
+        <v>6518400</v>
+      </c>
+      <c r="K60" s="3">
         <v>6746900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5928900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6041100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7153400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6399700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6575500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6383900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7390500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7622800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8603100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8994400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8455700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7937400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7591000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8316800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8044300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7986900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>8658100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>8341800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>8623400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>7765300</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>7616200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20962600</v>
+        <v>21470100</v>
       </c>
       <c r="E61" s="3">
-        <v>20327300</v>
+        <v>20584600</v>
       </c>
       <c r="F61" s="3">
-        <v>20569400</v>
+        <v>19960800</v>
       </c>
       <c r="G61" s="3">
-        <v>19817200</v>
+        <v>20198500</v>
       </c>
       <c r="H61" s="3">
-        <v>19994900</v>
+        <v>19459900</v>
       </c>
       <c r="I61" s="3">
-        <v>19898700</v>
+        <v>19634400</v>
       </c>
       <c r="J61" s="3">
+        <v>19539800</v>
+      </c>
+      <c r="K61" s="3">
         <v>20025300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20051800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18385700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18745200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18497300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19100100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19637300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20029000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17476300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18608000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17406000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16948400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15039100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>14231500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>13826500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>14564200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>13555800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>13735100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>12973800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>13641500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>12731100</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>12679600</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5697100</v>
+        <v>5643800</v>
       </c>
       <c r="E62" s="3">
-        <v>5621600</v>
+        <v>5594300</v>
       </c>
       <c r="F62" s="3">
-        <v>5598600</v>
+        <v>5520200</v>
       </c>
       <c r="G62" s="3">
-        <v>5477900</v>
+        <v>5497600</v>
       </c>
       <c r="H62" s="3">
-        <v>5559400</v>
+        <v>5379100</v>
       </c>
       <c r="I62" s="3">
-        <v>5706000</v>
+        <v>5459100</v>
       </c>
       <c r="J62" s="3">
+        <v>5603100</v>
+      </c>
+      <c r="K62" s="3">
         <v>5672600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5743000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5487100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5549600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5539300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5405600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5410800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5624100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5103700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5422800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5123700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4851400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4735500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4709700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4832900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4756900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4636400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4340200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>4371500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>4358900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>4282100</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>5051900</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36224300</v>
+        <v>35915700</v>
       </c>
       <c r="E66" s="3">
-        <v>35567600</v>
+        <v>35571100</v>
       </c>
       <c r="F66" s="3">
-        <v>34908700</v>
+        <v>34926300</v>
       </c>
       <c r="G66" s="3">
-        <v>33996600</v>
+        <v>34279200</v>
       </c>
       <c r="H66" s="3">
-        <v>33014900</v>
+        <v>33383600</v>
       </c>
       <c r="I66" s="3">
-        <v>32478100</v>
+        <v>32419600</v>
       </c>
       <c r="J66" s="3">
+        <v>31892500</v>
+      </c>
+      <c r="K66" s="3">
         <v>32671300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31983700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30159700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31702800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30699300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31350200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31705100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33310500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30463300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>32912500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>31785000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>30493300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>27960200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>26767600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>27216400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>27597300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>26419500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>26975400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>25928300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>26866500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>25019700</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>25588200</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,79 +5846,82 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2799300</v>
+        <v>2720500</v>
       </c>
       <c r="E70" s="3">
-        <v>2833400</v>
+        <v>2748800</v>
       </c>
       <c r="F70" s="3">
-        <v>2865200</v>
+        <v>2782300</v>
       </c>
       <c r="G70" s="3">
-        <v>2876300</v>
+        <v>2813500</v>
       </c>
       <c r="H70" s="3">
-        <v>2876300</v>
+        <v>2824400</v>
       </c>
       <c r="I70" s="3">
-        <v>2876300</v>
+        <v>2824400</v>
       </c>
       <c r="J70" s="3">
+        <v>2824400</v>
+      </c>
+      <c r="K70" s="3">
         <v>2963700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2965200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>2895000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3005700</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3097300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>3069600</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>3142100</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>3143300</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>3121800</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>3319500</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>3175300</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>3082400</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>3047400</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>2909700</v>
-      </c>
-      <c r="X70" s="3">
-        <v>3014200</v>
       </c>
       <c r="Y70" s="3">
         <v>3014200</v>
       </c>
       <c r="Z70" s="3">
-        <v>2979800</v>
+        <v>3014200</v>
       </c>
       <c r="AA70" s="3">
         <v>2979800</v>
@@ -5762,7 +5930,7 @@
         <v>2979800</v>
       </c>
       <c r="AC70" s="3">
-        <v>3076000</v>
+        <v>2979800</v>
       </c>
       <c r="AD70" s="3">
         <v>3076000</v>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>3076000</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>3076000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3419000</v>
+        <v>-3428600</v>
       </c>
       <c r="E72" s="3">
-        <v>-2906700</v>
+        <v>-3357300</v>
       </c>
       <c r="F72" s="3">
-        <v>-2701600</v>
+        <v>-2854200</v>
       </c>
       <c r="G72" s="3">
-        <v>-2409100</v>
+        <v>-2652900</v>
       </c>
       <c r="H72" s="3">
-        <v>-2005600</v>
+        <v>-2365700</v>
       </c>
       <c r="I72" s="3">
-        <v>-2028600</v>
+        <v>-1969500</v>
       </c>
       <c r="J72" s="3">
+        <v>-1992000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2517200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2194100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2459700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2772900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3621900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3899900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4035100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2347300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3611400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3925600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4119700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3860600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3757500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3181400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3621700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-3908500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-3674900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-4370700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-4812100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-4858300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-4640100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-5443700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12837800</v>
+        <v>12524900</v>
       </c>
       <c r="E76" s="3">
-        <v>13405700</v>
+        <v>12606400</v>
       </c>
       <c r="F76" s="3">
-        <v>13554500</v>
+        <v>13164000</v>
       </c>
       <c r="G76" s="3">
-        <v>13886200</v>
+        <v>13310100</v>
       </c>
       <c r="H76" s="3">
-        <v>14475500</v>
+        <v>13635800</v>
       </c>
       <c r="I76" s="3">
-        <v>14497700</v>
+        <v>14214500</v>
       </c>
       <c r="J76" s="3">
+        <v>14236300</v>
+      </c>
+      <c r="K76" s="3">
         <v>13794400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14188900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13326100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13533500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13142900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12822100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13171900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14978800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13309000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14030000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12789800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12490300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12450700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12219300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12346500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12032600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12129100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11396800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10975600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>11425900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>10398800</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>9554500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>243600</v>
+        <v>465300</v>
       </c>
       <c r="E81" s="3">
-        <v>536800</v>
+        <v>239200</v>
       </c>
       <c r="F81" s="3">
-        <v>390900</v>
+        <v>527100</v>
       </c>
       <c r="G81" s="3">
-        <v>529400</v>
+        <v>383900</v>
       </c>
       <c r="H81" s="3">
-        <v>441300</v>
+        <v>519800</v>
       </c>
       <c r="I81" s="3">
-        <v>649300</v>
+        <v>433300</v>
       </c>
       <c r="J81" s="3">
+        <v>637600</v>
+      </c>
+      <c r="K81" s="3">
         <v>462700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>560700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>495400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>482100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>687900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>530500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>186000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>533800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>523900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>718800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>603500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>569700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>461200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>591500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1027600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>497600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>488200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>597600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>569300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>493200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>504700</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>577700</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>912100</v>
+        <v>895700</v>
       </c>
       <c r="E83" s="3">
-        <v>889200</v>
+        <v>895700</v>
       </c>
       <c r="F83" s="3">
-        <v>882500</v>
+        <v>873100</v>
       </c>
       <c r="G83" s="3">
-        <v>874400</v>
+        <v>866600</v>
       </c>
       <c r="H83" s="3">
-        <v>887700</v>
+        <v>858600</v>
       </c>
       <c r="I83" s="3">
+        <v>871700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>836800</v>
+      </c>
+      <c r="K83" s="3">
+        <v>870700</v>
+      </c>
+      <c r="L83" s="3">
+        <v>849600</v>
+      </c>
+      <c r="M83" s="3">
+        <v>833900</v>
+      </c>
+      <c r="N83" s="3">
+        <v>850700</v>
+      </c>
+      <c r="O83" s="3">
+        <v>855000</v>
+      </c>
+      <c r="P83" s="3">
+        <v>849400</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>854600</v>
+      </c>
+      <c r="R83" s="3">
+        <v>865100</v>
+      </c>
+      <c r="S83" s="3">
         <v>852200</v>
       </c>
-      <c r="J83" s="3">
-        <v>870700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>849600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>833900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>850700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>855000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>849400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>854600</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>865100</v>
-      </c>
-      <c r="R83" s="3">
-        <v>852200</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>904500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>881000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>849100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>772500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>726000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1505600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>746800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>736800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>724100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>729300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>696800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>679100</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1484400</v>
+        <v>1716500</v>
       </c>
       <c r="E89" s="3">
-        <v>893600</v>
+        <v>1457700</v>
       </c>
       <c r="F89" s="3">
-        <v>1485200</v>
+        <v>877500</v>
       </c>
       <c r="G89" s="3">
-        <v>1477800</v>
+        <v>1458400</v>
       </c>
       <c r="H89" s="3">
-        <v>1922700</v>
+        <v>1451100</v>
       </c>
       <c r="I89" s="3">
-        <v>1270500</v>
+        <v>1888000</v>
       </c>
       <c r="J89" s="3">
+        <v>1247500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1290400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1314100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1807300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1495700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1265100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1617600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2010500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1139100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1630300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1872000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1659800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1167000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1360800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1484600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2674700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1126200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1233900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1661800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1603000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1008700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1167700</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>1492700</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1318000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1307000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1086000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1635000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1320000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1219000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-959000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1033000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1582000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-872900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-759900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1156000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-790400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-701600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-614700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-899000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-839800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-770800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-654300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-741300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-734000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1495800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-700800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-818600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-774000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-775500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-654500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-762900</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-749800</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1078000</v>
+        <v>-855000</v>
       </c>
       <c r="E94" s="3">
-        <v>-807700</v>
+        <v>-1058500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1435600</v>
+        <v>-793200</v>
       </c>
       <c r="G94" s="3">
-        <v>-986200</v>
+        <v>-1409700</v>
       </c>
       <c r="H94" s="3">
-        <v>-887000</v>
+        <v>-968400</v>
       </c>
       <c r="I94" s="3">
-        <v>-775900</v>
+        <v>-871000</v>
       </c>
       <c r="J94" s="3">
+        <v>-761900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2329200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1177000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-893200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-775600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-491300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-897700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-740800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-620200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-906000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-837300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-785100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-672800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-717700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-864000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1696800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-871000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-848400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-801500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-538800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1917500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-838100</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-1139300</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,97 +7887,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-653000</v>
+        <v>-641900</v>
       </c>
       <c r="E96" s="3">
-        <v>-621200</v>
+        <v>-641200</v>
       </c>
       <c r="F96" s="3">
-        <v>-621200</v>
+        <v>-610000</v>
       </c>
       <c r="G96" s="3">
-        <v>-621200</v>
+        <v>-610000</v>
       </c>
       <c r="H96" s="3">
-        <v>-621200</v>
+        <v>-610000</v>
       </c>
       <c r="I96" s="3">
+        <v>-610000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-578000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-588600</v>
       </c>
-      <c r="J96" s="3">
-        <v>-588600</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-587400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-572100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-565400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-582600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-577300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-590900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-562100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-558200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-591100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-564600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-521900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-515300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-492700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-996700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-486300</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-480800</v>
       </c>
       <c r="AA96" s="3">
         <v>-480800</v>
       </c>
       <c r="AB96" s="3">
+        <v>-480800</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-465900</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-456300</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-455600</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-456300</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,97 +8253,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-555300</v>
+        <v>-775000</v>
       </c>
       <c r="E100" s="3">
-        <v>322800</v>
+        <v>-545300</v>
       </c>
       <c r="F100" s="3">
-        <v>-519000</v>
+        <v>317000</v>
       </c>
       <c r="G100" s="3">
-        <v>-390200</v>
+        <v>-509600</v>
       </c>
       <c r="H100" s="3">
-        <v>-732200</v>
+        <v>-383100</v>
       </c>
       <c r="I100" s="3">
-        <v>-570800</v>
+        <v>-719000</v>
       </c>
       <c r="J100" s="3">
+        <v>-560500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-484200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>170400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1462400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1069200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1896500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-618700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2158000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1470400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1364400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1140800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-536900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-307200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-948300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-303800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1154800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>176900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1393200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>198000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1029200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>645300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-744400</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>244300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-148800</v>
+        <v>86500</v>
       </c>
       <c r="E102" s="3">
-        <v>408700</v>
+        <v>-146100</v>
       </c>
       <c r="F102" s="3">
-        <v>-469400</v>
+        <v>401300</v>
       </c>
       <c r="G102" s="3">
-        <v>101400</v>
+        <v>-460900</v>
       </c>
       <c r="H102" s="3">
-        <v>303500</v>
+        <v>99600</v>
       </c>
       <c r="I102" s="3">
-        <v>-76300</v>
+        <v>298100</v>
       </c>
       <c r="J102" s="3">
+        <v>-74900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1517000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>303700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-550400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1789300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1122700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>101200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-888300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1989300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-640100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-106100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>337800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>187100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-305200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>316800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-176900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>432100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1007700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1058300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>35000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-263500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-414800</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>597700</v>
       </c>
     </row>
